--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{536E6B85-78BD-4FB1-93A1-CE36B1D36A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="8_{536E6B85-78BD-4FB1-93A1-CE36B1D36A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{170A5F94-6810-4BAB-B750-A7D18762AC43}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="7" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView minimized="1" xWindow="34095" yWindow="4950" windowWidth="14400" windowHeight="7275" firstSheet="1" activeTab="7" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="RQ2 (2)" sheetId="14" r:id="rId10"/>
     <sheet name="RQ3" sheetId="7" r:id="rId11"/>
     <sheet name="Allgemeine Infos" sheetId="12" r:id="rId12"/>
-    <sheet name="Quantitative Analyse" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="Tabelle1" sheetId="16" r:id="rId13"/>
+    <sheet name="Quantitative Analyse" sheetId="13" state="hidden" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Extraktion!$A$1:$V$8</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="1067">
   <si>
     <t>ID</t>
   </si>
@@ -3260,9 +3261,6 @@
     <t>P1 (Bajwa)</t>
   </si>
   <si>
-    <t>Nutzt Kubeflow, MLFlow. Service Mesh (Istio) für Traffic Management/Canary Rollouts.</t>
-  </si>
-  <si>
     <t>Prädiktive Modelle reduzieren Build Failures.</t>
   </si>
   <si>
@@ -3272,15 +3270,9 @@
     <t>Prädiktive Modelle (ML/AI) zur Fehlerprognose. RL für Rückrollmechanismen.</t>
   </si>
   <si>
-    <t>Edge AI / Serverless Deployment</t>
-  </si>
-  <si>
     <t>Serverless Inference Endpoints zur Latenzreduzierung.</t>
   </si>
   <si>
-    <t>Integrationskomplexität &amp; Vendor Lock-in</t>
-  </si>
-  <si>
     <t>KI/ML in CI/CD zur Reduzierung der Deployment-Zeit um 30%. Jenkins X Nutzung. Prädiktive Modelle (Fehlerprognose).</t>
   </si>
   <si>
@@ -3437,16 +3429,7 @@
     <t>Pipeline-Design zur Reduzierung manueller Fehler und Überstunden.</t>
   </si>
   <si>
-    <t>Recheninfrastruktur (CPU, RAM, GPU) ist der Engpass.</t>
-  </si>
-  <si>
     <t>GPU-basierte Pipelines werden zur Ressourcennutzung empfohlen.</t>
-  </si>
-  <si>
-    <t>MLOps umfasst Continuous Integration und Continuous Delivery (CI/CD).</t>
-  </si>
-  <si>
-    <t>Monitoring zur Erkennung von Model Drift und Performance Degradation.</t>
   </si>
   <si>
     <t>TensorFlow, PyTorch, Scikit-learn (implizit).</t>
@@ -4340,9 +4323,6 @@
     <t>Vorwärts aus P6</t>
   </si>
   <si>
-    <t>Vorwärts aus P7</t>
-  </si>
-  <si>
     <t>Alexander Keusch et al</t>
   </si>
   <si>
@@ -4350,12 +4330,6 @@
 Industrial IoT</t>
   </si>
   <si>
-    <t>MLOps Monitoring at Scale for Digital Platforms</t>
-  </si>
-  <si>
-    <t>Yu Jeffrey Hu et al.</t>
-  </si>
-  <si>
     <t>P21 (Puthraya)</t>
   </si>
   <si>
@@ -4365,22 +4339,10 @@
     <t>Novel Platform-Agnostic MLOps Framework (Abschnitt 1). Demonstration der Praktikabilität mit industriellen ML-Workflows (Abschnitt 1).</t>
   </si>
   <si>
-    <t>Novel Monitoring Framework (MLMA) (Abschnitt 3.1). Design Science Ansatz zur Lösung des Problems des Monitoring at Scale (Abschnitt Abstract).</t>
-  </si>
-  <si>
-    <t>Erweiterung der Anwendbarkeit auf andere Streaming-Daten-Anwendungen (z.B. E-Commerce, Finanzen, Smart Meters) (Abschnitt 7).</t>
-  </si>
-  <si>
     <t>MLOps Framework (Abstract). Fokus: Edge, Fog und Cloud Plattformen (Abstract). Architektur: Docker-fähige Geräte (Cloud Server, Fog Node, Edge Device). Datenmanagement über MQTT Broker.</t>
   </si>
   <si>
-    <t>MLOps Monitoring Agent (MLMA) Framework (Abschnitt Abstract). Fokus: Continuous monitoring (Abschnitt 2.2, 2.3). Streaming Data Plattformen (Abschnitt Abstract). Steuerung des Re-Training Prozesses.</t>
-  </si>
-  <si>
     <t>Experiment: Vergleich von Edge-, Fog- und Cloud-Deployments (Abstract). Metriken: Training Time, Prediction Time, CPU/Memory Utilization, Energy Consumption (Abschnitt 4.3). Ergebnisse: Cloud hat die niedrigste Gesamt-Vorhersagezeit, Edge den geringsten Energieverbrauch (Abschnitt 4.4.2, Abschnitt 4.4.1).</t>
-  </si>
-  <si>
-    <t>Experiment: Großer Skalentest auf einer Last-Mile-Delivery-Plattform (Abstract). Vergleich mit Benchmarks (Do nothing, Periodisch, On demand) (Abschnitt 4.3.3). Metriken: Forecast Accuracy (SMAPE), Labor Costs (USD/Monat), Computing Costs (CPU/CO2) (Abschnitt 5).</t>
   </si>
   <si>
     <t>Erforschung von Hybrid Deployments (z.B. Training in der Cloud, Inferencing am Edge) (Abschnitt 4.5). Automatische Orchestrierungsmechanismen (Abschnitt 5).</t>
@@ -4391,11 +4353,6 @@
  International Conference on Web Information Systems and Technologies (WEBIST 2024).</t>
   </si>
   <si>
-    <t>Autor: Yu Jeffrey Hu et al 
-2025
-Arxiv</t>
-  </si>
-  <si>
     <t>P19 (Kusch et al.)</t>
   </si>
   <si>
@@ -4547,9 +4504,6 @@
   </si>
   <si>
     <t>Deep Q-Network (DQN). Deep reinforcement learnin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Forest, XG Boost </t>
   </si>
   <si>
     <t>TensorFlow, PyTorch,Scikitlearn</t>
@@ -4623,9 +4577,6 @@
     <t>Security in AI-Enabled Cloud-Native Applications (Abschnitt 6). Automated Security Testing.</t>
   </si>
   <si>
-    <t>Proactive maintenance und Predictive bug detection (Abschnitt 3).</t>
-  </si>
-  <si>
     <t>Deployment auf Edge Services (Abbildung 1, Abschnitt 3.1).</t>
   </si>
   <si>
@@ -4656,9 +4607,6 @@
     <t>Computational Power: Extrem hoch für GenAI (Abschnitt Challenges/Need). Cost Control (Abschnitt Cost Control).</t>
   </si>
   <si>
-    <t>Automating resource allocation (Abstract).</t>
-  </si>
-  <si>
     <t>Operational Challenges: Resource Consumption (CPU, RAM, GPU) (Abschnitt C).</t>
   </si>
   <si>
@@ -4710,24 +4658,12 @@
     <t>Data Preparation, Data Size, Data Synchronization (Abschnitt Data Preparation, Data Size).</t>
   </si>
   <si>
-    <t>Data management (Abstract).</t>
-  </si>
-  <si>
     <t>Data management challenges (Abschnitt C).</t>
   </si>
   <si>
-    <t>Data platform/quality für Training (Abschnitt 3).</t>
-  </si>
-  <si>
     <t>Intrusion Detection System (IDS) zur Erkennung von Angriffen in Cloud-Umgebungen (Abstract, Abschnitt I).</t>
   </si>
   <si>
-    <t>Seamless integration of CI/CD pipelines (Abschnitt Benefits).</t>
-  </si>
-  <si>
-    <t>Seamless integration of CI/CD pipelines (Abschnitt 3).</t>
-  </si>
-  <si>
     <t>Test Optimization und Pipeline-Optimierung (Titel, Abstract).</t>
   </si>
   <si>
@@ -4740,9 +4676,6 @@
     <t>Reduzierung der Resource Utilization (Abschnitt V.3). Maximierung der Genauigkeit bei minimaler Ressourcenallokation (Abstract).</t>
   </si>
   <si>
-    <t>Dynamic Resource Allocation durch Microservices (Abschnitt 3).</t>
-  </si>
-  <si>
     <t>Cybersecurity Risk Modeling und Vulnerability Detection in CI/CD Pipelines (Titel, Abstract).</t>
   </si>
   <si>
@@ -4797,9 +4730,6 @@
     <t>Managing Data Security and Compliance (Abschnitt Challenges, Methodology).</t>
   </si>
   <si>
-    <t>Ensuring Trust and Compliance und Transparenz (Abschnitt 5.1).</t>
-  </si>
-  <si>
     <t>Interpretability and Explainability (XAI) als wichtigste Herausforderungen (Abschnitt 4.1, 305).</t>
   </si>
   <si>
@@ -4908,18 +4838,12 @@
     <t>Skill Requirements (AI/ML und DevOps Expertise) ist ein Challenge (Abschnitt 3.3).</t>
   </si>
   <si>
-    <t>Metrikdaten werden aus AWS CloudWatch gesammelt. Daten-Preprozessing wird benötigt.</t>
-  </si>
-  <si>
     <t>Data Collection, Feature Selection und Data Quality sind Herausforderungen (Abschnitt Gaps, 6). Umgang mit Imbalanced Data.</t>
   </si>
   <si>
     <t>Data Quality and Availability (Inconsistent Data Formats, Data Silos) (Abschnitt 3.1). Continuous Monitoring and Feedback Loops.</t>
   </si>
   <si>
-    <t>Automated re-training basierend auf Performance-Drift (Abstract, Abschnitt 1).</t>
-  </si>
-  <si>
     <t>Automated Data Pipelines (ETL/ELT) zur Beschleunigung von ML-Workflows (Abschnitt Data Engineering Innovations).</t>
   </si>
   <si>
@@ -4929,9 +4853,6 @@
     <t>Resource allocation und Dynamic cost optimization strategy (Abschnitt IV). Auto-scaling (Abschnitt III, IV).</t>
   </si>
   <si>
-    <t>Forecasting demand and supply zur Optimierung der Arbeitsplanung (Abschnitt 1). On-demand platform forecasting (Abschnitt 4.1).</t>
-  </si>
-  <si>
     <t>Dynamic resource adjust und Resource allocation (Abschnitt Resource Allocation). Cost Efficiency durch dynamisches Provisioning (Abstract, Tab. 3).</t>
   </si>
   <si>
@@ -4950,9 +4871,6 @@
     <t>Predictive maintenance ist ein industrieller AI Use Case (Abschnitt 2).</t>
   </si>
   <si>
-    <t>MLMA erkennt Forecast Deterioration und triggert Re-Training (Abstract, Abschnitt 1).</t>
-  </si>
-  <si>
     <t>Automated failovers und Self-healing Kubernetes clusters (Abschnitt Fault Tolerance).</t>
   </si>
   <si>
@@ -4977,9 +4895,6 @@
     <t>Energy Consumption ist ein gemessenes Kriterium (Abschnitt 4.3).</t>
   </si>
   <si>
-    <t>Ressourcenintensives periodisches Re-Training (Abschnitt 1). Hohe Labor and Computing Costs (Abschnitt 1, 5).</t>
-  </si>
-  <si>
     <t>Cost efficiency ist Ziel. Traditionelle Workflows benötigen excessive computational resources (Abschnitt One of the most significant).</t>
   </si>
   <si>
@@ -4992,9 +4907,6 @@
     <t>Low latency ist eine Anforderung (Abschnitt 1). Communication Latency wird gemessen (Abschnitt 4.3).</t>
   </si>
   <si>
-    <t>Umgang mit streaming data bei high velocity (Abschnitt 1). Monitoring at scale (Abstract, Abschnitt 1).</t>
-  </si>
-  <si>
     <t>Verbesserte Inference Latency (Abstract, Tabelle 2). Scalability ist fundamental (Abschnitt Improved Scalability).</t>
   </si>
   <si>
@@ -5004,12 +4916,6 @@
     <t>Privacy-aware approach und Security/Privacy (Abschnitt 1, 4.5).</t>
   </si>
   <si>
-    <t>Risk Management durch kontinuierliches Monitoring (Abschnitt 1). Interpretable Metrics für MLOps Engineer (Abschnitt 1, 3.4).</t>
-  </si>
-  <si>
-    <t>Security in cloud-native ML als Forschungsbedarf (Abschnitt Limitations).</t>
-  </si>
-  <si>
     <t>ML-driven security monitoring (Abschnitt 3.4). AI Governance Systeme (Abschnitt 4.3, Table 1). Risk Management and Governance (Abschnitt 6.4).</t>
   </si>
   <si>
@@ -5019,24 +4925,15 @@
     <t>Platform-agnostic framework notwendig wegen Gaps der Cloud Provider (Abschnitt 1).</t>
   </si>
   <si>
-    <t>Portability across IT systems ist entscheidend (Abschnitt 1).</t>
-  </si>
-  <si>
     <t>Microservices Architecture löst Integrationskomplexität.</t>
   </si>
   <si>
     <t>Operational Complexity Reduction um 41% notwendig (Abschnitt 6.3, Table 2).</t>
   </si>
   <si>
-    <t>Data privacy (Abschnitt III). Data management (Abschnitt IV).</t>
-  </si>
-  <si>
     <t>Data Management ist ein Design-Ziel des Frameworks (Abschnitt 1).</t>
   </si>
   <si>
-    <t>Umgang mit streaming data und frequent shifts in den Datenströmen (Abschnitt 1).</t>
-  </si>
-  <si>
     <t>Data Engineering Innovations (Titel). Decoupled storage and compute (Abschnitt Data Engineering).</t>
   </si>
   <si>
@@ -5044,9 +4941,6 @@
   </si>
   <si>
     <t>Edge AI technologies werden zur Latenzreduktion genutzt (Abschnitt Real-time Threat Detection).</t>
-  </si>
-  <si>
-    <t>ML-Pipeline-Komponenten: Data Preparation, Model Training, Model Serving (Seite 10 Challenges). Verbesserung von Cloud-Native-Systemen: Security (Bedrohungserkennung); Natural Language Processing (NLP) for Cluster Control (Seite 24 Natural); Smartere Orchestration/Scheduling.</t>
   </si>
   <si>
     <r>
@@ -6171,44 +6065,6 @@
         <family val="2"/>
       </rPr>
       <t>: Methoden Klassifikation (PCB Quality Inspection) und Aktionserkennung (Inertial Measurement Classification)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lernparadigmen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: Supervised Learning (implizit in Forecasting und Random Forest Model)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Algorithmen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: Random Forest (Tree/Ensemble Methods)
-</t>
     </r>
   </si>
   <si>
@@ -6885,400 +6741,6 @@
     <t>Monitoring/ AIOps, Kubernetes Orchestrierung, MLOps Tools</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Effizienz Steigerung und Zuverlässigkeit CI/CD Pipeline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Build Failure Prediction (Abschnitt 3.1); Test Case Prioritization (Abschnitt 3.2); Anomaly Detection (Real-time detection); Dynamische Resource Allocation; Adaptive Deployment Strategies und Rollbacks.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ressourcen &amp; Workload-Optimierung</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Großskalige (Large-Scale) AI-Basierte Prädiktive Modellierung (Definition 1.1). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CI/CD Automatisierung &amp; Pipeline Opitmierung</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Automated Code Generation (Abschnitt 5.1); AI-Driven CI/CD Pipelines (Abschnitt 5.2); AI-Based Testing Frameworks (Abschnitt 5.3); Predictive Bug Detection; Skalierung und Deployment von AI-Anwendungen (Abstract).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CI/CD Automaitiseung</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Automatisierung und Operationalisierung des gesamten ML-Lebenszyklus (MLOps) (Abstract). Workflow Orchestration; Kontinuierliches ML Training; Ziel: Überbrückung der Kluft zwischen Data Science, DevOps und Software Engineering (VII. Conceptualization).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CI/CD Automaitisierung</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Prototyping einer ML-Pipeline zur Entscheidungsfindung in der Fertigung (Manufacturing) (Abschnitt IV. Case Study). Implementierung einer Cloud-Native CI/CD-Pipeline-Plattform; Ziel: Verkürzung der Trainings- und Deployment-Zyklen (Abschnitt V. Conclusion).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sicherheit &amp; Bedrohungserkennung: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Erkennung von Angriffen/Intrusion Detection in Cloud-Plattformen (Abstract). Speziell: DDoS-Angriffe (Abschnitt A. Dataset description).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ressourcen &amp; Workload Optimierung:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Optimierung von AI-driven decision-making (Abstract). Einsatz von Batch und Real-Time Inference (Abstract).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ressourcen &amp; Workload Optimierung:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Training, Serving, Skalierung und Optimierung von Large Generative Models (LLMs) (Abstract). LoRA Inference (Abschnitt 4 Preliminary AI-Native Computing).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Automatisierung und Optimierung CI/CD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> durch 
-Build Fehler predicition
-Testing und Sicherheitsscan automatisieren (3B)
-Workload Optimization (3E)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sicherheits und Bedrohungserkennung:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Cybersecurity Risk Modeling (Titel), Test Optimization (Titel). Ziel: Maximierung der Ressourcenzuweisung, Minimierung von Sicherheitslücken (Abstract).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sicherheits und Bedrohungserkennung: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Real-time identification and mitigation von advanced cyber threats in der Cloud (Abstract). Ziel: Threat classification, Automated response (Abschnitt 3. Proposed Architecture).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Resourcen &amp; Workload Optimierung:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Intelligent Auto-Scaling (Titel). Ziel: Reduzierung von Betriebskosten und Verbesserung der Performance-Zuverlässigkeit durch proaktive Vorhersage (Abstract).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">CI/CD Automatisierung: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Predictive Failure Detection, Automated Rollbacks, und Adaptive Deployment Strategies (Abstract).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">CI/CD Automatisierung / Optimierung: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Predictive Analytics (Vorhersage von Downtimes) (Abschnitt 2.1 Predictive Analytics), Automated Testing (Abschnitt 2.2 Automated Testing), Anomaly Detection (Abschnitt 2.3 Anomaly Detection).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CI/CD Automatisierung / Optimierung:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verbesserung der Agilität, Zuverlässigkeit und Effizienz der CI/CD-Pipelines (Abstract). Speziell: Predictive Maintenance (Abschnitt 3.1 Predictive Maintenance), Automatisiertes Testing (Abschnitt 1.8 Unit Testing).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Resourcen &amp; Workload Optimierung</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Beschleunigung von ML-Workflows (Titel). Anwendungen: E-commerce personalization, Financial risk modeling, Healthcare diagnostics (Abschnitt Improved Scalability in Cloud-Native Environments).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Self-Healing/ Predictive Maintenance </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Abstract), Intelligent Resource Allocation (Abstract), Security Enhancement (Abschnitt 3.4 Security Enhancement) und automatisierte Anomalieerkennung (Abstract). Ziel: Reduzierung der manuellen Aufgaben (Abschnitt 3.1 Intelligent Automation).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Self-Healing / Predictive Maintenance:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Management und Skalierung von ML-Modellen in Produktionsumgebungen (Abstract). Demand Forecasting auf digitalen Plattformen (Abschnitt 4.1). Ziel: Produktivitätsgewinne für MLOps Engineers.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Edge AI / Serverless Deployment: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kostenminimierung (Cost Optimization) (Abschnitt III. Challenges in Deployment), Verbesserung der Inferenzleistung (Abschnitt I. Introduction), Skalierung von Large-Scale ML Models (Abstract).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Edge AI / Serverless Deployment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Entwicklung und Deployment von AI-Lösungen in industriellen Anwendungen (Abstract). Spezifische Workflows: PCB Quality Inspection (Klassifikation) und Inertial Measurement Classification (Aktionserkennung).</t>
-    </r>
-  </si>
-  <si>
     <t>P11 (Kathiresan)</t>
   </si>
   <si>
@@ -7303,9 +6765,6 @@
     <t>P18 (Alexander Kusch et al.)</t>
   </si>
   <si>
-    <t>P19  (Yu Jeffrey Hu et al.)</t>
-  </si>
-  <si>
     <t>P20 (Puthraya)</t>
   </si>
   <si>
@@ -7405,9 +6864,6 @@
     <t>DL, NN, Natural language processing (NLP)</t>
   </si>
   <si>
-    <t>NN</t>
-  </si>
-  <si>
     <t>CNN, LSTM, BERT</t>
   </si>
   <si>
@@ -7417,9 +6873,6 @@
     <t>Principal Component Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">AI Governance &amp; Security </t>
-  </si>
-  <si>
     <t>Data privacy, regulatory compliance (Abschnitt III, Security). Fedearted learning and  explainable AI (XAI) (Abschnitt Security).</t>
   </si>
   <si>
@@ -7427,12 +6880,6 @@
   </si>
   <si>
     <t>Ressourcenverbrauch &amp; Kosten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datenmanagement &amp; Qualität </t>
-  </si>
-  <si>
-    <t>Data Privacy and Security (2.7)</t>
   </si>
   <si>
     <t>Integration Complexity , Dependence on Vendor Support (2.7)</t>
@@ -7473,9 +6920,6 @@
     <t xml:space="preserve">Failure predicition, anomaly detetcion </t>
   </si>
   <si>
-    <t>Focus auf SL Algorithmen, Random Forest (Ensemle Methods)</t>
-  </si>
-  <si>
     <t>Hybrid clustering und k-emans with random forest (RF eigentlich SL)</t>
   </si>
   <si>
@@ -7483,6 +6927,224 @@
   </si>
   <si>
     <t>ML algorthmen allgemein (raus lassen)</t>
+  </si>
+  <si>
+    <t>Predicting potential failure, proactve maintenance (PM &amp; SH), enhancing resilience (SH)</t>
+  </si>
+  <si>
+    <t>Security Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ab 6.2.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hier werden viele Security  Tools genannt </t>
+  </si>
+  <si>
+    <t>Data management
+Real-time data availability
+High-throughput data ingestion
+Real-time processing (Abschnitt 2)</t>
+  </si>
+  <si>
+    <t>Optimierung von CI/CD-Pipelines</t>
+  </si>
+  <si>
+    <t>Resilienz, Self-Healing und Predictive Maintenance</t>
+  </si>
+  <si>
+    <t>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI Governance, Datenschutz und Compliance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrationskomplexität &amp; Abhängigkeiten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenqualität, Datenverfügbarkeit und Heterogenität </t>
+  </si>
+  <si>
+    <t>Monitoring/ Deteection Anomalie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error predicition, System resilience </t>
+  </si>
+  <si>
+    <t>Zukünftiger Use case (6.1)</t>
+  </si>
+  <si>
+    <t>Real-time predictions/inference</t>
+  </si>
+  <si>
+    <t>Monitoring potential errors and anomalies</t>
+  </si>
+  <si>
+    <t>Integration (ML Tools)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fault tolerance Disaster </t>
+  </si>
+  <si>
+    <t>Failure recovery (Abschnitt 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI driven IaC, intelligent Conitonous Delivery </t>
+  </si>
+  <si>
+    <t>P19  (Josson Paul Kalapparambath.)</t>
+  </si>
+  <si>
+    <t>Autor: Josson Paul Kalapparambath
+2025
+Journal</t>
+  </si>
+  <si>
+    <t>Vorwärts aus P10</t>
+  </si>
+  <si>
+    <t>Advancing Distributed Systems with Reinforcement Learning: A New Frontier in AI-Integrated Software Engineering</t>
+  </si>
+  <si>
+    <t>Josson Paul Kalapparambath et al.</t>
+  </si>
+  <si>
+    <t>P19  (Josson Paul Kalapparambath)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL </t>
+  </si>
+  <si>
+    <t>Deployment Vorhersage
+Automated testing/ Fehlererkennung</t>
+  </si>
+  <si>
+    <t>Resourcenallokation
+Lastverteilung</t>
+  </si>
+  <si>
+    <t>Anomalierkennung</t>
+  </si>
+  <si>
+    <t>Automatiserte Störungsbehebung
+Aufallvermeidung</t>
+  </si>
+  <si>
+    <t>Latenzoptimieierung</t>
+  </si>
+  <si>
+    <t>Hoher Rechenaufwand</t>
+  </si>
+  <si>
+    <t>Echtzeitanforderung</t>
+  </si>
+  <si>
+    <t>Transparenz/ Nachvollziehbarkeit
+Sicherheit Robustheit</t>
+  </si>
+  <si>
+    <t>Integrationskomplexität</t>
+  </si>
+  <si>
+    <t>Nur Info, dass es auf labeld daten basiert</t>
+  </si>
+  <si>
+    <t>Deep Q-Networks
+Proximal policy Optimization
+Q-learning</t>
+  </si>
+  <si>
+    <t>Traditional heuristic methods
+Rule-based systems</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lernparadigmen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Reinforcement Learnning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Algorithmen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Deep Q-Networks
+Proximal policy Optimization
+Q-learning
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Forschungsartikel 
+Die Evaluation basiert auf umfangreichen Experimenten und statistischen Analysen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empirischer Forschungsartike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrationskomplexität &amp; Kosten
+Zukünftig: entiwkclung effizienter algorithmen und federated learning und transfer learning </t>
+  </si>
+  <si>
+    <t>Resourcen &amp; Workload Optimierung</t>
+  </si>
+  <si>
+    <t>Verteilten Systemen (Distributed Systems)
+Rückgrat des modernen Computing und umfassen Bereiche wie Cloud Computing, IoT-Netzwerke und Big Data Analytics</t>
+  </si>
+  <si>
+    <t>Ressourcen &amp; Workload Optimierung</t>
+  </si>
+  <si>
+    <t>Sicherheits und Bedrohungserkennung:</t>
+  </si>
+  <si>
+    <t>TensorFlow, PyTorch</t>
+  </si>
+  <si>
+    <t>Defintionen</t>
+  </si>
+  <si>
+    <t>A Principles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiervon kann viel für den Grundlagen teil abgeleitet werden </t>
+  </si>
+  <si>
+    <t>Continuous Monitoring (Model Drift, Prediction Accuracy). Prometheus, Grafana (Abschnitt C9 Seite 7), IBM Watson (C8)</t>
+  </si>
+  <si>
+    <t>training infrastructure provides the foundational computation resources (C5)</t>
+  </si>
+  <si>
+    <t>Drift detetcion (C9 monitoring)
+Abschnitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resilienz, Self-healing und Predictive Maintenance </t>
   </si>
 </sst>
 </file>
@@ -8310,7 +7972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8559,18 +8221,6 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -8692,6 +8342,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -8761,11 +8441,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9607,11 +9290,11 @@
       <c r="D5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="141" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
     </row>
     <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
@@ -9641,11 +9324,11 @@
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="142" t="s">
         <v>284</v>
       </c>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
     </row>
     <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
@@ -9661,9 +9344,9 @@
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
     </row>
     <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -9972,8 +9655,8 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A5"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10023,59 +9706,59 @@
         <v>287</v>
       </c>
       <c r="G1" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="K1" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="L1" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>466</v>
-      </c>
-      <c r="K1" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>365</v>
-      </c>
       <c r="M1" s="50" t="s">
-        <v>1008</v>
+        <v>952</v>
       </c>
       <c r="N1" s="50" t="s">
-        <v>1009</v>
+        <v>953</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>1010</v>
+        <v>954</v>
       </c>
       <c r="P1" s="52" t="s">
-        <v>1011</v>
+        <v>955</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>1012</v>
+        <v>956</v>
       </c>
       <c r="R1" s="49" t="s">
-        <v>1013</v>
+        <v>957</v>
       </c>
       <c r="S1" s="50" t="s">
-        <v>1014</v>
+        <v>958</v>
       </c>
       <c r="T1" s="50" t="s">
-        <v>1015</v>
+        <v>959</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="V1" s="50" t="s">
-        <v>1017</v>
+        <v>960</v>
       </c>
       <c r="W1" s="51" t="s">
-        <v>1018</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="148" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -10091,23 +9774,23 @@
         <v>293</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="33" t="s">
-        <v>377</v>
+        <v>1059</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K2" s="33" t="s">
         <v>292</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M2" s="33" t="s">
         <v>258</v>
@@ -10120,82 +9803,80 @@
       </c>
       <c r="P2" s="33"/>
       <c r="Q2" s="33" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
       <c r="V2" s="33" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="W2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="143"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="40" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>294</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M3" s="32" t="s">
         <v>258</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="O3" s="32" t="s">
         <v>258</v>
       </c>
       <c r="P3" s="32"/>
       <c r="Q3" s="32" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="R3" s="32" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="S3" s="32"/>
       <c r="T3" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="U3" s="32" t="s">
-        <v>679</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="U3" s="32"/>
       <c r="V3" s="32" t="s">
         <v>295</v>
       </c>
       <c r="W3" s="35" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="143"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="40" t="s">
         <v>257</v>
       </c>
@@ -10210,22 +9891,22 @@
         <v>308</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>436</v>
+        <v>1063</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M4" s="32" t="s">
         <v>296</v>
@@ -10234,53 +9915,49 @@
         <v>258</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>387</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="P4" s="32"/>
       <c r="Q4" s="32" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="S4" s="32"/>
       <c r="T4" s="32" t="s">
-        <v>675</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>676</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="U4" s="32"/>
       <c r="V4" s="32"/>
       <c r="W4" s="35" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="143"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="42" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
       <c r="F5" s="36" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M5" s="36"/>
       <c r="N5" s="36" t="s">
@@ -10294,144 +9971,142 @@
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
       <c r="T5" s="36" t="s">
-        <v>682</v>
-      </c>
-      <c r="U5" s="36" t="s">
-        <v>680</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="U5" s="36"/>
       <c r="V5" s="36"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="50" x14ac:dyDescent="0.35">
-      <c r="A6" s="142" t="s">
-        <v>701</v>
+      <c r="A6" s="148" t="s">
+        <v>687</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>647</v>
-      </c>
-      <c r="C6" s="104" t="s">
+        <v>641</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>696</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>695</v>
+      </c>
+      <c r="H6" s="130" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I6" s="130"/>
+      <c r="J6" s="88" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K6" s="88" t="s">
+        <v>718</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="130" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N6" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="O6" s="88" t="s">
+        <v>719</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q6" s="88" t="s">
         <v>710</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>706</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>708</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>709</v>
-      </c>
-      <c r="H6" s="134" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I6" s="134"/>
-      <c r="J6" s="88" t="s">
-        <v>1067</v>
-      </c>
-      <c r="K6" s="88" t="s">
-        <v>733</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="134" t="s">
-        <v>1068</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="O6" s="88" t="s">
-        <v>734</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q6" s="88" t="s">
-        <v>725</v>
-      </c>
       <c r="R6" s="88" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>1019</v>
+        <v>962</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>727</v>
-      </c>
-      <c r="U6" s="88" t="s">
-        <v>1070</v>
+        <v>712</v>
+      </c>
+      <c r="U6" s="130" t="s">
+        <v>1048</v>
       </c>
       <c r="V6" s="88" t="s">
-        <v>730</v>
-      </c>
-      <c r="W6" s="94" t="s">
-        <v>731</v>
+        <v>715</v>
+      </c>
+      <c r="W6" s="90" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="143"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="40" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="89" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>707</v>
-      </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
+        <v>693</v>
+      </c>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="89" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="89" t="s">
-        <v>1071</v>
+        <v>1009</v>
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
       <c r="M7" s="89" t="s">
-        <v>1069</v>
+        <v>1008</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="32" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="Q7" s="89" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="R7" s="32"/>
       <c r="S7" s="89" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
       <c r="V7" s="89" t="s">
-        <v>1072</v>
-      </c>
-      <c r="W7" s="128" t="s">
-        <v>729</v>
+        <v>1010</v>
+      </c>
+      <c r="W7" s="124" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="145"/>
+      <c r="A8" s="151"/>
       <c r="B8" s="42" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -10439,219 +10114,221 @@
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="36" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="Q8" s="36"/>
       <c r="R8" s="36" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>1020</v>
+        <v>963</v>
       </c>
       <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
+      <c r="U8" s="36" t="s">
+        <v>1038</v>
+      </c>
       <c r="V8" s="36"/>
       <c r="W8" s="37"/>
     </row>
     <row r="9" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="143" t="s">
-        <v>702</v>
+      <c r="A9" s="149" t="s">
+        <v>688</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>1024</v>
+        <v>967</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>1027</v>
+        <v>970</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>1028</v>
+        <v>971</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>1029</v>
+        <v>972</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>1030</v>
+        <v>973</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>1041</v>
+        <v>984</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>1031</v>
+        <v>974</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="33" t="s">
-        <v>1037</v>
+        <v>980</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>1048</v>
+        <v>991</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S9" s="33" t="s">
-        <v>1049</v>
+        <v>992</v>
       </c>
       <c r="T9" s="33"/>
       <c r="U9" s="33" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="V9" s="33" t="s">
-        <v>1051</v>
+        <v>993</v>
       </c>
       <c r="W9" s="34"/>
     </row>
     <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="143"/>
-      <c r="B10" s="129" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C10" s="130" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131" t="s">
-        <v>703</v>
-      </c>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131" t="s">
-        <v>1032</v>
-      </c>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131" t="s">
-        <v>1043</v>
-      </c>
-      <c r="N10" s="131" t="s">
-        <v>1044</v>
-      </c>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131" t="s">
-        <v>1047</v>
-      </c>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="131" t="s">
-        <v>1025</v>
-      </c>
-      <c r="W10" s="133"/>
+      <c r="A10" s="149"/>
+      <c r="B10" s="125" t="s">
+        <v>964</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>968</v>
+      </c>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127" t="s">
+        <v>689</v>
+      </c>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127" t="s">
+        <v>975</v>
+      </c>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127" t="s">
+        <v>986</v>
+      </c>
+      <c r="N10" s="127" t="s">
+        <v>987</v>
+      </c>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127" t="s">
+        <v>968</v>
+      </c>
+      <c r="W10" s="129"/>
     </row>
     <row r="11" spans="1:23" ht="50" x14ac:dyDescent="0.35">
-      <c r="A11" s="143"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="40" t="s">
-        <v>1022</v>
+        <v>965</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32" t="s">
-        <v>1038</v>
+        <v>981</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>1039</v>
+        <v>982</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="32" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>1042</v>
+        <v>985</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>1033</v>
+        <v>976</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>1035</v>
+        <v>978</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>1036</v>
+        <v>979</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
       <c r="P11" s="32" t="s">
-        <v>1045</v>
+        <v>988</v>
       </c>
       <c r="Q11" s="32"/>
-      <c r="R11" s="126"/>
+      <c r="R11" s="122"/>
       <c r="S11" s="32" t="s">
         <v>258</v>
       </c>
       <c r="T11" s="32"/>
       <c r="U11" s="32" t="s">
-        <v>722</v>
+        <v>1050</v>
       </c>
       <c r="V11" s="32" t="s">
-        <v>1052</v>
+        <v>994</v>
       </c>
       <c r="W11" s="35" t="s">
-        <v>1073</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="145"/>
+      <c r="A12" s="151"/>
       <c r="B12" s="42" t="s">
-        <v>1023</v>
+        <v>966</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
-        <v>1026</v>
+        <v>969</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>1040</v>
+        <v>983</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="36" t="s">
-        <v>1040</v>
+        <v>983</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="36" t="s">
-        <v>1034</v>
+        <v>977</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36" t="s">
-        <v>1023</v>
+        <v>966</v>
       </c>
       <c r="O12" s="36"/>
       <c r="P12" s="36" t="s">
-        <v>1046</v>
+        <v>989</v>
       </c>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
@@ -10659,7 +10336,7 @@
       <c r="T12" s="36"/>
       <c r="U12" s="36"/>
       <c r="V12" s="36" t="s">
-        <v>1053</v>
+        <v>995</v>
       </c>
       <c r="W12" s="37"/>
     </row>
@@ -10668,7 +10345,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="76" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10763,10 +10440,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4371E66-F69A-4A6E-8DB3-95C6DD4CBD0F}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10779,200 +10456,242 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="62" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="152" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="155" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" s="158"/>
+      <c r="D2" s="162" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="153"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="161"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="154"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="163"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="66" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="C5" s="67" t="s">
+        <v>525</v>
+      </c>
+      <c r="D5" s="68" t="s">
         <v>498</v>
       </c>
-      <c r="C1" s="64" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="153"/>
+      <c r="B6" s="61" t="s">
         <v>499</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="C6" s="60" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" s="69" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="146" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="153"/>
+      <c r="B7" s="61" t="s">
         <v>501</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="C7" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="D7" s="69" t="s">
         <v>502</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="156" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="147"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="155"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="148"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="157"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="146" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>503</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>531</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="147"/>
-      <c r="B6" s="61" t="s">
-        <v>505</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>532</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="147"/>
-      <c r="B7" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>533</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>508</v>
-      </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="148"/>
+      <c r="A8" s="154"/>
       <c r="B8" s="70"/>
       <c r="C8" s="71"/>
       <c r="D8" s="72"/>
     </row>
     <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="152" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="66" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="154"/>
+      <c r="B10" s="91" t="s">
+        <v>506</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>507</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="97" t="s">
         <v>509</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C11" s="135" t="s">
+        <v>528</v>
+      </c>
+      <c r="D11" s="137" t="s">
         <v>510</v>
       </c>
-      <c r="D9" s="68" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="165"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="138"/>
+    </row>
+    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A13" s="152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="94" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="148"/>
-      <c r="B10" s="95" t="s">
+      <c r="C13" s="95" t="s">
         <v>512</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="D13" s="96" t="s">
         <v>513</v>
       </c>
-      <c r="D10" s="97" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="153"/>
+      <c r="B14" s="61" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="158" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="101" t="s">
+      <c r="C14" s="60" t="s">
         <v>515</v>
       </c>
-      <c r="C11" s="90" t="s">
-        <v>534</v>
-      </c>
-      <c r="D11" s="92" t="s">
+      <c r="D14" s="69" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="159"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="93"/>
-    </row>
-    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A13" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="98" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="153"/>
+      <c r="B15" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="C15" s="60" t="s">
         <v>517</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="D15" s="69" t="s">
         <v>518</v>
       </c>
-      <c r="D13" s="100" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A16" s="153"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="60" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="147"/>
-      <c r="B14" s="61" t="s">
+      <c r="D16" s="161" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="153"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="60" t="s">
         <v>520</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>521</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="147"/>
-      <c r="B15" s="61" t="s">
-        <v>480</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>523</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A16" s="147"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="60" t="s">
-        <v>525</v>
-      </c>
-      <c r="D16" s="155" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="147"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="60" t="s">
-        <v>526</v>
-      </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="161"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="148"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="70"/>
       <c r="C18" s="71" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>529</v>
-      </c>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C19" s="135" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D19" s="137" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="165"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="138"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="133" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D21" s="137" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="154"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="138"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -10989,6 +10708,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57C620F-2BE4-4B25-88E2-6ADC672F1B61}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="53.81640625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DE2F3E-D1CE-4B93-B6DF-12C89A233AC2}">
   <dimension ref="A1:R16"/>
   <sheetViews>
@@ -11013,80 +10749,80 @@
   <sheetData>
     <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="73" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="73" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="J1" s="73" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="K1" s="15"/>
       <c r="L1" s="58" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="M1" s="58" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="N1" s="58" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="O1" s="58" t="s">
+        <v>598</v>
+      </c>
+      <c r="P1" s="58" t="s">
         <v>604</v>
       </c>
-      <c r="P1" s="58" t="s">
-        <v>610</v>
-      </c>
       <c r="Q1" s="58" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="R1" s="58" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="74" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E2" s="74" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="F2" s="74" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="I2" s="74" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="J2" s="74" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="L2" s="78" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="M2" s="79">
         <v>13</v>
@@ -11109,31 +10845,31 @@
     </row>
     <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="H3" s="74" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="I3" s="74" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="J3" s="74" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="L3" s="78" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="M3" s="79">
         <v>10</v>
@@ -11156,31 +10892,31 @@
     </row>
     <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="74" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F4" s="74" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="H4" s="74" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="J4" s="74" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="L4" s="78" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="M4" s="79">
         <v>6</v>
@@ -11203,22 +10939,22 @@
     </row>
     <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="74" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="H5" s="74" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="I5" s="74" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="M5" s="79">
         <v>10</v>
@@ -11241,31 +10977,31 @@
     </row>
     <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="74" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="H6" s="74" t="s">
+        <v>637</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>622</v>
+      </c>
+      <c r="J6" s="74" t="s">
+        <v>680</v>
+      </c>
+      <c r="L6" s="78" t="s">
         <v>643</v>
-      </c>
-      <c r="I6" s="74" t="s">
-        <v>628</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>694</v>
-      </c>
-      <c r="L6" s="78" t="s">
-        <v>649</v>
       </c>
       <c r="M6" s="79">
         <v>7</v>
@@ -11288,22 +11024,22 @@
     </row>
     <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="74" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E7" s="74" t="s">
+        <v>614</v>
+      </c>
+      <c r="F7" s="74" t="s">
         <v>620</v>
       </c>
-      <c r="F7" s="74" t="s">
-        <v>626</v>
-      </c>
       <c r="L7" s="80" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M7" s="81">
         <v>4</v>
@@ -11326,158 +11062,158 @@
     </row>
     <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="74" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F8" s="74" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="74" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F9" s="74" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="H9" s="79">
         <v>2021</v>
       </c>
       <c r="I9" s="74" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="74" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="H10" s="79">
         <v>2022</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="74" t="s">
+        <v>605</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>606</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>624</v>
+      </c>
+      <c r="E11" s="77" t="s">
         <v>611</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="F11" s="77" t="s">
         <v>612</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>630</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>617</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>618</v>
       </c>
       <c r="H11" s="79">
         <v>2023</v>
       </c>
       <c r="I11" s="74" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F12" s="74" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="H12" s="79">
         <v>2024</v>
       </c>
       <c r="I12" s="74" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D13" s="74" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E13" s="74" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="F13" s="74" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="H13" s="79">
         <v>2025</v>
       </c>
       <c r="I13" s="74" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D14" s="74" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="D15" s="57" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F15" s="82" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D16" s="74" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -11489,8 +11225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF0DFC-ABCB-4798-A2A7-A9FED467CFB2}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11519,7 +11255,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>30</v>
@@ -11659,7 +11395,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>1065</v>
+        <v>1004</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>277</v>
@@ -11777,13 +11513,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -11791,13 +11527,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>658</v>
+        <v>1036</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>657</v>
+        <v>1035</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>654</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -12620,13 +12356,13 @@
       <c r="D1" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
     </row>
     <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
@@ -13058,13 +12794,13 @@
         <v>251</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="50" x14ac:dyDescent="0.35">
@@ -13072,13 +12808,13 @@
         <v>252</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13086,13 +12822,13 @@
         <v>264</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -13100,13 +12836,13 @@
         <v>253</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
@@ -13114,13 +12850,13 @@
         <v>254</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13134,7 +12870,7 @@
         <v>258</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -13158,392 +12894,392 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="119" t="s">
+        <v>890</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>891</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>892</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+    </row>
+    <row r="2" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+      <c r="A2" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>893</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>912</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>913</v>
+      </c>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+    </row>
+    <row r="3" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>894</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="D3" s="117" t="s">
+        <v>915</v>
+      </c>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+    </row>
+    <row r="4" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+      <c r="A4" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>895</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>916</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>917</v>
+      </c>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+    </row>
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.35">
+      <c r="A5" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>896</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>918</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>919</v>
+      </c>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+    </row>
+    <row r="6" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>897</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>921</v>
+      </c>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+    </row>
+    <row r="7" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+      <c r="A7" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>898</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>923</v>
+      </c>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+    </row>
+    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>903</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>932</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>933</v>
+      </c>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+    </row>
+    <row r="9" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+      <c r="A9" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>900</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>926</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="D9" s="117" t="s">
         <v>927</v>
       </c>
-      <c r="D1" s="124" t="s">
-        <v>928</v>
-      </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-    </row>
-    <row r="2" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A2" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>929</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>948</v>
-      </c>
-      <c r="D2" s="121" t="s">
-        <v>949</v>
-      </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-    </row>
-    <row r="3" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>950</v>
-      </c>
-      <c r="D3" s="121" t="s">
-        <v>951</v>
-      </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-    </row>
-    <row r="4" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A4" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>931</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>952</v>
-      </c>
-      <c r="D4" s="121" t="s">
-        <v>953</v>
-      </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.35">
-      <c r="A5" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>932</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>954</v>
-      </c>
-      <c r="D5" s="121" t="s">
-        <v>955</v>
-      </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-    </row>
-    <row r="6" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>933</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>956</v>
-      </c>
-      <c r="D6" s="121" t="s">
-        <v>957</v>
-      </c>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-    </row>
-    <row r="7" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="120" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>934</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>958</v>
-      </c>
-      <c r="D7" s="121" t="s">
-        <v>959</v>
-      </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-    </row>
-    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>939</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>968</v>
-      </c>
-      <c r="D8" s="121" t="s">
-        <v>969</v>
-      </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-    </row>
-    <row r="9" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A9" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>936</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>962</v>
-      </c>
-      <c r="D9" s="121" t="s">
-        <v>963</v>
-      </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
     </row>
     <row r="10" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="116" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>935</v>
+        <v>899</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>960</v>
-      </c>
-      <c r="D10" s="121" t="s">
-        <v>961</v>
-      </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
+        <v>924</v>
+      </c>
+      <c r="D10" s="117" t="s">
+        <v>925</v>
+      </c>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="116" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
     </row>
     <row r="12" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="116" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>941</v>
+        <v>905</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>972</v>
-      </c>
-      <c r="D12" s="121" t="s">
-        <v>973</v>
-      </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
+        <v>936</v>
+      </c>
+      <c r="D12" s="117" t="s">
+        <v>937</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="116" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>940</v>
+        <v>904</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>970</v>
-      </c>
-      <c r="D13" s="121" t="s">
-        <v>971</v>
-      </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
+        <v>934</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>935</v>
+      </c>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
     </row>
     <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="116" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>610</v>
-      </c>
-      <c r="D14" s="121" t="s">
-        <v>608</v>
-      </c>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
+        <v>604</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>602</v>
+      </c>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
     </row>
     <row r="15" spans="1:6" ht="25" x14ac:dyDescent="0.35">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="116" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>986</v>
-      </c>
-      <c r="D15" s="121" t="s">
-        <v>987</v>
-      </c>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
+        <v>950</v>
+      </c>
+      <c r="D15" s="117" t="s">
+        <v>951</v>
+      </c>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
     </row>
     <row r="16" spans="1:6" ht="100" x14ac:dyDescent="0.35">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="116" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>937</v>
+        <v>901</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>964</v>
-      </c>
-      <c r="D16" s="121" t="s">
-        <v>965</v>
-      </c>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
+        <v>928</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>929</v>
+      </c>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
     </row>
     <row r="17" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="116" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>906</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>938</v>
+      </c>
+      <c r="D17" s="117" t="s">
+        <v>939</v>
+      </c>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+    </row>
+    <row r="18" spans="1:6" ht="62.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>907</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>941</v>
+      </c>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+    </row>
+    <row r="19" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>908</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>942</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>974</v>
-      </c>
-      <c r="D17" s="121" t="s">
-        <v>975</v>
-      </c>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-    </row>
-    <row r="18" spans="1:6" ht="62.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="120" t="s">
+      <c r="D19" s="117" t="s">
+        <v>943</v>
+      </c>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+    </row>
+    <row r="20" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+      <c r="A20" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>943</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>976</v>
-      </c>
-      <c r="D18" s="121" t="s">
-        <v>977</v>
-      </c>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-    </row>
-    <row r="19" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="B20" s="32" t="s">
+        <v>909</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>944</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>978</v>
-      </c>
-      <c r="D19" s="121" t="s">
-        <v>979</v>
-      </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-    </row>
-    <row r="20" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A20" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="32" t="s">
+      <c r="D20" s="117" t="s">
         <v>945</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>980</v>
-      </c>
-      <c r="D20" s="121" t="s">
-        <v>981</v>
-      </c>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
     </row>
     <row r="21" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="116" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>910</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>946</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>982</v>
-      </c>
-      <c r="D21" s="121" t="s">
-        <v>983</v>
-      </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
+      <c r="D21" s="117" t="s">
+        <v>947</v>
+      </c>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
     </row>
     <row r="22" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="116" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>938</v>
+        <v>902</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>966</v>
-      </c>
-      <c r="D22" s="121" t="s">
-        <v>967</v>
-      </c>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
+        <v>930</v>
+      </c>
+      <c r="D22" s="117" t="s">
+        <v>931</v>
+      </c>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
     </row>
     <row r="23" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="116" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>947</v>
+        <v>911</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>984</v>
-      </c>
-      <c r="D23" s="121" t="s">
-        <v>985</v>
-      </c>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
+        <v>948</v>
+      </c>
+      <c r="D23" s="117" t="s">
+        <v>949</v>
+      </c>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
     </row>
     <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
     </row>
     <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="125" t="s">
+      <c r="A26" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="125" t="s">
+      <c r="A27" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="127"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="123"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -13559,7 +13295,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O2" sqref="O2"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13602,546 +13338,546 @@
         <v>287</v>
       </c>
       <c r="F1" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="J1" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="K1" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="H1" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>466</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1" s="50" t="s">
-        <v>365</v>
-      </c>
       <c r="L1" s="50" t="s">
-        <v>1008</v>
+        <v>952</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>1009</v>
+        <v>953</v>
       </c>
       <c r="N1" s="51" t="s">
-        <v>1010</v>
+        <v>954</v>
       </c>
       <c r="O1" s="52" t="s">
-        <v>1011</v>
+        <v>955</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>1012</v>
+        <v>956</v>
       </c>
       <c r="Q1" s="49" t="s">
-        <v>1013</v>
+        <v>957</v>
       </c>
       <c r="R1" s="50" t="s">
-        <v>1014</v>
+        <v>958</v>
       </c>
       <c r="S1" s="50" t="s">
-        <v>1015</v>
+        <v>959</v>
       </c>
       <c r="T1" s="50" t="s">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>1017</v>
+        <v>960</v>
       </c>
       <c r="V1" s="51" t="s">
-        <v>1018</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
-        <v>476</v>
-      </c>
-      <c r="B2" s="117" t="s">
-        <v>483</v>
-      </c>
-      <c r="C2" s="117" t="s">
-        <v>484</v>
-      </c>
-      <c r="D2" s="117" t="s">
-        <v>485</v>
-      </c>
-      <c r="E2" s="117" t="s">
-        <v>486</v>
+        <v>470</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="113" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" s="113" t="s">
+        <v>480</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G2" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>632</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K2" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="H2" s="32" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>1063</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>548</v>
-      </c>
       <c r="L2" s="32" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>651</v>
-      </c>
-      <c r="O2" s="103" t="s">
-        <v>1064</v>
+        <v>645</v>
+      </c>
+      <c r="O2" s="99" t="s">
+        <v>1003</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>670</v>
+        <v>1033</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="139" x14ac:dyDescent="0.35">
       <c r="A3" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="117" t="s">
-        <v>888</v>
-      </c>
-      <c r="C3" s="117" t="s">
-        <v>889</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>890</v>
-      </c>
-      <c r="E3" s="117" t="s">
-        <v>891</v>
+      <c r="B3" s="113" t="s">
+        <v>853</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>854</v>
+      </c>
+      <c r="D3" s="113" t="s">
+        <v>855</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>856</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>893</v>
+        <v>858</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>894</v>
+        <v>859</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>902</v>
+        <v>867</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>903</v>
+        <v>868</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>905</v>
+        <v>870</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>906</v>
+        <v>871</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>907</v>
-      </c>
-      <c r="O3" s="103" t="s">
-        <v>923</v>
+        <v>872</v>
+      </c>
+      <c r="O3" s="99" t="s">
+        <v>887</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>908</v>
+        <v>873</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>909</v>
+        <v>874</v>
       </c>
       <c r="R3" s="32" t="s">
-        <v>910</v>
+        <v>875</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>911</v>
+        <v>876</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>912</v>
+        <v>1051</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>913</v>
+        <v>877</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>914</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="126.5" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
-        <v>477</v>
-      </c>
-      <c r="B4" s="117" t="s">
-        <v>895</v>
-      </c>
-      <c r="C4" s="117" t="s">
-        <v>925</v>
-      </c>
-      <c r="D4" s="117" t="s">
-        <v>896</v>
-      </c>
-      <c r="E4" s="117" t="s">
-        <v>897</v>
+        <v>471</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>860</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>889</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>861</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>862</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>899</v>
+        <v>864</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>900</v>
+        <v>865</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>915</v>
+        <v>879</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>916</v>
+        <v>880</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>917</v>
+        <v>881</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>918</v>
+        <v>882</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>919</v>
-      </c>
-      <c r="O4" s="103" t="s">
-        <v>555</v>
+        <v>883</v>
+      </c>
+      <c r="O4" s="99" t="s">
+        <v>549</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>665</v>
+        <v>1056</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="V4" s="32" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="113" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="58" t="s">
-        <v>478</v>
-      </c>
-      <c r="B5" s="117" t="s">
-        <v>989</v>
-      </c>
-      <c r="C5" s="117" t="s">
-        <v>996</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>988</v>
-      </c>
-      <c r="E5" s="117" t="s">
-        <v>887</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>990</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>991</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>992</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>993</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>994</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>995</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>997</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>998</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>999</v>
-      </c>
-      <c r="O5" s="103" t="s">
-        <v>1000</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>1001</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>1002</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>1006</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>1007</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>1005</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>1003</v>
-      </c>
-      <c r="V5" s="32" t="s">
-        <v>1004</v>
+        <v>472</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="139" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G5" s="166" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H5" s="139" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I5" s="132" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="132" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K5" s="132" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L5" s="132" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M5" s="132" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N5" s="132" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O5" s="140" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P5" s="132" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Q5" s="132" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R5" s="132" t="s">
+        <v>1019</v>
+      </c>
+      <c r="S5" s="132" t="s">
+        <v>1019</v>
+      </c>
+      <c r="T5" s="132" t="s">
+        <v>1055</v>
+      </c>
+      <c r="U5" s="140" t="s">
+        <v>1019</v>
+      </c>
+      <c r="V5" s="140" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="139" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>866</v>
+      </c>
+      <c r="C6" s="113" t="s">
         <v>481</v>
       </c>
-      <c r="B6" s="117" t="s">
-        <v>901</v>
-      </c>
-      <c r="C6" s="117" t="s">
+      <c r="D6" s="113" t="s">
+        <v>486</v>
+      </c>
+      <c r="E6" s="113" t="s">
         <v>487</v>
       </c>
-      <c r="D6" s="117" t="s">
-        <v>492</v>
-      </c>
-      <c r="E6" s="117" t="s">
-        <v>493</v>
-      </c>
       <c r="F6" s="32" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>920</v>
+        <v>884</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>921</v>
+        <v>885</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>922</v>
+        <v>886</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="O6" s="103" t="s">
-        <v>560</v>
+        <v>553</v>
+      </c>
+      <c r="O6" s="99" t="s">
+        <v>554</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="R6" s="32" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>667</v>
+        <v>1052</v>
       </c>
       <c r="U6" s="32" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="V6" s="32" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A7" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="B7" s="117" t="s">
-        <v>924</v>
-      </c>
-      <c r="C7" s="117" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>888</v>
+      </c>
+      <c r="C7" s="113" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7" s="113" t="s">
+        <v>485</v>
+      </c>
+      <c r="E7" s="113" t="s">
         <v>488</v>
       </c>
-      <c r="D7" s="117" t="s">
-        <v>491</v>
-      </c>
-      <c r="E7" s="117" t="s">
-        <v>494</v>
-      </c>
       <c r="F7" s="32" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G7" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>551</v>
-      </c>
       <c r="L7" s="32" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="O7" s="103" t="s">
-        <v>566</v>
+        <v>559</v>
+      </c>
+      <c r="O7" s="99" t="s">
+        <v>560</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="R7" s="32" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="T7" s="32" t="s">
-        <v>662</v>
+        <v>1053</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="V7" s="32" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="100" x14ac:dyDescent="0.35">
       <c r="A8" s="58" t="s">
-        <v>480</v>
-      </c>
-      <c r="B8" s="117" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="D8" s="113" t="s">
+        <v>489</v>
+      </c>
+      <c r="E8" s="113" t="s">
         <v>490</v>
       </c>
-      <c r="C8" s="117" t="s">
-        <v>489</v>
-      </c>
-      <c r="D8" s="117" t="s">
-        <v>495</v>
-      </c>
-      <c r="E8" s="117" t="s">
-        <v>496</v>
-      </c>
       <c r="F8" s="32" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>571</v>
-      </c>
-      <c r="O8" s="103" t="s">
-        <v>572</v>
+        <v>565</v>
+      </c>
+      <c r="O8" s="99" t="s">
+        <v>566</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>663</v>
+        <v>1054</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="V8" s="32" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
       <c r="G13" s="75"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
       <c r="G14" s="75"/>
     </row>
     <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
       <c r="G15" s="75"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
@@ -14170,9 +13906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BB7B41-1A7E-470B-A91F-E7D0772651A4}">
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14202,11 +13938,11 @@
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="108" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="101" t="s">
         <v>250</v>
       </c>
       <c r="C1" s="49" t="s">
@@ -14222,125 +13958,117 @@
         <v>287</v>
       </c>
       <c r="G1" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="K1" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="L1" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>466</v>
-      </c>
-      <c r="K1" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>365</v>
-      </c>
       <c r="M1" s="50" t="s">
-        <v>1008</v>
+        <v>952</v>
       </c>
       <c r="N1" s="50" t="s">
-        <v>1009</v>
+        <v>953</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>1010</v>
+        <v>954</v>
       </c>
       <c r="P1" s="52" t="s">
-        <v>1011</v>
+        <v>955</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>1012</v>
+        <v>956</v>
       </c>
       <c r="R1" s="49" t="s">
-        <v>1013</v>
+        <v>957</v>
       </c>
       <c r="S1" s="50" t="s">
-        <v>1014</v>
+        <v>958</v>
       </c>
       <c r="T1" s="50" t="s">
-        <v>1015</v>
+        <v>959</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="V1" s="50" t="s">
+        <v>960</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>961</v>
+      </c>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+    </row>
+    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="105" t="s">
         <v>1017</v>
       </c>
-      <c r="W1" s="51" t="s">
-        <v>1018</v>
-      </c>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-    </row>
-    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="142" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>314</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>315</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="33" t="s">
-        <v>743</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>375</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="H2" s="130"/>
       <c r="I2" s="33" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
-        <v>779</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>780</v>
-      </c>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
       <c r="M2" s="33" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
-        <v>815</v>
+        <v>792</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>817</v>
-      </c>
-      <c r="S2" s="33"/>
+        <v>794</v>
+      </c>
+      <c r="S2" s="130"/>
       <c r="T2" s="33"/>
-      <c r="U2" s="33" t="s">
-        <v>844</v>
+      <c r="U2" s="130" t="s">
+        <v>1039</v>
       </c>
       <c r="V2" s="33" t="s">
-        <v>845</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>846</v>
+        <v>820</v>
+      </c>
+      <c r="W2" s="131" t="s">
+        <v>821</v>
       </c>
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
@@ -14355,68 +14083,66 @@
       <c r="AH2" s="8"/>
     </row>
     <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="143"/>
-      <c r="B3" s="110" t="s">
+      <c r="A3" s="149"/>
+      <c r="B3" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="114" t="s">
-        <v>741</v>
+      <c r="C3" s="110" t="s">
+        <v>726</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>290</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>373</v>
+        <v>1064</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="J3" s="32"/>
+        <v>370</v>
+      </c>
+      <c r="J3" s="99"/>
       <c r="K3" s="32" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>784</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>785</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="N3" s="99"/>
       <c r="O3" s="32" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
       <c r="R3" s="32" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="T3" s="32"/>
       <c r="U3" s="32" t="s">
-        <v>848</v>
+        <v>1040</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
       <c r="W3" s="35" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
@@ -14431,54 +14157,60 @@
       <c r="AH3" s="8"/>
     </row>
     <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A4" s="143"/>
-      <c r="B4" s="110" t="s">
+      <c r="A4" s="149"/>
+      <c r="B4" s="106" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="114"/>
+      <c r="C4" s="110" t="s">
+        <v>1023</v>
+      </c>
       <c r="D4" s="32" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>291</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>745</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="I4" s="32"/>
+        <v>730</v>
+      </c>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99" t="s">
+        <v>1027</v>
+      </c>
       <c r="J4" s="32" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
       <c r="M4" s="32" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="P4" s="99" t="s">
+        <v>706</v>
+      </c>
       <c r="Q4" s="32" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
+      <c r="U4" s="32" t="s">
+        <v>1041</v>
+      </c>
       <c r="V4" s="32"/>
       <c r="W4" s="35" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
@@ -14493,58 +14225,66 @@
       <c r="AH4" s="8"/>
     </row>
     <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="143"/>
-      <c r="B5" s="110" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="114" t="s">
-        <v>742</v>
-      </c>
-      <c r="D5" s="32"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="106" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>727</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>1024</v>
+      </c>
       <c r="E5" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="32" t="s">
-        <v>746</v>
-      </c>
-      <c r="H5" s="32"/>
+        <v>1012</v>
+      </c>
+      <c r="H5" s="99" t="s">
+        <v>1065</v>
+      </c>
       <c r="I5" s="32" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
+      <c r="K5" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L5" s="99" t="s">
+        <v>1030</v>
+      </c>
       <c r="M5" s="32"/>
       <c r="N5" s="32" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="R5" s="32" t="s">
+        <v>804</v>
+      </c>
+      <c r="S5" s="32" t="s">
         <v>827</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>853</v>
-      </c>
       <c r="T5" s="32" t="s">
-        <v>854</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>855</v>
+        <v>828</v>
+      </c>
+      <c r="U5" s="99" t="s">
+        <v>1042</v>
       </c>
       <c r="V5" s="32" t="s">
-        <v>856</v>
+        <v>829</v>
       </c>
       <c r="W5" s="35" t="s">
-        <v>857</v>
+        <v>830</v>
       </c>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
@@ -14559,52 +14299,60 @@
       <c r="AH5" s="8"/>
     </row>
     <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="143"/>
-      <c r="B6" s="111" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="115" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" s="116" t="s">
-        <v>886</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="A6" s="149"/>
+      <c r="B6" s="107" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>852</v>
+      </c>
+      <c r="E6" s="112" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F6" s="112"/>
       <c r="G6" s="36" t="s">
-        <v>747</v>
-      </c>
-      <c r="H6" s="36"/>
+        <v>731</v>
+      </c>
+      <c r="H6" s="112" t="s">
+        <v>1026</v>
+      </c>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="M6" s="36"/>
       <c r="N6" s="36" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
+      <c r="Q6" s="112" t="s">
+        <v>1031</v>
+      </c>
       <c r="R6" s="36" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>858</v>
+        <v>831</v>
       </c>
       <c r="T6" s="36" t="s">
-        <v>859</v>
-      </c>
-      <c r="U6" s="36"/>
+        <v>832</v>
+      </c>
+      <c r="U6" s="112" t="s">
+        <v>1043</v>
+      </c>
       <c r="V6" s="36" t="s">
-        <v>860</v>
+        <v>833</v>
       </c>
       <c r="W6" s="37" t="s">
-        <v>861</v>
+        <v>834</v>
       </c>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
@@ -14619,74 +14367,72 @@
       <c r="AH6" s="8"/>
     </row>
     <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="139" t="s">
-        <v>323</v>
-      </c>
-      <c r="B7" s="109" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C7" s="113" t="s">
-        <v>749</v>
+      <c r="A7" s="145" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>998</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>733</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>756</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>757</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="G7" s="130"/>
       <c r="H7" s="33" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="S7" s="33" t="s">
-        <v>862</v>
+        <v>835</v>
       </c>
       <c r="T7" s="33" t="s">
-        <v>863</v>
+        <v>836</v>
       </c>
       <c r="U7" s="33" t="s">
-        <v>864</v>
+        <v>1044</v>
       </c>
       <c r="V7" s="33" t="s">
-        <v>865</v>
+        <v>837</v>
       </c>
       <c r="W7" s="34" t="s">
-        <v>866</v>
+        <v>838</v>
       </c>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -14699,68 +14445,68 @@
       <c r="AH7" s="8"/>
     </row>
     <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
-      <c r="A8" s="140"/>
-      <c r="B8" s="110" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C8" s="114" t="s">
-        <v>750</v>
+      <c r="A8" s="146"/>
+      <c r="B8" s="106" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>734</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>800</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>801</v>
+        <v>778</v>
+      </c>
+      <c r="N8" s="99" t="s">
+        <v>779</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="Q8" s="32"/>
       <c r="R8" s="32" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>867</v>
+        <v>839</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>868</v>
-      </c>
-      <c r="U8" s="32" t="s">
-        <v>869</v>
+        <v>840</v>
+      </c>
+      <c r="U8" s="99" t="s">
+        <v>1045</v>
       </c>
       <c r="V8" s="32" t="s">
-        <v>870</v>
+        <v>841</v>
       </c>
       <c r="W8" s="35" t="s">
-        <v>871</v>
+        <v>842</v>
       </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -14773,68 +14519,64 @@
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="140"/>
-      <c r="B9" s="110" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C9" s="114" t="s">
+      <c r="A9" s="146"/>
+      <c r="B9" s="106" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>735</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>749</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>750</v>
+      </c>
+      <c r="G9" s="99" t="s">
         <v>751</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>765</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>766</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>767</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>768</v>
-      </c>
       <c r="H9" s="32" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>803</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>804</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="L9" s="99"/>
       <c r="M9" s="32" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="32" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>1056</v>
+        <v>997</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>1055</v>
+        <v>996</v>
       </c>
       <c r="T9" s="32" t="s">
-        <v>872</v>
+        <v>843</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>873</v>
-      </c>
-      <c r="V9" s="32" t="s">
-        <v>874</v>
-      </c>
+        <v>1046</v>
+      </c>
+      <c r="V9" s="32"/>
       <c r="W9" s="35" t="s">
-        <v>875</v>
+        <v>844</v>
       </c>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -14847,62 +14589,64 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A10" s="140"/>
-      <c r="B10" s="110" t="s">
-        <v>320</v>
-      </c>
-      <c r="C10" s="114" t="s">
-        <v>752</v>
+      <c r="A10" s="146"/>
+      <c r="B10" s="106" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>736</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32" t="s">
-        <v>771</v>
-      </c>
-      <c r="I10" s="32"/>
+        <v>754</v>
+      </c>
+      <c r="I10" s="99" t="s">
+        <v>1028</v>
+      </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
       <c r="R10" s="32" t="s">
-        <v>1060</v>
+        <v>999</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>876</v>
+        <v>845</v>
       </c>
       <c r="T10" s="32" t="s">
-        <v>877</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>878</v>
+        <v>846</v>
+      </c>
+      <c r="U10" s="99" t="s">
+        <v>1047</v>
       </c>
       <c r="V10" s="32" t="s">
-        <v>879</v>
+        <v>847</v>
       </c>
       <c r="W10" s="35" t="s">
-        <v>880</v>
+        <v>848</v>
       </c>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -14915,70 +14659,60 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="141"/>
-      <c r="B11" s="112" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C11" s="115" t="s">
-        <v>753</v>
+      <c r="A11" s="147"/>
+      <c r="B11" s="108" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C11" s="111" t="s">
+        <v>737</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>774</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>775</v>
+        <v>757</v>
+      </c>
+      <c r="G11" s="112" t="s">
+        <v>1016</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>776</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>777</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="I11" s="112"/>
       <c r="J11" s="36" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
       <c r="N11" s="36"/>
-      <c r="O11" s="36" t="s">
-        <v>841</v>
-      </c>
+      <c r="O11" s="36"/>
       <c r="P11" s="36" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>843</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>1059</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>881</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
       <c r="T11" s="36" t="s">
-        <v>882</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>883</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="U11" s="36"/>
       <c r="V11" s="36" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="W11" s="37" t="s">
-        <v>885</v>
+        <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
@@ -15210,62 +14944,62 @@
         <v>287</v>
       </c>
       <c r="G1" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="L1" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="M1" s="47" t="s">
         <v>363</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>364</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>366</v>
       </c>
       <c r="N1" s="47" t="s">
         <v>288</v>
       </c>
       <c r="O1" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="P1" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q1" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="R1" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="S1" s="47" t="s">
         <v>368</v>
-      </c>
-      <c r="Q1" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="R1" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="S1" s="47" t="s">
-        <v>371</v>
       </c>
       <c r="T1" s="47" t="s">
         <v>289</v>
       </c>
       <c r="U1" s="47" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="V1" s="47" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="W1" s="47" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="X1" s="48" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="148" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -15281,25 +15015,25 @@
         <v>293</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>258</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K2" s="33" t="s">
         <v>292</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M2" s="33" t="s">
         <v>258</v>
@@ -15314,7 +15048,7 @@
         <v>258</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="R2" s="33" t="s">
         <v>258</v>
@@ -15329,7 +15063,7 @@
         <v>258</v>
       </c>
       <c r="V2" s="33" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="W2" s="33" t="s">
         <v>292</v>
@@ -15339,39 +15073,39 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="143"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="40" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>294</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>258</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M3" s="32" t="s">
         <v>258</v>
@@ -15380,7 +15114,7 @@
         <v>258</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P3" s="32" t="s">
         <v>258</v>
@@ -15389,19 +15123,19 @@
         <v>258</v>
       </c>
       <c r="R3" s="32" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="T3" s="32" t="s">
         <v>258</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="W3" s="32" t="s">
         <v>295</v>
@@ -15411,7 +15145,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="143"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="40" t="s">
         <v>257</v>
       </c>
@@ -15428,25 +15162,25 @@
         <v>308</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N4" s="32" t="s">
         <v>296</v>
@@ -15455,37 +15189,37 @@
         <v>258</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>258</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="V4" s="32" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="W4" s="32" t="s">
         <v>258</v>
       </c>
       <c r="X4" s="35" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="144"/>
+      <c r="A5" s="150"/>
       <c r="B5" s="42" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>258</v>
@@ -15497,13 +15231,13 @@
         <v>258</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>258</v>
@@ -15512,10 +15246,10 @@
         <v>258</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M5" s="36" t="s">
         <v>258</v>
@@ -15542,10 +15276,10 @@
         <v>258</v>
       </c>
       <c r="U5" s="36" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="V5" s="36" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="W5" s="36" t="s">
         <v>258</v>
@@ -15556,10 +15290,10 @@
     </row>
     <row r="6" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A6" s="84" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>297</v>
@@ -15568,61 +15302,61 @@
         <v>298</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="N6" s="33" t="s">
         <v>258</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>258</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="V6" s="33" t="s">
         <v>258</v>
       </c>
       <c r="W6" s="33" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X6" s="34" t="s">
         <v>258</v>
@@ -15631,7 +15365,7 @@
     <row r="7" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A7" s="85"/>
       <c r="B7" s="40" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>258</v>
@@ -15643,10 +15377,10 @@
         <v>258</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>258</v>
@@ -15658,19 +15392,19 @@
         <v>258</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="N7" s="32" t="s">
         <v>258</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>258</v>
@@ -15703,31 +15437,31 @@
     <row r="8" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A8" s="85"/>
       <c r="B8" s="40" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>258</v>
@@ -15736,7 +15470,7 @@
         <v>258</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="N8" s="32" t="s">
         <v>258</v>
@@ -15745,25 +15479,25 @@
         <v>258</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="T8" s="32" t="s">
         <v>305</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="V8" s="32" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="W8" s="32" t="s">
         <v>258</v>
@@ -15793,43 +15527,43 @@
         <v>258</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="N9" s="32" t="s">
         <v>258</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="R9" s="32" t="s">
         <v>258</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T9" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="U9" s="32" t="s">
         <v>258</v>
@@ -15847,7 +15581,7 @@
     <row r="10" spans="1:24" ht="50" x14ac:dyDescent="0.35">
       <c r="A10" s="85"/>
       <c r="B10" s="40" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>258</v>
@@ -15856,7 +15590,7 @@
         <v>304</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>258</v>
@@ -15880,28 +15614,28 @@
         <v>258</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="R10" s="32" t="s">
         <v>258</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="T10" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="U10" s="32" t="s">
         <v>258</v>
@@ -15919,19 +15653,19 @@
     <row r="11" spans="1:24" ht="75" x14ac:dyDescent="0.35">
       <c r="A11" s="85"/>
       <c r="B11" s="40" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>258</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>258</v>
@@ -15943,7 +15677,7 @@
         <v>258</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>258</v>
@@ -15952,25 +15686,25 @@
         <v>258</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N11" s="32" t="s">
         <v>258</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>258</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="R11" s="32" t="s">
         <v>258</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="T11" s="32" t="s">
         <v>258</v>
@@ -15979,10 +15713,10 @@
         <v>258</v>
       </c>
       <c r="V11" s="32" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="W11" s="32" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="X11" s="35" t="s">
         <v>258</v>
@@ -15994,7 +15728,7 @@
         <v>260</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>310</v>
@@ -16003,13 +15737,13 @@
         <v>258</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>258</v>
@@ -16018,13 +15752,13 @@
         <v>258</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="N12" s="36" t="s">
         <v>258</v>
@@ -16033,19 +15767,19 @@
         <v>258</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="S12" s="36" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="T12" s="36" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="U12" s="36" t="s">
         <v>258</v>
@@ -16054,10 +15788,10 @@
         <v>258</v>
       </c>
       <c r="W12" s="36" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="X12" s="37" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="8_{536E6B85-78BD-4FB1-93A1-CE36B1D36A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{170A5F94-6810-4BAB-B750-A7D18762AC43}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76097CDE-4B74-4049-B171-ECFF49732868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="34095" yWindow="4950" windowWidth="14400" windowHeight="7275" firstSheet="1" activeTab="7" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="9" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1067">
   <si>
     <t>ID</t>
   </si>
@@ -7972,18 +7972,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8019,42 +8015,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8123,13 +8108,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8202,7 +8184,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8212,7 +8193,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8248,9 +8229,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -8285,13 +8263,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8339,37 +8311,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8378,7 +8323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8405,13 +8350,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8441,13 +8392,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9214,14 +9159,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
-    <col min="3" max="3" width="57.26953125" customWidth="1"/>
-    <col min="4" max="4" width="46" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -9231,11 +9176,11 @@
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9245,11 +9190,11 @@
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9259,58 +9204,58 @@
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="141" t="s">
+      <c r="G5" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-    </row>
-    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27" t="s">
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+    </row>
+    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -9320,17 +9265,17 @@
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="2" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G7" s="142" t="s">
+      <c r="G7" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-    </row>
-    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+    </row>
+    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -9340,15 +9285,15 @@
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="2" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-    </row>
-    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+    </row>
+    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -9358,12 +9303,12 @@
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="2" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -9373,12 +9318,12 @@
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D10" s="2" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -9388,12 +9333,12 @@
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="2" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -9403,12 +9348,12 @@
       <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="2" t="str">
         <f>"Vorwärts aus " &amp; A3</f>
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -9418,12 +9363,12 @@
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D13" s="2" t="str">
         <f>"Rückwärts aus " &amp; A3</f>
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -9433,12 +9378,12 @@
       <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="3" t="str">
+      <c r="D14" s="2" t="str">
         <f>"Rückwärts aus " &amp; A3</f>
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -9448,132 +9393,132 @@
       <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="D15" s="2" t="str">
         <f>"Rückwärts aus " &amp; A3</f>
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="26" t="str">
+      <c r="D16" s="20" t="str">
         <f>"Vorwärts aus " &amp; A4</f>
         <v>Vorwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="24" t="str">
+      <c r="D17" s="18" t="str">
         <f>"Vorwärts aus " &amp; A5</f>
         <v>Vorwärts aus P4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="24" t="str">
+      <c r="D18" s="18" t="str">
         <f>"Rückwärts aus " &amp; A5</f>
         <v>Rückwärts aus P4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="28" t="str">
+      <c r="D19" s="22" t="str">
         <f>"Vorwärts aus " &amp; A6</f>
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="28" t="str">
+      <c r="D20" s="22" t="str">
         <f>"Vorwärts aus " &amp; A6</f>
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="28" t="str">
+      <c r="D21" s="22" t="str">
         <f>"Rückwärts aus " &amp; A6</f>
         <v>Rückwärts aus P5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="24" t="str">
+      <c r="D22" s="18" t="str">
         <f>"Rückwärts aus " &amp; A17</f>
         <v>Rückwärts aus P16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="28" t="str">
+      <c r="D23" s="22" t="str">
         <f>"Rückwärts aus " &amp; A19</f>
         <v>Rückwärts aus P18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -9583,12 +9528,12 @@
       <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="3" t="str">
+      <c r="D24" s="2" t="str">
         <f>"Vorwärts aus " &amp; A7</f>
         <v>Vorwärts aus P6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -9598,12 +9543,12 @@
       <c r="C25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="D25" s="2" t="str">
         <f>"Vorwärts aus " &amp; A9</f>
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -9613,29 +9558,29 @@
       <c r="C26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="3" t="str">
+      <c r="D26" s="2" t="str">
         <f>"Vorwärts aus " &amp; A9</f>
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -9654,709 +9599,689 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABEDA27-D2D0-4564-B71F-CD6FB3721653}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="19" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.81640625" customWidth="1"/>
+    <col min="19" max="19" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:23" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="43" t="s">
         <v>360</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="42" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="43" t="s">
         <v>952</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="43" t="s">
         <v>953</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="44" t="s">
         <v>954</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="45" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="38" t="s">
         <v>956</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="42" t="s">
         <v>957</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="43" t="s">
         <v>958</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="43" t="s">
         <v>1037</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="43" t="s">
         <v>960</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="44" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="148" t="s">
+    <row r="2" spans="1:23" ht="28" x14ac:dyDescent="0.2">
+      <c r="A2" s="127" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>1059</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="128"/>
+      <c r="B3" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25" t="s">
+        <v>660</v>
+      </c>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="70" x14ac:dyDescent="0.2">
+      <c r="A4" s="128"/>
+      <c r="B4" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="L4" s="145" t="s">
+        <v>379</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="128"/>
+      <c r="B5" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29" t="s">
+        <v>668</v>
+      </c>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="30"/>
+    </row>
+    <row r="6" spans="1:23" ht="56" x14ac:dyDescent="0.2">
+      <c r="A6" s="127" t="s">
+        <v>687</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>696</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>695</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="79" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K6" s="79" t="s">
+        <v>718</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="O6" s="79" t="s">
+        <v>719</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q6" s="79" t="s">
+        <v>710</v>
+      </c>
+      <c r="R6" s="79" t="s">
+        <v>710</v>
+      </c>
+      <c r="S6" s="79" t="s">
+        <v>962</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>1048</v>
+      </c>
+      <c r="V6" s="79" t="s">
+        <v>715</v>
+      </c>
+      <c r="W6" s="81" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="56" x14ac:dyDescent="0.2">
+      <c r="A7" s="128"/>
+      <c r="B7" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="80" t="s">
+        <v>698</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>693</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="80" t="s">
+        <v>701</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="80" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="80" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>706</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q7" s="80" t="s">
+        <v>711</v>
+      </c>
+      <c r="R7" s="25"/>
+      <c r="S7" s="80" t="s">
+        <v>713</v>
+      </c>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="80" t="s">
+        <v>1010</v>
+      </c>
+      <c r="W7" s="112" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="130"/>
+      <c r="B8" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>697</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>963</v>
+      </c>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29" t="s">
+        <v>1038</v>
+      </c>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30"/>
+    </row>
+    <row r="9" spans="1:23" ht="42" x14ac:dyDescent="0.2">
+      <c r="A9" s="128" t="s">
+        <v>688</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>971</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>972</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>973</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>984</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>974</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>991</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="S9" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>993</v>
+      </c>
+      <c r="W9" s="27"/>
+    </row>
+    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="128"/>
+      <c r="B10" s="113" t="s">
+        <v>964</v>
+      </c>
+      <c r="C10" s="114" t="s">
+        <v>968</v>
+      </c>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115" t="s">
+        <v>689</v>
+      </c>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115" t="s">
+        <v>975</v>
+      </c>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115" t="s">
+        <v>986</v>
+      </c>
+      <c r="N10" s="115" t="s">
+        <v>987</v>
+      </c>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115" t="s">
+        <v>968</v>
+      </c>
+      <c r="W10" s="117"/>
+    </row>
+    <row r="11" spans="1:23" ht="42" x14ac:dyDescent="0.2">
+      <c r="A11" s="128"/>
+      <c r="B11" s="33" t="s">
+        <v>965</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>982</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>690</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>976</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>979</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="N2" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33" t="s">
-        <v>708</v>
-      </c>
-      <c r="W2" s="34"/>
-    </row>
-    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="149"/>
-      <c r="B3" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>721</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>722</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32" t="s">
-        <v>660</v>
-      </c>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="W3" s="35" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="149"/>
-      <c r="B4" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32" t="s">
-        <v>661</v>
-      </c>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="35" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="149"/>
-      <c r="B5" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36" t="s">
-        <v>668</v>
-      </c>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="37"/>
-    </row>
-    <row r="6" spans="1:23" ht="50" x14ac:dyDescent="0.35">
-      <c r="A6" s="148" t="s">
-        <v>687</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="C6" s="100" t="s">
-        <v>691</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>696</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>695</v>
-      </c>
-      <c r="H6" s="130" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I6" s="130"/>
-      <c r="J6" s="88" t="s">
-        <v>1006</v>
-      </c>
-      <c r="K6" s="88" t="s">
-        <v>718</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="130" t="s">
-        <v>1007</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>705</v>
-      </c>
-      <c r="O6" s="88" t="s">
-        <v>719</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q6" s="88" t="s">
-        <v>710</v>
-      </c>
-      <c r="R6" s="88" t="s">
-        <v>710</v>
-      </c>
-      <c r="S6" s="88" t="s">
-        <v>962</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="U6" s="130" t="s">
-        <v>1048</v>
-      </c>
-      <c r="V6" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="W6" s="90" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="149"/>
-      <c r="B7" s="40" t="s">
-        <v>642</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="89" t="s">
-        <v>698</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>693</v>
-      </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="89" t="s">
-        <v>701</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="89" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="89" t="s">
-        <v>1008</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32" t="s">
-        <v>703</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>711</v>
-      </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="89" t="s">
-        <v>713</v>
-      </c>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="89" t="s">
-        <v>1010</v>
-      </c>
-      <c r="W7" s="124" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="151"/>
-      <c r="B8" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>697</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>699</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36" t="s">
-        <v>702</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36" t="s">
-        <v>720</v>
-      </c>
-      <c r="S8" s="36" t="s">
-        <v>963</v>
-      </c>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36" t="s">
-        <v>1038</v>
-      </c>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37"/>
-    </row>
-    <row r="9" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="149" t="s">
-        <v>688</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>967</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>970</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>972</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>973</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>974</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33" t="s">
-        <v>980</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>991</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="R9" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="S9" s="33" t="s">
-        <v>992</v>
-      </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33" t="s">
-        <v>1049</v>
-      </c>
-      <c r="V9" s="33" t="s">
-        <v>993</v>
-      </c>
-      <c r="W9" s="34"/>
-    </row>
-    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="149"/>
-      <c r="B10" s="125" t="s">
-        <v>964</v>
-      </c>
-      <c r="C10" s="126" t="s">
-        <v>968</v>
-      </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127" t="s">
-        <v>689</v>
-      </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127" t="s">
-        <v>975</v>
-      </c>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127" t="s">
-        <v>986</v>
-      </c>
-      <c r="N10" s="127" t="s">
-        <v>987</v>
-      </c>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127" t="s">
-        <v>990</v>
-      </c>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127" t="s">
-        <v>968</v>
-      </c>
-      <c r="W10" s="129"/>
-    </row>
-    <row r="11" spans="1:23" ht="50" x14ac:dyDescent="0.35">
-      <c r="A11" s="149"/>
-      <c r="B11" s="40" t="s">
-        <v>965</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32" t="s">
-        <v>981</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>982</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
-        <v>690</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>985</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>976</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>978</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>979</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32" t="s">
-        <v>988</v>
-      </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32" t="s">
+      <c r="T11" s="25"/>
+      <c r="U11" s="25" t="s">
         <v>1050</v>
       </c>
-      <c r="V11" s="32" t="s">
+      <c r="V11" s="25" t="s">
         <v>994</v>
       </c>
-      <c r="W11" s="35" t="s">
+      <c r="W11" s="28" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="151"/>
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="130"/>
+      <c r="B12" s="35" t="s">
         <v>966</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29" t="s">
         <v>969</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="29" t="s">
         <v>983</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
         <v>983</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36" t="s">
+      <c r="I12" s="29"/>
+      <c r="J12" s="29" t="s">
         <v>977</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36" t="s">
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29" t="s">
         <v>966</v>
       </c>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36" t="s">
+      <c r="O12" s="29"/>
+      <c r="P12" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36" t="s">
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29" t="s">
         <v>995</v>
       </c>
-      <c r="W12" s="37"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="L14" s="87"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="76" t="s">
+      <c r="W12" s="30"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L14" s="78"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="68" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
@@ -10376,61 +10301,61 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.90625" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10446,262 +10371,262 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="138.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="138.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="56" t="s">
         <v>493</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="57" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="152" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="133" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="136" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="162" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="143" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="153"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="161"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="154"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="163"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="152" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="135"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="142"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="134"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="144"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="60" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="153"/>
-      <c r="B6" s="61" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="135"/>
+      <c r="B6" s="53" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="52" t="s">
         <v>526</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="61" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="153"/>
-      <c r="B7" s="61" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="135"/>
+      <c r="B7" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="52" t="s">
         <v>527</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="61" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="154"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-    </row>
-    <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A9" s="152" t="s">
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="134"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+    </row>
+    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="59" t="s">
         <v>504</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="60" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="154"/>
-      <c r="B10" s="91" t="s">
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="134"/>
+      <c r="B10" s="82" t="s">
         <v>506</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="83" t="s">
         <v>507</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="84" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="164" t="s">
+    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="88" t="s">
         <v>509</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="59" t="s">
         <v>528</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="60" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="165"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="138"/>
-    </row>
-    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A13" s="152" t="s">
+    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="132"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+    </row>
+    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A13" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="85" t="s">
         <v>511</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="86" t="s">
         <v>512</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="87" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="153"/>
-      <c r="B14" s="61" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="135"/>
+      <c r="B14" s="53" t="s">
         <v>514</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="52" t="s">
         <v>515</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="61" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="153"/>
-      <c r="B15" s="61" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="135"/>
+      <c r="B15" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="52" t="s">
         <v>517</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="61" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A16" s="153"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="60" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="135"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="161" t="s">
+      <c r="D16" s="142" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="153"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="60" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="135"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="161"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="154"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71" t="s">
+      <c r="D17" s="142"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="134"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63" t="s">
         <v>522</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="64" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="164" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="88" t="s">
         <v>1013</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="59" t="s">
         <v>1014</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="60" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="165"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="138"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="152" t="s">
+    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="132"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="58" t="s">
         <v>1060</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="59" t="s">
         <v>1061</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="60" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="154"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="138"/>
+    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="134"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10715,9 +10640,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="53.81640625" customWidth="1"/>
+    <col min="1" max="2" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -10732,487 +10657,487 @@
       <selection activeCell="L1" sqref="L1:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
-    <col min="6" max="6" width="32.36328125" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="12" max="12" width="17.36328125" customWidth="1"/>
-    <col min="13" max="13" width="26.6328125" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="26.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
         <v>638</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="65" t="s">
         <v>587</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="65" t="s">
         <v>610</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="65" t="s">
         <v>611</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="65" t="s">
         <v>612</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="65" t="s">
         <v>529</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="65" t="s">
         <v>611</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="65" t="s">
         <v>612</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="58" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="50" t="s">
         <v>639</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="50" t="s">
         <v>640</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="50" t="s">
         <v>602</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="50" t="s">
         <v>598</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="50" t="s">
         <v>604</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="50" t="s">
         <v>606</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="50" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="66" t="s">
         <v>588</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="66" t="s">
         <v>609</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="66" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="66" t="s">
         <v>670</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="66" t="s">
         <v>671</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="66" t="s">
         <v>600</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="66" t="s">
         <v>633</v>
       </c>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="66" t="s">
         <v>676</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="M2" s="79">
+      <c r="M2" s="71">
         <v>13</v>
       </c>
-      <c r="N2" s="79">
+      <c r="N2" s="71">
         <v>9</v>
       </c>
-      <c r="O2" s="79">
+      <c r="O2" s="71">
         <v>8</v>
       </c>
-      <c r="P2" s="79">
+      <c r="P2" s="71">
         <v>6</v>
       </c>
-      <c r="Q2" s="79">
+      <c r="Q2" s="71">
         <v>7</v>
       </c>
-      <c r="R2" s="79">
+      <c r="R2" s="71">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="66" t="s">
         <v>590</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="66" t="s">
         <v>615</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="66" t="s">
         <v>614</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="66" t="s">
         <v>679</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="66" t="s">
         <v>604</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="66" t="s">
         <v>616</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="66" t="s">
         <v>677</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="70" t="s">
         <v>642</v>
       </c>
-      <c r="M3" s="79">
+      <c r="M3" s="71">
         <v>10</v>
       </c>
-      <c r="N3" s="79">
+      <c r="N3" s="71">
         <v>6</v>
       </c>
-      <c r="O3" s="79">
+      <c r="O3" s="71">
         <v>5</v>
       </c>
-      <c r="P3" s="79">
+      <c r="P3" s="71">
         <v>3</v>
       </c>
-      <c r="Q3" s="79">
+      <c r="Q3" s="71">
         <v>2</v>
       </c>
-      <c r="R3" s="79">
+      <c r="R3" s="71">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="66" t="s">
         <v>591</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="66" t="s">
         <v>592</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="66" t="s">
         <v>592</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="66" t="s">
         <v>616</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="66" t="s">
         <v>617</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="66" t="s">
         <v>634</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="66" t="s">
         <v>616</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="66" t="s">
         <v>635</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="70" t="s">
         <v>592</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="71">
         <v>6</v>
       </c>
-      <c r="N4" s="79">
+      <c r="N4" s="71">
         <v>5</v>
       </c>
-      <c r="O4" s="79">
+      <c r="O4" s="71">
         <v>4</v>
       </c>
-      <c r="P4" s="79">
+      <c r="P4" s="71">
         <v>2</v>
       </c>
-      <c r="Q4" s="79">
+      <c r="Q4" s="71">
         <v>1</v>
       </c>
-      <c r="R4" s="79">
+      <c r="R4" s="71">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="74" t="s">
+    <row r="5" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
         <v>593</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="66" t="s">
         <v>594</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="66" t="s">
         <v>636</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="66" t="s">
         <v>622</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="66" t="s">
         <v>678</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="70" t="s">
         <v>590</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="71">
         <v>10</v>
       </c>
-      <c r="N5" s="79">
+      <c r="N5" s="71">
         <v>7</v>
       </c>
-      <c r="O5" s="79">
+      <c r="O5" s="71">
         <v>4</v>
       </c>
-      <c r="P5" s="79">
+      <c r="P5" s="71">
         <v>1</v>
       </c>
-      <c r="Q5" s="79">
+      <c r="Q5" s="71">
         <v>4</v>
       </c>
-      <c r="R5" s="79">
+      <c r="R5" s="71">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="66" t="s">
         <v>595</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="66" t="s">
         <v>596</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="69" t="s">
         <v>618</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="69" t="s">
         <v>611</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="69" t="s">
         <v>612</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="66" t="s">
         <v>637</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="66" t="s">
         <v>622</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="66" t="s">
         <v>680</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="70" t="s">
         <v>643</v>
       </c>
-      <c r="M6" s="79">
+      <c r="M6" s="71">
         <v>7</v>
       </c>
-      <c r="N6" s="79">
+      <c r="N6" s="71">
         <v>5</v>
       </c>
-      <c r="O6" s="79">
+      <c r="O6" s="71">
         <v>4</v>
       </c>
-      <c r="P6" s="79">
+      <c r="P6" s="71">
         <v>3</v>
       </c>
-      <c r="Q6" s="79">
+      <c r="Q6" s="71">
         <v>3</v>
       </c>
-      <c r="R6" s="79">
+      <c r="R6" s="71">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="74" t="s">
+    <row r="7" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="66" t="s">
         <v>597</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="66" t="s">
         <v>598</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="66" t="s">
         <v>619</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="66" t="s">
         <v>614</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="66" t="s">
         <v>620</v>
       </c>
-      <c r="L7" s="80" t="s">
+      <c r="L7" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="M7" s="81">
+      <c r="M7" s="73">
         <v>4</v>
       </c>
-      <c r="N7" s="81">
+      <c r="N7" s="73">
         <v>2</v>
       </c>
-      <c r="O7" s="81">
+      <c r="O7" s="73">
         <v>1</v>
       </c>
-      <c r="P7" s="81">
+      <c r="P7" s="73">
         <v>1</v>
       </c>
-      <c r="Q7" s="81">
+      <c r="Q7" s="73">
         <v>1</v>
       </c>
-      <c r="R7" s="81">
+      <c r="R7" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="74" t="s">
+    <row r="8" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="66" t="s">
         <v>599</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="66" t="s">
         <v>600</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="66" t="s">
         <v>621</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="66" t="s">
         <v>633</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="66" t="s">
         <v>672</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="65" t="s">
         <v>628</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="65" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="74" t="s">
+    <row r="9" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="66" t="s">
         <v>601</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="66" t="s">
         <v>602</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="66" t="s">
         <v>622</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="66" t="s">
         <v>623</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="71">
         <v>2021</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="66" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="74" t="s">
+    <row r="10" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="66" t="s">
         <v>603</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="66" t="s">
         <v>604</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="71">
         <v>2022</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="66" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="74" t="s">
+    <row r="11" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="66" t="s">
         <v>605</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="66" t="s">
         <v>606</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="69" t="s">
         <v>624</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="69" t="s">
         <v>611</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="69" t="s">
         <v>612</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="71">
         <v>2023</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="66" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
         <v>607</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="49" t="s">
         <v>608</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="66" t="s">
         <v>608</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="66" t="s">
         <v>673</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="66" t="s">
         <v>675</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="71">
         <v>2024</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="66" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D13" s="74" t="s">
+    <row r="13" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="D13" s="66" t="s">
         <v>602</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="66" t="s">
         <v>674</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="66" t="s">
         <v>681</v>
       </c>
-      <c r="H13" s="79">
+      <c r="H13" s="71">
         <v>2025</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="66" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D14" s="74" t="s">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D14" s="66" t="s">
         <v>598</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="66" t="s">
         <v>670</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="66" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="D15" s="57" t="s">
+    <row r="15" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="D15" s="49" t="s">
         <v>625</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="74" t="s">
         <v>633</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="74" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D16" s="74" t="s">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="D16" s="66" t="s">
         <v>627</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="66" t="s">
         <v>626</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="66" t="s">
         <v>684</v>
       </c>
     </row>
@@ -11229,350 +11154,350 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
-    <col min="4" max="4" width="46" style="4" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="53" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="53" t="s">
+    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="53" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="26" t="str">
+      <c r="D6" s="20" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="26" t="str">
+      <c r="D7" s="20" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="26" t="str">
+      <c r="D8" s="20" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="26" t="str">
+      <c r="D9" s="20" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="26" t="str">
+      <c r="D10" s="20" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="19" t="s">
         <v>1004</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="20" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="31" t="str">
+      <c r="D12" s="24" t="str">
         <f>"Vorwärts aus " &amp; A3</f>
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="26" t="str">
+      <c r="D13" s="20" t="str">
         <f>"Rückwärts aus " &amp; A3</f>
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="20" t="str">
         <f>"Rückwärts aus " &amp; A3</f>
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:12" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="26" t="str">
+      <c r="D15" s="20" t="str">
         <f>"Rückwärts aus " &amp; A4</f>
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="26" t="str">
+      <c r="D16" s="20" t="str">
         <f>"Rückwärts aus " &amp; A4</f>
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="31" t="str">
+      <c r="D18" s="24" t="str">
         <f>"Vorwärts aus " &amp; A6</f>
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="24" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="23" t="s">
         <v>1036</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="23" t="s">
         <v>1035</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="24" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="31" t="str">
+      <c r="D21" s="24" t="str">
         <f>"Vorwärts aus " &amp; A8</f>
         <v>Vorwärts aus P7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="24" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -11589,732 +11514,732 @@
       <selection activeCell="A12" sqref="A12:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="29.7265625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="25.54296875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="50.81640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="35.90625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="9"/>
+    <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="8">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="6">
         <f>Übersicht!D27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H28" s="8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="6">
         <f>Übersicht!D28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="10"/>
+    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -12326,429 +12251,173 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B444643-D3EA-45A4-9542-D7F545A431FF}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-    </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+    </row>
+    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12767,109 +12436,109 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" customWidth="1"/>
-    <col min="3" max="3" width="54.36328125" customWidth="1"/>
-    <col min="4" max="4" width="61.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="50" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" ht="56" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="25" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="50" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="25" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="25" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="25" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="25" t="s">
         <v>459</v>
       </c>
     </row>
@@ -12886,400 +12555,400 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
-    <col min="3" max="4" width="53.453125" customWidth="1"/>
+    <col min="1" max="1" width="6" style="12" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="4" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="107" t="s">
         <v>890</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="107" t="s">
         <v>891</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>892</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-    </row>
-    <row r="2" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A2" s="116" t="s">
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+    </row>
+    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+      <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="25" t="s">
         <v>912</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="105" t="s">
         <v>913</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-    </row>
-    <row r="3" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="116" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+    </row>
+    <row r="3" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+      <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="25" t="s">
         <v>914</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="105" t="s">
         <v>915</v>
       </c>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-    </row>
-    <row r="4" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A4" s="116" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+    </row>
+    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+      <c r="A4" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="25" t="s">
         <v>895</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="25" t="s">
         <v>916</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="105" t="s">
         <v>917</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.35">
-      <c r="A5" s="116" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+    </row>
+    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+      <c r="A5" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="25" t="s">
         <v>918</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="105" t="s">
         <v>919</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-    </row>
-    <row r="6" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="116" t="s">
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+    </row>
+    <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+      <c r="A6" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="25" t="s">
         <v>897</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="25" t="s">
         <v>920</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="105" t="s">
         <v>921</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-    </row>
-    <row r="7" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="116" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+    </row>
+    <row r="7" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+      <c r="A7" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="105" t="s">
         <v>923</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-    </row>
-    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+    </row>
+    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+      <c r="A8" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="25" t="s">
         <v>903</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="25" t="s">
         <v>932</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="105" t="s">
         <v>933</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-    </row>
-    <row r="9" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+    </row>
+    <row r="9" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+      <c r="A9" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="25" t="s">
         <v>900</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="25" t="s">
         <v>926</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="105" t="s">
         <v>927</v>
       </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-    </row>
-    <row r="10" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116" t="s">
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+    </row>
+    <row r="10" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="25" t="s">
         <v>899</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="25" t="s">
         <v>924</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="105" t="s">
         <v>925</v>
       </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="116" t="s">
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-    </row>
-    <row r="12" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A12" s="116" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+    </row>
+    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+      <c r="A12" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="25" t="s">
         <v>936</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="105" t="s">
         <v>937</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-    </row>
-    <row r="13" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A13" s="116" t="s">
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+    </row>
+    <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+      <c r="A13" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="25" t="s">
         <v>904</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="25" t="s">
         <v>934</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="105" t="s">
         <v>935</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-    </row>
-    <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="116" t="s">
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+    </row>
+    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+      <c r="A14" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="105" t="s">
         <v>602</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-    </row>
-    <row r="15" spans="1:6" ht="25" x14ac:dyDescent="0.35">
-      <c r="A15" s="116" t="s">
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+    </row>
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A15" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="25" t="s">
         <v>950</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="105" t="s">
         <v>951</v>
       </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-    </row>
-    <row r="16" spans="1:6" ht="100" x14ac:dyDescent="0.35">
-      <c r="A16" s="116" t="s">
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+    </row>
+    <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A16" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="25" t="s">
         <v>901</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="25" t="s">
         <v>928</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="105" t="s">
         <v>929</v>
       </c>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-    </row>
-    <row r="17" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A17" s="116" t="s">
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+    </row>
+    <row r="17" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+      <c r="A17" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="25" t="s">
         <v>906</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="25" t="s">
         <v>938</v>
       </c>
-      <c r="D17" s="117" t="s">
+      <c r="D17" s="105" t="s">
         <v>939</v>
       </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-    </row>
-    <row r="18" spans="1:6" ht="62.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="116" t="s">
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+    </row>
+    <row r="18" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="25" t="s">
         <v>907</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="25" t="s">
         <v>940</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="105" t="s">
         <v>941</v>
       </c>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-    </row>
-    <row r="19" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="116" t="s">
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+    </row>
+    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+      <c r="A19" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="25" t="s">
         <v>908</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="25" t="s">
         <v>942</v>
       </c>
-      <c r="D19" s="117" t="s">
+      <c r="D19" s="105" t="s">
         <v>943</v>
       </c>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-    </row>
-    <row r="20" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A20" s="116" t="s">
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+    </row>
+    <row r="20" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+      <c r="A20" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="25" t="s">
         <v>909</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="25" t="s">
         <v>944</v>
       </c>
-      <c r="D20" s="117" t="s">
+      <c r="D20" s="105" t="s">
         <v>945</v>
       </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-    </row>
-    <row r="21" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="116" t="s">
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+    </row>
+    <row r="21" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="25" t="s">
         <v>910</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="25" t="s">
         <v>946</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="105" t="s">
         <v>947</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-    </row>
-    <row r="22" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A22" s="116" t="s">
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+    </row>
+    <row r="22" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+      <c r="A22" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="25" t="s">
         <v>930</v>
       </c>
-      <c r="D22" s="117" t="s">
+      <c r="D22" s="105" t="s">
         <v>931</v>
       </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-    </row>
-    <row r="23" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="116" t="s">
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+    </row>
+    <row r="23" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+      <c r="A23" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="25" t="s">
         <v>948</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="105" t="s">
         <v>949</v>
       </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="121" t="s">
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="121" t="s">
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="123"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="111"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -13298,599 +12967,599 @@
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.81640625" customWidth="1"/>
-    <col min="10" max="10" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.453125" style="83" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="36.90625" customWidth="1"/>
-    <col min="19" max="19" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="36.90625" customWidth="1"/>
-    <col min="22" max="22" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="36.83203125" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="36.83203125" customWidth="1"/>
+    <col min="22" max="22" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="43" t="s">
         <v>360</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="42" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="43" t="s">
         <v>952</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="43" t="s">
         <v>953</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="44" t="s">
         <v>954</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="45" t="s">
         <v>955</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="38" t="s">
         <v>956</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="42" t="s">
         <v>957</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="43" t="s">
         <v>958</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="43" t="s">
         <v>1032</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="43" t="s">
         <v>960</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="44" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:22" ht="70" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="102" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="102" t="s">
         <v>478</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="102" t="s">
         <v>479</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="102" t="s">
         <v>480</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="25" t="s">
         <v>1001</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="25" t="s">
         <v>1002</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="25" t="s">
         <v>569</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="25" t="s">
         <v>645</v>
       </c>
-      <c r="O2" s="99" t="s">
+      <c r="O2" s="25" t="s">
         <v>1003</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="25" t="s">
         <v>644</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="25" t="s">
         <v>646</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="25" t="s">
         <v>656</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="25" t="s">
         <v>1033</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="25" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="139" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:22" ht="154" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="102" t="s">
         <v>853</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="102" t="s">
         <v>854</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="102" t="s">
         <v>855</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="102" t="s">
         <v>856</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="25" t="s">
         <v>857</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="25" t="s">
         <v>858</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="25" t="s">
         <v>859</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="25" t="s">
         <v>867</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="25" t="s">
         <v>868</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="25" t="s">
         <v>869</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="25" t="s">
         <v>870</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="25" t="s">
         <v>871</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="25" t="s">
         <v>872</v>
       </c>
-      <c r="O3" s="99" t="s">
+      <c r="O3" s="25" t="s">
         <v>887</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="25" t="s">
         <v>874</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="25" t="s">
         <v>875</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="25" t="s">
         <v>1051</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="25" t="s">
         <v>877</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="V3" s="25" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="126.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:22" ht="140" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="102" t="s">
         <v>860</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="102" t="s">
         <v>889</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="102" t="s">
         <v>861</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="E4" s="102" t="s">
         <v>862</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="25" t="s">
         <v>863</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="25" t="s">
         <v>864</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="25" t="s">
         <v>865</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="25" t="s">
         <v>879</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="25" t="s">
         <v>880</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="25" t="s">
         <v>883</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="S4" s="32" t="s">
+      <c r="S4" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="25" t="s">
         <v>1056</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="25" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
         <v>472</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="119" t="s">
         <v>1018</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="119" t="s">
         <v>1017</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="119" t="s">
         <v>1017</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="119" t="s">
         <v>1017</v>
       </c>
-      <c r="G5" s="166" t="s">
+      <c r="G5" s="119" t="s">
         <v>1066</v>
       </c>
-      <c r="H5" s="139" t="s">
+      <c r="H5" s="119" t="s">
         <v>1017</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="118" t="s">
         <v>264</v>
       </c>
-      <c r="J5" s="132" t="s">
+      <c r="J5" s="118" t="s">
         <v>1057</v>
       </c>
-      <c r="K5" s="132" t="s">
+      <c r="K5" s="118" t="s">
         <v>1019</v>
       </c>
-      <c r="L5" s="132" t="s">
+      <c r="L5" s="118" t="s">
         <v>1017</v>
       </c>
-      <c r="M5" s="132" t="s">
+      <c r="M5" s="118" t="s">
         <v>1058</v>
       </c>
-      <c r="N5" s="132" t="s">
+      <c r="N5" s="118" t="s">
         <v>1055</v>
       </c>
-      <c r="O5" s="140" t="s">
+      <c r="O5" s="118" t="s">
         <v>1017</v>
       </c>
-      <c r="P5" s="132" t="s">
+      <c r="P5" s="118" t="s">
         <v>1017</v>
       </c>
-      <c r="Q5" s="132" t="s">
+      <c r="Q5" s="118" t="s">
         <v>1017</v>
       </c>
-      <c r="R5" s="132" t="s">
+      <c r="R5" s="118" t="s">
         <v>1019</v>
       </c>
-      <c r="S5" s="132" t="s">
+      <c r="S5" s="118" t="s">
         <v>1019</v>
       </c>
-      <c r="T5" s="132" t="s">
+      <c r="T5" s="118" t="s">
         <v>1055</v>
       </c>
-      <c r="U5" s="140" t="s">
+      <c r="U5" s="118" t="s">
         <v>1019</v>
       </c>
-      <c r="V5" s="140" t="s">
+      <c r="V5" s="118" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="139" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:22" ht="154" x14ac:dyDescent="0.2">
+      <c r="A6" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="102" t="s">
         <v>866</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="102" t="s">
         <v>481</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="102" t="s">
         <v>486</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="102" t="s">
         <v>487</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="25" t="s">
         <v>884</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="25" t="s">
         <v>885</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="25" t="s">
         <v>886</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="25" t="s">
         <v>552</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="25" t="s">
         <v>553</v>
       </c>
-      <c r="O6" s="99" t="s">
+      <c r="O6" s="25" t="s">
         <v>554</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="S6" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T6" s="25" t="s">
         <v>1052</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="U6" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="V6" s="25" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:22" ht="70" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
         <v>473</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="102" t="s">
         <v>888</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="102" t="s">
         <v>482</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="102" t="s">
         <v>485</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="102" t="s">
         <v>488</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="25" t="s">
         <v>559</v>
       </c>
-      <c r="O7" s="99" t="s">
+      <c r="O7" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="25" t="s">
         <v>562</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="S7" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="T7" s="32" t="s">
+      <c r="T7" s="25" t="s">
         <v>1053</v>
       </c>
-      <c r="U7" s="32" t="s">
+      <c r="U7" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="V7" s="32" t="s">
+      <c r="V7" s="25" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="100" x14ac:dyDescent="0.35">
-      <c r="A8" s="58" t="s">
+    <row r="8" spans="1:22" ht="112" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="102" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="102" t="s">
         <v>483</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="102" t="s">
         <v>489</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="102" t="s">
         <v>490</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="25" t="s">
         <v>563</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="25" t="s">
         <v>564</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="25" t="s">
         <v>565</v>
       </c>
-      <c r="O8" s="99" t="s">
+      <c r="O8" s="25" t="s">
         <v>566</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="Q8" s="32" t="s">
+      <c r="Q8" s="25" t="s">
         <v>568</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="T8" s="32" t="s">
+      <c r="T8" s="25" t="s">
         <v>1054</v>
       </c>
-      <c r="U8" s="32" t="s">
+      <c r="U8" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="V8" s="32" t="s">
+      <c r="V8" s="25" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="G13" s="75"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="G14" s="75"/>
-    </row>
-    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="G15" s="75"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="G16" s="75"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" s="75"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" s="75"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" s="75"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="G13" s="67"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="G14" s="67"/>
+    </row>
+    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="G15" s="67"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G16" s="67"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="67"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="67"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13906,833 +13575,833 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BB7B41-1A7E-470B-A91F-E7D0772651A4}">
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="35" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.54296875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="27" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7265625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="30.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.36328125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="38.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.33203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="91" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="43" t="s">
         <v>360</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="42" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="43" t="s">
         <v>952</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="43" t="s">
         <v>953</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="44" t="s">
         <v>954</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="45" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="38" t="s">
         <v>956</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="42" t="s">
         <v>957</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="43" t="s">
         <v>958</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="43" t="s">
         <v>1037</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="43" t="s">
         <v>960</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="44" t="s">
         <v>961</v>
       </c>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-    </row>
-    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="148" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+    </row>
+    <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A2" s="127" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="95" t="s">
         <v>1017</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>728</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="33" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="33" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26" t="s">
         <v>760</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26" t="s">
         <v>792</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="26" t="s">
         <v>793</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="26" t="s">
         <v>794</v>
       </c>
-      <c r="S2" s="130"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="130" t="s">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26" t="s">
         <v>1039</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="26" t="s">
         <v>820</v>
       </c>
-      <c r="W2" s="131" t="s">
+      <c r="W2" s="27" t="s">
         <v>821</v>
       </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-    </row>
-    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="149"/>
-      <c r="B3" s="106" t="s">
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+    </row>
+    <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A3" s="128"/>
+      <c r="B3" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="100" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="25" t="s">
         <v>724</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="25" t="s">
         <v>729</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="25" t="s">
         <v>1064</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="J3" s="99"/>
-      <c r="K3" s="32" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25" t="s">
         <v>761</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="25" t="s">
         <v>762</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="25" t="s">
         <v>763</v>
       </c>
-      <c r="N3" s="99"/>
-      <c r="O3" s="32" t="s">
+      <c r="N3" s="25"/>
+      <c r="O3" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="25" t="s">
         <v>797</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="25" t="s">
         <v>798</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="25" t="s">
         <v>1040</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="V3" s="25" t="s">
         <v>823</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="28" t="s">
         <v>824</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-    </row>
-    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A4" s="149"/>
-      <c r="B4" s="106" t="s">
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A4" s="128"/>
+      <c r="B4" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="100" t="s">
         <v>1023</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
         <v>1027</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="25" t="s">
         <v>759</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="25" t="s">
         <v>765</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="99" t="s">
+      <c r="O4" s="25"/>
+      <c r="P4" s="25" t="s">
         <v>706</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="25" t="s">
         <v>799</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="25" t="s">
         <v>800</v>
       </c>
-      <c r="S4" s="32" t="s">
+      <c r="S4" s="25" t="s">
         <v>825</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32" t="s">
+      <c r="T4" s="25"/>
+      <c r="U4" s="25" t="s">
         <v>1041</v>
       </c>
-      <c r="V4" s="32"/>
-      <c r="W4" s="35" t="s">
+      <c r="V4" s="25"/>
+      <c r="W4" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-    </row>
-    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="149"/>
-      <c r="B5" s="106" t="s">
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A5" s="128"/>
+      <c r="B5" s="96" t="s">
         <v>1018</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="100" t="s">
         <v>727</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
         <v>1012</v>
       </c>
-      <c r="H5" s="99" t="s">
+      <c r="H5" s="25" t="s">
         <v>1065</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="25" t="s">
         <v>1029</v>
       </c>
-      <c r="L5" s="99" t="s">
+      <c r="L5" s="25" t="s">
         <v>1030</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="25" t="s">
         <v>766</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="25" t="s">
         <v>801</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="25" t="s">
         <v>802</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="25" t="s">
         <v>803</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="25" t="s">
         <v>804</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="25" t="s">
         <v>827</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="25" t="s">
         <v>828</v>
       </c>
-      <c r="U5" s="99" t="s">
+      <c r="U5" s="25" t="s">
         <v>1042</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="V5" s="25" t="s">
         <v>829</v>
       </c>
-      <c r="W5" s="35" t="s">
+      <c r="W5" s="28" t="s">
         <v>830</v>
       </c>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-    </row>
-    <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="149"/>
-      <c r="B6" s="107" t="s">
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="128"/>
+      <c r="B6" s="97" t="s">
         <v>1019</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="101" t="s">
         <v>317</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="29" t="s">
         <v>852</v>
       </c>
-      <c r="E6" s="112" t="s">
+      <c r="E6" s="29" t="s">
         <v>1025</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29" t="s">
         <v>731</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="29" t="s">
         <v>1026</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36" t="s">
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29" t="s">
         <v>767</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="29" t="s">
         <v>768</v>
       </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36" t="s">
+      <c r="M6" s="29"/>
+      <c r="N6" s="29" t="s">
         <v>769</v>
       </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="112" t="s">
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29" t="s">
         <v>1031</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="29" t="s">
         <v>805</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="29" t="s">
         <v>831</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="29" t="s">
         <v>832</v>
       </c>
-      <c r="U6" s="112" t="s">
+      <c r="U6" s="29" t="s">
         <v>1043</v>
       </c>
-      <c r="V6" s="36" t="s">
+      <c r="V6" s="29" t="s">
         <v>833</v>
       </c>
-      <c r="W6" s="37" t="s">
+      <c r="W6" s="30" t="s">
         <v>834</v>
       </c>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-    </row>
-    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="145" t="s">
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A7" s="124" t="s">
         <v>320</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="95" t="s">
         <v>998</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="99" t="s">
         <v>733</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="26" t="s">
         <v>740</v>
       </c>
-      <c r="G7" s="130"/>
-      <c r="H7" s="33" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>741</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="26" t="s">
         <v>742</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="26" t="s">
         <v>771</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="26" t="s">
         <v>773</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="26" t="s">
         <v>774</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="26" t="s">
         <v>806</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="P7" s="26" t="s">
         <v>807</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="Q7" s="26" t="s">
         <v>808</v>
       </c>
-      <c r="R7" s="33" t="s">
+      <c r="R7" s="26" t="s">
         <v>809</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="S7" s="26" t="s">
         <v>835</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="T7" s="26" t="s">
         <v>836</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="U7" s="26" t="s">
         <v>1044</v>
       </c>
-      <c r="V7" s="33" t="s">
+      <c r="V7" s="26" t="s">
         <v>837</v>
       </c>
-      <c r="W7" s="34" t="s">
+      <c r="W7" s="27" t="s">
         <v>838</v>
       </c>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-    </row>
-    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
-      <c r="A8" s="146"/>
-      <c r="B8" s="106" t="s">
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+      <c r="A8" s="125"/>
+      <c r="B8" s="96" t="s">
         <v>1000</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="100" t="s">
         <v>734</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="25" t="s">
         <v>744</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="25" t="s">
         <v>745</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="25" t="s">
         <v>747</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="25" t="s">
         <v>775</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="25" t="s">
         <v>776</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="25" t="s">
         <v>777</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="25" t="s">
         <v>778</v>
       </c>
-      <c r="N8" s="99" t="s">
+      <c r="N8" s="25" t="s">
         <v>779</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="O8" s="25" t="s">
         <v>810</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="25" t="s">
         <v>811</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32" t="s">
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25" t="s">
         <v>812</v>
       </c>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="25" t="s">
         <v>839</v>
       </c>
-      <c r="T8" s="32" t="s">
+      <c r="T8" s="25" t="s">
         <v>840</v>
       </c>
-      <c r="U8" s="99" t="s">
+      <c r="U8" s="25" t="s">
         <v>1045</v>
       </c>
-      <c r="V8" s="32" t="s">
+      <c r="V8" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="W8" s="28" t="s">
         <v>842</v>
       </c>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-    </row>
-    <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="146"/>
-      <c r="B9" s="106" t="s">
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A9" s="125"/>
+      <c r="B9" s="96" t="s">
         <v>1020</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="100" t="s">
         <v>735</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="25" t="s">
         <v>748</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="25" t="s">
         <v>752</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="s">
         <v>780</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="L9" s="99"/>
-      <c r="M9" s="32" t="s">
+      <c r="L9" s="25"/>
+      <c r="M9" s="25" t="s">
         <v>782</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="25" t="s">
         <v>783</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32" t="s">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="Q9" s="25" t="s">
         <v>814</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="S9" s="32" t="s">
+      <c r="S9" s="25" t="s">
         <v>996</v>
       </c>
-      <c r="T9" s="32" t="s">
+      <c r="T9" s="25" t="s">
         <v>843</v>
       </c>
-      <c r="U9" s="32" t="s">
+      <c r="U9" s="25" t="s">
         <v>1046</v>
       </c>
-      <c r="V9" s="32"/>
-      <c r="W9" s="35" t="s">
+      <c r="V9" s="25"/>
+      <c r="W9" s="28" t="s">
         <v>844</v>
       </c>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-    </row>
-    <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A10" s="146"/>
-      <c r="B10" s="106" t="s">
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A10" s="125"/>
+      <c r="B10" s="96" t="s">
         <v>1021</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="100" t="s">
         <v>736</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="25" t="s">
         <v>753</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="I10" s="99" t="s">
+      <c r="I10" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
         <v>784</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="25" t="s">
         <v>785</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="25" t="s">
         <v>786</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="25" t="s">
         <v>787</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O10" s="25" t="s">
         <v>815</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="25" t="s">
         <v>816</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q10" s="25" t="s">
         <v>817</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="25" t="s">
         <v>999</v>
       </c>
-      <c r="S10" s="32" t="s">
+      <c r="S10" s="25" t="s">
         <v>845</v>
       </c>
-      <c r="T10" s="32" t="s">
+      <c r="T10" s="25" t="s">
         <v>846</v>
       </c>
-      <c r="U10" s="99" t="s">
+      <c r="U10" s="25" t="s">
         <v>1047</v>
       </c>
-      <c r="V10" s="32" t="s">
+      <c r="V10" s="25" t="s">
         <v>847</v>
       </c>
-      <c r="W10" s="35" t="s">
+      <c r="W10" s="28" t="s">
         <v>848</v>
       </c>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-    </row>
-    <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="147"/>
-      <c r="B11" s="108" t="s">
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="126"/>
+      <c r="B11" s="98" t="s">
         <v>1022</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="101" t="s">
         <v>737</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="29" t="s">
         <v>755</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="29" t="s">
         <v>756</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="29" t="s">
         <v>757</v>
       </c>
-      <c r="G11" s="112" t="s">
+      <c r="G11" s="29" t="s">
         <v>1016</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="29" t="s">
         <v>758</v>
       </c>
-      <c r="I11" s="112"/>
-      <c r="J11" s="36" t="s">
+      <c r="I11" s="29"/>
+      <c r="J11" s="29" t="s">
         <v>788</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="29" t="s">
         <v>789</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="29" t="s">
         <v>790</v>
       </c>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="29" t="s">
         <v>791</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36" t="s">
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29" t="s">
         <v>818</v>
       </c>
-      <c r="Q11" s="36" t="s">
+      <c r="Q11" s="29" t="s">
         <v>819</v>
       </c>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="36" t="s">
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29" t="s">
         <v>849</v>
       </c>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36" t="s">
+      <c r="U11" s="29"/>
+      <c r="V11" s="29" t="s">
         <v>850</v>
       </c>
-      <c r="W11" s="37" t="s">
+      <c r="W11" s="30" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="L16" s="8"/>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L16" s="6"/>
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+    <row r="17" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -14740,13 +14409,13 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -14754,13 +14423,13 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+    <row r="19" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -14768,13 +14437,13 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
+    <row r="20" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -14782,13 +14451,13 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
+    <row r="21" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -14796,13 +14465,13 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
+    <row r="22" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -14810,13 +14479,13 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
+    <row r="23" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -14824,13 +14493,13 @@
       <c r="U23"/>
       <c r="V23"/>
     </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
+    <row r="24" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -14838,13 +14507,13 @@
       <c r="U24"/>
       <c r="V24"/>
     </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
+    <row r="25" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -14852,31 +14521,31 @@
       <c r="U25"/>
       <c r="V25"/>
     </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
+    <row r="26" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
       <c r="S26"/>
       <c r="T26"/>
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
+    <row r="27" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
       <c r="S27"/>
       <c r="T27"/>
       <c r="U27"/>
       <c r="V27"/>
     </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
+    <row r="28" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14897,912 +14566,912 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.26953125" customWidth="1"/>
-    <col min="11" max="11" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.90625" customWidth="1"/>
-    <col min="18" max="18" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="25.1796875" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.81640625" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="25.1640625" customWidth="1"/>
+    <col min="23" max="23" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="40" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="40" t="s">
         <v>657</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="40" t="s">
         <v>658</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="40" t="s">
         <v>650</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="41" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="148" t="s">
+    <row r="2" spans="1:24" ht="28" x14ac:dyDescent="0.2">
+      <c r="A2" s="127" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="149"/>
-      <c r="B3" s="40" t="s">
+    <row r="3" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="128"/>
+      <c r="B3" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="V3" s="25" t="s">
         <v>665</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="X3" s="28" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="149"/>
-      <c r="B4" s="40" t="s">
+    <row r="4" spans="1:24" ht="70" x14ac:dyDescent="0.2">
+      <c r="A4" s="128"/>
+      <c r="B4" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="S4" s="32" t="s">
+      <c r="S4" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="W4" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="X4" s="28" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="150"/>
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="129"/>
+      <c r="B5" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="U5" s="36" t="s">
+      <c r="U5" s="29" t="s">
         <v>668</v>
       </c>
-      <c r="V5" s="36" t="s">
+      <c r="V5" s="29" t="s">
         <v>666</v>
       </c>
-      <c r="W5" s="36" t="s">
+      <c r="W5" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="X5" s="37" t="s">
+      <c r="X5" s="30" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="84" t="s">
+    <row r="6" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+      <c r="A6" s="75" t="s">
         <v>357</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="M6" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="Q6" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="R6" s="33" t="s">
+      <c r="R6" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="S6" s="33" t="s">
+      <c r="S6" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="T6" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="U6" s="33" t="s">
+      <c r="U6" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="V6" s="33" t="s">
+      <c r="V6" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="W6" s="33" t="s">
+      <c r="W6" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="X6" s="34" t="s">
+      <c r="X6" s="27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="85"/>
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+      <c r="A7" s="76"/>
+      <c r="B7" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="S7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="T7" s="32" t="s">
+      <c r="T7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="U7" s="32" t="s">
+      <c r="U7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="V7" s="32" t="s">
+      <c r="V7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="W7" s="32" t="s">
+      <c r="W7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="X7" s="35" t="s">
+      <c r="X7" s="28" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="85"/>
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+      <c r="A8" s="76"/>
+      <c r="B8" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="O8" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="Q8" s="32" t="s">
+      <c r="Q8" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="T8" s="32" t="s">
+      <c r="T8" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="U8" s="32" t="s">
+      <c r="U8" s="25" t="s">
         <v>667</v>
       </c>
-      <c r="V8" s="32" t="s">
+      <c r="V8" s="25" t="s">
         <v>663</v>
       </c>
-      <c r="W8" s="32" t="s">
+      <c r="W8" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="X8" s="28" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="85"/>
-      <c r="B9" s="40" t="s">
+    <row r="9" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+      <c r="A9" s="76"/>
+      <c r="B9" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="Q9" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="S9" s="32" t="s">
+      <c r="S9" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="T9" s="32" t="s">
+      <c r="T9" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="U9" s="32" t="s">
+      <c r="U9" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="V9" s="32" t="s">
+      <c r="V9" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="W9" s="32" t="s">
+      <c r="W9" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="X9" s="35" t="s">
+      <c r="X9" s="28" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="50" x14ac:dyDescent="0.35">
-      <c r="A10" s="85"/>
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="1:24" ht="56" x14ac:dyDescent="0.2">
+      <c r="A10" s="76"/>
+      <c r="B10" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O10" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q10" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="S10" s="32" t="s">
+      <c r="S10" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="T10" s="32" t="s">
+      <c r="T10" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="U10" s="32" t="s">
+      <c r="U10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="V10" s="32" t="s">
+      <c r="V10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="W10" s="32" t="s">
+      <c r="W10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="X10" s="35" t="s">
+      <c r="X10" s="28" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="75" x14ac:dyDescent="0.35">
-      <c r="A11" s="85"/>
-      <c r="B11" s="40" t="s">
+    <row r="11" spans="1:24" ht="84" x14ac:dyDescent="0.2">
+      <c r="A11" s="76"/>
+      <c r="B11" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="O11" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="P11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="Q11" s="32" t="s">
+      <c r="Q11" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="R11" s="32" t="s">
+      <c r="R11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="S11" s="32" t="s">
+      <c r="S11" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="T11" s="32" t="s">
+      <c r="T11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="U11" s="32" t="s">
+      <c r="U11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="V11" s="32" t="s">
+      <c r="V11" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="W11" s="32" t="s">
+      <c r="W11" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="X11" s="35" t="s">
+      <c r="X11" s="28" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="86"/>
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="M12" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="O12" s="36" t="s">
+      <c r="O12" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="P12" s="36" t="s">
+      <c r="P12" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="Q12" s="36" t="s">
+      <c r="Q12" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="R12" s="36" t="s">
+      <c r="R12" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="S12" s="36" t="s">
+      <c r="S12" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="T12" s="36" t="s">
+      <c r="T12" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="U12" s="36" t="s">
+      <c r="U12" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="V12" s="36" t="s">
+      <c r="V12" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="W12" s="36" t="s">
+      <c r="W12" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="X12" s="37" t="s">
+      <c r="X12" s="30" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76097CDE-4B74-4049-B171-ECFF49732868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{76097CDE-4B74-4049-B171-ECFF49732868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{427CB0B1-5A7B-4A11-BE53-8AF56AE3199A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="9" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="12" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -25,11 +25,12 @@
     <sheet name="RQ2 (2)" sheetId="14" r:id="rId10"/>
     <sheet name="RQ3" sheetId="7" r:id="rId11"/>
     <sheet name="Allgemeine Infos" sheetId="12" r:id="rId12"/>
-    <sheet name="Tabelle1" sheetId="16" r:id="rId13"/>
+    <sheet name="Mapping RQ1 und RQ2" sheetId="17" r:id="rId13"/>
     <sheet name="Quantitative Analyse" sheetId="13" state="hidden" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Extraktion!$A$1:$V$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'Mapping RQ1 und RQ2'!$A$1:$W$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'RQ1'!$A$1:$W$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'RQ2 (2)'!$A$1:$W$12</definedName>
   </definedNames>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1067">
   <si>
     <t>ID</t>
   </si>
@@ -4473,13 +4474,7 @@
     <t xml:space="preserve">Vorhersage von Build Failures IV) </t>
   </si>
   <si>
-    <t>Architektur</t>
-  </si>
-  <si>
     <t>für Anomalieerkennung, Threat Detection 3D</t>
-  </si>
-  <si>
-    <t>Feinabstimmung von LLMs</t>
   </si>
   <si>
     <t xml:space="preserve">Implizit genannt </t>
@@ -7145,6 +7140,12 @@
   </si>
   <si>
     <t xml:space="preserve">Resilienz, Self-healing und Predictive Maintenance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur erwähnt </t>
+  </si>
+  <si>
+    <t>RLHF/DPO erwähnt, aber kein RL-Anwendungsfall</t>
   </si>
 </sst>
 </file>
@@ -7972,7 +7973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8317,6 +8318,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -8350,19 +8354,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8383,16 +8396,17 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9159,14 +9173,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="57.36328125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -9180,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9194,7 +9208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9208,7 +9222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
@@ -9222,7 +9236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -9235,13 +9249,13 @@
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-    </row>
-    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+    </row>
+    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
@@ -9255,7 +9269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -9269,13 +9283,13 @@
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G7" s="121" t="s">
+      <c r="G7" s="122" t="s">
         <v>284</v>
       </c>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-    </row>
-    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+    </row>
+    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -9289,11 +9303,11 @@
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-    </row>
-    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+    </row>
+    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -9308,7 +9322,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -9323,7 +9337,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -9338,7 +9352,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -9353,7 +9367,7 @@
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -9368,7 +9382,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -9383,7 +9397,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -9398,7 +9412,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
@@ -9413,7 +9427,7 @@
         <v>Vorwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
@@ -9428,7 +9442,7 @@
         <v>Vorwärts aus P4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
@@ -9443,7 +9457,7 @@
         <v>Rückwärts aus P4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="21" t="s">
         <v>19</v>
       </c>
@@ -9458,7 +9472,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
@@ -9473,7 +9487,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="21" t="s">
         <v>21</v>
       </c>
@@ -9488,7 +9502,7 @@
         <v>Rückwärts aus P5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
@@ -9503,7 +9517,7 @@
         <v>Rückwärts aus P16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -9518,7 +9532,7 @@
         <v>Rückwärts aus P18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -9533,7 +9547,7 @@
         <v>Vorwärts aus P6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -9548,7 +9562,7 @@
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -9563,24 +9577,24 @@
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -9599,39 +9613,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABEDA27-D2D0-4564-B71F-CD6FB3721653}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.453125" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="19" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.83203125" customWidth="1"/>
+    <col min="19" max="19" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
@@ -9669,41 +9683,41 @@
         <v>362</v>
       </c>
       <c r="M1" s="43" t="s">
+        <v>950</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>951</v>
+      </c>
+      <c r="O1" s="44" t="s">
         <v>952</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="P1" s="45" t="s">
         <v>953</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="Q1" s="38" t="s">
         <v>954</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="R1" s="42" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="S1" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="T1" s="43" t="s">
         <v>957</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="U1" s="43" t="s">
+        <v>1035</v>
+      </c>
+      <c r="V1" s="43" t="s">
         <v>958</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="W1" s="44" t="s">
         <v>959</v>
       </c>
-      <c r="U1" s="43" t="s">
-        <v>1037</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>960</v>
-      </c>
-      <c r="W1" s="44" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+    </row>
+    <row r="2" spans="1:23" ht="25" x14ac:dyDescent="0.35">
+      <c r="A2" s="128" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -9723,7 +9737,7 @@
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="26" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>372</v>
@@ -9749,20 +9763,20 @@
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="W2" s="27"/>
     </row>
-    <row r="3" spans="1:23" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="128"/>
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="129"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>294</v>
@@ -9807,11 +9821,11 @@
         <v>295</v>
       </c>
       <c r="W3" s="28" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="70" x14ac:dyDescent="0.2">
-      <c r="A4" s="128"/>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="129"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
       </c>
@@ -9827,7 +9841,7 @@
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25" t="s">
@@ -9836,7 +9850,7 @@
       <c r="K4" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="L4" s="145" t="s">
+      <c r="L4" s="120" t="s">
         <v>379</v>
       </c>
       <c r="M4" s="25" t="s">
@@ -9863,8 +9877,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
+    <row r="5" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="129"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
       </c>
@@ -9902,8 +9916,8 @@
       <c r="V5" s="29"/>
       <c r="W5" s="30"/>
     </row>
-    <row r="6" spans="1:23" ht="56" x14ac:dyDescent="0.2">
-      <c r="A6" s="127" t="s">
+    <row r="6" spans="1:23" ht="50" x14ac:dyDescent="0.35">
+      <c r="A6" s="128" t="s">
         <v>687</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -9925,58 +9939,58 @@
         <v>695</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="79" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="K6" s="79" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L6" s="26"/>
-      <c r="M6" s="26" t="s">
-        <v>1007</v>
+      <c r="M6" s="149" t="s">
+        <v>1005</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="O6" s="79" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="P6" s="26" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="Q6" s="79" t="s">
+        <v>708</v>
+      </c>
+      <c r="R6" s="79" t="s">
+        <v>708</v>
+      </c>
+      <c r="S6" s="79" t="s">
+        <v>960</v>
+      </c>
+      <c r="T6" s="26" t="s">
         <v>710</v>
       </c>
-      <c r="R6" s="79" t="s">
-        <v>710</v>
-      </c>
-      <c r="S6" s="79" t="s">
-        <v>962</v>
-      </c>
-      <c r="T6" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="U6" s="26" t="s">
-        <v>1048</v>
+      <c r="U6" s="149" t="s">
+        <v>1046</v>
       </c>
       <c r="V6" s="79" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="W6" s="81" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="56" x14ac:dyDescent="0.2">
-      <c r="A7" s="128"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="50" x14ac:dyDescent="0.35">
+      <c r="A7" s="129"/>
       <c r="B7" s="33" t="s">
         <v>642</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="80" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>693</v>
@@ -9984,54 +9998,54 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="80" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="80" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="80" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="25" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="Q7" s="80" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="R7" s="25"/>
       <c r="S7" s="80" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
       <c r="V7" s="80" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="W7" s="112" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="131"/>
       <c r="B8" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>697</v>
+        <v>592</v>
+      </c>
+      <c r="C8" s="147" t="s">
+        <v>1065</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>699</v>
+      <c r="F8" s="148" t="s">
+        <v>1066</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -10039,7 +10053,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M8" s="29" t="s">
         <v>351</v>
@@ -10047,63 +10061,63 @@
       <c r="N8" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="148" t="s">
         <v>396</v>
       </c>
       <c r="P8" s="29" t="s">
         <v>444</v>
       </c>
       <c r="Q8" s="29"/>
-      <c r="R8" s="29" t="s">
-        <v>720</v>
+      <c r="R8" s="148" t="s">
+        <v>718</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="T8" s="29"/>
       <c r="U8" s="29" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="V8" s="29"/>
       <c r="W8" s="30"/>
     </row>
-    <row r="9" spans="1:23" ht="42" x14ac:dyDescent="0.2">
-      <c r="A9" s="128" t="s">
+    <row r="9" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="129" t="s">
         <v>688</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>259</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>967</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>723</v>
+        <v>965</v>
+      </c>
+      <c r="D9" s="150" t="s">
+        <v>721</v>
       </c>
       <c r="E9" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>969</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>970</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>971</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="I9" s="26" t="s">
+        <v>982</v>
+      </c>
+      <c r="J9" s="26" t="s">
         <v>972</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>973</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>984</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>974</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="26" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="N9" s="26" t="s">
         <v>441</v>
@@ -10112,33 +10126,33 @@
         <v>415</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="R9" s="26" t="s">
         <v>395</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="T9" s="26"/>
       <c r="U9" s="26" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="V9" s="26" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="W9" s="27"/>
     </row>
-    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="128"/>
+    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="129"/>
       <c r="B10" s="113" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C10" s="114" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D10" s="115"/>
       <c r="E10" s="115" t="s">
@@ -10149,19 +10163,19 @@
       <c r="H10" s="115"/>
       <c r="I10" s="115"/>
       <c r="J10" s="115" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="K10" s="115"/>
       <c r="L10" s="115"/>
       <c r="M10" s="115" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="N10" s="115" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="O10" s="115"/>
       <c r="P10" s="115" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="Q10" s="115"/>
       <c r="R10" s="116"/>
@@ -10169,44 +10183,44 @@
       <c r="T10" s="115"/>
       <c r="U10" s="115"/>
       <c r="V10" s="115" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="W10" s="117"/>
     </row>
-    <row r="11" spans="1:23" ht="42" x14ac:dyDescent="0.2">
-      <c r="A11" s="128"/>
+    <row r="11" spans="1:23" ht="50" x14ac:dyDescent="0.35">
+      <c r="A11" s="129"/>
       <c r="B11" s="33" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25" t="s">
         <v>690</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J11" s="25" t="s">
+        <v>974</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>976</v>
       </c>
-      <c r="K11" s="25" t="s">
-        <v>978</v>
-      </c>
       <c r="L11" s="25" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="Q11" s="25"/>
       <c r="R11" s="110"/>
@@ -10215,45 +10229,45 @@
       </c>
       <c r="T11" s="25"/>
       <c r="U11" s="25" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="V11" s="25" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="W11" s="28" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="131"/>
       <c r="B12" s="35" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
@@ -10261,27 +10275,32 @@
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
       <c r="V12" s="29" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="W12" s="30"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="L14" s="78"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="146" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
@@ -10301,14 +10320,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>238</v>
       </c>
@@ -10319,7 +10338,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>241</v>
       </c>
@@ -10330,7 +10349,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>243</v>
       </c>
@@ -10339,7 +10358,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>245</v>
       </c>
@@ -10348,7 +10367,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>246</v>
       </c>
@@ -10371,15 +10390,15 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="138.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="138.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="54" t="s">
         <v>491</v>
       </c>
@@ -10393,32 +10412,32 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="135" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="140" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="143" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="133" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="135"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="142"/>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="144"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="133" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="136"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="132"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="137"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="134"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="135" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -10431,8 +10450,8 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="135"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="136"/>
       <c r="B6" s="53" t="s">
         <v>499</v>
       </c>
@@ -10443,8 +10462,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="135"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="136"/>
       <c r="B7" s="53" t="s">
         <v>501</v>
       </c>
@@ -10455,14 +10474,14 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="137"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
     </row>
-    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="133" t="s">
+    <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A9" s="135" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -10475,8 +10494,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="137"/>
       <c r="B10" s="82" t="s">
         <v>506</v>
       </c>
@@ -10487,8 +10506,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="131" t="s">
+    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="138" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="88" t="s">
@@ -10501,14 +10520,14 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
+    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="139"/>
       <c r="B12" s="89"/>
       <c r="C12" s="63"/>
       <c r="D12" s="64"/>
     </row>
-    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A13" s="133" t="s">
+    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A13" s="135" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -10521,8 +10540,8 @@
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="135"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="136"/>
       <c r="B14" s="53" t="s">
         <v>514</v>
       </c>
@@ -10533,8 +10552,8 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="136"/>
       <c r="B15" s="53" t="s">
         <v>474</v>
       </c>
@@ -10545,26 +10564,26 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="135"/>
-      <c r="B16" s="137"/>
+    <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A16" s="136"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="142" t="s">
+      <c r="D16" s="132" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="135"/>
-      <c r="B17" s="137"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="136"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="142"/>
-    </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
+      <c r="D17" s="132"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="137"/>
       <c r="B18" s="62"/>
       <c r="C18" s="63" t="s">
         <v>522</v>
@@ -10573,79 +10592,1214 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="131" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="138" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="88" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D19" s="60" t="s">
         <v>1013</v>
       </c>
-      <c r="C19" s="59" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="139"/>
       <c r="B20" s="89"/>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="133" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="135" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="58" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D21" s="60" t="s">
         <v>1060</v>
       </c>
-      <c r="C21" s="59" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="137"/>
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57C620F-2BE4-4B25-88E2-6ADC672F1B61}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFE91FF-44F0-441B-9BF4-83ADF34482BD}">
+  <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="53.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6328125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.36328125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>950</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>951</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>954</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>955</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>956</v>
+      </c>
+      <c r="T1" s="43" t="s">
+        <v>957</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>1035</v>
+      </c>
+      <c r="V1" s="43" t="s">
+        <v>958</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>959</v>
+      </c>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+    </row>
+    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="128" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26" t="s">
+        <v>1037</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>818</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+    </row>
+    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="129"/>
+      <c r="B3" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>724</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>760</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>761</v>
+      </c>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25" t="s">
+        <v>1038</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+      <c r="A4" s="129"/>
+      <c r="B4" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>797</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>823</v>
+      </c>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25" t="s">
+        <v>1039</v>
+      </c>
+      <c r="V4" s="25"/>
+      <c r="W4" s="28" t="s">
+        <v>824</v>
+      </c>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="129"/>
+      <c r="B5" s="96" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>825</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>1040</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="129"/>
+      <c r="B6" s="97" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>803</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>830</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>1041</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>831</v>
+      </c>
+      <c r="W6" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+      <c r="A7" s="125" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>996</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>731</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>1042</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>835</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
+      <c r="A8" s="126"/>
+      <c r="B8" s="96" t="s">
+        <v>998</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>732</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>1043</v>
+      </c>
+      <c r="V8" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="W8" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="126"/>
+      <c r="B9" s="96" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>733</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25" t="s">
+        <v>780</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>995</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>994</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>1044</v>
+      </c>
+      <c r="V9" s="25"/>
+      <c r="W9" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+      <c r="A10" s="126"/>
+      <c r="B10" s="96" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>734</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="T10" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>1045</v>
+      </c>
+      <c r="V10" s="25" t="s">
+        <v>845</v>
+      </c>
+      <c r="W10" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="127"/>
+      <c r="B11" s="98" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>735</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>754</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>756</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="W11" s="30" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+      <c r="A12" s="128" t="s">
+        <v>687</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>691</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>696</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>695</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="79" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K12" s="79" t="s">
+        <v>716</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="149" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="O12" s="79" t="s">
+        <v>717</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q12" s="79" t="s">
+        <v>708</v>
+      </c>
+      <c r="R12" s="79" t="s">
+        <v>708</v>
+      </c>
+      <c r="S12" s="79" t="s">
+        <v>960</v>
+      </c>
+      <c r="T12" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="U12" s="149" t="s">
+        <v>1046</v>
+      </c>
+      <c r="V12" s="79" t="s">
+        <v>713</v>
+      </c>
+      <c r="W12" s="81" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+      <c r="A13" s="129"/>
+      <c r="B13" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="80" t="s">
+        <v>697</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>693</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="80" t="s">
+        <v>699</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="80" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="80" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q13" s="80" t="s">
+        <v>709</v>
+      </c>
+      <c r="R13" s="25"/>
+      <c r="S13" s="80" t="s">
+        <v>711</v>
+      </c>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="80" t="s">
+        <v>1008</v>
+      </c>
+      <c r="W13" s="112" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="131"/>
+      <c r="B14" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="C14" s="147" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="148" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29" t="s">
+        <v>700</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="O14" s="148" t="s">
+        <v>396</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="148" t="s">
+        <v>718</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>961</v>
+      </c>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29" t="s">
+        <v>1036</v>
+      </c>
+      <c r="V14" s="29"/>
+      <c r="W14" s="30"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="L16" s="6"/>
+      <c r="U16"/>
+      <c r="V16"/>
+    </row>
+    <row r="17" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+    </row>
+    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+    </row>
+    <row r="19" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+    </row>
+    <row r="20" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+    </row>
+    <row r="21" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+    </row>
+    <row r="22" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+    </row>
+    <row r="23" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+    </row>
+    <row r="24" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+    </row>
+    <row r="25" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+    </row>
+    <row r="26" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+    </row>
+    <row r="27" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+    </row>
+    <row r="28" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10657,22 +11811,22 @@
       <selection activeCell="L1" sqref="L1:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="6" max="6" width="32.36328125" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="26.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.36328125" customWidth="1"/>
+    <col min="13" max="13" width="26.6328125" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="65" t="s">
         <v>638</v>
       </c>
@@ -10721,7 +11875,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="66" t="s">
         <v>588</v>
       </c>
@@ -10768,7 +11922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="66" t="s">
         <v>589</v>
       </c>
@@ -10815,7 +11969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
         <v>591</v>
       </c>
@@ -10862,7 +12016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="66" t="s">
         <v>593</v>
       </c>
@@ -10900,7 +12054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="66" t="s">
         <v>595</v>
       </c>
@@ -10947,7 +12101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="66" t="s">
         <v>597</v>
       </c>
@@ -10985,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="66" t="s">
         <v>599</v>
       </c>
@@ -11008,7 +12162,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="66" t="s">
         <v>601</v>
       </c>
@@ -11031,7 +12185,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="66" t="s">
         <v>603</v>
       </c>
@@ -11045,7 +12199,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="66" t="s">
         <v>605</v>
       </c>
@@ -11068,7 +12222,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
         <v>607</v>
       </c>
@@ -11091,7 +12245,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D13" s="66" t="s">
         <v>602</v>
       </c>
@@ -11108,7 +12262,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D14" s="66" t="s">
         <v>598</v>
       </c>
@@ -11119,7 +12273,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="D15" s="49" t="s">
         <v>625</v>
       </c>
@@ -11130,7 +12284,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D16" s="66" t="s">
         <v>627</v>
       </c>
@@ -11154,14 +12308,14 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="48" t="s">
         <v>74</v>
       </c>
@@ -11175,7 +12329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
@@ -11195,7 +12349,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
@@ -11209,7 +12363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="46" t="s">
         <v>4</v>
       </c>
@@ -11226,7 +12380,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -11240,7 +12394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -11255,7 +12409,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
@@ -11270,7 +12424,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
@@ -11285,7 +12439,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
@@ -11300,7 +12454,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
@@ -11315,12 +12469,12 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>277</v>
@@ -11329,7 +12483,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
@@ -11344,7 +12498,7 @@
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -11359,7 +12513,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
@@ -11374,7 +12528,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
@@ -11389,7 +12543,7 @@
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
@@ -11404,7 +12558,7 @@
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
@@ -11418,7 +12572,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
@@ -11433,7 +12587,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
@@ -11447,21 +12601,21 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
@@ -11476,7 +12630,7 @@
         <v>Vorwärts aus P7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
@@ -11490,14 +12644,14 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -11514,20 +12668,20 @@
       <selection activeCell="A12" sqref="A12:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="50.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="35.83203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="14.1796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50.81640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.81640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11553,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -11579,7 +12733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -11605,7 +12759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -11631,7 +12785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -11657,7 +12811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -11683,7 +12837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -11709,7 +12863,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -11735,7 +12889,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -11761,7 +12915,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -11787,7 +12941,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -11813,7 +12967,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -11839,7 +12993,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -11865,7 +13019,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -11891,7 +13045,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -11917,7 +13071,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -11943,7 +13097,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -11969,7 +13123,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -11995,7 +13149,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -12021,7 +13175,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -12047,7 +13201,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -12073,7 +13227,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -12099,7 +13253,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -12125,7 +13279,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -12151,7 +13305,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -12177,7 +13331,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -12203,7 +13357,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -12218,14 +13372,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H28" s="6">
         <f>Übersicht!D28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -12233,7 +13387,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -12257,18 +13411,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>261</v>
       </c>
@@ -12281,15 +13435,15 @@
       <c r="D1" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-    </row>
-    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+    </row>
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>251</v>
       </c>
@@ -12310,7 +13464,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>252</v>
       </c>
@@ -12329,7 +13483,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>264</v>
       </c>
@@ -12348,7 +13502,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>253</v>
       </c>
@@ -12367,7 +13521,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>254</v>
       </c>
@@ -12386,7 +13540,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>265</v>
       </c>
@@ -12405,14 +13559,14 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -12436,15 +13590,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" customWidth="1"/>
-    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="3" max="3" width="54.36328125" customWidth="1"/>
+    <col min="4" max="4" width="61.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>261</v>
       </c>
@@ -12458,7 +13612,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="50" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>251</v>
       </c>
@@ -12472,7 +13626,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="50" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>252</v>
       </c>
@@ -12486,7 +13640,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>264</v>
       </c>
@@ -12500,7 +13654,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>253</v>
       </c>
@@ -12514,7 +13668,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>254</v>
       </c>
@@ -12528,7 +13682,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>265</v>
       </c>
@@ -12555,174 +13709,174 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" style="12" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="4" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="4" width="53.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="107" t="s">
+        <v>888</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>889</v>
+      </c>
+      <c r="D1" s="108" t="s">
         <v>890</v>
-      </c>
-      <c r="C1" s="107" t="s">
-        <v>891</v>
-      </c>
-      <c r="D1" s="108" t="s">
-        <v>892</v>
       </c>
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
     </row>
-    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D2" s="105" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
     </row>
-    <row r="3" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D3" s="105" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E3" s="78"/>
       <c r="F3" s="78"/>
     </row>
-    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A4" s="104" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D4" s="105" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
     </row>
-    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.35">
       <c r="A5" s="104" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D5" s="105" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
     </row>
-    <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A6" s="104" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D6" s="105" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
     </row>
-    <row r="7" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A7" s="104" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
     </row>
-    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A8" s="104" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
     </row>
-    <row r="9" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A9" s="104" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E9" s="78"/>
       <c r="F9" s="78"/>
     </row>
-    <row r="10" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="104" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="104" t="s">
         <v>10</v>
       </c>
@@ -12732,39 +13886,39 @@
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
     </row>
-    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A12" s="104" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E12" s="78"/>
       <c r="F12" s="78"/>
     </row>
-    <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A13" s="104" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
     </row>
-    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A14" s="104" t="s">
         <v>13</v>
       </c>
@@ -12780,7 +13934,7 @@
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
     </row>
-    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A15" s="104" t="s">
         <v>14</v>
       </c>
@@ -12788,151 +13942,151 @@
         <v>43</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D15" s="105" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
     </row>
-    <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="100" x14ac:dyDescent="0.35">
       <c r="A16" s="104" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E16" s="78"/>
       <c r="F16" s="78"/>
     </row>
-    <row r="17" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A17" s="104" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D17" s="105" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
     </row>
-    <row r="18" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="62.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D18" s="105" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E18" s="78"/>
       <c r="F18" s="78"/>
     </row>
-    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A19" s="104" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
     </row>
-    <row r="20" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A20" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
     </row>
-    <row r="21" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="104" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D21" s="105" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
     </row>
-    <row r="22" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A22" s="104" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D22" s="105" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E22" s="78"/>
       <c r="F22" s="78"/>
     </row>
-    <row r="23" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A23" s="104" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="109" t="s">
         <v>21</v>
       </c>
@@ -12942,7 +14096,7 @@
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="109" t="s">
         <v>3</v>
       </c>
@@ -12967,30 +14121,30 @@
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.83203125" customWidth="1"/>
-    <col min="10" max="10" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.81640625" customWidth="1"/>
+    <col min="10" max="10" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="36.83203125" customWidth="1"/>
-    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="36.83203125" customWidth="1"/>
-    <col min="22" max="22" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="36.81640625" customWidth="1"/>
+    <col min="19" max="19" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="36.81640625" customWidth="1"/>
+    <col min="22" max="22" width="37.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>238</v>
       </c>
@@ -13025,40 +14179,40 @@
         <v>362</v>
       </c>
       <c r="L1" s="43" t="s">
+        <v>950</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>951</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>952</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="O1" s="45" t="s">
         <v>953</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="P1" s="38" t="s">
         <v>954</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="Q1" s="42" t="s">
         <v>955</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="R1" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="S1" s="43" t="s">
         <v>957</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="T1" s="43" t="s">
+        <v>1030</v>
+      </c>
+      <c r="U1" s="43" t="s">
         <v>958</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="V1" s="44" t="s">
         <v>959</v>
       </c>
-      <c r="T1" s="43" t="s">
-        <v>1032</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>960</v>
-      </c>
-      <c r="V1" s="44" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="70" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>470</v>
       </c>
@@ -13081,13 +14235,13 @@
         <v>536</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>632</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>542</v>
@@ -13102,7 +14256,7 @@
         <v>645</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="P2" s="25" t="s">
         <v>644</v>
@@ -13117,7 +14271,7 @@
         <v>656</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="U2" s="25" t="s">
         <v>585</v>
@@ -13126,116 +14280,116 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="154" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="139" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="102" t="s">
+        <v>851</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>852</v>
+      </c>
+      <c r="D3" s="102" t="s">
         <v>853</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="E3" s="102" t="s">
         <v>854</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="F3" s="25" t="s">
         <v>855</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="G3" s="25" t="s">
         <v>856</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>857</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>858</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>859</v>
-      </c>
       <c r="I3" s="25" t="s">
+        <v>865</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>866</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>867</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>868</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="M3" s="25" t="s">
         <v>869</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="N3" s="25" t="s">
         <v>870</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="O3" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="P3" s="25" t="s">
         <v>871</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>872</v>
       </c>
-      <c r="O3" s="25" t="s">
-        <v>887</v>
-      </c>
-      <c r="P3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="S3" s="25" t="s">
         <v>874</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="T3" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="U3" s="25" t="s">
         <v>875</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="V3" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="T3" s="25" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>877</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="140" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:22" ht="126.5" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>471</v>
       </c>
       <c r="B4" s="102" t="s">
+        <v>858</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>887</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>859</v>
+      </c>
+      <c r="E4" s="102" t="s">
         <v>860</v>
       </c>
-      <c r="C4" s="102" t="s">
-        <v>889</v>
-      </c>
-      <c r="D4" s="102" t="s">
+      <c r="F4" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="G4" s="25" t="s">
         <v>862</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="H4" s="25" t="s">
         <v>863</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>864</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>865</v>
-      </c>
       <c r="I4" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="K4" s="25" t="s">
         <v>879</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="L4" s="25" t="s">
         <v>880</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>881</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>882</v>
       </c>
       <c r="M4" s="25" t="s">
         <v>548</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="O4" s="25" t="s">
         <v>549</v>
@@ -13253,7 +14407,7 @@
         <v>653</v>
       </c>
       <c r="T4" s="25" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="U4" s="25" t="s">
         <v>580</v>
@@ -13262,80 +14416,80 @@
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>472</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E5" s="119" t="s">
         <v>252</v>
       </c>
       <c r="F5" s="119" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H5" s="119" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="I5" s="118" t="s">
         <v>264</v>
       </c>
       <c r="J5" s="118" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="K5" s="118" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="L5" s="118" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M5" s="118" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N5" s="118" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O5" s="118" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P5" s="118" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Q5" s="118" t="s">
+        <v>1015</v>
+      </c>
+      <c r="R5" s="118" t="s">
         <v>1017</v>
       </c>
-      <c r="M5" s="118" t="s">
-        <v>1058</v>
-      </c>
-      <c r="N5" s="118" t="s">
-        <v>1055</v>
-      </c>
-      <c r="O5" s="118" t="s">
+      <c r="S5" s="118" t="s">
         <v>1017</v>
       </c>
-      <c r="P5" s="118" t="s">
+      <c r="T5" s="118" t="s">
+        <v>1053</v>
+      </c>
+      <c r="U5" s="118" t="s">
         <v>1017</v>
       </c>
-      <c r="Q5" s="118" t="s">
-        <v>1017</v>
-      </c>
-      <c r="R5" s="118" t="s">
-        <v>1019</v>
-      </c>
-      <c r="S5" s="118" t="s">
-        <v>1019</v>
-      </c>
-      <c r="T5" s="118" t="s">
-        <v>1055</v>
-      </c>
-      <c r="U5" s="118" t="s">
-        <v>1019</v>
-      </c>
       <c r="V5" s="118" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="154" x14ac:dyDescent="0.2">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="139" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>475</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C6" s="102" t="s">
         <v>481</v>
@@ -13356,13 +14510,13 @@
         <v>538</v>
       </c>
       <c r="I6" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="K6" s="25" t="s">
         <v>884</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>885</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>886</v>
       </c>
       <c r="L6" s="25" t="s">
         <v>551</v>
@@ -13389,7 +14543,7 @@
         <v>654</v>
       </c>
       <c r="T6" s="25" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="U6" s="25" t="s">
         <v>582</v>
@@ -13398,12 +14552,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>473</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C7" s="102" t="s">
         <v>482</v>
@@ -13457,7 +14611,7 @@
         <v>652</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="U7" s="25" t="s">
         <v>574</v>
@@ -13466,7 +14620,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="100" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
         <v>474</v>
       </c>
@@ -13525,7 +14679,7 @@
         <v>655</v>
       </c>
       <c r="T8" s="25" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="U8" s="25" t="s">
         <v>577</v>
@@ -13534,31 +14688,31 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
       <c r="G14" s="67"/>
     </row>
-    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
+    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G16" s="67"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G17" s="67"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G18" s="67"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G19" s="67"/>
     </row>
   </sheetData>
@@ -13576,38 +14730,38 @@
   <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K18" sqref="K18"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="14" customWidth="1"/>
     <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="14" customWidth="1"/>
     <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.36328125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.33203125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="38.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6328125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.36328125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
@@ -13645,37 +14799,37 @@
         <v>362</v>
       </c>
       <c r="M1" s="43" t="s">
+        <v>950</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>951</v>
+      </c>
+      <c r="O1" s="44" t="s">
         <v>952</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="P1" s="45" t="s">
         <v>953</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="Q1" s="38" t="s">
         <v>954</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="R1" s="42" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="S1" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="T1" s="43" t="s">
         <v>957</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="U1" s="43" t="s">
+        <v>1035</v>
+      </c>
+      <c r="V1" s="43" t="s">
         <v>958</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="W1" s="44" t="s">
         <v>959</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>1037</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>960</v>
-      </c>
-      <c r="W1" s="44" t="s">
-        <v>961</v>
       </c>
       <c r="X1" s="92"/>
       <c r="Y1" s="92"/>
@@ -13689,12 +14843,12 @@
       <c r="AG1" s="93"/>
       <c r="AH1" s="93"/>
     </row>
-    <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="128" t="s">
         <v>321</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C2" s="99"/>
       <c r="D2" s="26" t="s">
@@ -13705,7 +14859,7 @@
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H2" s="26"/>
       <c r="I2" s="26" t="s">
@@ -13715,29 +14869,29 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="26" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="R2" s="26" t="s">
         <v>792</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>794</v>
       </c>
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
       <c r="U2" s="26" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="V2" s="26" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
@@ -13751,13 +14905,13 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A3" s="128"/>
+    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="129"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>319</v>
@@ -13766,52 +14920,52 @@
         <v>290</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>370</v>
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>760</v>
+      </c>
+      <c r="M3" s="25" t="s">
         <v>761</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>762</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>763</v>
       </c>
       <c r="N3" s="25"/>
       <c r="O3" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q3" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="Q3" s="25" t="s">
-        <v>797</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>798</v>
-      </c>
       <c r="S3" s="25" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="T3" s="25"/>
       <c r="U3" s="25" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="V3" s="25" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="W3" s="28" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
@@ -13825,16 +14979,16 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A4" s="128"/>
+    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+      <c r="A4" s="129"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>291</v>
@@ -13843,43 +14997,43 @@
         <v>315</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="T4" s="25"/>
       <c r="U4" s="25" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="V4" s="25"/>
       <c r="W4" s="28" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
@@ -13893,67 +15047,67 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A5" s="128"/>
+    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="129"/>
       <c r="B5" s="96" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>316</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="25" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="O5" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q5" s="25" t="s">
         <v>801</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="R5" s="25" t="s">
         <v>802</v>
       </c>
-      <c r="Q5" s="25" t="s">
-        <v>803</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>804</v>
-      </c>
       <c r="S5" s="25" t="s">
+        <v>825</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>1040</v>
+      </c>
+      <c r="V5" s="25" t="s">
         <v>827</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="W5" s="28" t="s">
         <v>828</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>1042</v>
-      </c>
-      <c r="V5" s="25" t="s">
-        <v>829</v>
-      </c>
-      <c r="W5" s="28" t="s">
-        <v>830</v>
       </c>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
@@ -13967,61 +15121,61 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="128"/>
+    <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="129"/>
       <c r="B6" s="97" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C6" s="101" t="s">
         <v>317</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M6" s="29"/>
       <c r="N6" s="29" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="S6" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>830</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>1041</v>
+      </c>
+      <c r="V6" s="29" t="s">
         <v>831</v>
       </c>
-      <c r="T6" s="29" t="s">
+      <c r="W6" s="30" t="s">
         <v>832</v>
-      </c>
-      <c r="U6" s="29" t="s">
-        <v>1043</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>833</v>
-      </c>
-      <c r="W6" s="30" t="s">
-        <v>834</v>
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
@@ -14035,73 +15189,73 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A7" s="124" t="s">
+    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+      <c r="A7" s="125" t="s">
         <v>320</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C7" s="99" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D7" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>738</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>739</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>740</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J7" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="L7" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="M7" s="26" t="s">
         <v>771</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="N7" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="M7" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>774</v>
-      </c>
       <c r="O7" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q7" s="26" t="s">
         <v>806</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="R7" s="26" t="s">
         <v>807</v>
       </c>
-      <c r="Q7" s="26" t="s">
-        <v>808</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>809</v>
-      </c>
       <c r="S7" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>1042</v>
+      </c>
+      <c r="V7" s="26" t="s">
         <v>835</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="W7" s="27" t="s">
         <v>836</v>
-      </c>
-      <c r="U7" s="26" t="s">
-        <v>1044</v>
-      </c>
-      <c r="V7" s="26" t="s">
-        <v>837</v>
-      </c>
-      <c r="W7" s="27" t="s">
-        <v>838</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -14113,69 +15267,69 @@
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
+      <c r="A8" s="126"/>
       <c r="B8" s="96" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D8" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>743</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>744</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>745</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J8" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="L8" s="25" t="s">
         <v>775</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="M8" s="25" t="s">
         <v>776</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="N8" s="25" t="s">
         <v>777</v>
       </c>
-      <c r="M8" s="25" t="s">
-        <v>778</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>779</v>
-      </c>
       <c r="O8" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="Q8" s="25"/>
       <c r="R8" s="25" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="S8" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>1043</v>
+      </c>
+      <c r="V8" s="25" t="s">
         <v>839</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="W8" s="28" t="s">
         <v>840</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>1045</v>
-      </c>
-      <c r="V8" s="25" t="s">
-        <v>841</v>
-      </c>
-      <c r="W8" s="28" t="s">
-        <v>842</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
@@ -14187,65 +15341,65 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
     </row>
-    <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="126"/>
       <c r="B9" s="96" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D9" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>748</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="G9" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="H9" s="25" t="s">
         <v>750</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>751</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>752</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="25" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="25" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="O9" s="25"/>
       <c r="P9" s="25" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="S9" s="25" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="T9" s="25" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="U9" s="25" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="V9" s="25"/>
       <c r="W9" s="28" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -14257,65 +15411,65 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+      <c r="A10" s="126"/>
       <c r="B10" s="96" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="M10" s="25" t="s">
         <v>784</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="N10" s="25" t="s">
         <v>785</v>
       </c>
-      <c r="M10" s="25" t="s">
-        <v>786</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>787</v>
-      </c>
       <c r="O10" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q10" s="25" t="s">
         <v>815</v>
       </c>
-      <c r="P10" s="25" t="s">
-        <v>816</v>
-      </c>
-      <c r="Q10" s="25" t="s">
-        <v>817</v>
-      </c>
       <c r="R10" s="25" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="S10" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="T10" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>1045</v>
+      </c>
+      <c r="V10" s="25" t="s">
         <v>845</v>
       </c>
-      <c r="T10" s="25" t="s">
+      <c r="W10" s="28" t="s">
         <v>846</v>
-      </c>
-      <c r="U10" s="25" t="s">
-        <v>1047</v>
-      </c>
-      <c r="V10" s="25" t="s">
-        <v>847</v>
-      </c>
-      <c r="W10" s="28" t="s">
-        <v>848</v>
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -14327,64 +15481,64 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
     </row>
-    <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
+    <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="127"/>
       <c r="B11" s="98" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D11" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>754</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>755</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="G11" s="29" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>756</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>757</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>758</v>
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="L11" s="29" t="s">
         <v>788</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="M11" s="29" t="s">
         <v>789</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>790</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>791</v>
       </c>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="R11" s="29"/>
       <c r="S11" s="29"/>
       <c r="T11" s="29" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="U11" s="29"/>
       <c r="V11" s="29" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="W11" s="30" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -14393,12 +15547,12 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="L16" s="6"/>
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:22" x14ac:dyDescent="0.35">
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -14409,7 +15563,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -14423,7 +15577,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -14437,7 +15591,7 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -14451,7 +15605,7 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -14465,7 +15619,7 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -14479,7 +15633,7 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -14493,7 +15647,7 @@
       <c r="U23"/>
       <c r="V23"/>
     </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -14507,7 +15661,7 @@
       <c r="U24"/>
       <c r="V24"/>
     </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -14521,7 +15675,7 @@
       <c r="U25"/>
       <c r="V25"/>
     </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="Q26" s="14"/>
@@ -14531,7 +15685,7 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="Q27" s="14"/>
@@ -14541,7 +15695,7 @@
       <c r="U27"/>
       <c r="V27"/>
     </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:22" x14ac:dyDescent="0.35">
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
@@ -14566,34 +15720,34 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" customWidth="1"/>
-    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.83203125" customWidth="1"/>
-    <col min="18" max="18" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.36328125" customWidth="1"/>
+    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.81640625" customWidth="1"/>
+    <col min="18" max="18" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="25.1640625" customWidth="1"/>
-    <col min="23" max="23" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" customWidth="1"/>
+    <col min="20" max="20" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="25.1796875" customWidth="1"/>
+    <col min="23" max="23" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
@@ -14667,8 +15821,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:24" ht="25" x14ac:dyDescent="0.35">
+      <c r="A2" s="128" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -14741,8 +15895,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="128"/>
+    <row r="3" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="129"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
       </c>
@@ -14813,8 +15967,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="70" x14ac:dyDescent="0.2">
-      <c r="A4" s="128"/>
+    <row r="4" spans="1:24" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="129"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
       </c>
@@ -14885,8 +16039,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
+    <row r="5" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="130"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
       </c>
@@ -14957,7 +16111,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A6" s="75" t="s">
         <v>357</v>
       </c>
@@ -15031,7 +16185,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A7" s="76"/>
       <c r="B7" s="33" t="s">
         <v>332</v>
@@ -15103,7 +16257,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
       <c r="B8" s="33" t="s">
         <v>333</v>
@@ -15175,7 +16329,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="76"/>
       <c r="B9" s="33" t="s">
         <v>259</v>
@@ -15247,7 +16401,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="50" x14ac:dyDescent="0.35">
       <c r="A10" s="76"/>
       <c r="B10" s="33" t="s">
         <v>337</v>
@@ -15319,7 +16473,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="84" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="75" x14ac:dyDescent="0.35">
       <c r="A11" s="76"/>
       <c r="B11" s="33" t="s">
         <v>339</v>
@@ -15391,7 +16545,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="77"/>
       <c r="B12" s="35" t="s">
         <v>260</v>
@@ -15463,15 +16617,15 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{76097CDE-4B74-4049-B171-ECFF49732868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{427CB0B1-5A7B-4A11-BE53-8AF56AE3199A}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{76097CDE-4B74-4049-B171-ECFF49732868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E30D1B-8F6E-4628-A14E-5074A1F22138}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="12" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="10" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -23,14 +23,15 @@
     <sheet name="RQ1" sheetId="5" r:id="rId8"/>
     <sheet name="RQ2" sheetId="6" state="hidden" r:id="rId9"/>
     <sheet name="RQ2 (2)" sheetId="14" r:id="rId10"/>
-    <sheet name="RQ3" sheetId="7" r:id="rId11"/>
-    <sheet name="Allgemeine Infos" sheetId="12" r:id="rId12"/>
-    <sheet name="Mapping RQ1 und RQ2" sheetId="17" r:id="rId13"/>
-    <sheet name="Quantitative Analyse" sheetId="13" state="hidden" r:id="rId14"/>
+    <sheet name="Zeitplan" sheetId="18" r:id="rId11"/>
+    <sheet name="RQ3" sheetId="7" r:id="rId12"/>
+    <sheet name="Allgemeine Infos" sheetId="12" r:id="rId13"/>
+    <sheet name="Mapping RQ1 und RQ2" sheetId="17" r:id="rId14"/>
+    <sheet name="Quantitative Analyse" sheetId="13" state="hidden" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Extraktion!$A$1:$V$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'Mapping RQ1 und RQ2'!$A$1:$W$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'Mapping RQ1 und RQ2'!$A$1:$W$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'RQ1'!$A$1:$W$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'RQ2 (2)'!$A$1:$W$12</definedName>
   </definedNames>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1123">
   <si>
     <t>ID</t>
   </si>
@@ -7146,6 +7147,174 @@
   </si>
   <si>
     <t>RLHF/DPO erwähnt, aber kein RL-Anwendungsfall</t>
+  </si>
+  <si>
+    <t>Woche </t>
+  </si>
+  <si>
+    <t>Zeitraum </t>
+  </si>
+  <si>
+    <t>ToDo </t>
+  </si>
+  <si>
+    <t>Info </t>
+  </si>
+  <si>
+    <t>Woche 1 </t>
+  </si>
+  <si>
+    <t>03. Nov </t>
+  </si>
+  <si>
+    <t>Suchstrings finalisieren, Basispaper prüfen </t>
+  </si>
+  <si>
+    <t>Mapping Study Start gemäß Petersen/Wohlin </t>
+  </si>
+  <si>
+    <t>Woche 2 </t>
+  </si>
+  <si>
+    <t>10. Nov </t>
+  </si>
+  <si>
+    <t>Paper-Sichtung &amp; erste Datenextraktion </t>
+  </si>
+  <si>
+    <t>Datenextraktion nach Tabelle 3.2 </t>
+  </si>
+  <si>
+    <t>Woche 3 </t>
+  </si>
+  <si>
+    <t>17. Nov </t>
+  </si>
+  <si>
+    <t>Paper-Analyse fortsetzen, Extraktion vervollständigen </t>
+  </si>
+  <si>
+    <t>Analyse der KI-Ansätze </t>
+  </si>
+  <si>
+    <t>Woche 4 </t>
+  </si>
+  <si>
+    <t>24. Nov </t>
+  </si>
+  <si>
+    <t>Datenextraktion abschließen, Kategorien bilden </t>
+  </si>
+  <si>
+    <t>Kategorien gemäß Platform-Engineering-Bereichen </t>
+  </si>
+  <si>
+    <t>Woche 5 </t>
+  </si>
+  <si>
+    <t>01. Dez </t>
+  </si>
+  <si>
+    <t>Datensynthese vorbereiten </t>
+  </si>
+  <si>
+    <t>Synthesis entlang RQs </t>
+  </si>
+  <si>
+    <t>Woche 6 </t>
+  </si>
+  <si>
+    <t>08. Dez </t>
+  </si>
+  <si>
+    <t>Quantitative Analyse erstellen </t>
+  </si>
+  <si>
+    <t>Statistische Übersicht erstellen </t>
+  </si>
+  <si>
+    <t>Woche 7 </t>
+  </si>
+  <si>
+    <t>15. Dez </t>
+  </si>
+  <si>
+    <t>Mapping Study Kapitel schreiben </t>
+  </si>
+  <si>
+    <t>Kapitel 4 ausformulieren </t>
+  </si>
+  <si>
+    <t>Woche 8 </t>
+  </si>
+  <si>
+    <t>22. Dez </t>
+  </si>
+  <si>
+    <t>Mapping Study finalisieren </t>
+  </si>
+  <si>
+    <t>Review + Konsistenzcheck </t>
+  </si>
+  <si>
+    <t>Woche 9 </t>
+  </si>
+  <si>
+    <t>29. Dez </t>
+  </si>
+  <si>
+    <t>Start Framework-Konzeption (Kriterien sammeln) </t>
+  </si>
+  <si>
+    <t>RQ3 Beginn </t>
+  </si>
+  <si>
+    <t>Woche 10 </t>
+  </si>
+  <si>
+    <t>05. Jan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framework strukturieren </t>
+  </si>
+  <si>
+    <t>Kriterien definieren</t>
+  </si>
+  <si>
+    <t>Woche 11 </t>
+  </si>
+  <si>
+    <t>12. Jan </t>
+  </si>
+  <si>
+    <t>Framework ausarbeiten </t>
+  </si>
+  <si>
+    <t>Kapitel 5 schreiben </t>
+  </si>
+  <si>
+    <t>Woche 12 </t>
+  </si>
+  <si>
+    <t>19. Jan </t>
+  </si>
+  <si>
+    <t>Diskussion + Beantwortung RQs schreiben </t>
+  </si>
+  <si>
+    <t>Kapitel 6 </t>
+  </si>
+  <si>
+    <t>Woche 13 </t>
+  </si>
+  <si>
+    <t>26. Jan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feinschliff, Zusammenfassung  und Ausblick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA finalisieren </t>
   </si>
 </sst>
 </file>
@@ -7281,7 +7450,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7327,6 +7496,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7973,7 +8148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8321,6 +8496,19 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -8354,28 +8542,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8396,19 +8575,16 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -9249,11 +9425,11 @@
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="121" t="s">
+      <c r="G5" s="126" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
     </row>
     <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
@@ -9283,11 +9459,11 @@
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="127" t="s">
         <v>284</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
     </row>
     <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
@@ -9303,9 +9479,9 @@
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
     </row>
     <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -9615,7 +9791,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:W8"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9717,7 +9893,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="133" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -9768,7 +9944,7 @@
       <c r="W2" s="27"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="129"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
       </c>
@@ -9825,7 +10001,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="129"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
       </c>
@@ -9878,7 +10054,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="129"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
       </c>
@@ -9917,7 +10093,7 @@
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="50" x14ac:dyDescent="0.35">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="133" t="s">
         <v>687</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -9949,7 +10125,7 @@
         <v>716</v>
       </c>
       <c r="L6" s="26"/>
-      <c r="M6" s="149" t="s">
+      <c r="M6" s="124" t="s">
         <v>1005</v>
       </c>
       <c r="N6" s="26" t="s">
@@ -9973,7 +10149,7 @@
       <c r="T6" s="26" t="s">
         <v>710</v>
       </c>
-      <c r="U6" s="149" t="s">
+      <c r="U6" s="124" t="s">
         <v>1046</v>
       </c>
       <c r="V6" s="79" t="s">
@@ -9984,7 +10160,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="129"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="33" t="s">
         <v>642</v>
       </c>
@@ -10033,18 +10209,18 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="131"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="122" t="s">
         <v>1065</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="F8" s="148" t="s">
+      <c r="F8" s="123" t="s">
         <v>1066</v>
       </c>
       <c r="G8" s="29"/>
@@ -10061,14 +10237,14 @@
       <c r="N8" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="O8" s="148" t="s">
+      <c r="O8" s="123" t="s">
         <v>396</v>
       </c>
       <c r="P8" s="29" t="s">
         <v>444</v>
       </c>
       <c r="Q8" s="29"/>
-      <c r="R8" s="148" t="s">
+      <c r="R8" s="123" t="s">
         <v>718</v>
       </c>
       <c r="S8" s="29" t="s">
@@ -10082,7 +10258,7 @@
       <c r="W8" s="30"/>
     </row>
     <row r="9" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="134" t="s">
         <v>688</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -10091,7 +10267,7 @@
       <c r="C9" s="32" t="s">
         <v>965</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="125" t="s">
         <v>721</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -10147,7 +10323,7 @@
       <c r="W9" s="27"/>
     </row>
     <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="129"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="113" t="s">
         <v>962</v>
       </c>
@@ -10188,7 +10364,7 @@
       <c r="W10" s="117"/>
     </row>
     <row r="11" spans="1:23" ht="50" x14ac:dyDescent="0.35">
-      <c r="A11" s="129"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="33" t="s">
         <v>963</v>
       </c>
@@ -10239,7 +10415,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="131"/>
+      <c r="A12" s="136"/>
       <c r="B12" s="35" t="s">
         <v>964</v>
       </c>
@@ -10288,7 +10464,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="121" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -10313,6 +10489,221 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7013A05C-DE60-48CF-8EAC-BA1D4A04F40F}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="4" width="50.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="151" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B2" s="151" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C2" s="151" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D2" s="151" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="151" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B3" s="151" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C3" s="151" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D3" s="151" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="151" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B4" s="151" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C4" s="151" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D4" s="151" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="151" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B5" s="151" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C5" s="151" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D5" s="151" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="151" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B6" s="151" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C6" s="151" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D6" s="151" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="74" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="74" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="74" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="74" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="74" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="74" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="74" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="74" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C706DF66-24ED-41CC-A436-656F740ECEA8}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -10382,7 +10773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4371E66-F69A-4A6E-8DB3-95C6DD4CBD0F}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -10413,31 +10804,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="139" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="142" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="133" t="s">
+      <c r="C2" s="145"/>
+      <c r="D2" s="149" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="136"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="132"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="148"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="134"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="150"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="139" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -10451,7 +10842,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="136"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="53" t="s">
         <v>499</v>
       </c>
@@ -10463,7 +10854,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="136"/>
+      <c r="A7" s="141"/>
       <c r="B7" s="53" t="s">
         <v>501</v>
       </c>
@@ -10475,13 +10866,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="137"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="139" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -10495,7 +10886,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="137"/>
+      <c r="A10" s="140"/>
       <c r="B10" s="82" t="s">
         <v>506</v>
       </c>
@@ -10507,7 +10898,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="137" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="88" t="s">
@@ -10521,13 +10912,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="139"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="89"/>
       <c r="C12" s="63"/>
       <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="139" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -10541,7 +10932,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="136"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="53" t="s">
         <v>514</v>
       </c>
@@ -10553,7 +10944,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="136"/>
+      <c r="A15" s="141"/>
       <c r="B15" s="53" t="s">
         <v>474</v>
       </c>
@@ -10565,25 +10956,25 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A16" s="136"/>
-      <c r="B16" s="141"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="143"/>
       <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="132" t="s">
+      <c r="D16" s="148" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="136"/>
-      <c r="B17" s="141"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="132"/>
+      <c r="D17" s="148"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="137"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="62"/>
       <c r="C18" s="63" t="s">
         <v>522</v>
@@ -10593,7 +10984,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="137" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="88" t="s">
@@ -10607,13 +10998,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="139"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="89"/>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="139" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="58" t="s">
@@ -10627,37 +11018,37 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="137"/>
+      <c r="A22" s="140"/>
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFE91FF-44F0-441B-9BF4-83ADF34482BD}">
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10770,7 +11161,7 @@
       <c r="AH1" s="93"/>
     </row>
     <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="133" t="s">
         <v>321</v>
       </c>
       <c r="B2" s="95" t="s">
@@ -10832,7 +11223,7 @@
       <c r="AH2" s="6"/>
     </row>
     <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="129"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
       </c>
@@ -10906,7 +11297,7 @@
       <c r="AH3" s="6"/>
     </row>
     <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A4" s="129"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
       </c>
@@ -10974,7 +11365,7 @@
       <c r="AH4" s="6"/>
     </row>
     <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="129"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="96" t="s">
         <v>1016</v>
       </c>
@@ -11048,7 +11439,7 @@
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="129"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="97" t="s">
         <v>1017</v>
       </c>
@@ -11116,7 +11507,7 @@
       <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="130" t="s">
         <v>320</v>
       </c>
       <c r="B7" s="95" t="s">
@@ -11194,7 +11585,7 @@
       <c r="AH7" s="6"/>
     </row>
     <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
-      <c r="A8" s="126"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="96" t="s">
         <v>998</v>
       </c>
@@ -11268,7 +11659,7 @@
       <c r="AH8" s="6"/>
     </row>
     <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="126"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="96" t="s">
         <v>1018</v>
       </c>
@@ -11338,7 +11729,7 @@
       <c r="AH9" s="6"/>
     </row>
     <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A10" s="126"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="96" t="s">
         <v>1019</v>
       </c>
@@ -11408,7 +11799,7 @@
       <c r="AH10" s="6"/>
     </row>
     <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="127"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="98" t="s">
         <v>1020</v>
       </c>
@@ -11465,7 +11856,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="133" t="s">
         <v>687</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -11497,7 +11888,7 @@
         <v>716</v>
       </c>
       <c r="L12" s="26"/>
-      <c r="M12" s="149" t="s">
+      <c r="M12" s="124" t="s">
         <v>1005</v>
       </c>
       <c r="N12" s="26" t="s">
@@ -11521,7 +11912,7 @@
       <c r="T12" s="26" t="s">
         <v>710</v>
       </c>
-      <c r="U12" s="149" t="s">
+      <c r="U12" s="124" t="s">
         <v>1046</v>
       </c>
       <c r="V12" s="79" t="s">
@@ -11532,7 +11923,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A13" s="129"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="33" t="s">
         <v>642</v>
       </c>
@@ -11581,18 +11972,18 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="131"/>
+      <c r="A14" s="136"/>
       <c r="B14" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="C14" s="147" t="s">
+      <c r="C14" s="122" t="s">
         <v>1065</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="F14" s="148" t="s">
+      <c r="F14" s="123" t="s">
         <v>1066</v>
       </c>
       <c r="G14" s="29"/>
@@ -11609,14 +12000,14 @@
       <c r="N14" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="O14" s="148" t="s">
+      <c r="O14" s="123" t="s">
         <v>396</v>
       </c>
       <c r="P14" s="29" t="s">
         <v>444</v>
       </c>
       <c r="Q14" s="29"/>
-      <c r="R14" s="148" t="s">
+      <c r="R14" s="123" t="s">
         <v>718</v>
       </c>
       <c r="S14" s="29" t="s">
@@ -11803,7 +12194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DE2F3E-D1CE-4B93-B6DF-12C89A233AC2}">
   <dimension ref="A1:R16"/>
   <sheetViews>
@@ -13435,13 +13826,13 @@
       <c r="D1" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
     </row>
     <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
@@ -14689,18 +15080,18 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
       <c r="G15" s="67"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
@@ -14844,7 +15235,7 @@
       <c r="AH1" s="93"/>
     </row>
     <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="133" t="s">
         <v>321</v>
       </c>
       <c r="B2" s="95" t="s">
@@ -14906,7 +15297,7 @@
       <c r="AH2" s="6"/>
     </row>
     <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="129"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
       </c>
@@ -14980,7 +15371,7 @@
       <c r="AH3" s="6"/>
     </row>
     <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A4" s="129"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
       </c>
@@ -15048,7 +15439,7 @@
       <c r="AH4" s="6"/>
     </row>
     <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="129"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="96" t="s">
         <v>1016</v>
       </c>
@@ -15122,7 +15513,7 @@
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="129"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="97" t="s">
         <v>1017</v>
       </c>
@@ -15190,7 +15581,7 @@
       <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="130" t="s">
         <v>320</v>
       </c>
       <c r="B7" s="95" t="s">
@@ -15268,7 +15659,7 @@
       <c r="AH7" s="6"/>
     </row>
     <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
-      <c r="A8" s="126"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="96" t="s">
         <v>998</v>
       </c>
@@ -15342,7 +15733,7 @@
       <c r="AH8" s="6"/>
     </row>
     <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="126"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="96" t="s">
         <v>1018</v>
       </c>
@@ -15412,7 +15803,7 @@
       <c r="AH9" s="6"/>
     </row>
     <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A10" s="126"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="96" t="s">
         <v>1019</v>
       </c>
@@ -15482,7 +15873,7 @@
       <c r="AH10" s="6"/>
     </row>
     <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="127"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="98" t="s">
         <v>1020</v>
       </c>
@@ -15822,7 +16213,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="133" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -15896,7 +16287,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="129"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
       </c>
@@ -15968,7 +16359,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="129"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
       </c>
@@ -16040,7 +16431,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="130"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
       </c>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{76097CDE-4B74-4049-B171-ECFF49732868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E30D1B-8F6E-4628-A14E-5074A1F22138}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C284F5-3215-2441-BBD1-F9A85181A7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="10" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="28800" yWindow="1480" windowWidth="20320" windowHeight="14920" firstSheet="1" activeTab="9" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -7450,7 +7450,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7502,6 +7502,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8148,7 +8154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8506,9 +8512,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -8542,19 +8546,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8575,16 +8588,12 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -9349,14 +9358,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="3" width="57.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -9370,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9384,7 +9393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9398,7 +9407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
@@ -9412,7 +9421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -9431,7 +9440,7 @@
       <c r="H5" s="126"/>
       <c r="I5" s="126"/>
     </row>
-    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
@@ -9445,7 +9454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -9465,7 +9474,7 @@
       <c r="H7" s="127"/>
       <c r="I7" s="127"/>
     </row>
-    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -9483,7 +9492,7 @@
       <c r="H8" s="127"/>
       <c r="I8" s="127"/>
     </row>
-    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -9498,7 +9507,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -9513,7 +9522,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -9528,7 +9537,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -9543,7 +9552,7 @@
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -9558,7 +9567,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -9573,7 +9582,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -9588,7 +9597,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
@@ -9603,7 +9612,7 @@
         <v>Vorwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
@@ -9618,7 +9627,7 @@
         <v>Vorwärts aus P4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
@@ -9633,7 +9642,7 @@
         <v>Rückwärts aus P4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>19</v>
       </c>
@@ -9648,7 +9657,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
@@ -9663,7 +9672,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>21</v>
       </c>
@@ -9678,7 +9687,7 @@
         <v>Rückwärts aus P5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
@@ -9693,7 +9702,7 @@
         <v>Rückwärts aus P16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -9708,7 +9717,7 @@
         <v>Rückwärts aus P18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -9723,7 +9732,7 @@
         <v>Vorwärts aus P6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -9738,7 +9747,7 @@
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -9753,24 +9762,24 @@
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -9789,39 +9798,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABEDA27-D2D0-4564-B71F-CD6FB3721653}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="19" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.81640625" customWidth="1"/>
+    <col min="19" max="19" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
@@ -9892,7 +9901,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>255</v>
       </c>
@@ -9943,7 +9952,7 @@
       </c>
       <c r="W2" s="27"/>
     </row>
-    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="42" x14ac:dyDescent="0.2">
       <c r="A3" s="134"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
@@ -10000,7 +10009,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="70" x14ac:dyDescent="0.2">
       <c r="A4" s="134"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
@@ -10053,7 +10062,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="134"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
@@ -10092,7 +10101,7 @@
       <c r="V5" s="29"/>
       <c r="W5" s="30"/>
     </row>
-    <row r="6" spans="1:23" ht="50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="56" x14ac:dyDescent="0.2">
       <c r="A6" s="133" t="s">
         <v>687</v>
       </c>
@@ -10159,7 +10168,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="134"/>
       <c r="B7" s="33" t="s">
         <v>642</v>
@@ -10208,7 +10217,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="136"/>
       <c r="B8" s="35" t="s">
         <v>592</v>
@@ -10257,7 +10266,7 @@
       <c r="V8" s="29"/>
       <c r="W8" s="30"/>
     </row>
-    <row r="9" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="42" x14ac:dyDescent="0.2">
       <c r="A9" s="134" t="s">
         <v>688</v>
       </c>
@@ -10267,7 +10276,7 @@
       <c r="C9" s="32" t="s">
         <v>965</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="26" t="s">
         <v>721</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -10322,7 +10331,7 @@
       </c>
       <c r="W9" s="27"/>
     </row>
-    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="134"/>
       <c r="B10" s="113" t="s">
         <v>962</v>
@@ -10363,7 +10372,7 @@
       </c>
       <c r="W10" s="117"/>
     </row>
-    <row r="11" spans="1:23" ht="50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="42" x14ac:dyDescent="0.2">
       <c r="A11" s="134"/>
       <c r="B11" s="33" t="s">
         <v>963</v>
@@ -10389,7 +10398,7 @@
       <c r="K11" s="25" t="s">
         <v>976</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="152" t="s">
         <v>977</v>
       </c>
       <c r="M11" s="25"/>
@@ -10414,7 +10423,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="136"/>
       <c r="B12" s="35" t="s">
         <v>964</v>
@@ -10424,7 +10433,7 @@
       <c r="E12" s="29" t="s">
         <v>967</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="151" t="s">
         <v>981</v>
       </c>
       <c r="G12" s="29"/>
@@ -10455,28 +10464,28 @@
       </c>
       <c r="W12" s="30"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="L14" s="78"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="68" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="121" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
@@ -10492,17 +10501,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7013A05C-DE60-48CF-8EAC-BA1D4A04F40F}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="4" width="50.08984375" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="4" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
         <v>1067</v>
       </c>
@@ -10516,77 +10525,77 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="151" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="125" t="s">
         <v>1071</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="125" t="s">
         <v>1072</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="125" t="s">
         <v>1073</v>
       </c>
-      <c r="D2" s="151" t="s">
+      <c r="D2" s="125" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="151" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="125" t="s">
         <v>1075</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="125" t="s">
         <v>1076</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="125" t="s">
         <v>1077</v>
       </c>
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="125" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="151" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="125" t="s">
         <v>1079</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="125" t="s">
         <v>1080</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="125" t="s">
         <v>1081</v>
       </c>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="125" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="151" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="125" t="s">
         <v>1083</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="125" t="s">
         <v>1084</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="125" t="s">
         <v>1085</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="125" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="151" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="125" t="s">
         <v>1087</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="125" t="s">
         <v>1088</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="125" t="s">
         <v>1089</v>
       </c>
-      <c r="D6" s="151" t="s">
+      <c r="D6" s="125" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="74" t="s">
         <v>1091</v>
       </c>
@@ -10600,7 +10609,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="74" t="s">
         <v>1095</v>
       </c>
@@ -10614,7 +10623,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
         <v>1099</v>
       </c>
@@ -10628,7 +10637,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="74" t="s">
         <v>1103</v>
       </c>
@@ -10642,7 +10651,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="74" t="s">
         <v>1107</v>
       </c>
@@ -10656,7 +10665,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="74" t="s">
         <v>1111</v>
       </c>
@@ -10670,7 +10679,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="74" t="s">
         <v>1115</v>
       </c>
@@ -10684,7 +10693,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="74" t="s">
         <v>1119</v>
       </c>
@@ -10711,14 +10720,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>238</v>
       </c>
@@ -10729,7 +10738,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>241</v>
       </c>
@@ -10740,7 +10749,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>243</v>
       </c>
@@ -10749,7 +10758,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>245</v>
       </c>
@@ -10758,7 +10767,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>246</v>
       </c>
@@ -10781,15 +10790,15 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="138.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="138.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>491</v>
       </c>
@@ -10803,32 +10812,32 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="139" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="140" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="145" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="149" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="138" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="141"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="148"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="140"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="150"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="139" t="s">
+      <c r="B3" s="146"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="137"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="142"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="139"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="140" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -10841,7 +10850,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="141"/>
       <c r="B6" s="53" t="s">
         <v>499</v>
@@ -10853,7 +10862,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141"/>
       <c r="B7" s="53" t="s">
         <v>501</v>
@@ -10865,14 +10874,14 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="140"/>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="142"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
     </row>
-    <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A9" s="139" t="s">
+    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="140" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -10885,8 +10894,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="140"/>
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="142"/>
       <c r="B10" s="82" t="s">
         <v>506</v>
       </c>
@@ -10897,8 +10906,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="137" t="s">
+    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="143" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="88" t="s">
@@ -10911,14 +10920,14 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="138"/>
+    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="144"/>
       <c r="B12" s="89"/>
       <c r="C12" s="63"/>
       <c r="D12" s="64"/>
     </row>
-    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A13" s="139" t="s">
+    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A13" s="140" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -10931,7 +10940,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="141"/>
       <c r="B14" s="53" t="s">
         <v>514</v>
@@ -10943,7 +10952,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="141"/>
       <c r="B15" s="53" t="s">
         <v>474</v>
@@ -10955,26 +10964,26 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="141"/>
-      <c r="B16" s="143"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="148" t="s">
+      <c r="D16" s="137" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="141"/>
-      <c r="B17" s="143"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="148"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="140"/>
+      <c r="D17" s="137"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="142"/>
       <c r="B18" s="62"/>
       <c r="C18" s="63" t="s">
         <v>522</v>
@@ -10983,8 +10992,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="137" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="143" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="88" t="s">
@@ -10997,14 +11006,14 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="138"/>
+    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="144"/>
       <c r="B20" s="89"/>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="139" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="140" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="58" t="s">
@@ -11017,26 +11026,26 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="140"/>
+    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="142"/>
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11051,34 +11060,34 @@
       <selection pane="topRight" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
     <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6328125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.36328125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="38.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.33203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
@@ -11160,7 +11169,7 @@
       <c r="AG1" s="93"/>
       <c r="AH1" s="93"/>
     </row>
-    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>321</v>
       </c>
@@ -11222,7 +11231,7 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A3" s="134"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
@@ -11296,7 +11305,7 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="134"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
@@ -11364,7 +11373,7 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A5" s="134"/>
       <c r="B5" s="96" t="s">
         <v>1016</v>
@@ -11438,7 +11447,7 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="134"/>
       <c r="B6" s="97" t="s">
         <v>1017</v>
@@ -11506,7 +11515,7 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="130" t="s">
         <v>320</v>
       </c>
@@ -11584,7 +11593,7 @@
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
       <c r="A8" s="131"/>
       <c r="B8" s="96" t="s">
         <v>998</v>
@@ -11658,7 +11667,7 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
     </row>
-    <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A9" s="131"/>
       <c r="B9" s="96" t="s">
         <v>1018</v>
@@ -11728,7 +11737,7 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="131"/>
       <c r="B10" s="96" t="s">
         <v>1019</v>
@@ -11798,7 +11807,7 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
     </row>
-    <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="132"/>
       <c r="B11" s="98" t="s">
         <v>1020</v>
@@ -11855,7 +11864,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A12" s="133" t="s">
         <v>687</v>
       </c>
@@ -11922,7 +11931,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A13" s="134"/>
       <c r="B13" s="33" t="s">
         <v>642</v>
@@ -11971,7 +11980,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="136"/>
       <c r="B14" s="35" t="s">
         <v>592</v>
@@ -12020,7 +12029,7 @@
       <c r="V14" s="29"/>
       <c r="W14" s="30"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -12029,12 +12038,12 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="L16" s="6"/>
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:22" x14ac:dyDescent="0.2">
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -12045,7 +12054,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -12059,7 +12068,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -12073,7 +12082,7 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -12087,7 +12096,7 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -12101,7 +12110,7 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -12115,7 +12124,7 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -12129,7 +12138,7 @@
       <c r="U23"/>
       <c r="V23"/>
     </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -12143,7 +12152,7 @@
       <c r="U24"/>
       <c r="V24"/>
     </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -12157,7 +12166,7 @@
       <c r="U25"/>
       <c r="V25"/>
     </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="9:22" x14ac:dyDescent="0.2">
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="Q26" s="14"/>
@@ -12167,7 +12176,7 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="9:22" x14ac:dyDescent="0.2">
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="Q27" s="14"/>
@@ -12177,7 +12186,7 @@
       <c r="U27"/>
       <c r="V27"/>
     </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="9:22" x14ac:dyDescent="0.2">
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
@@ -12202,22 +12211,22 @@
       <selection activeCell="L1" sqref="L1:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
-    <col min="6" max="6" width="32.36328125" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="12" max="12" width="17.36328125" customWidth="1"/>
-    <col min="13" max="13" width="26.6328125" customWidth="1"/>
-    <col min="17" max="17" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="26.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
         <v>638</v>
       </c>
@@ -12266,7 +12275,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>588</v>
       </c>
@@ -12313,7 +12322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>589</v>
       </c>
@@ -12360,7 +12369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>591</v>
       </c>
@@ -12407,7 +12416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
         <v>593</v>
       </c>
@@ -12445,7 +12454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
         <v>595</v>
       </c>
@@ -12492,7 +12501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="66" t="s">
         <v>597</v>
       </c>
@@ -12530,7 +12539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="66" t="s">
         <v>599</v>
       </c>
@@ -12553,7 +12562,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="66" t="s">
         <v>601</v>
       </c>
@@ -12576,7 +12585,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="66" t="s">
         <v>603</v>
       </c>
@@ -12590,7 +12599,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="66" t="s">
         <v>605</v>
       </c>
@@ -12613,7 +12622,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
         <v>607</v>
       </c>
@@ -12636,7 +12645,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="D13" s="66" t="s">
         <v>602</v>
       </c>
@@ -12653,7 +12662,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="D14" s="66" t="s">
         <v>598</v>
       </c>
@@ -12664,7 +12673,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="D15" s="49" t="s">
         <v>625</v>
       </c>
@@ -12675,7 +12684,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="D16" s="66" t="s">
         <v>627</v>
       </c>
@@ -12699,14 +12708,14 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>74</v>
       </c>
@@ -12720,7 +12729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
@@ -12740,7 +12749,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
@@ -12754,7 +12763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>4</v>
       </c>
@@ -12771,7 +12780,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -12785,7 +12794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -12800,7 +12809,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
@@ -12815,7 +12824,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
@@ -12830,7 +12839,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
@@ -12845,7 +12854,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
@@ -12860,7 +12869,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -12874,7 +12883,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
@@ -12889,7 +12898,7 @@
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -12904,7 +12913,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
@@ -12919,7 +12928,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
@@ -12934,7 +12943,7 @@
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
@@ -12949,7 +12958,7 @@
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
@@ -12963,7 +12972,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
@@ -12978,7 +12987,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
@@ -12992,7 +13001,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -13006,7 +13015,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
@@ -13021,7 +13030,7 @@
         <v>Vorwärts aus P7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
@@ -13035,14 +13044,14 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -13059,20 +13068,20 @@
       <selection activeCell="A12" sqref="A12:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.453125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="50.81640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="35.81640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="10.81640625" style="7"/>
+    <col min="2" max="2" width="14.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -13098,7 +13107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -13124,7 +13133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -13150,7 +13159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -13176,7 +13185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -13202,7 +13211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -13228,7 +13237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -13254,7 +13263,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -13280,7 +13289,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -13306,7 +13315,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -13332,7 +13341,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -13358,7 +13367,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -13384,7 +13393,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -13410,7 +13419,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -13436,7 +13445,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -13462,7 +13471,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -13488,7 +13497,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -13514,7 +13523,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -13540,7 +13549,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -13566,7 +13575,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -13592,7 +13601,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -13618,7 +13627,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -13644,7 +13653,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -13670,7 +13679,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -13696,7 +13705,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -13722,7 +13731,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -13748,7 +13757,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -13763,14 +13772,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H28" s="6">
         <f>Übersicht!D28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -13778,7 +13787,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -13802,18 +13811,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="29.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>261</v>
       </c>
@@ -13834,7 +13843,7 @@
       <c r="J1" s="128"/>
       <c r="K1" s="128"/>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>251</v>
       </c>
@@ -13855,7 +13864,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>252</v>
       </c>
@@ -13874,7 +13883,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>264</v>
       </c>
@@ -13893,7 +13902,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>253</v>
       </c>
@@ -13912,7 +13921,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>254</v>
       </c>
@@ -13931,7 +13940,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>265</v>
       </c>
@@ -13950,14 +13959,14 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -13981,15 +13990,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" customWidth="1"/>
-    <col min="3" max="3" width="54.36328125" customWidth="1"/>
-    <col min="4" max="4" width="61.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>261</v>
       </c>
@@ -14003,7 +14012,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="56" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>251</v>
       </c>
@@ -14017,7 +14026,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>252</v>
       </c>
@@ -14031,7 +14040,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>264</v>
       </c>
@@ -14045,7 +14054,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>253</v>
       </c>
@@ -14059,7 +14068,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>254</v>
       </c>
@@ -14073,7 +14082,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>265</v>
       </c>
@@ -14100,14 +14109,14 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="12" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
-    <col min="3" max="4" width="53.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="4" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
@@ -14123,7 +14132,7 @@
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
     </row>
-    <row r="2" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
@@ -14139,7 +14148,7 @@
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
     </row>
-    <row r="3" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="70" x14ac:dyDescent="0.2">
       <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
@@ -14155,7 +14164,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="78"/>
     </row>
-    <row r="4" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="104" t="s">
         <v>4</v>
       </c>
@@ -14171,7 +14180,7 @@
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>5</v>
       </c>
@@ -14187,7 +14196,7 @@
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
     </row>
-    <row r="6" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.2">
       <c r="A6" s="104" t="s">
         <v>6</v>
       </c>
@@ -14203,7 +14212,7 @@
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
     </row>
-    <row r="7" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>7</v>
       </c>
@@ -14219,7 +14228,7 @@
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
     </row>
-    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="104" t="s">
         <v>8</v>
       </c>
@@ -14235,7 +14244,7 @@
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
     </row>
-    <row r="9" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A9" s="104" t="s">
         <v>9</v>
       </c>
@@ -14251,7 +14260,7 @@
       <c r="E9" s="78"/>
       <c r="F9" s="78"/>
     </row>
-    <row r="10" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="104" t="s">
         <v>10</v>
       </c>
@@ -14267,7 +14276,7 @@
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="104" t="s">
         <v>10</v>
       </c>
@@ -14277,7 +14286,7 @@
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
     </row>
-    <row r="12" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A12" s="104" t="s">
         <v>11</v>
       </c>
@@ -14293,7 +14302,7 @@
       <c r="E12" s="78"/>
       <c r="F12" s="78"/>
     </row>
-    <row r="13" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A13" s="104" t="s">
         <v>12</v>
       </c>
@@ -14309,7 +14318,7 @@
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
     </row>
-    <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A14" s="104" t="s">
         <v>13</v>
       </c>
@@ -14325,7 +14334,7 @@
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
     </row>
-    <row r="15" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="104" t="s">
         <v>14</v>
       </c>
@@ -14341,7 +14350,7 @@
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
     </row>
-    <row r="16" spans="1:6" ht="100" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" s="104" t="s">
         <v>15</v>
       </c>
@@ -14357,7 +14366,7 @@
       <c r="E16" s="78"/>
       <c r="F16" s="78"/>
     </row>
-    <row r="17" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A17" s="104" t="s">
         <v>16</v>
       </c>
@@ -14373,7 +14382,7 @@
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
     </row>
-    <row r="18" spans="1:6" ht="62.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="104" t="s">
         <v>18</v>
       </c>
@@ -14389,7 +14398,7 @@
       <c r="E18" s="78"/>
       <c r="F18" s="78"/>
     </row>
-    <row r="19" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A19" s="104" t="s">
         <v>17</v>
       </c>
@@ -14405,7 +14414,7 @@
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
     </row>
-    <row r="20" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A20" s="104" t="s">
         <v>18</v>
       </c>
@@ -14421,7 +14430,7 @@
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
     </row>
-    <row r="21" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="104" t="s">
         <v>21</v>
       </c>
@@ -14437,7 +14446,7 @@
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
     </row>
-    <row r="22" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A22" s="104" t="s">
         <v>19</v>
       </c>
@@ -14453,7 +14462,7 @@
       <c r="E22" s="78"/>
       <c r="F22" s="78"/>
     </row>
-    <row r="23" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="70" x14ac:dyDescent="0.2">
       <c r="A23" s="104" t="s">
         <v>20</v>
       </c>
@@ -14469,15 +14478,15 @@
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="109" t="s">
         <v>21</v>
       </c>
@@ -14487,7 +14496,7 @@
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="109" t="s">
         <v>3</v>
       </c>
@@ -14512,30 +14521,30 @@
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.81640625" customWidth="1"/>
-    <col min="10" max="10" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="36.81640625" customWidth="1"/>
-    <col min="19" max="19" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="36.81640625" customWidth="1"/>
-    <col min="22" max="22" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="36.83203125" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="36.83203125" customWidth="1"/>
+    <col min="22" max="22" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>238</v>
       </c>
@@ -14603,7 +14612,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>470</v>
       </c>
@@ -14671,7 +14680,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="139" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="154" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
         <v>81</v>
       </c>
@@ -14739,7 +14748,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="126.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="140" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>471</v>
       </c>
@@ -14807,7 +14816,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>472</v>
       </c>
@@ -14875,7 +14884,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="139" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="154" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>475</v>
       </c>
@@ -14943,7 +14952,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="70" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>473</v>
       </c>
@@ -15011,7 +15020,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="100" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>474</v>
       </c>
@@ -15079,31 +15088,31 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="129"/>
       <c r="C13" s="129"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" s="129"/>
       <c r="C14" s="129"/>
       <c r="G14" s="67"/>
     </row>
-    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="129"/>
       <c r="C15" s="129"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G16" s="67"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="67"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="67"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="67"/>
     </row>
   </sheetData>
@@ -15121,38 +15130,38 @@
   <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:W11"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
     <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6328125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.36328125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="38.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.33203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
@@ -15234,7 +15243,7 @@
       <c r="AG1" s="93"/>
       <c r="AH1" s="93"/>
     </row>
-    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>321</v>
       </c>
@@ -15296,7 +15305,7 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A3" s="134"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
@@ -15370,7 +15379,7 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="134"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
@@ -15438,7 +15447,7 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A5" s="134"/>
       <c r="B5" s="96" t="s">
         <v>1016</v>
@@ -15512,7 +15521,7 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="134"/>
       <c r="B6" s="97" t="s">
         <v>1017</v>
@@ -15580,7 +15589,7 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="130" t="s">
         <v>320</v>
       </c>
@@ -15658,7 +15667,7 @@
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
       <c r="A8" s="131"/>
       <c r="B8" s="96" t="s">
         <v>998</v>
@@ -15732,7 +15741,7 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
     </row>
-    <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A9" s="131"/>
       <c r="B9" s="96" t="s">
         <v>1018</v>
@@ -15802,7 +15811,7 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="131"/>
       <c r="B10" s="96" t="s">
         <v>1019</v>
@@ -15872,7 +15881,7 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
     </row>
-    <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="132"/>
       <c r="B11" s="98" t="s">
         <v>1020</v>
@@ -15929,7 +15938,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -15938,12 +15947,12 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="L16" s="6"/>
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:22" x14ac:dyDescent="0.2">
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -15954,7 +15963,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -15968,7 +15977,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -15982,7 +15991,7 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -15996,7 +16005,7 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -16010,7 +16019,7 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -16024,7 +16033,7 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -16038,7 +16047,7 @@
       <c r="U23"/>
       <c r="V23"/>
     </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -16052,7 +16061,7 @@
       <c r="U24"/>
       <c r="V24"/>
     </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -16066,7 +16075,7 @@
       <c r="U25"/>
       <c r="V25"/>
     </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="9:22" x14ac:dyDescent="0.2">
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="Q26" s="14"/>
@@ -16076,7 +16085,7 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="9:22" x14ac:dyDescent="0.2">
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="Q27" s="14"/>
@@ -16086,7 +16095,7 @@
       <c r="U27"/>
       <c r="V27"/>
     </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="9:22" x14ac:dyDescent="0.2">
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
@@ -16111,34 +16120,34 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.36328125" customWidth="1"/>
-    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.81640625" customWidth="1"/>
-    <col min="18" max="18" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="25.1796875" customWidth="1"/>
-    <col min="23" max="23" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.81640625" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="25.1640625" customWidth="1"/>
+    <col min="23" max="23" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
@@ -16212,7 +16221,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>255</v>
       </c>
@@ -16286,7 +16295,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A3" s="134"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
@@ -16358,7 +16367,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="70" x14ac:dyDescent="0.2">
       <c r="A4" s="134"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
@@ -16430,7 +16439,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
@@ -16502,7 +16511,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A6" s="75" t="s">
         <v>357</v>
       </c>
@@ -16576,7 +16585,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A7" s="76"/>
       <c r="B7" s="33" t="s">
         <v>332</v>
@@ -16648,7 +16657,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="76"/>
       <c r="B8" s="33" t="s">
         <v>333</v>
@@ -16720,7 +16729,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A9" s="76"/>
       <c r="B9" s="33" t="s">
         <v>259</v>
@@ -16792,7 +16801,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="76"/>
       <c r="B10" s="33" t="s">
         <v>337</v>
@@ -16864,7 +16873,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="84" x14ac:dyDescent="0.2">
       <c r="A11" s="76"/>
       <c r="B11" s="33" t="s">
         <v>339</v>
@@ -16936,7 +16945,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="77"/>
       <c r="B12" s="35" t="s">
         <v>260</v>
@@ -17008,15 +17017,15 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C284F5-3215-2441-BBD1-F9A85181A7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{14C284F5-3215-2441-BBD1-F9A85181A7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63C79172-D32D-49CF-B21E-98D344C34BC8}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1480" windowWidth="20320" windowHeight="14920" firstSheet="1" activeTab="9" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="13" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Extraktion!$A$1:$V$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'Mapping RQ1 und RQ2'!$A$1:$W$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'Mapping RQ1 und RQ2'!$A$1:$W$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'RQ1'!$A$1:$W$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'RQ2 (2)'!$A$1:$W$12</definedName>
   </definedNames>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1122">
   <si>
     <t>ID</t>
   </si>
@@ -6816,9 +6816,6 @@
   </si>
   <si>
     <t>Statische Analyse</t>
-  </si>
-  <si>
-    <t>Discriminative models</t>
   </si>
   <si>
     <t>Large Generative Models (LLMs), Transformer, RAG, DL</t>
@@ -7450,7 +7447,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7502,12 +7499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8546,28 +8537,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8588,10 +8570,19 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9358,14 +9349,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="57.36328125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -9379,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9393,7 +9384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9407,7 +9398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
@@ -9421,7 +9412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -9440,7 +9431,7 @@
       <c r="H5" s="126"/>
       <c r="I5" s="126"/>
     </row>
-    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
@@ -9454,7 +9445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -9474,7 +9465,7 @@
       <c r="H7" s="127"/>
       <c r="I7" s="127"/>
     </row>
-    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -9492,7 +9483,7 @@
       <c r="H8" s="127"/>
       <c r="I8" s="127"/>
     </row>
-    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -9507,7 +9498,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -9522,7 +9513,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -9537,7 +9528,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -9552,7 +9543,7 @@
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -9567,7 +9558,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -9582,7 +9573,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -9597,7 +9588,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
@@ -9612,7 +9603,7 @@
         <v>Vorwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
@@ -9627,7 +9618,7 @@
         <v>Vorwärts aus P4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
@@ -9642,7 +9633,7 @@
         <v>Rückwärts aus P4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="21" t="s">
         <v>19</v>
       </c>
@@ -9657,7 +9648,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
@@ -9672,7 +9663,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="21" t="s">
         <v>21</v>
       </c>
@@ -9687,7 +9678,7 @@
         <v>Rückwärts aus P5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
@@ -9702,7 +9693,7 @@
         <v>Rückwärts aus P16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -9717,7 +9708,7 @@
         <v>Rückwärts aus P18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -9732,7 +9723,7 @@
         <v>Vorwärts aus P6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -9747,7 +9738,7 @@
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -9762,24 +9753,24 @@
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -9798,39 +9789,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABEDA27-D2D0-4564-B71F-CD6FB3721653}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.453125" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="19" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.83203125" customWidth="1"/>
+    <col min="19" max="19" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
@@ -9892,7 +9883,7 @@
         <v>957</v>
       </c>
       <c r="U1" s="43" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V1" s="43" t="s">
         <v>958</v>
@@ -9901,7 +9892,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="133" t="s">
         <v>255</v>
       </c>
@@ -9922,7 +9913,7 @@
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="26" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>372</v>
@@ -9952,7 +9943,7 @@
       </c>
       <c r="W2" s="27"/>
     </row>
-    <row r="3" spans="1:23" ht="42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A3" s="134"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
@@ -10009,7 +10000,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A4" s="134"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
@@ -10026,7 +10017,7 @@
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25" t="s">
@@ -10062,7 +10053,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="134"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
@@ -10101,7 +10092,7 @@
       <c r="V5" s="29"/>
       <c r="W5" s="30"/>
     </row>
-    <row r="6" spans="1:23" ht="56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="50" x14ac:dyDescent="0.35">
       <c r="A6" s="133" t="s">
         <v>687</v>
       </c>
@@ -10124,18 +10115,18 @@
         <v>695</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="79" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K6" s="79" t="s">
         <v>716</v>
       </c>
       <c r="L6" s="26"/>
       <c r="M6" s="124" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>703</v>
@@ -10159,7 +10150,7 @@
         <v>710</v>
       </c>
       <c r="U6" s="124" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="V6" s="79" t="s">
         <v>713</v>
@@ -10168,7 +10159,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="50" x14ac:dyDescent="0.35">
       <c r="A7" s="134"/>
       <c r="B7" s="33" t="s">
         <v>642</v>
@@ -10187,12 +10178,12 @@
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="80" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="80" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="N7" s="25" t="s">
         <v>704</v>
@@ -10211,26 +10202,26 @@
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
       <c r="V7" s="80" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="W7" s="112" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="136"/>
       <c r="B8" s="35" t="s">
         <v>592</v>
       </c>
       <c r="C8" s="122" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29" t="s">
         <v>350</v>
       </c>
       <c r="F8" s="123" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -10261,12 +10252,12 @@
       </c>
       <c r="T8" s="29"/>
       <c r="U8" s="29" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V8" s="29"/>
       <c r="W8" s="30"/>
     </row>
-    <row r="9" spans="1:23" ht="42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="134" t="s">
         <v>688</v>
       </c>
@@ -10292,14 +10283,14 @@
         <v>971</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J9" s="26" t="s">
         <v>972</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="26" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M9" s="26" t="s">
         <v>705</v>
@@ -10311,7 +10302,7 @@
         <v>415</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="Q9" s="26" t="s">
         <v>715</v>
@@ -10320,18 +10311,18 @@
         <v>395</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="T9" s="26"/>
       <c r="U9" s="26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="V9" s="26" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="W9" s="27"/>
     </row>
-    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="134"/>
       <c r="B10" s="113" t="s">
         <v>962</v>
@@ -10353,14 +10344,14 @@
       <c r="K10" s="115"/>
       <c r="L10" s="115"/>
       <c r="M10" s="115" t="s">
+        <v>983</v>
+      </c>
+      <c r="N10" s="115" t="s">
         <v>984</v>
-      </c>
-      <c r="N10" s="115" t="s">
-        <v>985</v>
       </c>
       <c r="O10" s="115"/>
       <c r="P10" s="115" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q10" s="115"/>
       <c r="R10" s="116"/>
@@ -10372,7 +10363,7 @@
       </c>
       <c r="W10" s="117"/>
     </row>
-    <row r="11" spans="1:23" ht="42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="50" x14ac:dyDescent="0.35">
       <c r="A11" s="134"/>
       <c r="B11" s="33" t="s">
         <v>963</v>
@@ -10380,17 +10371,17 @@
       <c r="C11" s="34"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>979</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>980</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25" t="s">
         <v>690</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>974</v>
@@ -10398,14 +10389,12 @@
       <c r="K11" s="25" t="s">
         <v>976</v>
       </c>
-      <c r="L11" s="152" t="s">
-        <v>977</v>
-      </c>
+      <c r="L11" s="151"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Q11" s="25"/>
       <c r="R11" s="110"/>
@@ -10414,16 +10403,16 @@
       </c>
       <c r="T11" s="25"/>
       <c r="U11" s="25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V11" s="25" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="W11" s="28" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="136"/>
       <c r="B12" s="35" t="s">
         <v>964</v>
@@ -10433,12 +10422,10 @@
       <c r="E12" s="29" t="s">
         <v>967</v>
       </c>
-      <c r="F12" s="151" t="s">
-        <v>981</v>
-      </c>
+      <c r="F12" s="152"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29" t="s">
@@ -10452,7 +10439,7 @@
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
@@ -10460,32 +10447,32 @@
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
       <c r="V12" s="29" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="W12" s="30"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="L14" s="78"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="121" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
@@ -10505,206 +10492,206 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="4" width="50.1640625" customWidth="1"/>
+    <col min="1" max="2" width="18.36328125" customWidth="1"/>
+    <col min="3" max="4" width="50.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1" s="69" t="s">
         <v>1067</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="C1" s="69" t="s">
         <v>1068</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="D1" s="69" t="s">
         <v>1069</v>
       </c>
-      <c r="D1" s="69" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="125" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+      <c r="B2" s="125" t="s">
         <v>1071</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="C2" s="125" t="s">
         <v>1072</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="D2" s="125" t="s">
         <v>1073</v>
       </c>
-      <c r="D2" s="125" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="125" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="125" t="s">
+      <c r="B3" s="125" t="s">
         <v>1075</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="C3" s="125" t="s">
         <v>1076</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="D3" s="125" t="s">
         <v>1077</v>
       </c>
-      <c r="D3" s="125" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="125" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="125" t="s">
+      <c r="B4" s="125" t="s">
         <v>1079</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="C4" s="125" t="s">
         <v>1080</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="D4" s="125" t="s">
         <v>1081</v>
       </c>
-      <c r="D4" s="125" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="125" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="s">
+      <c r="B5" s="125" t="s">
         <v>1083</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="C5" s="125" t="s">
         <v>1084</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="D5" s="125" t="s">
         <v>1085</v>
       </c>
-      <c r="D5" s="125" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="125" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="125" t="s">
+      <c r="B6" s="125" t="s">
         <v>1087</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="C6" s="125" t="s">
         <v>1088</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="D6" s="125" t="s">
         <v>1089</v>
       </c>
-      <c r="D6" s="125" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="74" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="74" t="s">
+      <c r="B7" s="74" t="s">
         <v>1091</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="C7" s="74" t="s">
         <v>1092</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="D7" s="74" t="s">
         <v>1093</v>
       </c>
-      <c r="D7" s="74" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="74" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="B8" s="74" t="s">
         <v>1095</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="C8" s="74" t="s">
         <v>1096</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="D8" s="74" t="s">
         <v>1097</v>
       </c>
-      <c r="D8" s="74" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="74" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
+      <c r="B9" s="74" t="s">
         <v>1099</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="C9" s="74" t="s">
         <v>1100</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="D9" s="74" t="s">
         <v>1101</v>
       </c>
-      <c r="D9" s="74" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="74" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="74" t="s">
+      <c r="B10" s="74" t="s">
         <v>1103</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="C10" s="74" t="s">
         <v>1104</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
         <v>1105</v>
       </c>
-      <c r="D10" s="74" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="74" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
+      <c r="B11" s="74" t="s">
         <v>1107</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="C11" s="74" t="s">
         <v>1108</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="D11" s="74" t="s">
         <v>1109</v>
       </c>
-      <c r="D11" s="74" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="74" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
+      <c r="B12" s="74" t="s">
         <v>1111</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="C12" s="74" t="s">
         <v>1112</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="D12" s="74" t="s">
         <v>1113</v>
       </c>
-      <c r="D12" s="74" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="74" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
+      <c r="B13" s="74" t="s">
         <v>1115</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="C13" s="74" t="s">
         <v>1116</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="D13" s="74" t="s">
         <v>1117</v>
       </c>
-      <c r="D13" s="74" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="74" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="74" t="s">
+      <c r="B14" s="74" t="s">
         <v>1119</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="C14" s="74" t="s">
         <v>1120</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="D14" s="74" t="s">
         <v>1121</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -10720,14 +10707,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>238</v>
       </c>
@@ -10738,7 +10725,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>241</v>
       </c>
@@ -10749,7 +10736,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>243</v>
       </c>
@@ -10758,7 +10745,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>245</v>
       </c>
@@ -10767,7 +10754,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>246</v>
       </c>
@@ -10790,15 +10777,15 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="138.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="138.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="54" t="s">
         <v>491</v>
       </c>
@@ -10812,32 +10799,32 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="140" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="139" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="142" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="138" t="s">
+      <c r="C2" s="145"/>
+      <c r="D2" s="149" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="141"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="137"/>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="139"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="140" t="s">
+      <c r="B3" s="143"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="148"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="140"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="150"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="139" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -10850,7 +10837,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="141"/>
       <c r="B6" s="53" t="s">
         <v>499</v>
@@ -10862,7 +10849,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="141"/>
       <c r="B7" s="53" t="s">
         <v>501</v>
@@ -10874,14 +10861,14 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="142"/>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="140"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
     </row>
-    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="140" t="s">
+    <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A9" s="139" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -10894,8 +10881,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="142"/>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="140"/>
       <c r="B10" s="82" t="s">
         <v>506</v>
       </c>
@@ -10906,8 +10893,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="143" t="s">
+    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="137" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="88" t="s">
@@ -10920,14 +10907,14 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
+    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="138"/>
       <c r="B12" s="89"/>
       <c r="C12" s="63"/>
       <c r="D12" s="64"/>
     </row>
-    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A13" s="140" t="s">
+    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A13" s="139" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -10940,7 +10927,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="141"/>
       <c r="B14" s="53" t="s">
         <v>514</v>
@@ -10952,7 +10939,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="141"/>
       <c r="B15" s="53" t="s">
         <v>474</v>
@@ -10964,26 +10951,26 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="141"/>
-      <c r="B16" s="146"/>
+      <c r="B16" s="143"/>
       <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="137" t="s">
+      <c r="D16" s="148" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="141"/>
-      <c r="B17" s="146"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="137"/>
-    </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="142"/>
+      <c r="D17" s="148"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="140"/>
       <c r="B18" s="62"/>
       <c r="C18" s="63" t="s">
         <v>522</v>
@@ -10992,60 +10979,60 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="143" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="137" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="88" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C19" s="59" t="s">
         <v>1011</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="D19" s="60" t="s">
         <v>1012</v>
       </c>
-      <c r="D19" s="60" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="144"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="138"/>
       <c r="B20" s="89"/>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="140" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="139" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="58" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C21" s="59" t="s">
         <v>1058</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="D21" s="60" t="s">
         <v>1059</v>
       </c>
-      <c r="D21" s="60" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="142"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="140"/>
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11053,41 +11040,41 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFE91FF-44F0-441B-9BF4-83ADF34482BD}">
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="14" customWidth="1"/>
     <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="14" customWidth="1"/>
     <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.36328125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.33203125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="38.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6328125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.36328125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
@@ -11149,7 +11136,7 @@
         <v>957</v>
       </c>
       <c r="U1" s="43" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V1" s="43" t="s">
         <v>958</v>
@@ -11169,12 +11156,12 @@
       <c r="AG1" s="93"/>
       <c r="AH1" s="93"/>
     </row>
-    <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A2" s="133" t="s">
         <v>321</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C2" s="99"/>
       <c r="D2" s="26" t="s">
@@ -11211,7 +11198,7 @@
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
       <c r="U2" s="26" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V2" s="26" t="s">
         <v>818</v>
@@ -11231,7 +11218,7 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A3" s="134"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
@@ -11252,7 +11239,7 @@
         <v>727</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>370</v>
@@ -11285,7 +11272,7 @@
       </c>
       <c r="T3" s="25"/>
       <c r="U3" s="25" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V3" s="25" t="s">
         <v>821</v>
@@ -11305,13 +11292,13 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
       <c r="A4" s="134"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>723</v>
@@ -11327,7 +11314,7 @@
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>757</v>
@@ -11355,7 +11342,7 @@
       </c>
       <c r="T4" s="25"/>
       <c r="U4" s="25" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="V4" s="25"/>
       <c r="W4" s="28" t="s">
@@ -11373,36 +11360,36 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A5" s="134"/>
       <c r="B5" s="96" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C5" s="100" t="s">
         <v>725</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>316</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>730</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L5" s="25" t="s">
         <v>1027</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>1028</v>
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="25" t="s">
@@ -11427,7 +11414,7 @@
         <v>826</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V5" s="25" t="s">
         <v>827</v>
@@ -11447,10 +11434,10 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="134"/>
       <c r="B6" s="97" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C6" s="101" t="s">
         <v>317</v>
@@ -11459,14 +11446,14 @@
         <v>850</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29" t="s">
         <v>729</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -11483,7 +11470,7 @@
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="R6" s="29" t="s">
         <v>803</v>
@@ -11495,7 +11482,7 @@
         <v>830</v>
       </c>
       <c r="U6" s="29" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V6" s="29" t="s">
         <v>831</v>
@@ -11515,538 +11502,414 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A7" s="130" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>996</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>731</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>736</v>
+    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+      <c r="A7" s="133" t="s">
+        <v>687</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>691</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>696</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>737</v>
+        <v>692</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>738</v>
-      </c>
-      <c r="G7" s="26"/>
+        <v>694</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>695</v>
+      </c>
       <c r="H7" s="26" t="s">
-        <v>739</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>740</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>771</v>
+        <v>1002</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="79" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K7" s="79" t="s">
+        <v>716</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="124" t="s">
+        <v>1004</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>804</v>
+        <v>703</v>
+      </c>
+      <c r="O7" s="79" t="s">
+        <v>717</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>805</v>
-      </c>
-      <c r="Q7" s="26" t="s">
-        <v>806</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>807</v>
-      </c>
-      <c r="S7" s="26" t="s">
-        <v>833</v>
+        <v>702</v>
+      </c>
+      <c r="Q7" s="79" t="s">
+        <v>708</v>
+      </c>
+      <c r="R7" s="79" t="s">
+        <v>708</v>
+      </c>
+      <c r="S7" s="79" t="s">
+        <v>960</v>
       </c>
       <c r="T7" s="26" t="s">
-        <v>834</v>
-      </c>
-      <c r="U7" s="26" t="s">
-        <v>1042</v>
-      </c>
-      <c r="V7" s="26" t="s">
-        <v>835</v>
-      </c>
-      <c r="W7" s="27" t="s">
-        <v>836</v>
-      </c>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-    </row>
-    <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
-      <c r="A8" s="131"/>
-      <c r="B8" s="96" t="s">
-        <v>998</v>
-      </c>
-      <c r="C8" s="100" t="s">
-        <v>732</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>741</v>
+        <v>710</v>
+      </c>
+      <c r="U7" s="124" t="s">
+        <v>1045</v>
+      </c>
+      <c r="V7" s="79" t="s">
+        <v>713</v>
+      </c>
+      <c r="W7" s="81" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+      <c r="A8" s="134"/>
+      <c r="B8" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="80" t="s">
+        <v>697</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>742</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>743</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="25" t="s">
-        <v>744</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>745</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>773</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>774</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>775</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>776</v>
+      <c r="H8" s="80" t="s">
+        <v>699</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="80" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="80" t="s">
+        <v>1005</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>777</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>808</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="O8" s="25"/>
       <c r="P8" s="25" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25" t="s">
-        <v>810</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="T8" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>1043</v>
-      </c>
-      <c r="V8" s="25" t="s">
-        <v>839</v>
-      </c>
-      <c r="W8" s="28" t="s">
-        <v>840</v>
-      </c>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-    </row>
-    <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A9" s="131"/>
-      <c r="B9" s="96" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>733</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>746</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>748</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>749</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>750</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25" t="s">
-        <v>778</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>779</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25" t="s">
-        <v>780</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>781</v>
-      </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25" t="s">
-        <v>811</v>
-      </c>
-      <c r="Q9" s="25" t="s">
-        <v>812</v>
-      </c>
-      <c r="R9" s="25" t="s">
-        <v>995</v>
-      </c>
-      <c r="S9" s="25" t="s">
-        <v>994</v>
-      </c>
-      <c r="T9" s="25" t="s">
-        <v>841</v>
-      </c>
-      <c r="U9" s="25" t="s">
-        <v>1044</v>
-      </c>
-      <c r="V9" s="25"/>
-      <c r="W9" s="28" t="s">
-        <v>842</v>
-      </c>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-    </row>
-    <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A10" s="131"/>
-      <c r="B10" s="96" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>734</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>751</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25" t="s">
-        <v>752</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25" t="s">
-        <v>782</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>783</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>784</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>785</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>813</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>814</v>
-      </c>
-      <c r="Q10" s="25" t="s">
-        <v>815</v>
-      </c>
-      <c r="R10" s="25" t="s">
-        <v>997</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>843</v>
-      </c>
-      <c r="T10" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="U10" s="25" t="s">
-        <v>1045</v>
-      </c>
-      <c r="V10" s="25" t="s">
-        <v>845</v>
-      </c>
-      <c r="W10" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-    </row>
-    <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
-      <c r="B11" s="98" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>735</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>753</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>754</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>755</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>756</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29" t="s">
-        <v>786</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>787</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29" t="s">
-        <v>816</v>
-      </c>
-      <c r="Q11" s="29" t="s">
-        <v>817</v>
-      </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29" t="s">
-        <v>847</v>
-      </c>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29" t="s">
-        <v>848</v>
-      </c>
-      <c r="W11" s="30" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A12" s="133" t="s">
-        <v>687</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>641</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>691</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>696</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>695</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="79" t="s">
-        <v>1004</v>
-      </c>
-      <c r="K12" s="79" t="s">
-        <v>716</v>
-      </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="124" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>703</v>
-      </c>
-      <c r="O12" s="79" t="s">
-        <v>717</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q12" s="79" t="s">
-        <v>708</v>
-      </c>
-      <c r="R12" s="79" t="s">
-        <v>708</v>
-      </c>
-      <c r="S12" s="79" t="s">
-        <v>960</v>
-      </c>
-      <c r="T12" s="26" t="s">
-        <v>710</v>
-      </c>
-      <c r="U12" s="124" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q8" s="80" t="s">
+        <v>709</v>
+      </c>
+      <c r="R8" s="25"/>
+      <c r="S8" s="80" t="s">
+        <v>711</v>
+      </c>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="80" t="s">
+        <v>1007</v>
+      </c>
+      <c r="W8" s="112" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="136"/>
+      <c r="B9" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="123" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29" t="s">
+        <v>700</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="O9" s="123" t="s">
+        <v>396</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>961</v>
+      </c>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29" t="s">
+        <v>1035</v>
+      </c>
+      <c r="V9" s="29"/>
+      <c r="W9" s="30"/>
+    </row>
+    <row r="10" spans="1:34" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="134" t="s">
+        <v>688</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>969</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>971</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>981</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>972</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26" t="s">
+        <v>977</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="S10" s="26" t="s">
+        <v>989</v>
+      </c>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26" t="s">
         <v>1046</v>
       </c>
-      <c r="V12" s="79" t="s">
-        <v>713</v>
-      </c>
-      <c r="W12" s="81" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
-      <c r="B13" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="80" t="s">
-        <v>697</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>693</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="80" t="s">
-        <v>699</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="80" t="s">
-        <v>1007</v>
-      </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="80" t="s">
-        <v>1006</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q13" s="80" t="s">
-        <v>709</v>
-      </c>
-      <c r="R13" s="25"/>
-      <c r="S13" s="80" t="s">
-        <v>711</v>
-      </c>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="80" t="s">
+      <c r="V10" s="26" t="s">
+        <v>990</v>
+      </c>
+      <c r="W10" s="27"/>
+    </row>
+    <row r="11" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="134"/>
+      <c r="B11" s="113" t="s">
+        <v>962</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>966</v>
+      </c>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115" t="s">
+        <v>689</v>
+      </c>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115" t="s">
+        <v>973</v>
+      </c>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115" t="s">
+        <v>983</v>
+      </c>
+      <c r="N11" s="115" t="s">
+        <v>984</v>
+      </c>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115" t="s">
+        <v>987</v>
+      </c>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="115" t="s">
+        <v>966</v>
+      </c>
+      <c r="W11" s="117"/>
+    </row>
+    <row r="12" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+      <c r="A12" s="134"/>
+      <c r="B12" s="33" t="s">
+        <v>963</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>979</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>690</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>982</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>974</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>976</v>
+      </c>
+      <c r="L12" s="151"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>991</v>
+      </c>
+      <c r="W12" s="28" t="s">
         <v>1008</v>
       </c>
-      <c r="W13" s="112" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="35" t="s">
-        <v>592</v>
-      </c>
-      <c r="C14" s="122" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="F14" s="123" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="N14" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="O14" s="123" t="s">
-        <v>396</v>
-      </c>
-      <c r="P14" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="123" t="s">
-        <v>718</v>
-      </c>
-      <c r="S14" s="29" t="s">
-        <v>961</v>
-      </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29" t="s">
-        <v>1036</v>
-      </c>
-      <c r="V14" s="29"/>
-      <c r="W14" s="30"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:34" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="136"/>
+      <c r="B13" s="35" t="s">
+        <v>964</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29" t="s">
+        <v>967</v>
+      </c>
+      <c r="F13" s="152"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29" t="s">
+        <v>980</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29" t="s">
+        <v>975</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29" t="s">
+        <v>964</v>
+      </c>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29" t="s">
+        <v>986</v>
+      </c>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29" t="s">
+        <v>992</v>
+      </c>
+      <c r="W13" s="30"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15"/>
+      <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -12054,7 +11917,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -12068,7 +11931,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -12082,7 +11945,7 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -12096,107 +11959,37 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+    <row r="21" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21"/>
-      <c r="R21"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+    <row r="22" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22"/>
-      <c r="R22"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-    </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-    </row>
-    <row r="27" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-    </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
+    <row r="23" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -12211,22 +12004,22 @@
       <selection activeCell="L1" sqref="L1:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="6" max="6" width="32.36328125" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="26.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.36328125" customWidth="1"/>
+    <col min="13" max="13" width="26.6328125" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="65" t="s">
         <v>638</v>
       </c>
@@ -12275,7 +12068,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="66" t="s">
         <v>588</v>
       </c>
@@ -12322,7 +12115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="66" t="s">
         <v>589</v>
       </c>
@@ -12369,7 +12162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
         <v>591</v>
       </c>
@@ -12416,7 +12209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="66" t="s">
         <v>593</v>
       </c>
@@ -12454,7 +12247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="66" t="s">
         <v>595</v>
       </c>
@@ -12501,7 +12294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="66" t="s">
         <v>597</v>
       </c>
@@ -12539,7 +12332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="66" t="s">
         <v>599</v>
       </c>
@@ -12562,7 +12355,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="66" t="s">
         <v>601</v>
       </c>
@@ -12585,7 +12378,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="66" t="s">
         <v>603</v>
       </c>
@@ -12599,7 +12392,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="66" t="s">
         <v>605</v>
       </c>
@@ -12622,7 +12415,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
         <v>607</v>
       </c>
@@ -12645,7 +12438,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D13" s="66" t="s">
         <v>602</v>
       </c>
@@ -12662,7 +12455,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D14" s="66" t="s">
         <v>598</v>
       </c>
@@ -12673,7 +12466,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="D15" s="49" t="s">
         <v>625</v>
       </c>
@@ -12684,7 +12477,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D16" s="66" t="s">
         <v>627</v>
       </c>
@@ -12708,14 +12501,14 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="48" t="s">
         <v>74</v>
       </c>
@@ -12729,7 +12522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
@@ -12749,7 +12542,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
@@ -12763,7 +12556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="46" t="s">
         <v>4</v>
       </c>
@@ -12780,7 +12573,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -12794,7 +12587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -12809,7 +12602,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
@@ -12824,7 +12617,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
@@ -12839,7 +12632,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
@@ -12854,7 +12647,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
@@ -12869,12 +12662,12 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>277</v>
@@ -12883,7 +12676,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
@@ -12898,7 +12691,7 @@
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -12913,7 +12706,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
@@ -12928,7 +12721,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
@@ -12943,7 +12736,7 @@
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
@@ -12958,7 +12751,7 @@
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
@@ -12972,7 +12765,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
@@ -12987,7 +12780,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
@@ -13001,21 +12794,21 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
@@ -13030,7 +12823,7 @@
         <v>Vorwärts aus P7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
@@ -13044,14 +12837,14 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -13068,20 +12861,20 @@
       <selection activeCell="A12" sqref="A12:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="50.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="35.83203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="14.1796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50.81640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.81640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -13107,7 +12900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -13133,7 +12926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -13159,7 +12952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -13185,7 +12978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -13211,7 +13004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -13237,7 +13030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -13263,7 +13056,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -13289,7 +13082,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -13315,7 +13108,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -13341,7 +13134,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -13367,7 +13160,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -13393,7 +13186,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -13419,7 +13212,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -13445,7 +13238,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -13471,7 +13264,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -13497,7 +13290,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -13523,7 +13316,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -13549,7 +13342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -13575,7 +13368,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -13601,7 +13394,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -13627,7 +13420,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -13653,7 +13446,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -13679,7 +13472,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -13705,7 +13498,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -13731,7 +13524,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -13757,7 +13550,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -13772,14 +13565,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H28" s="6">
         <f>Übersicht!D28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -13787,7 +13580,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -13811,18 +13604,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>261</v>
       </c>
@@ -13843,7 +13636,7 @@
       <c r="J1" s="128"/>
       <c r="K1" s="128"/>
     </row>
-    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>251</v>
       </c>
@@ -13864,7 +13657,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>252</v>
       </c>
@@ -13883,7 +13676,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>264</v>
       </c>
@@ -13902,7 +13695,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>253</v>
       </c>
@@ -13921,7 +13714,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>254</v>
       </c>
@@ -13940,7 +13733,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>265</v>
       </c>
@@ -13959,14 +13752,14 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -13990,15 +13783,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" customWidth="1"/>
-    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="3" max="3" width="54.36328125" customWidth="1"/>
+    <col min="4" max="4" width="61.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>261</v>
       </c>
@@ -14012,7 +13805,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="50" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>251</v>
       </c>
@@ -14026,7 +13819,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="50" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>252</v>
       </c>
@@ -14040,7 +13833,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>264</v>
       </c>
@@ -14054,7 +13847,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>253</v>
       </c>
@@ -14068,7 +13861,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>254</v>
       </c>
@@ -14082,7 +13875,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>265</v>
       </c>
@@ -14109,14 +13902,14 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" style="12" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="4" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="4" width="53.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
@@ -14132,7 +13925,7 @@
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
     </row>
-    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
@@ -14148,7 +13941,7 @@
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
     </row>
-    <row r="3" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
@@ -14164,7 +13957,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="78"/>
     </row>
-    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A4" s="104" t="s">
         <v>4</v>
       </c>
@@ -14180,7 +13973,7 @@
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
     </row>
-    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.35">
       <c r="A5" s="104" t="s">
         <v>5</v>
       </c>
@@ -14196,7 +13989,7 @@
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
     </row>
-    <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A6" s="104" t="s">
         <v>6</v>
       </c>
@@ -14212,7 +14005,7 @@
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
     </row>
-    <row r="7" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A7" s="104" t="s">
         <v>7</v>
       </c>
@@ -14228,7 +14021,7 @@
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
     </row>
-    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A8" s="104" t="s">
         <v>8</v>
       </c>
@@ -14244,7 +14037,7 @@
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
     </row>
-    <row r="9" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A9" s="104" t="s">
         <v>9</v>
       </c>
@@ -14260,7 +14053,7 @@
       <c r="E9" s="78"/>
       <c r="F9" s="78"/>
     </row>
-    <row r="10" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="104" t="s">
         <v>10</v>
       </c>
@@ -14276,7 +14069,7 @@
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="104" t="s">
         <v>10</v>
       </c>
@@ -14286,7 +14079,7 @@
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
     </row>
-    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A12" s="104" t="s">
         <v>11</v>
       </c>
@@ -14302,7 +14095,7 @@
       <c r="E12" s="78"/>
       <c r="F12" s="78"/>
     </row>
-    <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A13" s="104" t="s">
         <v>12</v>
       </c>
@@ -14318,7 +14111,7 @@
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
     </row>
-    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A14" s="104" t="s">
         <v>13</v>
       </c>
@@ -14334,7 +14127,7 @@
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
     </row>
-    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A15" s="104" t="s">
         <v>14</v>
       </c>
@@ -14350,7 +14143,7 @@
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
     </row>
-    <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="100" x14ac:dyDescent="0.35">
       <c r="A16" s="104" t="s">
         <v>15</v>
       </c>
@@ -14366,7 +14159,7 @@
       <c r="E16" s="78"/>
       <c r="F16" s="78"/>
     </row>
-    <row r="17" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A17" s="104" t="s">
         <v>16</v>
       </c>
@@ -14382,7 +14175,7 @@
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
     </row>
-    <row r="18" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="62.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="104" t="s">
         <v>18</v>
       </c>
@@ -14398,7 +14191,7 @@
       <c r="E18" s="78"/>
       <c r="F18" s="78"/>
     </row>
-    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A19" s="104" t="s">
         <v>17</v>
       </c>
@@ -14414,7 +14207,7 @@
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
     </row>
-    <row r="20" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A20" s="104" t="s">
         <v>18</v>
       </c>
@@ -14430,7 +14223,7 @@
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
     </row>
-    <row r="21" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="104" t="s">
         <v>21</v>
       </c>
@@ -14446,7 +14239,7 @@
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
     </row>
-    <row r="22" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A22" s="104" t="s">
         <v>19</v>
       </c>
@@ -14462,7 +14255,7 @@
       <c r="E22" s="78"/>
       <c r="F22" s="78"/>
     </row>
-    <row r="23" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A23" s="104" t="s">
         <v>20</v>
       </c>
@@ -14478,15 +14271,15 @@
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="109" t="s">
         <v>21</v>
       </c>
@@ -14496,7 +14289,7 @@
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="109" t="s">
         <v>3</v>
       </c>
@@ -14521,30 +14314,30 @@
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.83203125" customWidth="1"/>
-    <col min="10" max="10" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.81640625" customWidth="1"/>
+    <col min="10" max="10" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="36.83203125" customWidth="1"/>
-    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="36.83203125" customWidth="1"/>
-    <col min="22" max="22" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="36.81640625" customWidth="1"/>
+    <col min="19" max="19" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="36.81640625" customWidth="1"/>
+    <col min="22" max="22" width="37.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>238</v>
       </c>
@@ -14603,7 +14396,7 @@
         <v>957</v>
       </c>
       <c r="T1" s="43" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="U1" s="43" t="s">
         <v>958</v>
@@ -14612,7 +14405,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>470</v>
       </c>
@@ -14635,13 +14428,13 @@
         <v>536</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>632</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>542</v>
@@ -14656,7 +14449,7 @@
         <v>645</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="P2" s="25" t="s">
         <v>644</v>
@@ -14671,7 +14464,7 @@
         <v>656</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="U2" s="25" t="s">
         <v>585</v>
@@ -14680,7 +14473,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="154" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="139" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
         <v>81</v>
       </c>
@@ -14739,7 +14532,7 @@
         <v>874</v>
       </c>
       <c r="T3" s="25" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="U3" s="25" t="s">
         <v>875</v>
@@ -14748,7 +14541,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="140" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="126.5" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>471</v>
       </c>
@@ -14807,7 +14600,7 @@
         <v>653</v>
       </c>
       <c r="T4" s="25" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="U4" s="25" t="s">
         <v>580</v>
@@ -14816,75 +14609,75 @@
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>472</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E5" s="119" t="s">
         <v>252</v>
       </c>
       <c r="F5" s="119" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H5" s="119" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I5" s="118" t="s">
         <v>264</v>
       </c>
       <c r="J5" s="118" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K5" s="118" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L5" s="118" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M5" s="118" t="s">
         <v>1055</v>
       </c>
-      <c r="K5" s="118" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L5" s="118" t="s">
+      <c r="N5" s="118" t="s">
+        <v>1052</v>
+      </c>
+      <c r="O5" s="118" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P5" s="118" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q5" s="118" t="s">
+        <v>1014</v>
+      </c>
+      <c r="R5" s="118" t="s">
+        <v>1016</v>
+      </c>
+      <c r="S5" s="118" t="s">
+        <v>1016</v>
+      </c>
+      <c r="T5" s="118" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U5" s="118" t="s">
+        <v>1016</v>
+      </c>
+      <c r="V5" s="118" t="s">
         <v>1015</v>
       </c>
-      <c r="M5" s="118" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N5" s="118" t="s">
-        <v>1053</v>
-      </c>
-      <c r="O5" s="118" t="s">
-        <v>1015</v>
-      </c>
-      <c r="P5" s="118" t="s">
-        <v>1015</v>
-      </c>
-      <c r="Q5" s="118" t="s">
-        <v>1015</v>
-      </c>
-      <c r="R5" s="118" t="s">
-        <v>1017</v>
-      </c>
-      <c r="S5" s="118" t="s">
-        <v>1017</v>
-      </c>
-      <c r="T5" s="118" t="s">
-        <v>1053</v>
-      </c>
-      <c r="U5" s="118" t="s">
-        <v>1017</v>
-      </c>
-      <c r="V5" s="118" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="154" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:22" ht="139" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>475</v>
       </c>
@@ -14943,7 +14736,7 @@
         <v>654</v>
       </c>
       <c r="T6" s="25" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="U6" s="25" t="s">
         <v>582</v>
@@ -14952,7 +14745,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>473</v>
       </c>
@@ -15011,7 +14804,7 @@
         <v>652</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="U7" s="25" t="s">
         <v>574</v>
@@ -15020,7 +14813,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="100" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
         <v>474</v>
       </c>
@@ -15079,7 +14872,7 @@
         <v>655</v>
       </c>
       <c r="T8" s="25" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="U8" s="25" t="s">
         <v>577</v>
@@ -15088,31 +14881,31 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B13" s="129"/>
       <c r="C13" s="129"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B14" s="129"/>
       <c r="C14" s="129"/>
       <c r="G14" s="67"/>
     </row>
-    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="129"/>
       <c r="C15" s="129"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G16" s="67"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G17" s="67"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G18" s="67"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G19" s="67"/>
     </row>
   </sheetData>
@@ -15134,34 +14927,34 @@
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="14" customWidth="1"/>
     <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="14" customWidth="1"/>
     <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.36328125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.33203125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="38.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6328125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.36328125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
@@ -15223,7 +15016,7 @@
         <v>957</v>
       </c>
       <c r="U1" s="43" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V1" s="43" t="s">
         <v>958</v>
@@ -15243,12 +15036,12 @@
       <c r="AG1" s="93"/>
       <c r="AH1" s="93"/>
     </row>
-    <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A2" s="133" t="s">
         <v>321</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C2" s="99"/>
       <c r="D2" s="26" t="s">
@@ -15285,7 +15078,7 @@
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
       <c r="U2" s="26" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V2" s="26" t="s">
         <v>818</v>
@@ -15305,7 +15098,7 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A3" s="134"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
@@ -15326,7 +15119,7 @@
         <v>727</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>370</v>
@@ -15359,7 +15152,7 @@
       </c>
       <c r="T3" s="25"/>
       <c r="U3" s="25" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V3" s="25" t="s">
         <v>821</v>
@@ -15379,13 +15172,13 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
       <c r="A4" s="134"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>723</v>
@@ -15401,7 +15194,7 @@
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>757</v>
@@ -15429,7 +15222,7 @@
       </c>
       <c r="T4" s="25"/>
       <c r="U4" s="25" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="V4" s="25"/>
       <c r="W4" s="28" t="s">
@@ -15447,36 +15240,36 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A5" s="134"/>
       <c r="B5" s="96" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C5" s="100" t="s">
         <v>725</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>316</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>730</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L5" s="25" t="s">
         <v>1027</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>1028</v>
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="25" t="s">
@@ -15501,7 +15294,7 @@
         <v>826</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V5" s="25" t="s">
         <v>827</v>
@@ -15521,10 +15314,10 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="134"/>
       <c r="B6" s="97" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C6" s="101" t="s">
         <v>317</v>
@@ -15533,14 +15326,14 @@
         <v>850</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29" t="s">
         <v>729</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -15557,7 +15350,7 @@
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="R6" s="29" t="s">
         <v>803</v>
@@ -15569,7 +15362,7 @@
         <v>830</v>
       </c>
       <c r="U6" s="29" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V6" s="29" t="s">
         <v>831</v>
@@ -15589,12 +15382,12 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
       <c r="A7" s="130" t="s">
         <v>320</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C7" s="99" t="s">
         <v>731</v>
@@ -15649,7 +15442,7 @@
         <v>834</v>
       </c>
       <c r="U7" s="26" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="V7" s="26" t="s">
         <v>835</v>
@@ -15667,10 +15460,10 @@
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
       <c r="A8" s="131"/>
       <c r="B8" s="96" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C8" s="100" t="s">
         <v>732</v>
@@ -15723,7 +15516,7 @@
         <v>838</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="V8" s="25" t="s">
         <v>839</v>
@@ -15741,10 +15534,10 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
     </row>
-    <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A9" s="131"/>
       <c r="B9" s="96" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C9" s="100" t="s">
         <v>733</v>
@@ -15786,16 +15579,16 @@
         <v>812</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="S9" s="25" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="T9" s="25" t="s">
         <v>841</v>
       </c>
       <c r="U9" s="25" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V9" s="25"/>
       <c r="W9" s="28" t="s">
@@ -15811,10 +15604,10 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
       <c r="A10" s="131"/>
       <c r="B10" s="96" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C10" s="100" t="s">
         <v>734</v>
@@ -15829,7 +15622,7 @@
         <v>752</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="25" t="s">
@@ -15854,7 +15647,7 @@
         <v>815</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="S10" s="25" t="s">
         <v>843</v>
@@ -15863,7 +15656,7 @@
         <v>844</v>
       </c>
       <c r="U10" s="25" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="V10" s="25" t="s">
         <v>845</v>
@@ -15881,10 +15674,10 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
     </row>
-    <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="132"/>
       <c r="B11" s="98" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C11" s="101" t="s">
         <v>735</v>
@@ -15899,7 +15692,7 @@
         <v>755</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>756</v>
@@ -15938,7 +15731,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -15947,12 +15740,12 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="L16" s="6"/>
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:22" x14ac:dyDescent="0.35">
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -15963,7 +15756,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -15977,7 +15770,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -15991,7 +15784,7 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -16005,7 +15798,7 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -16019,7 +15812,7 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -16033,7 +15826,7 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -16047,7 +15840,7 @@
       <c r="U23"/>
       <c r="V23"/>
     </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -16061,7 +15854,7 @@
       <c r="U24"/>
       <c r="V24"/>
     </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -16075,7 +15868,7 @@
       <c r="U25"/>
       <c r="V25"/>
     </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="Q26" s="14"/>
@@ -16085,7 +15878,7 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="Q27" s="14"/>
@@ -16095,7 +15888,7 @@
       <c r="U27"/>
       <c r="V27"/>
     </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:22" x14ac:dyDescent="0.35">
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
@@ -16120,34 +15913,34 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" customWidth="1"/>
-    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.83203125" customWidth="1"/>
-    <col min="18" max="18" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.36328125" customWidth="1"/>
+    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.81640625" customWidth="1"/>
+    <col min="18" max="18" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="25.1640625" customWidth="1"/>
-    <col min="23" max="23" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" customWidth="1"/>
+    <col min="20" max="20" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="25.1796875" customWidth="1"/>
+    <col min="23" max="23" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
@@ -16221,7 +16014,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="133" t="s">
         <v>255</v>
       </c>
@@ -16295,7 +16088,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A3" s="134"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
@@ -16367,7 +16160,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A4" s="134"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
@@ -16439,7 +16232,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="135"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
@@ -16511,7 +16304,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A6" s="75" t="s">
         <v>357</v>
       </c>
@@ -16585,7 +16378,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A7" s="76"/>
       <c r="B7" s="33" t="s">
         <v>332</v>
@@ -16657,7 +16450,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
       <c r="B8" s="33" t="s">
         <v>333</v>
@@ -16729,7 +16522,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="76"/>
       <c r="B9" s="33" t="s">
         <v>259</v>
@@ -16801,7 +16594,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="50" x14ac:dyDescent="0.35">
       <c r="A10" s="76"/>
       <c r="B10" s="33" t="s">
         <v>337</v>
@@ -16873,7 +16666,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="84" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="75" x14ac:dyDescent="0.35">
       <c r="A11" s="76"/>
       <c r="B11" s="33" t="s">
         <v>339</v>
@@ -16945,7 +16738,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="77"/>
       <c r="B12" s="35" t="s">
         <v>260</v>
@@ -17017,15 +16810,15 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{14C284F5-3215-2441-BBD1-F9A85181A7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63C79172-D32D-49CF-B21E-98D344C34BC8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BADDE5A-316A-CA40-867C-F5A5795F0F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="13" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="14" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="RQ3" sheetId="7" r:id="rId12"/>
     <sheet name="Allgemeine Infos" sheetId="12" r:id="rId13"/>
     <sheet name="Mapping RQ1 und RQ2" sheetId="17" r:id="rId14"/>
-    <sheet name="Quantitative Analyse" sheetId="13" state="hidden" r:id="rId15"/>
+    <sheet name="Tabelle1" sheetId="19" r:id="rId15"/>
+    <sheet name="Quantitative Analyse" sheetId="13" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Extraktion!$A$1:$V$8</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="1131">
   <si>
     <t>ID</t>
   </si>
@@ -7312,13 +7313,41 @@
   </si>
   <si>
     <t xml:space="preserve">BA finalisieren </t>
+  </si>
+  <si>
+    <t>Azure Machine Learning
+Azure DevOps</t>
+  </si>
+  <si>
+    <t>Azure Machine Learning, DevOps</t>
+  </si>
+  <si>
+    <t>Sentry</t>
+  </si>
+  <si>
+    <t>code carbon</t>
+  </si>
+  <si>
+    <t>IntelliCode, Kite</t>
+  </si>
+  <si>
+    <t>Azure DevOps,, DeepCode, Sider, ShiftLeft, Diffblue Cover, Magalix, Test.AI, JFrog Artifactory, Sonatype Nexus, Spinnaker, Guru, Azure Machine Learning</t>
+  </si>
+  <si>
+    <t>docker-capable devices, Siemens Industrial Edge Platform,, Testing Framework</t>
+  </si>
+  <si>
+    <t>AI-gesteuertes Monitoring wird erwähnt aber ohne tool</t>
+  </si>
+  <si>
+    <t>AI-powered monitoring. Cloud-native observability systems.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7445,6 +7474,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -8537,19 +8573,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8570,21 +8615,10 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -9349,14 +9383,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="3" width="57.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -9370,7 +9404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9384,7 +9418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9398,7 +9432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
@@ -9412,7 +9446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -9431,7 +9465,7 @@
       <c r="H5" s="126"/>
       <c r="I5" s="126"/>
     </row>
-    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
@@ -9445,7 +9479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -9465,7 +9499,7 @@
       <c r="H7" s="127"/>
       <c r="I7" s="127"/>
     </row>
-    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -9483,7 +9517,7 @@
       <c r="H8" s="127"/>
       <c r="I8" s="127"/>
     </row>
-    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -9498,7 +9532,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -9513,7 +9547,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -9528,7 +9562,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -9543,7 +9577,7 @@
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -9558,7 +9592,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -9573,7 +9607,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -9588,7 +9622,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
@@ -9603,7 +9637,7 @@
         <v>Vorwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
@@ -9618,7 +9652,7 @@
         <v>Vorwärts aus P4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
@@ -9633,7 +9667,7 @@
         <v>Rückwärts aus P4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>19</v>
       </c>
@@ -9648,7 +9682,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
@@ -9663,7 +9697,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>21</v>
       </c>
@@ -9678,7 +9712,7 @@
         <v>Rückwärts aus P5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
@@ -9693,7 +9727,7 @@
         <v>Rückwärts aus P16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -9708,7 +9742,7 @@
         <v>Rückwärts aus P18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -9723,7 +9757,7 @@
         <v>Vorwärts aus P6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -9738,7 +9772,7 @@
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -9753,24 +9787,24 @@
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -9789,39 +9823,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABEDA27-D2D0-4564-B71F-CD6FB3721653}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:W12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T3" sqref="T3:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="19" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.81640625" customWidth="1"/>
+    <col min="19" max="19" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
@@ -9892,7 +9926,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>255</v>
       </c>
@@ -9931,10 +9965,10 @@
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="R2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26" t="s">
+        <v>1126</v>
+      </c>
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
@@ -9943,7 +9977,7 @@
       </c>
       <c r="W2" s="27"/>
     </row>
-    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="98" x14ac:dyDescent="0.2">
       <c r="A3" s="134"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
@@ -9983,14 +10017,14 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
       <c r="Q3" s="25" t="s">
-        <v>401</v>
+        <v>1122</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>429</v>
+        <v>1127</v>
       </c>
       <c r="S3" s="25"/>
       <c r="T3" s="25" t="s">
-        <v>660</v>
+        <v>1128</v>
       </c>
       <c r="U3" s="25"/>
       <c r="V3" s="25" t="s">
@@ -10000,7 +10034,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="70" x14ac:dyDescent="0.2">
       <c r="A4" s="134"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
@@ -10037,23 +10071,21 @@
         <v>380</v>
       </c>
       <c r="P4" s="25"/>
-      <c r="Q4" s="25" t="s">
-        <v>403</v>
-      </c>
+      <c r="Q4" s="25"/>
       <c r="R4" s="25" t="s">
-        <v>382</v>
+        <v>1124</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="25" t="s">
-        <v>661</v>
+        <v>1125</v>
       </c>
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
-      <c r="W4" s="28" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W4" s="151" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="134"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
@@ -10092,7 +10124,7 @@
       <c r="V5" s="29"/>
       <c r="W5" s="30"/>
     </row>
-    <row r="6" spans="1:23" ht="50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="56" x14ac:dyDescent="0.2">
       <c r="A6" s="133" t="s">
         <v>687</v>
       </c>
@@ -10159,7 +10191,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="134"/>
       <c r="B7" s="33" t="s">
         <v>642</v>
@@ -10208,7 +10240,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="136"/>
       <c r="B8" s="35" t="s">
         <v>592</v>
@@ -10257,7 +10289,7 @@
       <c r="V8" s="29"/>
       <c r="W8" s="30"/>
     </row>
-    <row r="9" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="42" x14ac:dyDescent="0.2">
       <c r="A9" s="134" t="s">
         <v>688</v>
       </c>
@@ -10322,7 +10354,7 @@
       </c>
       <c r="W9" s="27"/>
     </row>
-    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="134"/>
       <c r="B10" s="113" t="s">
         <v>962</v>
@@ -10363,7 +10395,7 @@
       </c>
       <c r="W10" s="117"/>
     </row>
-    <row r="11" spans="1:23" ht="50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="42" x14ac:dyDescent="0.2">
       <c r="A11" s="134"/>
       <c r="B11" s="33" t="s">
         <v>963</v>
@@ -10389,7 +10421,7 @@
       <c r="K11" s="25" t="s">
         <v>976</v>
       </c>
-      <c r="L11" s="151"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -10412,7 +10444,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="136"/>
       <c r="B12" s="35" t="s">
         <v>964</v>
@@ -10422,7 +10454,7 @@
       <c r="E12" s="29" t="s">
         <v>967</v>
       </c>
-      <c r="F12" s="152"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29" t="s">
         <v>980</v>
@@ -10451,28 +10483,28 @@
       </c>
       <c r="W12" s="30"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="L14" s="78"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="68" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="121" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
@@ -10492,13 +10524,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.36328125" customWidth="1"/>
-    <col min="3" max="4" width="50.1796875" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="4" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
         <v>1066</v>
       </c>
@@ -10512,7 +10544,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="125" t="s">
         <v>1070</v>
       </c>
@@ -10526,7 +10558,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="125" t="s">
         <v>1074</v>
       </c>
@@ -10540,7 +10572,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="125" t="s">
         <v>1078</v>
       </c>
@@ -10554,7 +10586,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="125" t="s">
         <v>1082</v>
       </c>
@@ -10568,7 +10600,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="125" t="s">
         <v>1086</v>
       </c>
@@ -10582,7 +10614,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="74" t="s">
         <v>1090</v>
       </c>
@@ -10596,7 +10628,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="74" t="s">
         <v>1094</v>
       </c>
@@ -10610,7 +10642,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
         <v>1098</v>
       </c>
@@ -10624,7 +10656,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="74" t="s">
         <v>1102</v>
       </c>
@@ -10638,7 +10670,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="74" t="s">
         <v>1106</v>
       </c>
@@ -10652,7 +10684,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="74" t="s">
         <v>1110</v>
       </c>
@@ -10666,7 +10698,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="74" t="s">
         <v>1114</v>
       </c>
@@ -10680,7 +10712,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="74" t="s">
         <v>1118</v>
       </c>
@@ -10707,14 +10739,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>238</v>
       </c>
@@ -10725,7 +10757,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>241</v>
       </c>
@@ -10736,7 +10768,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>243</v>
       </c>
@@ -10745,7 +10777,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>245</v>
       </c>
@@ -10754,7 +10786,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>246</v>
       </c>
@@ -10777,15 +10809,15 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="138.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="138.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>491</v>
       </c>
@@ -10799,32 +10831,32 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="139" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="140" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="145" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="149" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="138" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="141"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="148"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="140"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="150"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="139" t="s">
+      <c r="B3" s="146"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="137"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="142"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="139"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="140" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -10837,7 +10869,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="141"/>
       <c r="B6" s="53" t="s">
         <v>499</v>
@@ -10849,7 +10881,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141"/>
       <c r="B7" s="53" t="s">
         <v>501</v>
@@ -10861,14 +10893,14 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="140"/>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="142"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
     </row>
-    <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A9" s="139" t="s">
+    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="140" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -10881,8 +10913,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="140"/>
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="142"/>
       <c r="B10" s="82" t="s">
         <v>506</v>
       </c>
@@ -10893,8 +10925,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="137" t="s">
+    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="143" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="88" t="s">
@@ -10907,14 +10939,14 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="138"/>
+    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="144"/>
       <c r="B12" s="89"/>
       <c r="C12" s="63"/>
       <c r="D12" s="64"/>
     </row>
-    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A13" s="139" t="s">
+    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A13" s="140" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -10927,7 +10959,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="141"/>
       <c r="B14" s="53" t="s">
         <v>514</v>
@@ -10939,7 +10971,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="141"/>
       <c r="B15" s="53" t="s">
         <v>474</v>
@@ -10951,26 +10983,26 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="141"/>
-      <c r="B16" s="143"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="148" t="s">
+      <c r="D16" s="137" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="141"/>
-      <c r="B17" s="143"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="148"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="140"/>
+      <c r="D17" s="137"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="142"/>
       <c r="B18" s="62"/>
       <c r="C18" s="63" t="s">
         <v>522</v>
@@ -10979,8 +11011,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="137" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="143" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="88" t="s">
@@ -10993,14 +11025,14 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="138"/>
+    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="144"/>
       <c r="B20" s="89"/>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="139" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="140" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="58" t="s">
@@ -11013,26 +11045,26 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="140"/>
+    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="142"/>
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11040,41 +11072,41 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFE91FF-44F0-441B-9BF4-83ADF34482BD}">
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B7" sqref="A7:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
     <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6328125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.36328125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="38.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.33203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
@@ -11156,7 +11188,7 @@
       <c r="AG1" s="93"/>
       <c r="AH1" s="93"/>
     </row>
-    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>321</v>
       </c>
@@ -11218,7 +11250,7 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A3" s="134"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
@@ -11292,7 +11324,7 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="134"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
@@ -11360,7 +11392,7 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A5" s="134"/>
       <c r="B5" s="96" t="s">
         <v>1015</v>
@@ -11434,8 +11466,8 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="134"/>
+    <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="136"/>
       <c r="B6" s="97" t="s">
         <v>1016</v>
       </c>
@@ -11502,494 +11534,1111 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="133" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>995</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>731</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>835</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+      <c r="A8" s="134"/>
+      <c r="B8" s="96" t="s">
+        <v>997</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>732</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="V8" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="W8" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A9" s="134"/>
+      <c r="B9" s="96" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>733</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25" t="s">
+        <v>780</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>994</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>993</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>1043</v>
+      </c>
+      <c r="V9" s="25"/>
+      <c r="W9" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A10" s="134"/>
+      <c r="B10" s="96" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>734</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>996</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="T10" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>1044</v>
+      </c>
+      <c r="V10" s="25" t="s">
+        <v>845</v>
+      </c>
+      <c r="W10" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="136"/>
+      <c r="B11" s="98" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>735</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>754</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>756</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="W11" s="30" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="28" x14ac:dyDescent="0.2">
+      <c r="A12" s="133" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="W12" s="27"/>
+    </row>
+    <row r="13" spans="1:34" ht="42" x14ac:dyDescent="0.2">
+      <c r="A13" s="134"/>
+      <c r="B13" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>719</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25" t="s">
+        <v>1123</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25" t="s">
+        <v>660</v>
+      </c>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="W13" s="28" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A14" s="134"/>
+      <c r="B14" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="L14" s="120" t="s">
+        <v>379</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="28" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="136"/>
+      <c r="B15" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29" t="s">
+        <v>668</v>
+      </c>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="30"/>
+    </row>
+    <row r="16" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A16" s="133" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B16" s="31" t="s">
         <v>641</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C16" s="90" t="s">
         <v>691</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D16" s="79" t="s">
         <v>696</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E16" s="26" t="s">
         <v>692</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F16" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G16" s="79" t="s">
         <v>695</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H16" s="26" t="s">
         <v>1002</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="79" t="s">
+      <c r="I16" s="26"/>
+      <c r="J16" s="79" t="s">
         <v>1003</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K16" s="79" t="s">
         <v>716</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="124" t="s">
+      <c r="L16" s="26"/>
+      <c r="M16" s="124" t="s">
         <v>1004</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N16" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="O7" s="79" t="s">
+      <c r="O16" s="79" t="s">
         <v>717</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="P16" s="26" t="s">
         <v>702</v>
       </c>
-      <c r="Q7" s="79" t="s">
+      <c r="Q16" s="79" t="s">
         <v>708</v>
       </c>
-      <c r="R7" s="79" t="s">
+      <c r="R16" s="79" t="s">
         <v>708</v>
       </c>
-      <c r="S7" s="79" t="s">
+      <c r="S16" s="79" t="s">
         <v>960</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="T16" s="26" t="s">
         <v>710</v>
       </c>
-      <c r="U7" s="124" t="s">
+      <c r="U16" s="124" t="s">
         <v>1045</v>
       </c>
-      <c r="V7" s="79" t="s">
+      <c r="V16" s="79" t="s">
         <v>713</v>
       </c>
-      <c r="W7" s="81" t="s">
+      <c r="W16" s="81" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A8" s="134"/>
-      <c r="B8" s="33" t="s">
+    <row r="17" spans="1:33" ht="56" x14ac:dyDescent="0.2">
+      <c r="A17" s="134"/>
+      <c r="B17" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="80" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="80" t="s">
         <v>697</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E17" s="25" t="s">
         <v>693</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="80" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="80" t="s">
         <v>699</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="80" t="s">
+      <c r="I17" s="25"/>
+      <c r="J17" s="80" t="s">
         <v>1006</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="80" t="s">
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="80" t="s">
         <v>1005</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N17" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25" t="s">
+      <c r="O17" s="25"/>
+      <c r="P17" s="25" t="s">
         <v>701</v>
       </c>
-      <c r="Q8" s="80" t="s">
+      <c r="Q17" s="80" t="s">
         <v>709</v>
       </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="80" t="s">
+      <c r="R17" s="25"/>
+      <c r="S17" s="80" t="s">
         <v>711</v>
       </c>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="80" t="s">
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="80" t="s">
         <v>1007</v>
       </c>
-      <c r="W8" s="112" t="s">
+      <c r="W17" s="112" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="136"/>
-      <c r="B9" s="35" t="s">
+    <row r="18" spans="1:33" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="136"/>
+      <c r="B18" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C18" s="122" t="s">
         <v>1064</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="F9" s="123" t="s">
+      <c r="F18" s="123" t="s">
         <v>1065</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29" t="s">
         <v>700</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M18" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N18" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="O9" s="123" t="s">
+      <c r="O18" s="123" t="s">
         <v>396</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="P18" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="123" t="s">
+      <c r="Q18" s="29"/>
+      <c r="R18" s="123" t="s">
         <v>718</v>
       </c>
-      <c r="S9" s="29" t="s">
+      <c r="S18" s="29" t="s">
         <v>961</v>
       </c>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29" t="s">
+      <c r="T18" s="29"/>
+      <c r="U18" s="29" t="s">
         <v>1035</v>
       </c>
-      <c r="V9" s="29"/>
-      <c r="W9" s="30"/>
-    </row>
-    <row r="10" spans="1:34" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="134" t="s">
+      <c r="V18" s="29"/>
+      <c r="W18" s="30"/>
+    </row>
+    <row r="19" spans="1:33" ht="42" x14ac:dyDescent="0.2">
+      <c r="A19" s="133" t="s">
         <v>688</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B19" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C19" s="32" t="s">
         <v>965</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D19" s="26" t="s">
         <v>721</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E19" s="26" t="s">
         <v>968</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F19" s="26" t="s">
         <v>969</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G19" s="26" t="s">
         <v>970</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H19" s="26" t="s">
         <v>971</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I19" s="26" t="s">
         <v>981</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J19" s="26" t="s">
         <v>972</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26" t="s">
+      <c r="K19" s="26"/>
+      <c r="L19" s="26" t="s">
         <v>977</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M19" s="26" t="s">
         <v>705</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N19" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O19" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P19" s="26" t="s">
         <v>988</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q19" s="26" t="s">
         <v>715</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R19" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="S10" s="26" t="s">
+      <c r="S19" s="26" t="s">
         <v>989</v>
       </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26" t="s">
+      <c r="T19" s="26"/>
+      <c r="U19" s="26" t="s">
         <v>1046</v>
       </c>
-      <c r="V10" s="26" t="s">
+      <c r="V19" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="W10" s="27"/>
-    </row>
-    <row r="11" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="134"/>
-      <c r="B11" s="113" t="s">
+      <c r="W19" s="27"/>
+    </row>
+    <row r="20" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="134"/>
+      <c r="B20" s="113" t="s">
         <v>962</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C20" s="114" t="s">
         <v>966</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115" t="s">
+      <c r="D20" s="115"/>
+      <c r="E20" s="115" t="s">
         <v>689</v>
       </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115" t="s">
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115" t="s">
         <v>973</v>
       </c>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115" t="s">
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115" t="s">
         <v>983</v>
       </c>
-      <c r="N11" s="115" t="s">
+      <c r="N20" s="115" t="s">
         <v>984</v>
       </c>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115" t="s">
+      <c r="O20" s="115"/>
+      <c r="P20" s="115" t="s">
         <v>987</v>
       </c>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="115" t="s">
+      <c r="Q20" s="115"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115" t="s">
         <v>966</v>
       </c>
-      <c r="W11" s="117"/>
-    </row>
-    <row r="12" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A12" s="134"/>
-      <c r="B12" s="33" t="s">
+      <c r="W20" s="117"/>
+    </row>
+    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.2">
+      <c r="A21" s="134"/>
+      <c r="B21" s="33" t="s">
         <v>963</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
         <v>978</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F21" s="25" t="s">
         <v>979</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25" t="s">
         <v>690</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I21" s="25" t="s">
         <v>982</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J21" s="25" t="s">
         <v>974</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K21" s="25" t="s">
         <v>976</v>
       </c>
-      <c r="L12" s="151"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25" t="s">
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25" t="s">
         <v>985</v>
       </c>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="25" t="s">
+      <c r="Q21" s="25"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25" t="s">
+      <c r="T21" s="25"/>
+      <c r="U21" s="25" t="s">
         <v>1047</v>
       </c>
-      <c r="V12" s="25" t="s">
+      <c r="V21" s="25" t="s">
         <v>991</v>
       </c>
-      <c r="W12" s="28" t="s">
+      <c r="W21" s="28" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="136"/>
-      <c r="B13" s="35" t="s">
+    <row r="22" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="136"/>
+      <c r="B22" s="35" t="s">
         <v>964</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29" t="s">
         <v>967</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29" t="s">
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29" t="s">
         <v>980</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29" t="s">
+      <c r="I22" s="29"/>
+      <c r="J22" s="29" t="s">
         <v>975</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29" t="s">
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29" t="s">
         <v>964</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29" t="s">
+      <c r="O22" s="29"/>
+      <c r="P22" s="29" t="s">
         <v>986</v>
       </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29" t="s">
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29" t="s">
         <v>992</v>
       </c>
-      <c r="W13" s="30"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-    </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-    </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-    </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-    </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-    </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-    </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="W22" s="30"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -11997,6 +12646,642 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE6C088-7B1A-724F-96D6-11C56C9BF066}">
+  <dimension ref="A1:AH10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="23" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="152" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="152" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="152" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="152" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="152" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="152" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="152" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="152" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="152" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="152" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+      <c r="A2" s="133" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>995</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>835</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+    </row>
+    <row r="3" spans="1:34" ht="126" x14ac:dyDescent="0.2">
+      <c r="A3" s="134"/>
+      <c r="B3" s="96" t="s">
+        <v>997</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>732</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="1:34" ht="98" x14ac:dyDescent="0.2">
+      <c r="A4" s="134"/>
+      <c r="B4" s="96" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25" t="s">
+        <v>780</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>994</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>993</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>1043</v>
+      </c>
+      <c r="V4" s="25"/>
+      <c r="W4" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+      <c r="A5" s="134"/>
+      <c r="B5" s="96" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>734</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>996</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>1044</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>845</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="1:34" ht="99" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="136"/>
+      <c r="B6" s="98" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>735</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>754</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>756</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="W6" s="30" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="133" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26" t="s">
+        <v>1126</v>
+      </c>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="W7" s="27"/>
+    </row>
+    <row r="8" spans="1:34" ht="98" x14ac:dyDescent="0.2">
+      <c r="A8" s="134"/>
+      <c r="B8" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>719</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25" t="s">
+        <v>1123</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>1127</v>
+      </c>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25" t="s">
+        <v>1128</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="W8" s="28" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="98" x14ac:dyDescent="0.2">
+      <c r="A9" s="134"/>
+      <c r="B9" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="L9" s="120" t="s">
+        <v>379</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25" t="s">
+        <v>1124</v>
+      </c>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25" t="s">
+        <v>1125</v>
+      </c>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="28" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="136"/>
+      <c r="B10" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29" t="s">
+        <v>668</v>
+      </c>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DE2F3E-D1CE-4B93-B6DF-12C89A233AC2}">
   <dimension ref="A1:R16"/>
   <sheetViews>
@@ -12004,22 +13289,22 @@
       <selection activeCell="L1" sqref="L1:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
-    <col min="6" max="6" width="32.36328125" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="12" max="12" width="17.36328125" customWidth="1"/>
-    <col min="13" max="13" width="26.6328125" customWidth="1"/>
-    <col min="17" max="17" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="26.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
         <v>638</v>
       </c>
@@ -12068,7 +13353,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>588</v>
       </c>
@@ -12115,7 +13400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>589</v>
       </c>
@@ -12162,7 +13447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>591</v>
       </c>
@@ -12209,7 +13494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
         <v>593</v>
       </c>
@@ -12247,7 +13532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
         <v>595</v>
       </c>
@@ -12294,7 +13579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="66" t="s">
         <v>597</v>
       </c>
@@ -12332,7 +13617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="66" t="s">
         <v>599</v>
       </c>
@@ -12355,7 +13640,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="66" t="s">
         <v>601</v>
       </c>
@@ -12378,7 +13663,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="66" t="s">
         <v>603</v>
       </c>
@@ -12392,7 +13677,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="66" t="s">
         <v>605</v>
       </c>
@@ -12415,7 +13700,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
         <v>607</v>
       </c>
@@ -12438,7 +13723,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="D13" s="66" t="s">
         <v>602</v>
       </c>
@@ -12455,7 +13740,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="D14" s="66" t="s">
         <v>598</v>
       </c>
@@ -12466,7 +13751,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="D15" s="49" t="s">
         <v>625</v>
       </c>
@@ -12477,7 +13762,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="D16" s="66" t="s">
         <v>627</v>
       </c>
@@ -12498,17 +13783,17 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>74</v>
       </c>
@@ -12522,7 +13807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
@@ -12542,7 +13827,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
@@ -12556,7 +13841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>4</v>
       </c>
@@ -12573,7 +13858,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -12587,7 +13872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -12602,7 +13887,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
@@ -12617,7 +13902,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
@@ -12632,7 +13917,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
@@ -12647,7 +13932,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
@@ -12662,7 +13947,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -12676,7 +13961,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
@@ -12691,7 +13976,7 @@
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -12706,7 +13991,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
@@ -12721,7 +14006,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
@@ -12736,7 +14021,7 @@
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
@@ -12751,7 +14036,7 @@
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
@@ -12765,7 +14050,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
@@ -12780,7 +14065,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
@@ -12794,7 +14079,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -12808,7 +14093,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
@@ -12823,7 +14108,7 @@
         <v>Vorwärts aus P7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
@@ -12837,14 +14122,14 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -12861,20 +14146,20 @@
       <selection activeCell="A12" sqref="A12:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.453125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="50.81640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="35.81640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="10.81640625" style="7"/>
+    <col min="2" max="2" width="14.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -12900,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -12926,7 +14211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -12952,7 +14237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -12978,7 +14263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -13004,7 +14289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -13030,7 +14315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -13056,7 +14341,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -13082,7 +14367,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -13108,7 +14393,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -13134,7 +14419,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -13160,7 +14445,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -13186,7 +14471,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -13212,7 +14497,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -13238,7 +14523,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -13264,7 +14549,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -13290,7 +14575,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -13316,7 +14601,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -13342,7 +14627,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -13368,7 +14653,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -13394,7 +14679,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -13420,7 +14705,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -13446,7 +14731,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -13472,7 +14757,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -13498,7 +14783,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -13524,7 +14809,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -13550,7 +14835,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -13565,14 +14850,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H28" s="6">
         <f>Übersicht!D28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -13580,7 +14865,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -13604,18 +14889,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="29.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>261</v>
       </c>
@@ -13636,7 +14921,7 @@
       <c r="J1" s="128"/>
       <c r="K1" s="128"/>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>251</v>
       </c>
@@ -13657,7 +14942,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>252</v>
       </c>
@@ -13676,7 +14961,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>264</v>
       </c>
@@ -13695,7 +14980,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>253</v>
       </c>
@@ -13714,7 +14999,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>254</v>
       </c>
@@ -13733,7 +15018,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>265</v>
       </c>
@@ -13752,14 +15037,14 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -13783,15 +15068,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" customWidth="1"/>
-    <col min="3" max="3" width="54.36328125" customWidth="1"/>
-    <col min="4" max="4" width="61.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>261</v>
       </c>
@@ -13805,7 +15090,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="56" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>251</v>
       </c>
@@ -13819,7 +15104,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>252</v>
       </c>
@@ -13833,7 +15118,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>264</v>
       </c>
@@ -13847,7 +15132,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>253</v>
       </c>
@@ -13861,7 +15146,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>254</v>
       </c>
@@ -13875,7 +15160,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>265</v>
       </c>
@@ -13902,14 +15187,14 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="12" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
-    <col min="3" max="4" width="53.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="4" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
@@ -13925,7 +15210,7 @@
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
     </row>
-    <row r="2" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
@@ -13941,7 +15226,7 @@
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
     </row>
-    <row r="3" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="70" x14ac:dyDescent="0.2">
       <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
@@ -13957,7 +15242,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="78"/>
     </row>
-    <row r="4" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="104" t="s">
         <v>4</v>
       </c>
@@ -13973,7 +15258,7 @@
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>5</v>
       </c>
@@ -13989,7 +15274,7 @@
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
     </row>
-    <row r="6" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.2">
       <c r="A6" s="104" t="s">
         <v>6</v>
       </c>
@@ -14005,7 +15290,7 @@
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
     </row>
-    <row r="7" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>7</v>
       </c>
@@ -14021,7 +15306,7 @@
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
     </row>
-    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="104" t="s">
         <v>8</v>
       </c>
@@ -14037,7 +15322,7 @@
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
     </row>
-    <row r="9" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A9" s="104" t="s">
         <v>9</v>
       </c>
@@ -14053,7 +15338,7 @@
       <c r="E9" s="78"/>
       <c r="F9" s="78"/>
     </row>
-    <row r="10" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="104" t="s">
         <v>10</v>
       </c>
@@ -14069,7 +15354,7 @@
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="104" t="s">
         <v>10</v>
       </c>
@@ -14079,7 +15364,7 @@
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
     </row>
-    <row r="12" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A12" s="104" t="s">
         <v>11</v>
       </c>
@@ -14095,7 +15380,7 @@
       <c r="E12" s="78"/>
       <c r="F12" s="78"/>
     </row>
-    <row r="13" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A13" s="104" t="s">
         <v>12</v>
       </c>
@@ -14111,7 +15396,7 @@
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
     </row>
-    <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A14" s="104" t="s">
         <v>13</v>
       </c>
@@ -14127,7 +15412,7 @@
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
     </row>
-    <row r="15" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="104" t="s">
         <v>14</v>
       </c>
@@ -14143,7 +15428,7 @@
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
     </row>
-    <row r="16" spans="1:6" ht="100" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" s="104" t="s">
         <v>15</v>
       </c>
@@ -14159,7 +15444,7 @@
       <c r="E16" s="78"/>
       <c r="F16" s="78"/>
     </row>
-    <row r="17" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A17" s="104" t="s">
         <v>16</v>
       </c>
@@ -14175,7 +15460,7 @@
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
     </row>
-    <row r="18" spans="1:6" ht="62.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="104" t="s">
         <v>18</v>
       </c>
@@ -14191,7 +15476,7 @@
       <c r="E18" s="78"/>
       <c r="F18" s="78"/>
     </row>
-    <row r="19" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A19" s="104" t="s">
         <v>17</v>
       </c>
@@ -14207,7 +15492,7 @@
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
     </row>
-    <row r="20" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A20" s="104" t="s">
         <v>18</v>
       </c>
@@ -14223,7 +15508,7 @@
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
     </row>
-    <row r="21" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="104" t="s">
         <v>21</v>
       </c>
@@ -14239,7 +15524,7 @@
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
     </row>
-    <row r="22" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A22" s="104" t="s">
         <v>19</v>
       </c>
@@ -14255,7 +15540,7 @@
       <c r="E22" s="78"/>
       <c r="F22" s="78"/>
     </row>
-    <row r="23" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="70" x14ac:dyDescent="0.2">
       <c r="A23" s="104" t="s">
         <v>20</v>
       </c>
@@ -14271,15 +15556,15 @@
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="109" t="s">
         <v>21</v>
       </c>
@@ -14289,7 +15574,7 @@
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="109" t="s">
         <v>3</v>
       </c>
@@ -14314,30 +15599,30 @@
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.81640625" customWidth="1"/>
-    <col min="10" max="10" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="36.81640625" customWidth="1"/>
-    <col min="19" max="19" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="36.81640625" customWidth="1"/>
-    <col min="22" max="22" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="36.83203125" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="36.83203125" customWidth="1"/>
+    <col min="22" max="22" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>238</v>
       </c>
@@ -14405,7 +15690,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>470</v>
       </c>
@@ -14473,7 +15758,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="139" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="154" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
         <v>81</v>
       </c>
@@ -14541,7 +15826,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="126.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="140" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>471</v>
       </c>
@@ -14609,7 +15894,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>472</v>
       </c>
@@ -14677,7 +15962,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="139" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="154" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>475</v>
       </c>
@@ -14745,7 +16030,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="70" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>473</v>
       </c>
@@ -14813,7 +16098,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="100" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>474</v>
       </c>
@@ -14881,31 +16166,31 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="129"/>
       <c r="C13" s="129"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" s="129"/>
       <c r="C14" s="129"/>
       <c r="G14" s="67"/>
     </row>
-    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="129"/>
       <c r="C15" s="129"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G16" s="67"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="67"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="67"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="67"/>
     </row>
   </sheetData>
@@ -14923,38 +16208,38 @@
   <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
     <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6328125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.36328125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="38.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.33203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
@@ -15036,7 +16321,7 @@
       <c r="AG1" s="93"/>
       <c r="AH1" s="93"/>
     </row>
-    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>321</v>
       </c>
@@ -15098,7 +16383,7 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A3" s="134"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
@@ -15172,7 +16457,7 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="134"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
@@ -15240,7 +16525,7 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A5" s="134"/>
       <c r="B5" s="96" t="s">
         <v>1015</v>
@@ -15314,7 +16599,7 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="134"/>
       <c r="B6" s="97" t="s">
         <v>1016</v>
@@ -15382,7 +16667,7 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="130" t="s">
         <v>320</v>
       </c>
@@ -15460,7 +16745,7 @@
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
       <c r="A8" s="131"/>
       <c r="B8" s="96" t="s">
         <v>997</v>
@@ -15534,7 +16819,7 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
     </row>
-    <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
       <c r="A9" s="131"/>
       <c r="B9" s="96" t="s">
         <v>1017</v>
@@ -15604,7 +16889,7 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="131"/>
       <c r="B10" s="96" t="s">
         <v>1018</v>
@@ -15674,7 +16959,7 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
     </row>
-    <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="132"/>
       <c r="B11" s="98" t="s">
         <v>1019</v>
@@ -15731,7 +17016,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -15740,12 +17025,12 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="L16" s="6"/>
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:22" x14ac:dyDescent="0.2">
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -15756,7 +17041,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -15770,7 +17055,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -15784,7 +17069,7 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -15798,7 +17083,7 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -15812,7 +17097,7 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -15826,7 +17111,7 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -15840,7 +17125,7 @@
       <c r="U23"/>
       <c r="V23"/>
     </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -15854,7 +17139,7 @@
       <c r="U24"/>
       <c r="V24"/>
     </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="9:22" x14ac:dyDescent="0.2">
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -15868,7 +17153,7 @@
       <c r="U25"/>
       <c r="V25"/>
     </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="9:22" x14ac:dyDescent="0.2">
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="Q26" s="14"/>
@@ -15878,7 +17163,7 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="9:22" x14ac:dyDescent="0.2">
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="Q27" s="14"/>
@@ -15888,7 +17173,7 @@
       <c r="U27"/>
       <c r="V27"/>
     </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="9:22" x14ac:dyDescent="0.2">
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
@@ -15913,34 +17198,34 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.36328125" customWidth="1"/>
-    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.81640625" customWidth="1"/>
-    <col min="18" max="18" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="25.1796875" customWidth="1"/>
-    <col min="23" max="23" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.81640625" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="25.1640625" customWidth="1"/>
+    <col min="23" max="23" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
@@ -16014,7 +17299,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>255</v>
       </c>
@@ -16088,7 +17373,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A3" s="134"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
@@ -16160,7 +17445,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="70" x14ac:dyDescent="0.2">
       <c r="A4" s="134"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
@@ -16232,7 +17517,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
@@ -16304,7 +17589,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A6" s="75" t="s">
         <v>357</v>
       </c>
@@ -16378,7 +17663,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A7" s="76"/>
       <c r="B7" s="33" t="s">
         <v>332</v>
@@ -16450,7 +17735,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="76"/>
       <c r="B8" s="33" t="s">
         <v>333</v>
@@ -16522,7 +17807,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A9" s="76"/>
       <c r="B9" s="33" t="s">
         <v>259</v>
@@ -16594,7 +17879,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="76"/>
       <c r="B10" s="33" t="s">
         <v>337</v>
@@ -16666,7 +17951,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="84" x14ac:dyDescent="0.2">
       <c r="A11" s="76"/>
       <c r="B11" s="33" t="s">
         <v>339</v>
@@ -16738,7 +18023,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="77"/>
       <c r="B12" s="35" t="s">
         <v>260</v>
@@ -16810,15 +18095,15 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BADDE5A-316A-CA40-867C-F5A5795F0F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33403420-5907-DA46-B7C0-E41E2D3232BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="14" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="10" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -8540,6 +8540,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -8573,28 +8577,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8615,10 +8610,15 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -9459,11 +9459,11 @@
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="128" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
     </row>
     <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -9493,11 +9493,11 @@
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G7" s="127" t="s">
+      <c r="G7" s="129" t="s">
         <v>284</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
     </row>
     <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -9513,9 +9513,9 @@
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
     </row>
     <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -9927,7 +9927,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="135" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -9978,7 +9978,7 @@
       <c r="W2" s="27"/>
     </row>
     <row r="3" spans="1:23" ht="98" x14ac:dyDescent="0.2">
-      <c r="A3" s="134"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
       </c>
@@ -10035,7 +10035,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="70" x14ac:dyDescent="0.2">
-      <c r="A4" s="134"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
       </c>
@@ -10081,12 +10081,12 @@
       </c>
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
-      <c r="W4" s="151" t="s">
+      <c r="W4" s="126" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
       </c>
@@ -10125,7 +10125,7 @@
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="56" x14ac:dyDescent="0.2">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="135" t="s">
         <v>687</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -10192,7 +10192,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="56" x14ac:dyDescent="0.2">
-      <c r="A7" s="134"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="33" t="s">
         <v>642</v>
       </c>
@@ -10241,7 +10241,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="35" t="s">
         <v>592</v>
       </c>
@@ -10290,7 +10290,7 @@
       <c r="W8" s="30"/>
     </row>
     <row r="9" spans="1:23" ht="42" x14ac:dyDescent="0.2">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="136" t="s">
         <v>688</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -10355,7 +10355,7 @@
       <c r="W9" s="27"/>
     </row>
     <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="134"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="113" t="s">
         <v>962</v>
       </c>
@@ -10396,7 +10396,7 @@
       <c r="W10" s="117"/>
     </row>
     <row r="11" spans="1:23" ht="42" x14ac:dyDescent="0.2">
-      <c r="A11" s="134"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="33" t="s">
         <v>963</v>
       </c>
@@ -10445,7 +10445,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="35" t="s">
         <v>964</v>
       </c>
@@ -10520,8 +10520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7013A05C-DE60-48CF-8EAC-BA1D4A04F40F}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10615,16 +10615,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="125" t="s">
         <v>1090</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="125" t="s">
         <v>1091</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="125" t="s">
         <v>1092</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="125" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -10832,31 +10832,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="141" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="144" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="138" t="s">
+      <c r="C2" s="147"/>
+      <c r="D2" s="151" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="141"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="137"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="150"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="142"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="139"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="152"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="141" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -10870,7 +10870,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="141"/>
+      <c r="A6" s="143"/>
       <c r="B6" s="53" t="s">
         <v>499</v>
       </c>
@@ -10882,7 +10882,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="141"/>
+      <c r="A7" s="143"/>
       <c r="B7" s="53" t="s">
         <v>501</v>
       </c>
@@ -10900,7 +10900,7 @@
       <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="141" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -10926,7 +10926,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="139" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="88" t="s">
@@ -10940,13 +10940,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
+      <c r="A12" s="140"/>
       <c r="B12" s="89"/>
       <c r="C12" s="63"/>
       <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="141" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -10960,7 +10960,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="141"/>
+      <c r="A14" s="143"/>
       <c r="B14" s="53" t="s">
         <v>514</v>
       </c>
@@ -10972,7 +10972,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="141"/>
+      <c r="A15" s="143"/>
       <c r="B15" s="53" t="s">
         <v>474</v>
       </c>
@@ -10984,22 +10984,22 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="141"/>
-      <c r="B16" s="146"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="137" t="s">
+      <c r="D16" s="150" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="141"/>
-      <c r="B17" s="146"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="137"/>
+      <c r="D17" s="150"/>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="142"/>
@@ -11012,7 +11012,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="139" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="88" t="s">
@@ -11026,13 +11026,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="144"/>
+      <c r="A20" s="140"/>
       <c r="B20" s="89"/>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="141" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="58" t="s">
@@ -11053,18 +11053,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11074,9 +11074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFE91FF-44F0-441B-9BF4-83ADF34482BD}">
   <dimension ref="A1:AH30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="A7:XFD15"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11189,7 +11189,7 @@
       <c r="AH1" s="93"/>
     </row>
     <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="135" t="s">
         <v>321</v>
       </c>
       <c r="B2" s="95" t="s">
@@ -11251,7 +11251,7 @@
       <c r="AH2" s="6"/>
     </row>
     <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A3" s="134"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
       </c>
@@ -11325,7 +11325,7 @@
       <c r="AH3" s="6"/>
     </row>
     <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A4" s="134"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
       </c>
@@ -11392,8 +11392,8 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A5" s="134"/>
+    <row r="5" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A5" s="136"/>
       <c r="B5" s="96" t="s">
         <v>1015</v>
       </c>
@@ -11467,7 +11467,7 @@
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="97" t="s">
         <v>1016</v>
       </c>
@@ -11535,7 +11535,7 @@
       <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="135" t="s">
         <v>320</v>
       </c>
       <c r="B7" s="95" t="s">
@@ -11613,7 +11613,7 @@
       <c r="AH7" s="6"/>
     </row>
     <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
-      <c r="A8" s="134"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="96" t="s">
         <v>997</v>
       </c>
@@ -11687,7 +11687,7 @@
       <c r="AH8" s="6"/>
     </row>
     <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A9" s="134"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="96" t="s">
         <v>1017</v>
       </c>
@@ -11757,7 +11757,7 @@
       <c r="AH9" s="6"/>
     </row>
     <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A10" s="134"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="96" t="s">
         <v>1018</v>
       </c>
@@ -11827,7 +11827,7 @@
       <c r="AH10" s="6"/>
     </row>
     <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="98" t="s">
         <v>1019</v>
       </c>
@@ -11884,7 +11884,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="28" x14ac:dyDescent="0.2">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="135" t="s">
         <v>255</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -11933,7 +11933,7 @@
       <c r="W12" s="27"/>
     </row>
     <row r="13" spans="1:34" ht="42" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="33" t="s">
         <v>323</v>
       </c>
@@ -11990,7 +11990,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A14" s="134"/>
+      <c r="A14" s="136"/>
       <c r="B14" s="33" t="s">
         <v>257</v>
       </c>
@@ -12043,7 +12043,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="35" t="s">
         <v>326</v>
       </c>
@@ -12082,7 +12082,7 @@
       <c r="W15" s="30"/>
     </row>
     <row r="16" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="135" t="s">
         <v>687</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -12149,7 +12149,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" ht="56" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="33" t="s">
         <v>642</v>
       </c>
@@ -12198,7 +12198,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="35" t="s">
         <v>592</v>
       </c>
@@ -12247,7 +12247,7 @@
       <c r="W18" s="30"/>
     </row>
     <row r="19" spans="1:33" ht="42" x14ac:dyDescent="0.2">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="135" t="s">
         <v>688</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -12312,7 +12312,7 @@
       <c r="W19" s="27"/>
     </row>
     <row r="20" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="134"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="113" t="s">
         <v>962</v>
       </c>
@@ -12352,8 +12352,8 @@
       </c>
       <c r="W20" s="117"/>
     </row>
-    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.2">
-      <c r="A21" s="134"/>
+    <row r="21" spans="1:33" ht="42" x14ac:dyDescent="0.2">
+      <c r="A21" s="136"/>
       <c r="B21" s="33" t="s">
         <v>963</v>
       </c>
@@ -12402,7 +12402,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="136"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="35" t="s">
         <v>964</v>
       </c>
@@ -12649,8 +12649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE6C088-7B1A-724F-96D6-11C56C9BF066}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -12660,72 +12660,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="152" t="s">
+      <c r="G1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="152" t="s">
+      <c r="H1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="152" t="s">
+      <c r="I1" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="152" t="s">
+      <c r="J1" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="152" t="s">
+      <c r="K1" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="152" t="s">
+      <c r="L1" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="152" t="s">
+      <c r="M1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="152" t="s">
+      <c r="N1" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="152" t="s">
+      <c r="O1" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="152" t="s">
+      <c r="P1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="152" t="s">
+      <c r="Q1" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="152" t="s">
+      <c r="R1" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="152" t="s">
+      <c r="S1" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="152" t="s">
+      <c r="T1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="152" t="s">
+      <c r="U1" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="152" t="s">
+      <c r="V1" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="152" t="s">
+      <c r="W1" s="127" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="84" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="135" t="s">
         <v>320</v>
       </c>
       <c r="B2" s="95" t="s">
@@ -12803,7 +12803,7 @@
       <c r="AH2" s="6"/>
     </row>
     <row r="3" spans="1:34" ht="126" x14ac:dyDescent="0.2">
-      <c r="A3" s="134"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="96" t="s">
         <v>997</v>
       </c>
@@ -12877,7 +12877,7 @@
       <c r="AH3" s="6"/>
     </row>
     <row r="4" spans="1:34" ht="98" x14ac:dyDescent="0.2">
-      <c r="A4" s="134"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="96" t="s">
         <v>1017</v>
       </c>
@@ -12947,7 +12947,7 @@
       <c r="AH4" s="6"/>
     </row>
     <row r="5" spans="1:34" ht="84" x14ac:dyDescent="0.2">
-      <c r="A5" s="134"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="96" t="s">
         <v>1018</v>
       </c>
@@ -13017,7 +13017,7 @@
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="1:34" ht="99" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="98" t="s">
         <v>1019</v>
       </c>
@@ -13074,7 +13074,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="28" x14ac:dyDescent="0.2">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="135" t="s">
         <v>255</v>
       </c>
       <c r="B7" s="31" t="s">
@@ -13125,7 +13125,7 @@
       <c r="W7" s="27"/>
     </row>
     <row r="8" spans="1:34" ht="98" x14ac:dyDescent="0.2">
-      <c r="A8" s="134"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="33" t="s">
         <v>323</v>
       </c>
@@ -13182,7 +13182,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="98" x14ac:dyDescent="0.2">
-      <c r="A9" s="134"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="33" t="s">
         <v>257</v>
       </c>
@@ -13233,7 +13233,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="35" t="s">
         <v>326</v>
       </c>
@@ -14913,13 +14913,13 @@
       <c r="D1" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -16167,18 +16167,18 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
       <c r="G15" s="67"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -16322,7 +16322,7 @@
       <c r="AH1" s="93"/>
     </row>
     <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="135" t="s">
         <v>321</v>
       </c>
       <c r="B2" s="95" t="s">
@@ -16384,7 +16384,7 @@
       <c r="AH2" s="6"/>
     </row>
     <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A3" s="134"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
       </c>
@@ -16458,7 +16458,7 @@
       <c r="AH3" s="6"/>
     </row>
     <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A4" s="134"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
       </c>
@@ -16526,7 +16526,7 @@
       <c r="AH4" s="6"/>
     </row>
     <row r="5" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A5" s="134"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="96" t="s">
         <v>1015</v>
       </c>
@@ -16600,7 +16600,7 @@
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
+      <c r="A6" s="136"/>
       <c r="B6" s="97" t="s">
         <v>1016</v>
       </c>
@@ -16668,7 +16668,7 @@
       <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="132" t="s">
         <v>320</v>
       </c>
       <c r="B7" s="95" t="s">
@@ -16746,7 +16746,7 @@
       <c r="AH7" s="6"/>
     </row>
     <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
-      <c r="A8" s="131"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="96" t="s">
         <v>997</v>
       </c>
@@ -16820,7 +16820,7 @@
       <c r="AH8" s="6"/>
     </row>
     <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A9" s="131"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="96" t="s">
         <v>1017</v>
       </c>
@@ -16890,7 +16890,7 @@
       <c r="AH9" s="6"/>
     </row>
     <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A10" s="131"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="96" t="s">
         <v>1018</v>
       </c>
@@ -16960,7 +16960,7 @@
       <c r="AH10" s="6"/>
     </row>
     <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="98" t="s">
         <v>1019</v>
       </c>
@@ -17300,7 +17300,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="135" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -17374,7 +17374,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="134"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
       </c>
@@ -17446,7 +17446,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="70" x14ac:dyDescent="0.2">
-      <c r="A4" s="134"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
       </c>
@@ -17518,7 +17518,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
       </c>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33403420-5907-DA46-B7C0-E41E2D3232BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="10" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" firstSheet="1" activeTab="10" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -8577,19 +8577,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8608,15 +8617,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9383,14 +9383,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="57.36328125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -9465,7 +9465,7 @@
       <c r="H5" s="128"/>
       <c r="I5" s="128"/>
     </row>
-    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -9499,7 +9499,7 @@
       <c r="H7" s="129"/>
       <c r="I7" s="129"/>
     </row>
-    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -9517,7 +9517,7 @@
       <c r="H8" s="129"/>
       <c r="I8" s="129"/>
     </row>
-    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>Vorwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>Vorwärts aus P4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>Rückwärts aus P4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="21" t="s">
         <v>19</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="21" t="s">
         <v>21</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>Rückwärts aus P5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>Rückwärts aus P16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>Rückwärts aus P18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>Vorwärts aus P6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -9787,24 +9787,24 @@
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -9828,34 +9828,34 @@
       <selection pane="topRight" activeCell="T3" sqref="T3:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.453125" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="19" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.83203125" customWidth="1"/>
+    <col min="19" max="19" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="135" t="s">
         <v>255</v>
       </c>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="W2" s="27"/>
     </row>
-    <row r="3" spans="1:23" ht="98" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A3" s="136"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
@@ -10034,7 +10034,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A4" s="136"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
@@ -10085,7 +10085,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="136"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
@@ -10124,7 +10124,7 @@
       <c r="V5" s="29"/>
       <c r="W5" s="30"/>
     </row>
-    <row r="6" spans="1:23" ht="56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="50" x14ac:dyDescent="0.35">
       <c r="A6" s="135" t="s">
         <v>687</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="50" x14ac:dyDescent="0.35">
       <c r="A7" s="136"/>
       <c r="B7" s="33" t="s">
         <v>642</v>
@@ -10240,7 +10240,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="138"/>
       <c r="B8" s="35" t="s">
         <v>592</v>
@@ -10289,7 +10289,7 @@
       <c r="V8" s="29"/>
       <c r="W8" s="30"/>
     </row>
-    <row r="9" spans="1:23" ht="42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="136" t="s">
         <v>688</v>
       </c>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="W9" s="27"/>
     </row>
-    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="136"/>
       <c r="B10" s="113" t="s">
         <v>962</v>
@@ -10395,7 +10395,7 @@
       </c>
       <c r="W10" s="117"/>
     </row>
-    <row r="11" spans="1:23" ht="42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="50" x14ac:dyDescent="0.35">
       <c r="A11" s="136"/>
       <c r="B11" s="33" t="s">
         <v>963</v>
@@ -10444,7 +10444,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="138"/>
       <c r="B12" s="35" t="s">
         <v>964</v>
@@ -10483,28 +10483,28 @@
       </c>
       <c r="W12" s="30"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="L14" s="78"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="121" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
@@ -10521,16 +10521,16 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="4" width="50.1640625" customWidth="1"/>
+    <col min="1" max="2" width="18.36328125" customWidth="1"/>
+    <col min="3" max="4" width="50.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
         <v>1066</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="125" t="s">
         <v>1070</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="125" t="s">
         <v>1074</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="125" t="s">
         <v>1078</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="125" t="s">
         <v>1082</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="125" t="s">
         <v>1086</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="125" t="s">
         <v>1090</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="74" t="s">
         <v>1094</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="74" t="s">
         <v>1098</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="74" t="s">
         <v>1102</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="74" t="s">
         <v>1106</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="74" t="s">
         <v>1110</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="74" t="s">
         <v>1114</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="74" t="s">
         <v>1118</v>
       </c>
@@ -10739,14 +10739,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>238</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>241</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>243</v>
       </c>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>245</v>
       </c>
@@ -10786,7 +10786,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>246</v>
       </c>
@@ -10809,15 +10809,15 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="138.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="138.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="54" t="s">
         <v>491</v>
       </c>
@@ -10831,32 +10831,32 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="141" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="142" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="147" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="151" t="s">
+      <c r="C2" s="150"/>
+      <c r="D2" s="140" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="143"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="150"/>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="152"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="141" t="s">
+      <c r="B3" s="148"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="139"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="144"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="141"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="142" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -10869,7 +10869,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="143"/>
       <c r="B6" s="53" t="s">
         <v>499</v>
@@ -10881,7 +10881,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="143"/>
       <c r="B7" s="53" t="s">
         <v>501</v>
@@ -10893,14 +10893,14 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="142"/>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="144"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
     </row>
-    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="141" t="s">
+    <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A9" s="142" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -10913,8 +10913,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="142"/>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="144"/>
       <c r="B10" s="82" t="s">
         <v>506</v>
       </c>
@@ -10925,8 +10925,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="139" t="s">
+    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="145" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="88" t="s">
@@ -10939,14 +10939,14 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
+    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="146"/>
       <c r="B12" s="89"/>
       <c r="C12" s="63"/>
       <c r="D12" s="64"/>
     </row>
-    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A13" s="141" t="s">
+    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A13" s="142" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -10959,7 +10959,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="143"/>
       <c r="B14" s="53" t="s">
         <v>514</v>
@@ -10971,7 +10971,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="143"/>
       <c r="B15" s="53" t="s">
         <v>474</v>
@@ -10983,26 +10983,26 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="143"/>
-      <c r="B16" s="145"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="150" t="s">
+      <c r="D16" s="139" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="143"/>
-      <c r="B17" s="145"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="150"/>
-    </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="142"/>
+      <c r="D17" s="139"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="144"/>
       <c r="B18" s="62"/>
       <c r="C18" s="63" t="s">
         <v>522</v>
@@ -11011,8 +11011,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="139" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="145" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="88" t="s">
@@ -11025,14 +11025,14 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="140"/>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="146"/>
       <c r="B20" s="89"/>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="141" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="142" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="58" t="s">
@@ -11045,26 +11045,26 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="142"/>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="144"/>
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11079,34 +11079,34 @@
       <selection pane="topRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="14" customWidth="1"/>
     <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="14" customWidth="1"/>
     <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.36328125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.33203125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="38.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6328125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.36328125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
@@ -11188,7 +11188,7 @@
       <c r="AG1" s="93"/>
       <c r="AH1" s="93"/>
     </row>
-    <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A2" s="135" t="s">
         <v>321</v>
       </c>
@@ -11250,7 +11250,7 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A3" s="136"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
@@ -11324,7 +11324,7 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
       <c r="A4" s="136"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
@@ -11392,7 +11392,7 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A5" s="136"/>
       <c r="B5" s="96" t="s">
         <v>1015</v>
@@ -11466,7 +11466,7 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="138"/>
       <c r="B6" s="97" t="s">
         <v>1016</v>
@@ -11534,7 +11534,7 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
       <c r="A7" s="135" t="s">
         <v>320</v>
       </c>
@@ -11612,7 +11612,7 @@
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
       <c r="A8" s="136"/>
       <c r="B8" s="96" t="s">
         <v>997</v>
@@ -11686,7 +11686,7 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
     </row>
-    <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A9" s="136"/>
       <c r="B9" s="96" t="s">
         <v>1017</v>
@@ -11756,7 +11756,7 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
       <c r="A10" s="136"/>
       <c r="B10" s="96" t="s">
         <v>1018</v>
@@ -11826,7 +11826,7 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
     </row>
-    <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="138"/>
       <c r="B11" s="98" t="s">
         <v>1019</v>
@@ -11883,7 +11883,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="25" x14ac:dyDescent="0.35">
       <c r="A12" s="135" t="s">
         <v>255</v>
       </c>
@@ -11932,7 +11932,7 @@
       </c>
       <c r="W12" s="27"/>
     </row>
-    <row r="13" spans="1:34" ht="42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A13" s="136"/>
       <c r="B13" s="33" t="s">
         <v>323</v>
@@ -11989,7 +11989,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A14" s="136"/>
       <c r="B14" s="33" t="s">
         <v>257</v>
@@ -12042,7 +12042,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="138"/>
       <c r="B15" s="35" t="s">
         <v>326</v>
@@ -12081,7 +12081,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="30"/>
     </row>
-    <row r="16" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="50" x14ac:dyDescent="0.35">
       <c r="A16" s="135" t="s">
         <v>687</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="56" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="50" x14ac:dyDescent="0.35">
       <c r="A17" s="136"/>
       <c r="B17" s="33" t="s">
         <v>642</v>
@@ -12197,7 +12197,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="138"/>
       <c r="B18" s="35" t="s">
         <v>592</v>
@@ -12246,7 +12246,7 @@
       <c r="V18" s="29"/>
       <c r="W18" s="30"/>
     </row>
-    <row r="19" spans="1:33" ht="42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A19" s="135" t="s">
         <v>688</v>
       </c>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="W19" s="27"/>
     </row>
-    <row r="20" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="136"/>
       <c r="B20" s="113" t="s">
         <v>962</v>
@@ -12352,7 +12352,7 @@
       </c>
       <c r="W20" s="117"/>
     </row>
-    <row r="21" spans="1:33" ht="42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="50" x14ac:dyDescent="0.35">
       <c r="A21" s="136"/>
       <c r="B21" s="33" t="s">
         <v>963</v>
@@ -12401,7 +12401,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="138"/>
       <c r="B22" s="35" t="s">
         <v>964</v>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="W22" s="30"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
@@ -12464,7 +12464,7 @@
       <c r="AF23" s="14"/>
       <c r="AG23" s="14"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
@@ -12488,7 +12488,7 @@
       <c r="AF24" s="14"/>
       <c r="AG24" s="14"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
@@ -12512,7 +12512,7 @@
       <c r="AF25" s="14"/>
       <c r="AG25" s="14"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -12536,7 +12536,7 @@
       <c r="AF26" s="14"/>
       <c r="AG26" s="14"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
@@ -12560,7 +12560,7 @@
       <c r="AF27" s="14"/>
       <c r="AG27" s="14"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
@@ -12584,7 +12584,7 @@
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
@@ -12608,7 +12608,7 @@
       <c r="AF29" s="14"/>
       <c r="AG29" s="14"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
@@ -12654,12 +12654,12 @@
       <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="23" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="127" t="s">
         <v>2</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="75" x14ac:dyDescent="0.35">
       <c r="A2" s="135" t="s">
         <v>320</v>
       </c>
@@ -12802,7 +12802,7 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="126" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A3" s="136"/>
       <c r="B3" s="96" t="s">
         <v>997</v>
@@ -12876,7 +12876,7 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="98" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A4" s="136"/>
       <c r="B4" s="96" t="s">
         <v>1017</v>
@@ -12946,7 +12946,7 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="75" x14ac:dyDescent="0.35">
       <c r="A5" s="136"/>
       <c r="B5" s="96" t="s">
         <v>1018</v>
@@ -13016,7 +13016,7 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="99" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="138"/>
       <c r="B6" s="98" t="s">
         <v>1019</v>
@@ -13073,7 +13073,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="25" x14ac:dyDescent="0.35">
       <c r="A7" s="135" t="s">
         <v>255</v>
       </c>
@@ -13124,7 +13124,7 @@
       </c>
       <c r="W7" s="27"/>
     </row>
-    <row r="8" spans="1:34" ht="98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A8" s="136"/>
       <c r="B8" s="33" t="s">
         <v>323</v>
@@ -13181,7 +13181,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A9" s="136"/>
       <c r="B9" s="33" t="s">
         <v>257</v>
@@ -13232,7 +13232,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="138"/>
       <c r="B10" s="35" t="s">
         <v>326</v>
@@ -13289,22 +13289,22 @@
       <selection activeCell="L1" sqref="L1:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="6" max="6" width="32.36328125" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="26.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.36328125" customWidth="1"/>
+    <col min="13" max="13" width="26.6328125" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="65" t="s">
         <v>638</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="66" t="s">
         <v>588</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="66" t="s">
         <v>589</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
         <v>591</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="66" t="s">
         <v>593</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="66" t="s">
         <v>595</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="66" t="s">
         <v>597</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="66" t="s">
         <v>599</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="66" t="s">
         <v>601</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="66" t="s">
         <v>603</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="66" t="s">
         <v>605</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
         <v>607</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D13" s="66" t="s">
         <v>602</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D14" s="66" t="s">
         <v>598</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="D15" s="49" t="s">
         <v>625</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D16" s="66" t="s">
         <v>627</v>
       </c>
@@ -13782,18 +13782,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF0DFC-ABCB-4798-A2A7-A9FED467CFB2}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="48" t="s">
         <v>74</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
@@ -13827,7 +13827,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
@@ -13841,7 +13841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="46" t="s">
         <v>4</v>
       </c>
@@ -13858,7 +13858,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>Vorwärts aus P7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
@@ -14122,14 +14122,14 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -14146,20 +14146,20 @@
       <selection activeCell="A12" sqref="A12:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="50.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="35.83203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="14.1796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50.81640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.81640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -14850,14 +14850,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H28" s="6">
         <f>Übersicht!D28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -14865,7 +14865,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -14889,18 +14889,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>261</v>
       </c>
@@ -14921,7 +14921,7 @@
       <c r="J1" s="130"/>
       <c r="K1" s="130"/>
     </row>
-    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>251</v>
       </c>
@@ -14942,7 +14942,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>252</v>
       </c>
@@ -14961,7 +14961,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>264</v>
       </c>
@@ -14980,7 +14980,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>253</v>
       </c>
@@ -14999,7 +14999,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>254</v>
       </c>
@@ -15018,7 +15018,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>265</v>
       </c>
@@ -15037,14 +15037,14 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -15068,15 +15068,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" customWidth="1"/>
-    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="3" max="3" width="54.36328125" customWidth="1"/>
+    <col min="4" max="4" width="61.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>261</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="50" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>251</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="50" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>252</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>264</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>253</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>254</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>265</v>
       </c>
@@ -15187,14 +15187,14 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" style="12" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="4" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="4" width="53.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
@@ -15210,7 +15210,7 @@
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
     </row>
-    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
@@ -15226,7 +15226,7 @@
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
     </row>
-    <row r="3" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
@@ -15242,7 +15242,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="78"/>
     </row>
-    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A4" s="104" t="s">
         <v>4</v>
       </c>
@@ -15258,7 +15258,7 @@
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
     </row>
-    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.35">
       <c r="A5" s="104" t="s">
         <v>5</v>
       </c>
@@ -15274,7 +15274,7 @@
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
     </row>
-    <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A6" s="104" t="s">
         <v>6</v>
       </c>
@@ -15290,7 +15290,7 @@
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
     </row>
-    <row r="7" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A7" s="104" t="s">
         <v>7</v>
       </c>
@@ -15306,7 +15306,7 @@
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
     </row>
-    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A8" s="104" t="s">
         <v>8</v>
       </c>
@@ -15322,7 +15322,7 @@
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
     </row>
-    <row r="9" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A9" s="104" t="s">
         <v>9</v>
       </c>
@@ -15338,7 +15338,7 @@
       <c r="E9" s="78"/>
       <c r="F9" s="78"/>
     </row>
-    <row r="10" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="104" t="s">
         <v>10</v>
       </c>
@@ -15354,7 +15354,7 @@
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="104" t="s">
         <v>10</v>
       </c>
@@ -15364,7 +15364,7 @@
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
     </row>
-    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A12" s="104" t="s">
         <v>11</v>
       </c>
@@ -15380,7 +15380,7 @@
       <c r="E12" s="78"/>
       <c r="F12" s="78"/>
     </row>
-    <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A13" s="104" t="s">
         <v>12</v>
       </c>
@@ -15396,7 +15396,7 @@
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
     </row>
-    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A14" s="104" t="s">
         <v>13</v>
       </c>
@@ -15412,7 +15412,7 @@
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
     </row>
-    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A15" s="104" t="s">
         <v>14</v>
       </c>
@@ -15428,7 +15428,7 @@
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
     </row>
-    <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="100" x14ac:dyDescent="0.35">
       <c r="A16" s="104" t="s">
         <v>15</v>
       </c>
@@ -15444,7 +15444,7 @@
       <c r="E16" s="78"/>
       <c r="F16" s="78"/>
     </row>
-    <row r="17" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A17" s="104" t="s">
         <v>16</v>
       </c>
@@ -15460,7 +15460,7 @@
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
     </row>
-    <row r="18" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="62.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="104" t="s">
         <v>18</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="E18" s="78"/>
       <c r="F18" s="78"/>
     </row>
-    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A19" s="104" t="s">
         <v>17</v>
       </c>
@@ -15492,7 +15492,7 @@
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
     </row>
-    <row r="20" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A20" s="104" t="s">
         <v>18</v>
       </c>
@@ -15508,7 +15508,7 @@
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
     </row>
-    <row r="21" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="104" t="s">
         <v>21</v>
       </c>
@@ -15524,7 +15524,7 @@
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
     </row>
-    <row r="22" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="50" x14ac:dyDescent="0.35">
       <c r="A22" s="104" t="s">
         <v>19</v>
       </c>
@@ -15540,7 +15540,7 @@
       <c r="E22" s="78"/>
       <c r="F22" s="78"/>
     </row>
-    <row r="23" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A23" s="104" t="s">
         <v>20</v>
       </c>
@@ -15556,15 +15556,15 @@
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="109" t="s">
         <v>21</v>
       </c>
@@ -15574,7 +15574,7 @@
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="109" t="s">
         <v>3</v>
       </c>
@@ -15599,30 +15599,30 @@
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.83203125" customWidth="1"/>
-    <col min="10" max="10" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.81640625" customWidth="1"/>
+    <col min="10" max="10" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="36.83203125" customWidth="1"/>
-    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="36.83203125" customWidth="1"/>
-    <col min="22" max="22" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="36.81640625" customWidth="1"/>
+    <col min="19" max="19" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="36.81640625" customWidth="1"/>
+    <col min="22" max="22" width="37.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>238</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>470</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="154" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="139" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
         <v>81</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="140" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="126.5" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>471</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>472</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="154" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="139" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>475</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>473</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="100" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
         <v>474</v>
       </c>
@@ -16166,31 +16166,31 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B13" s="131"/>
       <c r="C13" s="131"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B14" s="131"/>
       <c r="C14" s="131"/>
       <c r="G14" s="67"/>
     </row>
-    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="131"/>
       <c r="C15" s="131"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G16" s="67"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G17" s="67"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G18" s="67"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G19" s="67"/>
     </row>
   </sheetData>
@@ -16212,34 +16212,34 @@
       <selection pane="topRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="14" customWidth="1"/>
     <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="14" customWidth="1"/>
     <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.36328125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.33203125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="38.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6328125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.36328125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
@@ -16321,7 +16321,7 @@
       <c r="AG1" s="93"/>
       <c r="AH1" s="93"/>
     </row>
-    <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A2" s="135" t="s">
         <v>321</v>
       </c>
@@ -16383,7 +16383,7 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A3" s="136"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
@@ -16457,7 +16457,7 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
       <c r="A4" s="136"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
@@ -16525,7 +16525,7 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A5" s="136"/>
       <c r="B5" s="96" t="s">
         <v>1015</v>
@@ -16599,7 +16599,7 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="136"/>
       <c r="B6" s="97" t="s">
         <v>1016</v>
@@ -16667,7 +16667,7 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
       <c r="A7" s="132" t="s">
         <v>320</v>
       </c>
@@ -16745,7 +16745,7 @@
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
       <c r="A8" s="133"/>
       <c r="B8" s="96" t="s">
         <v>997</v>
@@ -16819,7 +16819,7 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
     </row>
-    <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A9" s="133"/>
       <c r="B9" s="96" t="s">
         <v>1017</v>
@@ -16889,7 +16889,7 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
       <c r="A10" s="133"/>
       <c r="B10" s="96" t="s">
         <v>1018</v>
@@ -16959,7 +16959,7 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
     </row>
-    <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="134"/>
       <c r="B11" s="98" t="s">
         <v>1019</v>
@@ -17016,7 +17016,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -17025,12 +17025,12 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="L16" s="6"/>
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:22" x14ac:dyDescent="0.35">
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -17041,7 +17041,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -17055,7 +17055,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -17069,7 +17069,7 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -17083,7 +17083,7 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -17097,7 +17097,7 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -17111,7 +17111,7 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -17125,7 +17125,7 @@
       <c r="U23"/>
       <c r="V23"/>
     </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -17139,7 +17139,7 @@
       <c r="U24"/>
       <c r="V24"/>
     </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:22" x14ac:dyDescent="0.35">
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -17153,7 +17153,7 @@
       <c r="U25"/>
       <c r="V25"/>
     </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="Q26" s="14"/>
@@ -17163,7 +17163,7 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:22" x14ac:dyDescent="0.35">
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="Q27" s="14"/>
@@ -17173,7 +17173,7 @@
       <c r="U27"/>
       <c r="V27"/>
     </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:22" x14ac:dyDescent="0.35">
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
@@ -17198,34 +17198,34 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" customWidth="1"/>
-    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.83203125" customWidth="1"/>
-    <col min="18" max="18" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.36328125" customWidth="1"/>
+    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.81640625" customWidth="1"/>
+    <col min="18" max="18" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="25.1640625" customWidth="1"/>
-    <col min="23" max="23" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" customWidth="1"/>
+    <col min="20" max="20" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="25.1796875" customWidth="1"/>
+    <col min="23" max="23" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="135" t="s">
         <v>255</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A3" s="136"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
@@ -17445,7 +17445,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A4" s="136"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
@@ -17517,7 +17517,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="137"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
@@ -17589,7 +17589,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A6" s="75" t="s">
         <v>357</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A7" s="76"/>
       <c r="B7" s="33" t="s">
         <v>332</v>
@@ -17735,7 +17735,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
       <c r="B8" s="33" t="s">
         <v>333</v>
@@ -17807,7 +17807,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="76"/>
       <c r="B9" s="33" t="s">
         <v>259</v>
@@ -17879,7 +17879,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="50" x14ac:dyDescent="0.35">
       <c r="A10" s="76"/>
       <c r="B10" s="33" t="s">
         <v>337</v>
@@ -17951,7 +17951,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="84" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="75" x14ac:dyDescent="0.35">
       <c r="A11" s="76"/>
       <c r="B11" s="33" t="s">
         <v>339</v>
@@ -18023,7 +18023,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="77"/>
       <c r="B12" s="35" t="s">
         <v>260</v>
@@ -18095,15 +18095,15 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33403420-5907-DA46-B7C0-E41E2D3232BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" firstSheet="1" activeTab="10" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -8577,28 +8577,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8617,6 +8608,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9824,8 +9824,8 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T3" sqref="T3:T5"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10520,7 +10520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7013A05C-DE60-48CF-8EAC-BA1D4A04F40F}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -10832,31 +10832,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="141" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="140" t="s">
+      <c r="C2" s="147"/>
+      <c r="D2" s="151" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="143"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="139"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="150"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="144"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="141"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="152"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="141" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -10894,13 +10894,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="144"/>
+      <c r="A8" s="142"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="141" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -10914,7 +10914,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="144"/>
+      <c r="A10" s="142"/>
       <c r="B10" s="82" t="s">
         <v>506</v>
       </c>
@@ -10926,7 +10926,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="139" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="88" t="s">
@@ -10940,13 +10940,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="146"/>
+      <c r="A12" s="140"/>
       <c r="B12" s="89"/>
       <c r="C12" s="63"/>
       <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="141" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -10985,24 +10985,24 @@
     </row>
     <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="143"/>
-      <c r="B16" s="148"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="150" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="143"/>
-      <c r="B17" s="148"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="139"/>
+      <c r="D17" s="150"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="144"/>
+      <c r="A18" s="142"/>
       <c r="B18" s="62"/>
       <c r="C18" s="63" t="s">
         <v>522</v>
@@ -11012,7 +11012,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="139" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="88" t="s">
@@ -11026,13 +11026,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="146"/>
+      <c r="A20" s="140"/>
       <c r="B20" s="89"/>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="141" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="58" t="s">
@@ -11046,25 +11046,25 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="144"/>
+      <c r="A22" s="142"/>
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13782,8 +13782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF0DFC-ABCB-4798-A2A7-A9FED467CFB2}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14445,7 +14445,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33403420-5907-DA46-B7C0-E41E2D3232BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{33403420-5907-DA46-B7C0-E41E2D3232BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E51EDBAA-0BDD-4C41-B15C-33C698DC9132}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -33,7 +33,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Extraktion!$A$1:$V$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'Mapping RQ1 und RQ2'!$A$1:$W$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'RQ1'!$A$1:$W$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'RQ1'!$A$1:$W$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'RQ2 (2)'!$A$1:$W$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1154">
   <si>
     <t>ID</t>
   </si>
@@ -7341,13 +7341,83 @@
   </si>
   <si>
     <t>AI-powered monitoring. Cloud-native observability systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betrieb/ Orchestrierung </t>
+  </si>
+  <si>
+    <t>Haupt Use case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchestrierung von KI-Workloads via Kubernetes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatisierung repetitiver DevOps-Task </t>
+  </si>
+  <si>
+    <t>Anomalie-Erkennung zur Reduzierung von unerwarteten Fehlern während Deployment .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prädiktive Modelle (ML/AI) zur Fehlerprognose/ Deployment-Strategie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Language Interface (LLM) für Cluster-Steuerung  </t>
+  </si>
+  <si>
+    <t>Proaktive Bug-Detection &amp; automatisierte Tests</t>
+  </si>
+  <si>
+    <t>KI-gestützte Observability &amp; Architektur-Entscheidungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatiserte Bereitstellung via Jenkins/ Kuubeflow  </t>
+  </si>
+  <si>
+    <t>Orchestrierung von Daten-Pipelines auf K8s/ PODS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation von GPU-Utilization &amp; Kosten-Effizizenz </t>
+  </si>
+  <si>
+    <t>AIOps für Monitoring &amp; Fehlerbehebung komplexer Systeme</t>
+  </si>
+  <si>
+    <t>Automatisierte Incident-Response</t>
+  </si>
+  <si>
+    <t>Integration mit K8s-Orchestrierung</t>
+  </si>
+  <si>
+    <t>Automatisierte Rollbacks &amp; Adaptive Deployment</t>
+  </si>
+  <si>
+    <t>Orchestrierung großer KI-Pipelines (k8s)</t>
+  </si>
+  <si>
+    <t>Lastverteilung (Load Balancing) und Fehlertoleranz</t>
+  </si>
+  <si>
+    <t>Erhöhung der Fehlertoleranz &amp; Recovery</t>
+  </si>
+  <si>
+    <t>Prädiktive Wartung (Predicitve Maintenannce)</t>
+  </si>
+  <si>
+    <t>Leistungsmetriken-Vergleich</t>
+  </si>
+  <si>
+    <t>Datenqualität, Verfügbarkeit &amp; Heterogenität</t>
+  </si>
+  <si>
+    <t>Integrationskomplexität
+Modellierung komplexer verteilter Umgebungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7482,8 +7552,16 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7535,6 +7613,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8181,7 +8265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8577,19 +8661,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8610,14 +8703,56 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9825,7 +9960,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S4" sqref="S4"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9877,10 +10012,10 @@
       <c r="G1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="157" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="157" t="s">
         <v>360</v>
       </c>
       <c r="J1" s="42" t="s">
@@ -9913,7 +10048,7 @@
       <c r="S1" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="157" t="s">
         <v>957</v>
       </c>
       <c r="U1" s="43" t="s">
@@ -9946,10 +10081,10 @@
         <v>322</v>
       </c>
       <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="158" t="s">
         <v>1056</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="158" t="s">
         <v>372</v>
       </c>
       <c r="J2" s="26" t="s">
@@ -9970,7 +10105,7 @@
         <v>1126</v>
       </c>
       <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="T2" s="158"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26" t="s">
         <v>706</v>
@@ -9997,10 +10132,10 @@
       <c r="G3" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="159" t="s">
         <v>425</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="159" t="s">
         <v>426</v>
       </c>
       <c r="J3" s="25"/>
@@ -10023,7 +10158,7 @@
         <v>1127</v>
       </c>
       <c r="S3" s="25"/>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="159" t="s">
         <v>1128</v>
       </c>
       <c r="U3" s="25"/>
@@ -10050,10 +10185,10 @@
         <v>308</v>
       </c>
       <c r="G4" s="25"/>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="159" t="s">
         <v>1060</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="159"/>
       <c r="J4" s="25" t="s">
         <v>464</v>
       </c>
@@ -10076,7 +10211,7 @@
         <v>1124</v>
       </c>
       <c r="S4" s="25"/>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="159" t="s">
         <v>1125</v>
       </c>
       <c r="U4" s="25"/>
@@ -10099,10 +10234,10 @@
       <c r="G5" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="160" t="s">
         <v>384</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="160"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29" t="s">
         <v>385</v>
@@ -10117,7 +10252,7 @@
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
-      <c r="T5" s="29" t="s">
+      <c r="T5" s="160" t="s">
         <v>668</v>
       </c>
       <c r="U5" s="29"/>
@@ -10146,10 +10281,10 @@
       <c r="G6" s="79" t="s">
         <v>695</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="158" t="s">
         <v>1002</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="158"/>
       <c r="J6" s="79" t="s">
         <v>1003</v>
       </c>
@@ -10178,7 +10313,7 @@
       <c r="S6" s="79" t="s">
         <v>960</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="T6" s="158" t="s">
         <v>710</v>
       </c>
       <c r="U6" s="124" t="s">
@@ -10205,10 +10340,10 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="159" t="s">
         <v>699</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="159"/>
       <c r="J7" s="80" t="s">
         <v>1006</v>
       </c>
@@ -10231,7 +10366,7 @@
       <c r="S7" s="80" t="s">
         <v>711</v>
       </c>
-      <c r="T7" s="25"/>
+      <c r="T7" s="159"/>
       <c r="U7" s="25"/>
       <c r="V7" s="80" t="s">
         <v>1007</v>
@@ -10256,8 +10391,8 @@
         <v>1065</v>
       </c>
       <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29" t="s">
@@ -10282,7 +10417,7 @@
       <c r="S8" s="29" t="s">
         <v>961</v>
       </c>
-      <c r="T8" s="29"/>
+      <c r="T8" s="160"/>
       <c r="U8" s="29" t="s">
         <v>1035</v>
       </c>
@@ -10311,10 +10446,10 @@
       <c r="G9" s="26" t="s">
         <v>970</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="158" t="s">
         <v>971</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="158" t="s">
         <v>981</v>
       </c>
       <c r="J9" s="26" t="s">
@@ -10345,7 +10480,7 @@
       <c r="S9" s="26" t="s">
         <v>989</v>
       </c>
-      <c r="T9" s="26"/>
+      <c r="T9" s="158"/>
       <c r="U9" s="26" t="s">
         <v>1046</v>
       </c>
@@ -10368,8 +10503,8 @@
       </c>
       <c r="F10" s="115"/>
       <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
       <c r="J10" s="115" t="s">
         <v>973</v>
       </c>
@@ -10388,7 +10523,7 @@
       <c r="Q10" s="115"/>
       <c r="R10" s="116"/>
       <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
+      <c r="T10" s="162"/>
       <c r="U10" s="115"/>
       <c r="V10" s="115" t="s">
         <v>966</v>
@@ -10409,10 +10544,10 @@
         <v>979</v>
       </c>
       <c r="G11" s="25"/>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="159" t="s">
         <v>690</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="159" t="s">
         <v>982</v>
       </c>
       <c r="J11" s="25" t="s">
@@ -10433,7 +10568,7 @@
       <c r="S11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="T11" s="25"/>
+      <c r="T11" s="159"/>
       <c r="U11" s="25" t="s">
         <v>1047</v>
       </c>
@@ -10456,10 +10591,10 @@
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="160" t="s">
         <v>980</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="160"/>
       <c r="J12" s="29" t="s">
         <v>975</v>
       </c>
@@ -10476,7 +10611,7 @@
       <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
+      <c r="T12" s="160"/>
       <c r="U12" s="29"/>
       <c r="V12" s="29" t="s">
         <v>992</v>
@@ -10521,7 +10656,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10806,7 +10941,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10832,31 +10967,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="142" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="147" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="151" t="s">
+      <c r="C2" s="150"/>
+      <c r="D2" s="140" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="143"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="150"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="139"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="142"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="152"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="141"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="142" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -10894,13 +11029,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="142"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="142" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -10914,7 +11049,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="142"/>
+      <c r="A10" s="144"/>
       <c r="B10" s="82" t="s">
         <v>506</v>
       </c>
@@ -10926,7 +11061,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="145" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="88" t="s">
@@ -10940,13 +11075,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="140"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="89"/>
       <c r="C12" s="63"/>
       <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="142" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -10985,24 +11120,24 @@
     </row>
     <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="143"/>
-      <c r="B16" s="145"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="150" t="s">
+      <c r="D16" s="139" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="143"/>
-      <c r="B17" s="145"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="150"/>
+      <c r="D17" s="139"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="142"/>
+      <c r="A18" s="144"/>
       <c r="B18" s="62"/>
       <c r="C18" s="63" t="s">
         <v>522</v>
@@ -11012,7 +11147,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="145" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="88" t="s">
@@ -11026,13 +11161,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="140"/>
+      <c r="A20" s="146"/>
       <c r="B20" s="89"/>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="141" t="s">
+      <c r="A21" s="142" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="58" t="s">
@@ -11046,25 +11181,25 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="142"/>
+      <c r="A22" s="144"/>
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13782,8 +13917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF0DFC-ABCB-4798-A2A7-A9FED467CFB2}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13888,31 +14023,31 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="20" t="str">
+      <c r="D7" s="164" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="164" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
@@ -14066,16 +14201,16 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="163" t="s">
         <v>648</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="163" t="s">
         <v>649</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="164" t="s">
         <v>647</v>
       </c>
     </row>
@@ -14445,7 +14580,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -15594,9 +15729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74653B24-74BF-4CCC-8242-8349068B67F5}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15641,10 +15776,10 @@
       <c r="F1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="157" t="s">
         <v>359</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="157" t="s">
         <v>360</v>
       </c>
       <c r="I1" s="42" t="s">
@@ -15677,7 +15812,7 @@
       <c r="R1" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="157" t="s">
         <v>957</v>
       </c>
       <c r="T1" s="43" t="s">
@@ -15709,10 +15844,10 @@
       <c r="F2" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="159" t="s">
         <v>536</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="159" t="s">
         <v>998</v>
       </c>
       <c r="I2" s="25" t="s">
@@ -15745,7 +15880,7 @@
       <c r="R2" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="159" t="s">
         <v>656</v>
       </c>
       <c r="T2" s="25" t="s">
@@ -15777,10 +15912,10 @@
       <c r="F3" s="25" t="s">
         <v>855</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="159" t="s">
         <v>856</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="159" t="s">
         <v>857</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -15813,7 +15948,7 @@
       <c r="R3" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="159" t="s">
         <v>874</v>
       </c>
       <c r="T3" s="25" t="s">
@@ -15845,10 +15980,10 @@
       <c r="F4" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="159" t="s">
         <v>862</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="159" t="s">
         <v>863</v>
       </c>
       <c r="I4" s="25" t="s">
@@ -15881,7 +16016,7 @@
       <c r="R4" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="159" t="s">
         <v>653</v>
       </c>
       <c r="T4" s="25" t="s">
@@ -15913,10 +16048,10 @@
       <c r="F5" s="119" t="s">
         <v>1014</v>
       </c>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="166" t="s">
         <v>1063</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="166" t="s">
         <v>1014</v>
       </c>
       <c r="I5" s="118" t="s">
@@ -15949,7 +16084,7 @@
       <c r="R5" s="118" t="s">
         <v>1016</v>
       </c>
-      <c r="S5" s="118" t="s">
+      <c r="S5" s="165" t="s">
         <v>1016</v>
       </c>
       <c r="T5" s="118" t="s">
@@ -15981,10 +16116,10 @@
       <c r="F6" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="159" t="s">
         <v>537</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="159" t="s">
         <v>538</v>
       </c>
       <c r="I6" s="25" t="s">
@@ -16017,7 +16152,7 @@
       <c r="R6" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="159" t="s">
         <v>654</v>
       </c>
       <c r="T6" s="25" t="s">
@@ -16049,10 +16184,10 @@
       <c r="F7" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="159" t="s">
         <v>539</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="159" t="s">
         <v>540</v>
       </c>
       <c r="I7" s="25" t="s">
@@ -16085,7 +16220,7 @@
       <c r="R7" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="159" t="s">
         <v>652</v>
       </c>
       <c r="T7" s="25" t="s">
@@ -16117,10 +16252,10 @@
       <c r="F8" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="159" t="s">
         <v>531</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="159" t="s">
         <v>532</v>
       </c>
       <c r="I8" s="25" t="s">
@@ -16153,7 +16288,7 @@
       <c r="R8" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="159" t="s">
         <v>655</v>
       </c>
       <c r="T8" s="25" t="s">
@@ -16205,11 +16340,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BB7B41-1A7E-470B-A91F-E7D0772651A4}">
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16261,10 +16396,10 @@
       <c r="G1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="157" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="157" t="s">
         <v>360</v>
       </c>
       <c r="J1" s="42" t="s">
@@ -16297,7 +16432,7 @@
       <c r="S1" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="157" t="s">
         <v>957</v>
       </c>
       <c r="U1" s="43" t="s">
@@ -16332,26 +16467,26 @@
       <c r="D2" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="156" t="s">
         <v>314</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26" t="s">
-        <v>726</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26" t="s">
-        <v>369</v>
+        <v>1138</v>
+      </c>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158" t="s">
+        <v>1140</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="156" t="s">
         <v>758</v>
       </c>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="156" t="s">
         <v>790</v>
       </c>
       <c r="Q2" s="26" t="s">
@@ -16361,7 +16496,7 @@
         <v>792</v>
       </c>
       <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="T2" s="158"/>
       <c r="U2" s="26" t="s">
         <v>1036</v>
       </c>
@@ -16388,7 +16523,7 @@
       <c r="B3" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="154" t="s">
         <v>724</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -16400,27 +16535,25 @@
       <c r="F3" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>727</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="159" t="s">
         <v>1061</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="159" t="s">
         <v>370</v>
       </c>
       <c r="J3" s="25"/>
-      <c r="K3" s="25" t="s">
-        <v>759</v>
-      </c>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="155" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L3" s="155" t="s">
         <v>760</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>761</v>
       </c>
       <c r="N3" s="25"/>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="155" t="s">
         <v>793</v>
       </c>
       <c r="P3" s="25" t="s">
@@ -16429,17 +16562,19 @@
       <c r="Q3" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="155" t="s">
         <v>796</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>820</v>
       </c>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25" t="s">
+      <c r="T3" s="159" t="s">
+        <v>1151</v>
+      </c>
+      <c r="U3" s="155" t="s">
         <v>1037</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="155" t="s">
         <v>821</v>
       </c>
       <c r="W3" s="28" t="s">
@@ -16469,7 +16604,7 @@
         <v>723</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>291</v>
+        <v>1135</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>315</v>
@@ -16477,11 +16612,11 @@
       <c r="G4" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25" t="s">
+      <c r="H4" s="159"/>
+      <c r="I4" s="159" t="s">
         <v>1024</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="155" t="s">
         <v>757</v>
       </c>
       <c r="K4" s="25"/>
@@ -16489,7 +16624,7 @@
       <c r="M4" s="25" t="s">
         <v>762</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="155" t="s">
         <v>763</v>
       </c>
       <c r="O4" s="25"/>
@@ -16505,12 +16640,12 @@
       <c r="S4" s="25" t="s">
         <v>823</v>
       </c>
-      <c r="T4" s="25"/>
+      <c r="T4" s="159"/>
       <c r="U4" s="25" t="s">
         <v>1038</v>
       </c>
       <c r="V4" s="25"/>
-      <c r="W4" s="28" t="s">
+      <c r="W4" s="161" t="s">
         <v>824</v>
       </c>
       <c r="X4" s="13"/>
@@ -16525,67 +16660,69 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="136"/>
       <c r="B5" s="96" t="s">
-        <v>1015</v>
+        <v>1131</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>725</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>1021</v>
+        <v>1133</v>
+      </c>
+      <c r="D5" s="155" t="s">
+        <v>1134</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H5" s="25" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F5" s="155" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G5" s="155" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H5" s="159" t="s">
         <v>1062</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>730</v>
+      <c r="I5" s="159" t="s">
+        <v>1141</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25" t="s">
         <v>1026</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>1027</v>
+        <v>1143</v>
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="25" t="s">
-        <v>764</v>
+        <v>1144</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>799</v>
+        <v>1145</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q5" s="25" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Q5" s="155" t="s">
         <v>801</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>802</v>
       </c>
-      <c r="S5" s="25" t="s">
-        <v>825</v>
-      </c>
-      <c r="T5" s="25" t="s">
+      <c r="S5" s="155" t="s">
+        <v>1147</v>
+      </c>
+      <c r="T5" s="159" t="s">
         <v>826</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>1039</v>
+        <v>1148</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>827</v>
+        <v>1149</v>
       </c>
       <c r="W5" s="28" t="s">
-        <v>828</v>
+        <v>1150</v>
       </c>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
@@ -16599,64 +16736,74 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="136"/>
-      <c r="B6" s="97" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>317</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>850</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29" t="s">
-        <v>765</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>766</v>
-      </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29" t="s">
-        <v>767</v>
-      </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29" t="s">
-        <v>1028</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>803</v>
-      </c>
-      <c r="S6" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="T6" s="29" t="s">
-        <v>830</v>
-      </c>
-      <c r="U6" s="29" t="s">
-        <v>1040</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>831</v>
-      </c>
-      <c r="W6" s="30" t="s">
-        <v>832</v>
-      </c>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
+    <row r="6" spans="1:34" ht="50" x14ac:dyDescent="0.35">
+      <c r="A6" s="132" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>995</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>731</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="158" t="s">
+        <v>739</v>
+      </c>
+      <c r="I6" s="158" t="s">
+        <v>740</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="T6" s="158" t="s">
+        <v>834</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>835</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>836</v>
+      </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
@@ -16667,73 +16814,67 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="132" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>995</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>731</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>736</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>737</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>738</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
-        <v>739</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>740</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>804</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>805</v>
-      </c>
-      <c r="Q7" s="26" t="s">
-        <v>806</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>807</v>
-      </c>
-      <c r="S7" s="26" t="s">
-        <v>833</v>
-      </c>
-      <c r="T7" s="26" t="s">
-        <v>834</v>
-      </c>
-      <c r="U7" s="26" t="s">
-        <v>1041</v>
-      </c>
-      <c r="V7" s="26" t="s">
-        <v>835</v>
-      </c>
-      <c r="W7" s="27" t="s">
-        <v>836</v>
+    <row r="7" spans="1:34" ht="75" x14ac:dyDescent="0.35">
+      <c r="A7" s="133"/>
+      <c r="B7" s="96" t="s">
+        <v>997</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>732</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="159" t="s">
+        <v>744</v>
+      </c>
+      <c r="I7" s="159" t="s">
+        <v>745</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="T7" s="159" t="s">
+        <v>838</v>
+      </c>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="W7" s="28" t="s">
+        <v>840</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -16745,69 +16886,65 @@
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A8" s="133"/>
       <c r="B8" s="96" t="s">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>732</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>741</v>
+        <v>733</v>
+      </c>
+      <c r="D8" s="169" t="s">
+        <v>746</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>743</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25" t="s">
-        <v>744</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>745</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="H8" s="159" t="s">
+        <v>750</v>
+      </c>
+      <c r="I8" s="159"/>
       <c r="J8" s="25" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>774</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>775</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="L8" s="25"/>
       <c r="M8" s="25" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>777</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>808</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="O8" s="25"/>
       <c r="P8" s="25" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q8" s="25"/>
+        <v>811</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>812</v>
+      </c>
       <c r="R8" s="25" t="s">
-        <v>810</v>
+        <v>994</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="T8" s="25" t="s">
-        <v>838</v>
+        <v>993</v>
+      </c>
+      <c r="T8" s="159" t="s">
+        <v>841</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>1042</v>
-      </c>
-      <c r="V8" s="25" t="s">
-        <v>839</v>
-      </c>
+        <v>1043</v>
+      </c>
+      <c r="V8" s="25"/>
       <c r="W8" s="28" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
@@ -16819,65 +16956,65 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
     </row>
-    <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" ht="50" x14ac:dyDescent="0.35">
       <c r="A9" s="133"/>
       <c r="B9" s="96" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>746</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>748</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>749</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>750</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25" t="s">
-        <v>778</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="159" t="s">
+        <v>752</v>
+      </c>
+      <c r="I9" s="159" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J9" s="25"/>
       <c r="K9" s="25" t="s">
-        <v>779</v>
-      </c>
-      <c r="L9" s="25"/>
+        <v>782</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>783</v>
+      </c>
       <c r="M9" s="25" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>781</v>
-      </c>
-      <c r="O9" s="25"/>
+        <v>785</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>813</v>
+      </c>
       <c r="P9" s="25" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="S9" s="25" t="s">
-        <v>993</v>
-      </c>
-      <c r="T9" s="25" t="s">
-        <v>841</v>
+        <v>843</v>
+      </c>
+      <c r="T9" s="159" t="s">
+        <v>844</v>
       </c>
       <c r="U9" s="25" t="s">
-        <v>1043</v>
-      </c>
-      <c r="V9" s="25"/>
+        <v>1153</v>
+      </c>
+      <c r="V9" s="25" t="s">
+        <v>845</v>
+      </c>
       <c r="W9" s="28" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -16889,151 +17026,106 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A10" s="133"/>
-      <c r="B10" s="96" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>734</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>751</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25" t="s">
-        <v>752</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>1025</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25" t="s">
-        <v>782</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>783</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>784</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>785</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>813</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>814</v>
-      </c>
-      <c r="Q10" s="25" t="s">
-        <v>815</v>
-      </c>
-      <c r="R10" s="25" t="s">
-        <v>996</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>843</v>
-      </c>
-      <c r="T10" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="U10" s="25" t="s">
-        <v>1044</v>
-      </c>
-      <c r="V10" s="25" t="s">
-        <v>845</v>
-      </c>
-      <c r="W10" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-    </row>
-    <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="134"/>
-      <c r="B11" s="98" t="s">
+    <row r="10" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="134"/>
+      <c r="B10" s="98" t="s">
         <v>1019</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C10" s="101" t="s">
         <v>735</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D10" s="29" t="s">
         <v>753</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E10" s="29" t="s">
         <v>754</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>755</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G10" s="29" t="s">
         <v>1013</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H10" s="160" t="s">
         <v>756</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29" t="s">
+      <c r="I10" s="160"/>
+      <c r="J10" s="29" t="s">
         <v>786</v>
       </c>
-      <c r="K11" s="29" t="s">
-        <v>787</v>
-      </c>
-      <c r="L11" s="29" t="s">
+      <c r="K10" s="29"/>
+      <c r="L10" s="29" t="s">
         <v>788</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M10" s="29" t="s">
         <v>789</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29" t="s">
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29" t="s">
         <v>816</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="Q10" s="29" t="s">
         <v>817</v>
       </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29" t="s">
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="160" t="s">
         <v>847</v>
       </c>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29" t="s">
+      <c r="U10" s="29"/>
+      <c r="V10" s="29" t="s">
         <v>848</v>
       </c>
-      <c r="W11" s="30" t="s">
+      <c r="W10" s="30" t="s">
         <v>849</v>
       </c>
     </row>
+    <row r="13" spans="1:34" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="153" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B13" s="153"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+    </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="S15"/>
-      <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+    <row r="17" spans="3:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
+      <c r="L17" s="167"/>
+      <c r="M17" s="167"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -17041,11 +17133,18 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="9:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C18" s="168"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="167"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18"/>
@@ -17055,11 +17154,18 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C19" s="168"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="167"/>
+      <c r="M19" s="167"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19"/>
@@ -17069,11 +17175,18 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C20" s="168"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20"/>
@@ -17083,11 +17196,18 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C21" s="168"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
+      <c r="K21" s="167"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="167"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21"/>
@@ -17097,11 +17217,20 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+    <row r="22" spans="3:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C22" s="168" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22"/>
@@ -17111,7 +17240,13 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -17125,7 +17260,13 @@
       <c r="U23"/>
       <c r="V23"/>
     </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C24" s="168"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -17139,21 +17280,29 @@
       <c r="U24"/>
       <c r="V24"/>
     </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C25" s="168"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25"/>
-      <c r="R25"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
       <c r="V25"/>
     </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C26" s="168"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="Q26" s="14"/>
@@ -17163,26 +17312,49 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-    </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C27" s="168"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C28" s="168"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C31" s="167"/>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C32" s="168"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="168"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34" s="168"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="168"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C36" s="168"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
+  <mergeCells count="3">
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{33403420-5907-DA46-B7C0-E41E2D3232BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E51EDBAA-0BDD-4C41-B15C-33C698DC9132}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C18CE4-C0D7-004A-A5F4-16F0D1B724F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="9" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -8265,7 +8265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8628,84 +8628,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -8751,8 +8673,83 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9518,14 +9515,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="3" width="57.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -9539,7 +9536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9553,7 +9550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9567,7 +9564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
@@ -9581,7 +9578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -9594,13 +9591,13 @@
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="128" t="s">
+      <c r="G5" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-    </row>
-    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+    </row>
+    <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
@@ -9614,7 +9611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -9628,13 +9625,13 @@
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="144" t="s">
         <v>284</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-    </row>
-    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+    </row>
+    <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -9648,11 +9645,11 @@
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-    </row>
-    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+    </row>
+    <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -9667,7 +9664,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -9682,7 +9679,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -9697,7 +9694,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -9712,7 +9709,7 @@
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -9727,7 +9724,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -9742,7 +9739,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -9757,7 +9754,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
@@ -9772,7 +9769,7 @@
         <v>Vorwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
@@ -9787,7 +9784,7 @@
         <v>Vorwärts aus P4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
@@ -9802,7 +9799,7 @@
         <v>Rückwärts aus P4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>19</v>
       </c>
@@ -9817,7 +9814,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
@@ -9832,7 +9829,7 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>21</v>
       </c>
@@ -9847,7 +9844,7 @@
         <v>Rückwärts aus P5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
@@ -9862,7 +9859,7 @@
         <v>Rückwärts aus P16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -9877,7 +9874,7 @@
         <v>Rückwärts aus P18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -9892,7 +9889,7 @@
         <v>Vorwärts aus P6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -9907,7 +9904,7 @@
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -9922,24 +9919,24 @@
         <v>Vorwärts aus P8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -9958,39 +9955,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABEDA27-D2D0-4564-B71F-CD6FB3721653}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1:T12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="19" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.81640625" customWidth="1"/>
+    <col min="19" max="19" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
@@ -10012,10 +10009,10 @@
       <c r="G1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="157" t="s">
+      <c r="H1" s="131" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="157" t="s">
+      <c r="I1" s="131" t="s">
         <v>360</v>
       </c>
       <c r="J1" s="42" t="s">
@@ -10048,7 +10045,7 @@
       <c r="S1" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="T1" s="157" t="s">
+      <c r="T1" s="131" t="s">
         <v>957</v>
       </c>
       <c r="U1" s="43" t="s">
@@ -10061,8 +10058,8 @@
         <v>959</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="135" t="s">
+    <row r="2" spans="1:23" ht="28" x14ac:dyDescent="0.2">
+      <c r="A2" s="150" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -10081,10 +10078,10 @@
         <v>322</v>
       </c>
       <c r="G2" s="26"/>
-      <c r="H2" s="158" t="s">
+      <c r="H2" s="132" t="s">
         <v>1056</v>
       </c>
-      <c r="I2" s="158" t="s">
+      <c r="I2" s="132" t="s">
         <v>372</v>
       </c>
       <c r="J2" s="26" t="s">
@@ -10105,15 +10102,15 @@
         <v>1126</v>
       </c>
       <c r="S2" s="26"/>
-      <c r="T2" s="158"/>
+      <c r="T2" s="132"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26" t="s">
         <v>706</v>
       </c>
       <c r="W2" s="27"/>
     </row>
-    <row r="3" spans="1:23" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="136"/>
+    <row r="3" spans="1:23" ht="98" x14ac:dyDescent="0.2">
+      <c r="A3" s="151"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
       </c>
@@ -10132,10 +10129,10 @@
       <c r="G3" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="133" t="s">
         <v>425</v>
       </c>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="133" t="s">
         <v>426</v>
       </c>
       <c r="J3" s="25"/>
@@ -10158,7 +10155,7 @@
         <v>1127</v>
       </c>
       <c r="S3" s="25"/>
-      <c r="T3" s="159" t="s">
+      <c r="T3" s="133" t="s">
         <v>1128</v>
       </c>
       <c r="U3" s="25"/>
@@ -10169,8 +10166,8 @@
         <v>707</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="136"/>
+    <row r="4" spans="1:23" ht="70" x14ac:dyDescent="0.2">
+      <c r="A4" s="151"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
       </c>
@@ -10185,10 +10182,10 @@
         <v>308</v>
       </c>
       <c r="G4" s="25"/>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="133" t="s">
         <v>1060</v>
       </c>
-      <c r="I4" s="159"/>
+      <c r="I4" s="133"/>
       <c r="J4" s="25" t="s">
         <v>464</v>
       </c>
@@ -10211,7 +10208,7 @@
         <v>1124</v>
       </c>
       <c r="S4" s="25"/>
-      <c r="T4" s="159" t="s">
+      <c r="T4" s="133" t="s">
         <v>1125</v>
       </c>
       <c r="U4" s="25"/>
@@ -10220,8 +10217,8 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="136"/>
+    <row r="5" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="151"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
       </c>
@@ -10234,10 +10231,10 @@
       <c r="G5" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="H5" s="160" t="s">
+      <c r="H5" s="134" t="s">
         <v>384</v>
       </c>
-      <c r="I5" s="160"/>
+      <c r="I5" s="134"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29" t="s">
         <v>385</v>
@@ -10252,15 +10249,15 @@
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
-      <c r="T5" s="160" t="s">
+      <c r="T5" s="134" t="s">
         <v>668</v>
       </c>
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
       <c r="W5" s="30"/>
     </row>
-    <row r="6" spans="1:23" ht="50" x14ac:dyDescent="0.35">
-      <c r="A6" s="135" t="s">
+    <row r="6" spans="1:23" ht="56" x14ac:dyDescent="0.2">
+      <c r="A6" s="150" t="s">
         <v>687</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -10281,10 +10278,10 @@
       <c r="G6" s="79" t="s">
         <v>695</v>
       </c>
-      <c r="H6" s="158" t="s">
+      <c r="H6" s="132" t="s">
         <v>1002</v>
       </c>
-      <c r="I6" s="158"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="79" t="s">
         <v>1003</v>
       </c>
@@ -10313,7 +10310,7 @@
       <c r="S6" s="79" t="s">
         <v>960</v>
       </c>
-      <c r="T6" s="158" t="s">
+      <c r="T6" s="132" t="s">
         <v>710</v>
       </c>
       <c r="U6" s="124" t="s">
@@ -10326,8 +10323,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="136"/>
+    <row r="7" spans="1:23" ht="56" x14ac:dyDescent="0.2">
+      <c r="A7" s="151"/>
       <c r="B7" s="33" t="s">
         <v>642</v>
       </c>
@@ -10340,10 +10337,10 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="159" t="s">
+      <c r="H7" s="133" t="s">
         <v>699</v>
       </c>
-      <c r="I7" s="159"/>
+      <c r="I7" s="133"/>
       <c r="J7" s="80" t="s">
         <v>1006</v>
       </c>
@@ -10366,7 +10363,7 @@
       <c r="S7" s="80" t="s">
         <v>711</v>
       </c>
-      <c r="T7" s="159"/>
+      <c r="T7" s="133"/>
       <c r="U7" s="25"/>
       <c r="V7" s="80" t="s">
         <v>1007</v>
@@ -10375,8 +10372,8 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="138"/>
+    <row r="8" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="154"/>
       <c r="B8" s="35" t="s">
         <v>592</v>
       </c>
@@ -10391,8 +10388,8 @@
         <v>1065</v>
       </c>
       <c r="G8" s="29"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29" t="s">
@@ -10417,15 +10414,15 @@
       <c r="S8" s="29" t="s">
         <v>961</v>
       </c>
-      <c r="T8" s="160"/>
+      <c r="T8" s="134"/>
       <c r="U8" s="29" t="s">
         <v>1035</v>
       </c>
       <c r="V8" s="29"/>
       <c r="W8" s="30"/>
     </row>
-    <row r="9" spans="1:23" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="136" t="s">
+    <row r="9" spans="1:23" ht="42" x14ac:dyDescent="0.2">
+      <c r="A9" s="151" t="s">
         <v>688</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -10446,10 +10443,10 @@
       <c r="G9" s="26" t="s">
         <v>970</v>
       </c>
-      <c r="H9" s="158" t="s">
+      <c r="H9" s="132" t="s">
         <v>971</v>
       </c>
-      <c r="I9" s="158" t="s">
+      <c r="I9" s="132" t="s">
         <v>981</v>
       </c>
       <c r="J9" s="26" t="s">
@@ -10480,7 +10477,7 @@
       <c r="S9" s="26" t="s">
         <v>989</v>
       </c>
-      <c r="T9" s="158"/>
+      <c r="T9" s="132"/>
       <c r="U9" s="26" t="s">
         <v>1046</v>
       </c>
@@ -10489,8 +10486,8 @@
       </c>
       <c r="W9" s="27"/>
     </row>
-    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="136"/>
+    <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="151"/>
       <c r="B10" s="113" t="s">
         <v>962</v>
       </c>
@@ -10503,8 +10500,8 @@
       </c>
       <c r="F10" s="115"/>
       <c r="G10" s="115"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
       <c r="J10" s="115" t="s">
         <v>973</v>
       </c>
@@ -10523,15 +10520,15 @@
       <c r="Q10" s="115"/>
       <c r="R10" s="116"/>
       <c r="S10" s="115"/>
-      <c r="T10" s="162"/>
+      <c r="T10" s="136"/>
       <c r="U10" s="115"/>
       <c r="V10" s="115" t="s">
         <v>966</v>
       </c>
       <c r="W10" s="117"/>
     </row>
-    <row r="11" spans="1:23" ht="50" x14ac:dyDescent="0.35">
-      <c r="A11" s="136"/>
+    <row r="11" spans="1:23" ht="42" x14ac:dyDescent="0.2">
+      <c r="A11" s="151"/>
       <c r="B11" s="33" t="s">
         <v>963</v>
       </c>
@@ -10544,10 +10541,10 @@
         <v>979</v>
       </c>
       <c r="G11" s="25"/>
-      <c r="H11" s="159" t="s">
+      <c r="H11" s="133" t="s">
         <v>690</v>
       </c>
-      <c r="I11" s="159" t="s">
+      <c r="I11" s="133" t="s">
         <v>982</v>
       </c>
       <c r="J11" s="25" t="s">
@@ -10568,7 +10565,7 @@
       <c r="S11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="T11" s="159"/>
+      <c r="T11" s="133"/>
       <c r="U11" s="25" t="s">
         <v>1047</v>
       </c>
@@ -10579,8 +10576,8 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="138"/>
+    <row r="12" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="154"/>
       <c r="B12" s="35" t="s">
         <v>964</v>
       </c>
@@ -10591,10 +10588,10 @@
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="160" t="s">
+      <c r="H12" s="134" t="s">
         <v>980</v>
       </c>
-      <c r="I12" s="160"/>
+      <c r="I12" s="134"/>
       <c r="J12" s="29" t="s">
         <v>975</v>
       </c>
@@ -10611,35 +10608,35 @@
       <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
-      <c r="T12" s="160"/>
+      <c r="T12" s="134"/>
       <c r="U12" s="29"/>
       <c r="V12" s="29" t="s">
         <v>992</v>
       </c>
       <c r="W12" s="30"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="L14" s="78"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="68" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="121" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
@@ -10659,13 +10656,13 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.36328125" customWidth="1"/>
-    <col min="3" max="4" width="50.1796875" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="4" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
         <v>1066</v>
       </c>
@@ -10679,7 +10676,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="125" t="s">
         <v>1070</v>
       </c>
@@ -10693,7 +10690,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="125" t="s">
         <v>1074</v>
       </c>
@@ -10707,7 +10704,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="125" t="s">
         <v>1078</v>
       </c>
@@ -10721,7 +10718,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="125" t="s">
         <v>1082</v>
       </c>
@@ -10735,7 +10732,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="125" t="s">
         <v>1086</v>
       </c>
@@ -10749,7 +10746,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="125" t="s">
         <v>1090</v>
       </c>
@@ -10763,7 +10760,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="74" t="s">
         <v>1094</v>
       </c>
@@ -10777,7 +10774,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
         <v>1098</v>
       </c>
@@ -10791,7 +10788,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="74" t="s">
         <v>1102</v>
       </c>
@@ -10805,7 +10802,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="74" t="s">
         <v>1106</v>
       </c>
@@ -10819,7 +10816,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="74" t="s">
         <v>1110</v>
       </c>
@@ -10833,7 +10830,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="74" t="s">
         <v>1114</v>
       </c>
@@ -10847,7 +10844,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="74" t="s">
         <v>1118</v>
       </c>
@@ -10874,14 +10871,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>238</v>
       </c>
@@ -10892,7 +10889,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>241</v>
       </c>
@@ -10903,7 +10900,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>243</v>
       </c>
@@ -10912,7 +10909,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>245</v>
       </c>
@@ -10921,7 +10918,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>246</v>
       </c>
@@ -10944,15 +10941,15 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="138.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="138.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>491</v>
       </c>
@@ -10966,32 +10963,32 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="142" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="157" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="160" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="140" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="167" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="143"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="139"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="144"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="141"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="142" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="166"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="158"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="168"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="157" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -11004,8 +11001,8 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="143"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="159"/>
       <c r="B6" s="53" t="s">
         <v>499</v>
       </c>
@@ -11016,8 +11013,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="143"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="159"/>
       <c r="B7" s="53" t="s">
         <v>501</v>
       </c>
@@ -11028,14 +11025,14 @@
         <v>502</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="144"/>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="158"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
     </row>
-    <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A9" s="142" t="s">
+    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="157" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -11048,8 +11045,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="144"/>
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="158"/>
       <c r="B10" s="82" t="s">
         <v>506</v>
       </c>
@@ -11060,8 +11057,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="145" t="s">
+    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="155" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="88" t="s">
@@ -11074,14 +11071,14 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="146"/>
+    <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="156"/>
       <c r="B12" s="89"/>
       <c r="C12" s="63"/>
       <c r="D12" s="64"/>
     </row>
-    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A13" s="142" t="s">
+    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A13" s="157" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -11094,8 +11091,8 @@
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="143"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="159"/>
       <c r="B14" s="53" t="s">
         <v>514</v>
       </c>
@@ -11106,8 +11103,8 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="143"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="159"/>
       <c r="B15" s="53" t="s">
         <v>474</v>
       </c>
@@ -11118,26 +11115,26 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A16" s="143"/>
-      <c r="B16" s="148"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="159"/>
+      <c r="B16" s="161"/>
       <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="166" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="143"/>
-      <c r="B17" s="148"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="159"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="139"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="144"/>
+      <c r="D17" s="166"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="158"/>
       <c r="B18" s="62"/>
       <c r="C18" s="63" t="s">
         <v>522</v>
@@ -11146,8 +11143,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="145" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="155" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="88" t="s">
@@ -11160,14 +11157,14 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="146"/>
+    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="156"/>
       <c r="B20" s="89"/>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="142" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="157" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="58" t="s">
@@ -11180,26 +11177,26 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="144"/>
+    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="158"/>
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11214,34 +11211,34 @@
       <selection pane="topRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
     <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6328125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.36328125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="38.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.33203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
@@ -11323,8 +11320,8 @@
       <c r="AG1" s="93"/>
       <c r="AH1" s="93"/>
     </row>
-    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="135" t="s">
+    <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A2" s="150" t="s">
         <v>321</v>
       </c>
       <c r="B2" s="95" t="s">
@@ -11385,8 +11382,8 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="136"/>
+    <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A3" s="151"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
       </c>
@@ -11459,8 +11456,8 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A4" s="136"/>
+    <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A4" s="151"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
       </c>
@@ -11527,8 +11524,8 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="136"/>
+    <row r="5" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A5" s="151"/>
       <c r="B5" s="96" t="s">
         <v>1015</v>
       </c>
@@ -11601,8 +11598,8 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="138"/>
+    <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="154"/>
       <c r="B6" s="97" t="s">
         <v>1016</v>
       </c>
@@ -11669,8 +11666,8 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A7" s="135" t="s">
+    <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A7" s="150" t="s">
         <v>320</v>
       </c>
       <c r="B7" s="95" t="s">
@@ -11747,8 +11744,8 @@
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.35">
-      <c r="A8" s="136"/>
+    <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+      <c r="A8" s="151"/>
       <c r="B8" s="96" t="s">
         <v>997</v>
       </c>
@@ -11821,8 +11818,8 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
     </row>
-    <row r="9" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="136"/>
+    <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A9" s="151"/>
       <c r="B9" s="96" t="s">
         <v>1017</v>
       </c>
@@ -11891,8 +11888,8 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A10" s="136"/>
+    <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A10" s="151"/>
       <c r="B10" s="96" t="s">
         <v>1018</v>
       </c>
@@ -11961,8 +11958,8 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
     </row>
-    <row r="11" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="138"/>
+    <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="154"/>
       <c r="B11" s="98" t="s">
         <v>1019</v>
       </c>
@@ -12018,8 +12015,8 @@
         <v>849</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="25" x14ac:dyDescent="0.35">
-      <c r="A12" s="135" t="s">
+    <row r="12" spans="1:34" ht="28" x14ac:dyDescent="0.2">
+      <c r="A12" s="150" t="s">
         <v>255</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -12067,8 +12064,8 @@
       </c>
       <c r="W12" s="27"/>
     </row>
-    <row r="13" spans="1:34" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="136"/>
+    <row r="13" spans="1:34" ht="42" x14ac:dyDescent="0.2">
+      <c r="A13" s="151"/>
       <c r="B13" s="33" t="s">
         <v>323</v>
       </c>
@@ -12124,8 +12121,8 @@
         <v>707</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="136"/>
+    <row r="14" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A14" s="151"/>
       <c r="B14" s="33" t="s">
         <v>257</v>
       </c>
@@ -12177,8 +12174,8 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="138"/>
+    <row r="15" spans="1:34" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="154"/>
       <c r="B15" s="35" t="s">
         <v>326</v>
       </c>
@@ -12216,8 +12213,8 @@
       <c r="V15" s="29"/>
       <c r="W15" s="30"/>
     </row>
-    <row r="16" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A16" s="135" t="s">
+    <row r="16" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A16" s="150" t="s">
         <v>687</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -12283,8 +12280,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="50" x14ac:dyDescent="0.35">
-      <c r="A17" s="136"/>
+    <row r="17" spans="1:33" ht="56" x14ac:dyDescent="0.2">
+      <c r="A17" s="151"/>
       <c r="B17" s="33" t="s">
         <v>642</v>
       </c>
@@ -12332,8 +12329,8 @@
         <v>712</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="138"/>
+    <row r="18" spans="1:33" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="154"/>
       <c r="B18" s="35" t="s">
         <v>592</v>
       </c>
@@ -12381,8 +12378,8 @@
       <c r="V18" s="29"/>
       <c r="W18" s="30"/>
     </row>
-    <row r="19" spans="1:33" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="135" t="s">
+    <row r="19" spans="1:33" ht="42" x14ac:dyDescent="0.2">
+      <c r="A19" s="150" t="s">
         <v>688</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -12446,8 +12443,8 @@
       </c>
       <c r="W19" s="27"/>
     </row>
-    <row r="20" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="136"/>
+    <row r="20" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="151"/>
       <c r="B20" s="113" t="s">
         <v>962</v>
       </c>
@@ -12487,8 +12484,8 @@
       </c>
       <c r="W20" s="117"/>
     </row>
-    <row r="21" spans="1:33" ht="50" x14ac:dyDescent="0.35">
-      <c r="A21" s="136"/>
+    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.2">
+      <c r="A21" s="151"/>
       <c r="B21" s="33" t="s">
         <v>963</v>
       </c>
@@ -12536,8 +12533,8 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="138"/>
+    <row r="22" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="154"/>
       <c r="B22" s="35" t="s">
         <v>964</v>
       </c>
@@ -12575,7 +12572,7 @@
       </c>
       <c r="W22" s="30"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
@@ -12599,7 +12596,7 @@
       <c r="AF23" s="14"/>
       <c r="AG23" s="14"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
@@ -12623,7 +12620,7 @@
       <c r="AF24" s="14"/>
       <c r="AG24" s="14"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
@@ -12647,7 +12644,7 @@
       <c r="AF25" s="14"/>
       <c r="AG25" s="14"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -12671,7 +12668,7 @@
       <c r="AF26" s="14"/>
       <c r="AG26" s="14"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
@@ -12695,7 +12692,7 @@
       <c r="AF27" s="14"/>
       <c r="AG27" s="14"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
@@ -12719,7 +12716,7 @@
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
@@ -12743,7 +12740,7 @@
       <c r="AF29" s="14"/>
       <c r="AG29" s="14"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
@@ -12789,12 +12786,12 @@
       <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="23" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="127" t="s">
         <v>2</v>
       </c>
@@ -12859,8 +12856,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="75" x14ac:dyDescent="0.35">
-      <c r="A2" s="135" t="s">
+    <row r="2" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+      <c r="A2" s="150" t="s">
         <v>320</v>
       </c>
       <c r="B2" s="95" t="s">
@@ -12937,8 +12934,8 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="136"/>
+    <row r="3" spans="1:34" ht="126" x14ac:dyDescent="0.2">
+      <c r="A3" s="151"/>
       <c r="B3" s="96" t="s">
         <v>997</v>
       </c>
@@ -13011,8 +13008,8 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="136"/>
+    <row r="4" spans="1:34" ht="98" x14ac:dyDescent="0.2">
+      <c r="A4" s="151"/>
       <c r="B4" s="96" t="s">
         <v>1017</v>
       </c>
@@ -13081,8 +13078,8 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="75" x14ac:dyDescent="0.35">
-      <c r="A5" s="136"/>
+    <row r="5" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+      <c r="A5" s="151"/>
       <c r="B5" s="96" t="s">
         <v>1018</v>
       </c>
@@ -13151,8 +13148,8 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="88" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="138"/>
+    <row r="6" spans="1:34" ht="99" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="154"/>
       <c r="B6" s="98" t="s">
         <v>1019</v>
       </c>
@@ -13208,8 +13205,8 @@
         <v>849</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="25" x14ac:dyDescent="0.35">
-      <c r="A7" s="135" t="s">
+    <row r="7" spans="1:34" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="150" t="s">
         <v>255</v>
       </c>
       <c r="B7" s="31" t="s">
@@ -13259,8 +13256,8 @@
       </c>
       <c r="W7" s="27"/>
     </row>
-    <row r="8" spans="1:34" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="136"/>
+    <row r="8" spans="1:34" ht="98" x14ac:dyDescent="0.2">
+      <c r="A8" s="151"/>
       <c r="B8" s="33" t="s">
         <v>323</v>
       </c>
@@ -13316,8 +13313,8 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="136"/>
+    <row r="9" spans="1:34" ht="98" x14ac:dyDescent="0.2">
+      <c r="A9" s="151"/>
       <c r="B9" s="33" t="s">
         <v>257</v>
       </c>
@@ -13367,8 +13364,8 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="138"/>
+    <row r="10" spans="1:34" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="154"/>
       <c r="B10" s="35" t="s">
         <v>326</v>
       </c>
@@ -13424,22 +13421,22 @@
       <selection activeCell="L1" sqref="L1:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
-    <col min="6" max="6" width="32.36328125" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="12" max="12" width="17.36328125" customWidth="1"/>
-    <col min="13" max="13" width="26.6328125" customWidth="1"/>
-    <col min="17" max="17" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="26.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
         <v>638</v>
       </c>
@@ -13488,7 +13485,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>588</v>
       </c>
@@ -13535,7 +13532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>589</v>
       </c>
@@ -13582,7 +13579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>591</v>
       </c>
@@ -13629,7 +13626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
         <v>593</v>
       </c>
@@ -13667,7 +13664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
         <v>595</v>
       </c>
@@ -13714,7 +13711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="66" t="s">
         <v>597</v>
       </c>
@@ -13752,7 +13749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="66" t="s">
         <v>599</v>
       </c>
@@ -13775,7 +13772,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="66" t="s">
         <v>601</v>
       </c>
@@ -13798,7 +13795,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="66" t="s">
         <v>603</v>
       </c>
@@ -13812,7 +13809,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="66" t="s">
         <v>605</v>
       </c>
@@ -13835,7 +13832,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
         <v>607</v>
       </c>
@@ -13858,7 +13855,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="D13" s="66" t="s">
         <v>602</v>
       </c>
@@ -13875,7 +13872,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="D14" s="66" t="s">
         <v>598</v>
       </c>
@@ -13886,7 +13883,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="D15" s="49" t="s">
         <v>625</v>
       </c>
@@ -13897,7 +13894,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="D16" s="66" t="s">
         <v>627</v>
       </c>
@@ -13917,18 +13914,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF0DFC-ABCB-4798-A2A7-A9FED467CFB2}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>74</v>
       </c>
@@ -13942,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
@@ -13962,7 +13959,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
@@ -13976,7 +13973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>4</v>
       </c>
@@ -13993,7 +13990,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -14007,7 +14004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -14022,37 +14019,37 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="163" t="s">
+    <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="163" t="s">
+      <c r="C7" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="164" t="str">
+      <c r="D7" s="138" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="163" t="s">
+    <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="164" t="str">
+      <c r="D8" s="138" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
@@ -14067,7 +14064,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
@@ -14082,7 +14079,7 @@
         <v>Rückwärts aus P1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -14096,7 +14093,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
@@ -14111,7 +14108,7 @@
         <v>Vorwärts aus P2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -14126,7 +14123,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
@@ -14141,7 +14138,7 @@
         <v>Rückwärts aus P2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
@@ -14156,7 +14153,7 @@
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
@@ -14171,7 +14168,7 @@
         <v>Rückwärts aus P3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
@@ -14185,7 +14182,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
@@ -14200,21 +14197,21 @@
         <v>Vorwärts aus P5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="163" t="s">
+    <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="163" t="s">
+      <c r="B19" s="137" t="s">
         <v>648</v>
       </c>
-      <c r="C19" s="163" t="s">
+      <c r="C19" s="137" t="s">
         <v>649</v>
       </c>
-      <c r="D19" s="164" t="s">
+      <c r="D19" s="138" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
@@ -14228,7 +14225,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
@@ -14243,7 +14240,7 @@
         <v>Vorwärts aus P7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
@@ -14257,14 +14254,14 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -14281,20 +14278,20 @@
       <selection activeCell="A12" sqref="A12:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.453125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="50.81640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="35.81640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="10.81640625" style="7"/>
+    <col min="2" max="2" width="14.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -14320,7 +14317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -14346,7 +14343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -14372,7 +14369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -14398,7 +14395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -14424,7 +14421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -14450,7 +14447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -14476,7 +14473,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -14502,7 +14499,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -14528,7 +14525,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -14554,7 +14551,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -14580,7 +14577,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -14606,7 +14603,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -14632,7 +14629,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -14658,7 +14655,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -14684,7 +14681,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -14710,7 +14707,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -14736,7 +14733,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -14762,7 +14759,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -14788,7 +14785,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -14814,7 +14811,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -14840,7 +14837,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -14866,7 +14863,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -14892,7 +14889,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -14918,7 +14915,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -14944,7 +14941,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -14970,7 +14967,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -14985,14 +14982,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H28" s="6">
         <f>Übersicht!D28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -15000,7 +14997,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -15024,18 +15021,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="29.6328125" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>261</v>
       </c>
@@ -15048,15 +15045,15 @@
       <c r="D1" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-    </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+    </row>
+    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>251</v>
       </c>
@@ -15077,7 +15074,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>252</v>
       </c>
@@ -15096,7 +15093,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>264</v>
       </c>
@@ -15115,7 +15112,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>253</v>
       </c>
@@ -15134,7 +15131,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>254</v>
       </c>
@@ -15153,7 +15150,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>265</v>
       </c>
@@ -15172,14 +15169,14 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -15203,15 +15200,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" customWidth="1"/>
-    <col min="3" max="3" width="54.36328125" customWidth="1"/>
-    <col min="4" max="4" width="61.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>261</v>
       </c>
@@ -15225,7 +15222,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="56" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>251</v>
       </c>
@@ -15239,7 +15236,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>252</v>
       </c>
@@ -15253,7 +15250,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>264</v>
       </c>
@@ -15267,7 +15264,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>253</v>
       </c>
@@ -15281,7 +15278,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>254</v>
       </c>
@@ -15295,7 +15292,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>265</v>
       </c>
@@ -15322,14 +15319,14 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="12" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
-    <col min="3" max="4" width="53.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="4" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
@@ -15345,7 +15342,7 @@
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
     </row>
-    <row r="2" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
@@ -15361,7 +15358,7 @@
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
     </row>
-    <row r="3" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="70" x14ac:dyDescent="0.2">
       <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
@@ -15377,7 +15374,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="78"/>
     </row>
-    <row r="4" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="104" t="s">
         <v>4</v>
       </c>
@@ -15393,7 +15390,7 @@
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>5</v>
       </c>
@@ -15409,7 +15406,7 @@
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
     </row>
-    <row r="6" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.2">
       <c r="A6" s="104" t="s">
         <v>6</v>
       </c>
@@ -15425,7 +15422,7 @@
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
     </row>
-    <row r="7" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
         <v>7</v>
       </c>
@@ -15441,7 +15438,7 @@
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
     </row>
-    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="104" t="s">
         <v>8</v>
       </c>
@@ -15457,7 +15454,7 @@
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
     </row>
-    <row r="9" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A9" s="104" t="s">
         <v>9</v>
       </c>
@@ -15473,7 +15470,7 @@
       <c r="E9" s="78"/>
       <c r="F9" s="78"/>
     </row>
-    <row r="10" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="104" t="s">
         <v>10</v>
       </c>
@@ -15489,7 +15486,7 @@
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="104" t="s">
         <v>10</v>
       </c>
@@ -15499,7 +15496,7 @@
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
     </row>
-    <row r="12" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A12" s="104" t="s">
         <v>11</v>
       </c>
@@ -15515,7 +15512,7 @@
       <c r="E12" s="78"/>
       <c r="F12" s="78"/>
     </row>
-    <row r="13" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A13" s="104" t="s">
         <v>12</v>
       </c>
@@ -15531,7 +15528,7 @@
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
     </row>
-    <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A14" s="104" t="s">
         <v>13</v>
       </c>
@@ -15547,7 +15544,7 @@
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
     </row>
-    <row r="15" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="104" t="s">
         <v>14</v>
       </c>
@@ -15563,7 +15560,7 @@
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
     </row>
-    <row r="16" spans="1:6" ht="100" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" s="104" t="s">
         <v>15</v>
       </c>
@@ -15579,7 +15576,7 @@
       <c r="E16" s="78"/>
       <c r="F16" s="78"/>
     </row>
-    <row r="17" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A17" s="104" t="s">
         <v>16</v>
       </c>
@@ -15595,7 +15592,7 @@
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
     </row>
-    <row r="18" spans="1:6" ht="62.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="104" t="s">
         <v>18</v>
       </c>
@@ -15611,7 +15608,7 @@
       <c r="E18" s="78"/>
       <c r="F18" s="78"/>
     </row>
-    <row r="19" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A19" s="104" t="s">
         <v>17</v>
       </c>
@@ -15627,7 +15624,7 @@
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
     </row>
-    <row r="20" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A20" s="104" t="s">
         <v>18</v>
       </c>
@@ -15643,7 +15640,7 @@
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
     </row>
-    <row r="21" spans="1:6" ht="37.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="104" t="s">
         <v>21</v>
       </c>
@@ -15659,7 +15656,7 @@
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
     </row>
-    <row r="22" spans="1:6" ht="50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A22" s="104" t="s">
         <v>19</v>
       </c>
@@ -15675,7 +15672,7 @@
       <c r="E22" s="78"/>
       <c r="F22" s="78"/>
     </row>
-    <row r="23" spans="1:6" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="70" x14ac:dyDescent="0.2">
       <c r="A23" s="104" t="s">
         <v>20</v>
       </c>
@@ -15691,15 +15688,15 @@
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="109" t="s">
         <v>21</v>
       </c>
@@ -15709,7 +15706,7 @@
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="109" t="s">
         <v>3</v>
       </c>
@@ -15734,30 +15731,30 @@
       <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.81640625" customWidth="1"/>
-    <col min="10" max="10" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="36.81640625" customWidth="1"/>
-    <col min="19" max="19" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="36.81640625" customWidth="1"/>
-    <col min="22" max="22" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="36.83203125" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="36.83203125" customWidth="1"/>
+    <col min="22" max="22" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>238</v>
       </c>
@@ -15776,10 +15773,10 @@
       <c r="F1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="131" t="s">
         <v>359</v>
       </c>
-      <c r="H1" s="157" t="s">
+      <c r="H1" s="131" t="s">
         <v>360</v>
       </c>
       <c r="I1" s="42" t="s">
@@ -15812,7 +15809,7 @@
       <c r="R1" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="S1" s="157" t="s">
+      <c r="S1" s="131" t="s">
         <v>957</v>
       </c>
       <c r="T1" s="43" t="s">
@@ -15825,7 +15822,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>470</v>
       </c>
@@ -15844,10 +15841,10 @@
       <c r="F2" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="G2" s="133" t="s">
         <v>536</v>
       </c>
-      <c r="H2" s="159" t="s">
+      <c r="H2" s="133" t="s">
         <v>998</v>
       </c>
       <c r="I2" s="25" t="s">
@@ -15880,7 +15877,7 @@
       <c r="R2" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="S2" s="159" t="s">
+      <c r="S2" s="133" t="s">
         <v>656</v>
       </c>
       <c r="T2" s="25" t="s">
@@ -15893,7 +15890,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="139" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="154" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
         <v>81</v>
       </c>
@@ -15912,10 +15909,10 @@
       <c r="F3" s="25" t="s">
         <v>855</v>
       </c>
-      <c r="G3" s="159" t="s">
+      <c r="G3" s="133" t="s">
         <v>856</v>
       </c>
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="133" t="s">
         <v>857</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -15948,7 +15945,7 @@
       <c r="R3" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="S3" s="159" t="s">
+      <c r="S3" s="133" t="s">
         <v>874</v>
       </c>
       <c r="T3" s="25" t="s">
@@ -15961,7 +15958,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="126.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="140" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>471</v>
       </c>
@@ -15980,10 +15977,10 @@
       <c r="F4" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="133" t="s">
         <v>862</v>
       </c>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="133" t="s">
         <v>863</v>
       </c>
       <c r="I4" s="25" t="s">
@@ -16016,7 +16013,7 @@
       <c r="R4" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="S4" s="159" t="s">
+      <c r="S4" s="133" t="s">
         <v>653</v>
       </c>
       <c r="T4" s="25" t="s">
@@ -16029,7 +16026,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>472</v>
       </c>
@@ -16048,10 +16045,10 @@
       <c r="F5" s="119" t="s">
         <v>1014</v>
       </c>
-      <c r="G5" s="166" t="s">
+      <c r="G5" s="140" t="s">
         <v>1063</v>
       </c>
-      <c r="H5" s="166" t="s">
+      <c r="H5" s="140" t="s">
         <v>1014</v>
       </c>
       <c r="I5" s="118" t="s">
@@ -16084,7 +16081,7 @@
       <c r="R5" s="118" t="s">
         <v>1016</v>
       </c>
-      <c r="S5" s="165" t="s">
+      <c r="S5" s="139" t="s">
         <v>1016</v>
       </c>
       <c r="T5" s="118" t="s">
@@ -16097,7 +16094,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="139" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="154" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>475</v>
       </c>
@@ -16116,10 +16113,10 @@
       <c r="F6" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="G6" s="159" t="s">
+      <c r="G6" s="133" t="s">
         <v>537</v>
       </c>
-      <c r="H6" s="159" t="s">
+      <c r="H6" s="133" t="s">
         <v>538</v>
       </c>
       <c r="I6" s="25" t="s">
@@ -16152,7 +16149,7 @@
       <c r="R6" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="S6" s="159" t="s">
+      <c r="S6" s="133" t="s">
         <v>654</v>
       </c>
       <c r="T6" s="25" t="s">
@@ -16165,7 +16162,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="70" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>473</v>
       </c>
@@ -16184,10 +16181,10 @@
       <c r="F7" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="G7" s="159" t="s">
+      <c r="G7" s="133" t="s">
         <v>539</v>
       </c>
-      <c r="H7" s="159" t="s">
+      <c r="H7" s="133" t="s">
         <v>540</v>
       </c>
       <c r="I7" s="25" t="s">
@@ -16220,7 +16217,7 @@
       <c r="R7" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="S7" s="159" t="s">
+      <c r="S7" s="133" t="s">
         <v>652</v>
       </c>
       <c r="T7" s="25" t="s">
@@ -16233,7 +16230,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="100" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>474</v>
       </c>
@@ -16252,10 +16249,10 @@
       <c r="F8" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="G8" s="159" t="s">
+      <c r="G8" s="133" t="s">
         <v>531</v>
       </c>
-      <c r="H8" s="159" t="s">
+      <c r="H8" s="133" t="s">
         <v>532</v>
       </c>
       <c r="I8" s="25" t="s">
@@ -16288,7 +16285,7 @@
       <c r="R8" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="S8" s="159" t="s">
+      <c r="S8" s="133" t="s">
         <v>655</v>
       </c>
       <c r="T8" s="25" t="s">
@@ -16301,31 +16298,31 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
       <c r="G14" s="67"/>
     </row>
-    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
+    <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G16" s="67"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="67"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="67"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="67"/>
     </row>
   </sheetData>
@@ -16342,39 +16339,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BB7B41-1A7E-470B-A91F-E7D0772651A4}">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
     <col min="5" max="5" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.36328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6328125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.36328125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="38.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.33203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="38.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" s="94" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
@@ -16396,10 +16393,10 @@
       <c r="G1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="157" t="s">
+      <c r="H1" s="131" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="157" t="s">
+      <c r="I1" s="131" t="s">
         <v>360</v>
       </c>
       <c r="J1" s="42" t="s">
@@ -16432,7 +16429,7 @@
       <c r="S1" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="T1" s="157" t="s">
+      <c r="T1" s="131" t="s">
         <v>957</v>
       </c>
       <c r="U1" s="43" t="s">
@@ -16456,8 +16453,8 @@
       <c r="AG1" s="93"/>
       <c r="AH1" s="93"/>
     </row>
-    <row r="2" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="135" t="s">
+    <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A2" s="150" t="s">
         <v>321</v>
       </c>
       <c r="B2" s="95" t="s">
@@ -16467,26 +16464,26 @@
       <c r="D2" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="156" t="s">
+      <c r="E2" s="130" t="s">
         <v>314</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26" t="s">
         <v>1138</v>
       </c>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158" t="s">
+      <c r="H2" s="132"/>
+      <c r="I2" s="132" t="s">
         <v>1140</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
-      <c r="M2" s="156" t="s">
+      <c r="M2" s="130" t="s">
         <v>758</v>
       </c>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="156" t="s">
+      <c r="P2" s="130" t="s">
         <v>790</v>
       </c>
       <c r="Q2" s="26" t="s">
@@ -16496,7 +16493,7 @@
         <v>792</v>
       </c>
       <c r="S2" s="26"/>
-      <c r="T2" s="158"/>
+      <c r="T2" s="132"/>
       <c r="U2" s="26" t="s">
         <v>1036</v>
       </c>
@@ -16518,12 +16515,12 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="136"/>
+    <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A3" s="151"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="128" t="s">
         <v>724</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -16536,24 +16533,24 @@
         <v>722</v>
       </c>
       <c r="G3" s="25"/>
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="133" t="s">
         <v>1061</v>
       </c>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="133" t="s">
         <v>370</v>
       </c>
       <c r="J3" s="25"/>
-      <c r="K3" s="155" t="s">
+      <c r="K3" s="129" t="s">
         <v>1142</v>
       </c>
-      <c r="L3" s="155" t="s">
+      <c r="L3" s="129" t="s">
         <v>760</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>761</v>
       </c>
       <c r="N3" s="25"/>
-      <c r="O3" s="155" t="s">
+      <c r="O3" s="129" t="s">
         <v>793</v>
       </c>
       <c r="P3" s="25" t="s">
@@ -16562,19 +16559,19 @@
       <c r="Q3" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="R3" s="155" t="s">
+      <c r="R3" s="129" t="s">
         <v>796</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>820</v>
       </c>
-      <c r="T3" s="159" t="s">
+      <c r="T3" s="133" t="s">
         <v>1151</v>
       </c>
-      <c r="U3" s="155" t="s">
+      <c r="U3" s="129" t="s">
         <v>1037</v>
       </c>
-      <c r="V3" s="155" t="s">
+      <c r="V3" s="129" t="s">
         <v>821</v>
       </c>
       <c r="W3" s="28" t="s">
@@ -16592,8 +16589,8 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A4" s="136"/>
+    <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A4" s="151"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
       </c>
@@ -16612,11 +16609,11 @@
       <c r="G4" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159" t="s">
+      <c r="H4" s="133"/>
+      <c r="I4" s="133" t="s">
         <v>1024</v>
       </c>
-      <c r="J4" s="155" t="s">
+      <c r="J4" s="129" t="s">
         <v>757</v>
       </c>
       <c r="K4" s="25"/>
@@ -16624,7 +16621,7 @@
       <c r="M4" s="25" t="s">
         <v>762</v>
       </c>
-      <c r="N4" s="155" t="s">
+      <c r="N4" s="129" t="s">
         <v>763</v>
       </c>
       <c r="O4" s="25"/>
@@ -16640,12 +16637,12 @@
       <c r="S4" s="25" t="s">
         <v>823</v>
       </c>
-      <c r="T4" s="159"/>
+      <c r="T4" s="133"/>
       <c r="U4" s="25" t="s">
         <v>1038</v>
       </c>
       <c r="V4" s="25"/>
-      <c r="W4" s="161" t="s">
+      <c r="W4" s="135" t="s">
         <v>824</v>
       </c>
       <c r="X4" s="13"/>
@@ -16660,30 +16657,30 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="136"/>
+    <row r="5" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="151"/>
       <c r="B5" s="96" t="s">
         <v>1131</v>
       </c>
       <c r="C5" s="100" t="s">
         <v>1133</v>
       </c>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="129" t="s">
         <v>1134</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>1136</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="129" t="s">
         <v>1137</v>
       </c>
-      <c r="G5" s="155" t="s">
+      <c r="G5" s="129" t="s">
         <v>1139</v>
       </c>
-      <c r="H5" s="159" t="s">
+      <c r="H5" s="133" t="s">
         <v>1062</v>
       </c>
-      <c r="I5" s="159" t="s">
+      <c r="I5" s="133" t="s">
         <v>1141</v>
       </c>
       <c r="J5" s="25"/>
@@ -16703,16 +16700,16 @@
       <c r="P5" s="25" t="s">
         <v>1146</v>
       </c>
-      <c r="Q5" s="155" t="s">
+      <c r="Q5" s="129" t="s">
         <v>801</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>802</v>
       </c>
-      <c r="S5" s="155" t="s">
+      <c r="S5" s="129" t="s">
         <v>1147</v>
       </c>
-      <c r="T5" s="159" t="s">
+      <c r="T5" s="133" t="s">
         <v>826</v>
       </c>
       <c r="U5" s="25" t="s">
@@ -16736,8 +16733,8 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A6" s="132" t="s">
+    <row r="6" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A6" s="147" t="s">
         <v>320</v>
       </c>
       <c r="B6" s="95" t="s">
@@ -16756,10 +16753,10 @@
         <v>738</v>
       </c>
       <c r="G6" s="26"/>
-      <c r="H6" s="158" t="s">
+      <c r="H6" s="132" t="s">
         <v>739</v>
       </c>
-      <c r="I6" s="158" t="s">
+      <c r="I6" s="132" t="s">
         <v>740</v>
       </c>
       <c r="J6" s="26" t="s">
@@ -16792,7 +16789,7 @@
       <c r="S6" s="26" t="s">
         <v>833</v>
       </c>
-      <c r="T6" s="158" t="s">
+      <c r="T6" s="132" t="s">
         <v>834</v>
       </c>
       <c r="U6" s="26" t="s">
@@ -16814,8 +16811,8 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:34" ht="75" x14ac:dyDescent="0.35">
-      <c r="A7" s="133"/>
+    <row r="7" spans="1:34" ht="84" x14ac:dyDescent="0.2">
+      <c r="A7" s="148"/>
       <c r="B7" s="96" t="s">
         <v>997</v>
       </c>
@@ -16832,10 +16829,10 @@
         <v>743</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="159" t="s">
+      <c r="H7" s="133" t="s">
         <v>744</v>
       </c>
-      <c r="I7" s="159" t="s">
+      <c r="I7" s="133" t="s">
         <v>745</v>
       </c>
       <c r="J7" s="25" t="s">
@@ -16866,7 +16863,7 @@
       <c r="S7" s="25" t="s">
         <v>837</v>
       </c>
-      <c r="T7" s="159" t="s">
+      <c r="T7" s="133" t="s">
         <v>838</v>
       </c>
       <c r="U7" s="25"/>
@@ -16886,15 +16883,15 @@
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:34" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="133"/>
+    <row r="8" spans="1:34" ht="70" x14ac:dyDescent="0.2">
+      <c r="A8" s="148"/>
       <c r="B8" s="96" t="s">
         <v>1017</v>
       </c>
       <c r="C8" s="100" t="s">
         <v>733</v>
       </c>
-      <c r="D8" s="169" t="s">
+      <c r="D8" s="25" t="s">
         <v>746</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -16906,10 +16903,10 @@
       <c r="G8" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="H8" s="159" t="s">
+      <c r="H8" s="133" t="s">
         <v>750</v>
       </c>
-      <c r="I8" s="159"/>
+      <c r="I8" s="133"/>
       <c r="J8" s="25" t="s">
         <v>778</v>
       </c>
@@ -16936,7 +16933,7 @@
       <c r="S8" s="25" t="s">
         <v>993</v>
       </c>
-      <c r="T8" s="159" t="s">
+      <c r="T8" s="133" t="s">
         <v>841</v>
       </c>
       <c r="U8" s="25" t="s">
@@ -16956,8 +16953,8 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
     </row>
-    <row r="9" spans="1:34" ht="50" x14ac:dyDescent="0.35">
-      <c r="A9" s="133"/>
+    <row r="9" spans="1:34" ht="56" x14ac:dyDescent="0.2">
+      <c r="A9" s="148"/>
       <c r="B9" s="96" t="s">
         <v>1018</v>
       </c>
@@ -16970,10 +16967,10 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="159" t="s">
+      <c r="H9" s="133" t="s">
         <v>752</v>
       </c>
-      <c r="I9" s="159" t="s">
+      <c r="I9" s="133" t="s">
         <v>1025</v>
       </c>
       <c r="J9" s="25"/>
@@ -17004,7 +17001,7 @@
       <c r="S9" s="25" t="s">
         <v>843</v>
       </c>
-      <c r="T9" s="159" t="s">
+      <c r="T9" s="133" t="s">
         <v>844</v>
       </c>
       <c r="U9" s="25" t="s">
@@ -17026,8 +17023,8 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="134"/>
+    <row r="10" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="149"/>
       <c r="B10" s="98" t="s">
         <v>1019</v>
       </c>
@@ -17046,10 +17043,10 @@
       <c r="G10" s="29" t="s">
         <v>1013</v>
       </c>
-      <c r="H10" s="160" t="s">
+      <c r="H10" s="134" t="s">
         <v>756</v>
       </c>
-      <c r="I10" s="160"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="29" t="s">
         <v>786</v>
       </c>
@@ -17070,7 +17067,7 @@
       </c>
       <c r="R10" s="29"/>
       <c r="S10" s="29"/>
-      <c r="T10" s="160" t="s">
+      <c r="T10" s="134" t="s">
         <v>847</v>
       </c>
       <c r="U10" s="29"/>
@@ -17081,13 +17078,13 @@
         <v>849</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="153" t="s">
+    <row r="13" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="152" t="s">
         <v>1132</v>
       </c>
-      <c r="B13" s="153"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B13" s="152"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -17096,12 +17093,12 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="L15" s="6"/>
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -17112,18 +17109,18 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="3:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-      <c r="L17" s="167"/>
-      <c r="M17" s="167"/>
+    <row r="17" spans="3:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17"/>
@@ -17133,18 +17130,18 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C18" s="168"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C18" s="142"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18"/>
@@ -17154,18 +17151,18 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C19" s="168"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="167"/>
-      <c r="M19" s="167"/>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C19" s="142"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19"/>
@@ -17175,18 +17172,18 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C20" s="168"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
-      <c r="M20" s="167"/>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C20" s="142"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20"/>
@@ -17196,18 +17193,18 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C21" s="168"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="167"/>
-      <c r="L21" s="167"/>
-      <c r="M21" s="167"/>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C21" s="142"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21"/>
@@ -17217,20 +17214,20 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="3:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C22" s="168" t="s">
+    <row r="22" spans="3:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="C22" s="142" t="s">
         <v>1152</v>
       </c>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="167"/>
-      <c r="M22" s="167"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22"/>
@@ -17240,13 +17237,13 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -17260,13 +17257,13 @@
       <c r="U23"/>
       <c r="V23"/>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C24" s="168"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C24" s="142"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -17280,13 +17277,13 @@
       <c r="U24"/>
       <c r="V24"/>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C25" s="168"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C25" s="142"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="Q25" s="14"/>
@@ -17296,13 +17293,13 @@
       <c r="U25"/>
       <c r="V25"/>
     </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C26" s="168"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C26" s="142"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="Q26" s="14"/>
@@ -17312,43 +17309,43 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C27" s="168"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C27" s="142"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C28" s="168"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C31" s="167"/>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C32" s="168"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C33" s="168"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C34" s="168"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C35" s="168"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C36" s="168"/>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C28" s="142"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C31" s="141"/>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C32" s="142"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="142"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="142"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="142"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17370,34 +17367,34 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.36328125" customWidth="1"/>
-    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.81640625" customWidth="1"/>
-    <col min="18" max="18" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="11" max="11" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="25.1796875" customWidth="1"/>
-    <col min="23" max="23" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.81640625" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="25.1640625" customWidth="1"/>
+    <col min="23" max="23" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
@@ -17471,8 +17468,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="135" t="s">
+    <row r="2" spans="1:24" ht="28" x14ac:dyDescent="0.2">
+      <c r="A2" s="150" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -17545,8 +17542,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="136"/>
+    <row r="3" spans="1:24" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="151"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
       </c>
@@ -17617,8 +17614,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="136"/>
+    <row r="4" spans="1:24" ht="70" x14ac:dyDescent="0.2">
+      <c r="A4" s="151"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
       </c>
@@ -17689,8 +17686,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="137"/>
+    <row r="5" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="153"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
       </c>
@@ -17761,7 +17758,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A6" s="75" t="s">
         <v>357</v>
       </c>
@@ -17835,7 +17832,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A7" s="76"/>
       <c r="B7" s="33" t="s">
         <v>332</v>
@@ -17907,7 +17904,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="76"/>
       <c r="B8" s="33" t="s">
         <v>333</v>
@@ -17979,7 +17976,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A9" s="76"/>
       <c r="B9" s="33" t="s">
         <v>259</v>
@@ -18051,7 +18048,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="76"/>
       <c r="B10" s="33" t="s">
         <v>337</v>
@@ -18123,7 +18120,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="84" x14ac:dyDescent="0.2">
       <c r="A11" s="76"/>
       <c r="B11" s="33" t="s">
         <v>339</v>
@@ -18195,7 +18192,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="77"/>
       <c r="B12" s="35" t="s">
         <v>260</v>
@@ -18267,15 +18264,15 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="87.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="50.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C18CE4-C0D7-004A-A5F4-16F0D1B724F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F4F733-AA43-7040-972E-520DCB7BB651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="9" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="7" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -8709,19 +8709,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8740,15 +8749,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9955,9 +9955,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABEDA27-D2D0-4564-B71F-CD6FB3721653}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N15" sqref="N15"/>
+      <selection pane="topRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10964,31 +10964,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="163" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="167" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="156" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="159"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="166"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="155"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="168"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="157"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="158" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -11026,13 +11026,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="158"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="158" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -11046,7 +11046,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="158"/>
+      <c r="A10" s="160"/>
       <c r="B10" s="82" t="s">
         <v>506</v>
       </c>
@@ -11058,7 +11058,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="155" t="s">
+      <c r="A11" s="161" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="88" t="s">
@@ -11072,13 +11072,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="89"/>
       <c r="C12" s="63"/>
       <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="158" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -11117,24 +11117,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="159"/>
-      <c r="B16" s="161"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="166" t="s">
+      <c r="D16" s="155" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="159"/>
-      <c r="B17" s="161"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="155"/>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="62"/>
       <c r="C18" s="63" t="s">
         <v>522</v>
@@ -11144,7 +11144,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="155" t="s">
+      <c r="A19" s="161" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="88" t="s">
@@ -11158,13 +11158,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="156"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="89"/>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="158" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="58" t="s">
@@ -11178,25 +11178,25 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="158"/>
+      <c r="A22" s="160"/>
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16339,9 +16339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BB7B41-1A7E-470B-A91F-E7D0772651A4}">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Excel/Übersicht.xlsx
+++ b/Excel/Übersicht.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F4F733-AA43-7040-972E-520DCB7BB651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14B6013-A554-D641-ADCB-0DE6DEB93B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="7" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="14" xr2:uid="{7A4F4436-C796-4ADD-B90F-7338F9426F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" state="hidden" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1221">
   <si>
     <t>ID</t>
   </si>
@@ -7411,6 +7411,207 @@
   <si>
     <t>Integrationskomplexität
 Modellierung komplexer verteilter Umgebungen</t>
+  </si>
+  <si>
+    <t>Metriken (Zeitreihen / Prometheus)</t>
+  </si>
+  <si>
+    <t>Prometheus Metriken</t>
+  </si>
+  <si>
+    <t>CPU, RAM, Netzwerk-Auslastung via Prometheus</t>
+  </si>
+  <si>
+    <t>CPU- &amp; Memory-Metriken</t>
+  </si>
+  <si>
+    <t>Prometheus Metriken, Hardware-Parameter (DRA)</t>
+  </si>
+  <si>
+    <t>CloudWatch Metriken</t>
+  </si>
+  <si>
+    <t>Ressourcen-nutzung (GPU/TPU)</t>
+  </si>
+  <si>
+    <t>Ressourcen-verbrauch</t>
+  </si>
+  <si>
+    <t>CPU/Memory Nutzung, I/O Latenz (Prometheus)</t>
+  </si>
+  <si>
+    <t>Logs (System / Pipeline / Apps)</t>
+  </si>
+  <si>
+    <t>ELK Stack Logs</t>
+  </si>
+  <si>
+    <t>System-Logs</t>
+  </si>
+  <si>
+    <t>Build-Logs &amp; Error-Rates</t>
+  </si>
+  <si>
+    <t>K8s-Operator Logs (NLP/K8sGPT)</t>
+  </si>
+  <si>
+    <t>System-Logs, Cloud-Logs</t>
+  </si>
+  <si>
+    <t>Monitoring &amp; Logging Daten</t>
+  </si>
+  <si>
+    <t>Query-Logs</t>
+  </si>
+  <si>
+    <t>Jenkins- &amp; Pipeline-Logs (ELK)</t>
+  </si>
+  <si>
+    <t>Netzverkehr &amp; Traces (Netzwerk / Tracks)</t>
+  </si>
+  <si>
+    <t>k6 Echtzeit-Traffic-Daten</t>
+  </si>
+  <si>
+    <t>Antwortzeiten</t>
+  </si>
+  <si>
+    <t>OpenTelemetry Traces</t>
+  </si>
+  <si>
+    <t>Amazon GuardDuty (Netzverkehr)</t>
+  </si>
+  <si>
+    <t>Flow-level features, PCAP-Daten</t>
+  </si>
+  <si>
+    <t>Netzwerk-kommunikation</t>
+  </si>
+  <si>
+    <t>Code &amp; Konfiguration</t>
+  </si>
+  <si>
+    <t>Declarative APIs</t>
+  </si>
+  <si>
+    <t>Container-Images</t>
+  </si>
+  <si>
+    <t>Code-Metriken</t>
+  </si>
+  <si>
+    <t>Hardware-Konfiguration (vGPU/MIG), OCI Artifacts</t>
+  </si>
+  <si>
+    <t>Source Code (GitHub), AWS Config</t>
+  </si>
+  <si>
+    <t>Code-Metadaten (Hash, Dateitypen)</t>
+  </si>
+  <si>
+    <t>Historische Trends</t>
+  </si>
+  <si>
+    <t>Historische CI/CD Build-Daten (Jenkins X)</t>
+  </si>
+  <si>
+    <t>Historische Build-Fehler &amp; Defekt-Trends</t>
+  </si>
+  <si>
+    <t>Historische Test- &amp; Deployment-Daten</t>
+  </si>
+  <si>
+    <t>Historische Workload-Muster</t>
+  </si>
+  <si>
+    <t>Test-Ergebnisse (Pass/Fail), Test-Laufzeit</t>
+  </si>
+  <si>
+    <t>Sicherheit &amp; Schwachstellen</t>
+  </si>
+  <si>
+    <t>Trivy &amp; Clair (Imagescans)</t>
+  </si>
+  <si>
+    <t>Vulnerability Scans (Grype, Trivy)</t>
+  </si>
+  <si>
+    <t>Snyk, Falco &amp; Aqua Security Daten</t>
+  </si>
+  <si>
+    <t>Attack Vectors (Metadata)</t>
+  </si>
+  <si>
+    <t>CVE-Counts, Alerts (SonarQube, Snyk)</t>
+  </si>
+  <si>
+    <t>Datenquellen-Kategorien</t>
+  </si>
+  <si>
+    <t>Applikations-Metriken</t>
+  </si>
+  <si>
+    <t>AWS CloudWatch: CPU, RAM, Disk I/O, Netzwerk-Traffic</t>
+  </si>
+  <si>
+    <t>CPU, Memory, Disk I/O, Netzwerk-Durchsatz, Latenz</t>
+  </si>
+  <si>
+    <t>System-Performance-Metriken, CPU-Spikes</t>
+  </si>
+  <si>
+    <t>Kunden-Nutzungsmuster</t>
+  </si>
+  <si>
+    <t>Ressourcen-Auslastung, Latenz, Durchsatz</t>
+  </si>
+  <si>
+    <t>Build-Logs</t>
+  </si>
+  <si>
+    <t>Netzwerk-Paket-Flows</t>
+  </si>
+  <si>
+    <t>Netzwerkverkehr</t>
+  </si>
+  <si>
+    <t>Code-Struktur (Patterns), Infrastructure as Code (IaC)</t>
+  </si>
+  <si>
+    <t>Modularer Code</t>
+  </si>
+  <si>
+    <t>Konfigurations-Fehler</t>
+  </si>
+  <si>
+    <t>Historische Angriffsmuster</t>
+  </si>
+  <si>
+    <t>Historische Performance-Daten</t>
+  </si>
+  <si>
+    <t>Test-Ergebnisse (Pass/Fail, Fehlerraten), Test-Laufzeit</t>
+  </si>
+  <si>
+    <t>Historische Logs/Trends</t>
+  </si>
+  <si>
+    <t>Historische Build-Daten, Deployment-Ergebnisse</t>
+  </si>
+  <si>
+    <t>Historische Ausfallraten (Failure Rates)</t>
+  </si>
+  <si>
+    <t>Cluster-Verhalten (historisch)</t>
+  </si>
+  <si>
+    <t>Benutzerverhalten, Bedrohungsdaten (Threat Intelligence)</t>
+  </si>
+  <si>
+    <t>Nutzerverhalten, Login-Muster</t>
+  </si>
+  <si>
+    <t>Sicherheits-Scans</t>
   </si>
 </sst>
 </file>
@@ -7547,18 +7748,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC7C7C7"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -7623,7 +7823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -8261,11 +8461,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8627,7 +8840,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -8700,7 +8912,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8709,28 +8921,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8751,6 +8954,39 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -9591,11 +9827,11 @@
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="142" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
     </row>
     <row r="6" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -9625,11 +9861,11 @@
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G7" s="144" t="s">
+      <c r="G7" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
     </row>
     <row r="8" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -9645,9 +9881,9 @@
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
     </row>
     <row r="9" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -10009,10 +10245,10 @@
       <c r="G1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="131" t="s">
+      <c r="H1" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="130" t="s">
         <v>360</v>
       </c>
       <c r="J1" s="42" t="s">
@@ -10045,7 +10281,7 @@
       <c r="S1" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="T1" s="131" t="s">
+      <c r="T1" s="130" t="s">
         <v>957</v>
       </c>
       <c r="U1" s="43" t="s">
@@ -10059,7 +10295,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -10078,10 +10314,10 @@
         <v>322</v>
       </c>
       <c r="G2" s="26"/>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="131" t="s">
         <v>1056</v>
       </c>
-      <c r="I2" s="132" t="s">
+      <c r="I2" s="131" t="s">
         <v>372</v>
       </c>
       <c r="J2" s="26" t="s">
@@ -10102,7 +10338,7 @@
         <v>1126</v>
       </c>
       <c r="S2" s="26"/>
-      <c r="T2" s="132"/>
+      <c r="T2" s="131"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26" t="s">
         <v>706</v>
@@ -10110,7 +10346,7 @@
       <c r="W2" s="27"/>
     </row>
     <row r="3" spans="1:23" ht="98" x14ac:dyDescent="0.2">
-      <c r="A3" s="151"/>
+      <c r="A3" s="150"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
       </c>
@@ -10129,10 +10365,10 @@
       <c r="G3" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="H3" s="133" t="s">
+      <c r="H3" s="132" t="s">
         <v>425</v>
       </c>
-      <c r="I3" s="133" t="s">
+      <c r="I3" s="132" t="s">
         <v>426</v>
       </c>
       <c r="J3" s="25"/>
@@ -10155,7 +10391,7 @@
         <v>1127</v>
       </c>
       <c r="S3" s="25"/>
-      <c r="T3" s="133" t="s">
+      <c r="T3" s="132" t="s">
         <v>1128</v>
       </c>
       <c r="U3" s="25"/>
@@ -10167,7 +10403,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="70" x14ac:dyDescent="0.2">
-      <c r="A4" s="151"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
       </c>
@@ -10182,10 +10418,10 @@
         <v>308</v>
       </c>
       <c r="G4" s="25"/>
-      <c r="H4" s="133" t="s">
+      <c r="H4" s="132" t="s">
         <v>1060</v>
       </c>
-      <c r="I4" s="133"/>
+      <c r="I4" s="132"/>
       <c r="J4" s="25" t="s">
         <v>464</v>
       </c>
@@ -10208,7 +10444,7 @@
         <v>1124</v>
       </c>
       <c r="S4" s="25"/>
-      <c r="T4" s="133" t="s">
+      <c r="T4" s="132" t="s">
         <v>1125</v>
       </c>
       <c r="U4" s="25"/>
@@ -10218,7 +10454,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
+      <c r="A5" s="150"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
       </c>
@@ -10231,10 +10467,10 @@
       <c r="G5" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="H5" s="134" t="s">
+      <c r="H5" s="133" t="s">
         <v>384</v>
       </c>
-      <c r="I5" s="134"/>
+      <c r="I5" s="133"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29" t="s">
         <v>385</v>
@@ -10249,7 +10485,7 @@
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
-      <c r="T5" s="134" t="s">
+      <c r="T5" s="133" t="s">
         <v>668</v>
       </c>
       <c r="U5" s="29"/>
@@ -10257,7 +10493,7 @@
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="56" x14ac:dyDescent="0.2">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="149" t="s">
         <v>687</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -10278,10 +10514,10 @@
       <c r="G6" s="79" t="s">
         <v>695</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="131" t="s">
         <v>1002</v>
       </c>
-      <c r="I6" s="132"/>
+      <c r="I6" s="131"/>
       <c r="J6" s="79" t="s">
         <v>1003</v>
       </c>
@@ -10310,7 +10546,7 @@
       <c r="S6" s="79" t="s">
         <v>960</v>
       </c>
-      <c r="T6" s="132" t="s">
+      <c r="T6" s="131" t="s">
         <v>710</v>
       </c>
       <c r="U6" s="124" t="s">
@@ -10324,7 +10560,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="56" x14ac:dyDescent="0.2">
-      <c r="A7" s="151"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="33" t="s">
         <v>642</v>
       </c>
@@ -10337,10 +10573,10 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="133" t="s">
+      <c r="H7" s="132" t="s">
         <v>699</v>
       </c>
-      <c r="I7" s="133"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="80" t="s">
         <v>1006</v>
       </c>
@@ -10363,7 +10599,7 @@
       <c r="S7" s="80" t="s">
         <v>711</v>
       </c>
-      <c r="T7" s="133"/>
+      <c r="T7" s="132"/>
       <c r="U7" s="25"/>
       <c r="V7" s="80" t="s">
         <v>1007</v>
@@ -10373,7 +10609,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154"/>
+      <c r="A8" s="153"/>
       <c r="B8" s="35" t="s">
         <v>592</v>
       </c>
@@ -10388,8 +10624,8 @@
         <v>1065</v>
       </c>
       <c r="G8" s="29"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29" t="s">
@@ -10414,7 +10650,7 @@
       <c r="S8" s="29" t="s">
         <v>961</v>
       </c>
-      <c r="T8" s="134"/>
+      <c r="T8" s="133"/>
       <c r="U8" s="29" t="s">
         <v>1035</v>
       </c>
@@ -10422,7 +10658,7 @@
       <c r="W8" s="30"/>
     </row>
     <row r="9" spans="1:23" ht="42" x14ac:dyDescent="0.2">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="150" t="s">
         <v>688</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -10443,10 +10679,10 @@
       <c r="G9" s="26" t="s">
         <v>970</v>
       </c>
-      <c r="H9" s="132" t="s">
+      <c r="H9" s="131" t="s">
         <v>971</v>
       </c>
-      <c r="I9" s="132" t="s">
+      <c r="I9" s="131" t="s">
         <v>981</v>
       </c>
       <c r="J9" s="26" t="s">
@@ -10477,7 +10713,7 @@
       <c r="S9" s="26" t="s">
         <v>989</v>
       </c>
-      <c r="T9" s="132"/>
+      <c r="T9" s="131"/>
       <c r="U9" s="26" t="s">
         <v>1046</v>
       </c>
@@ -10487,7 +10723,7 @@
       <c r="W9" s="27"/>
     </row>
     <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="151"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="113" t="s">
         <v>962</v>
       </c>
@@ -10500,8 +10736,8 @@
       </c>
       <c r="F10" s="115"/>
       <c r="G10" s="115"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
       <c r="J10" s="115" t="s">
         <v>973</v>
       </c>
@@ -10520,7 +10756,7 @@
       <c r="Q10" s="115"/>
       <c r="R10" s="116"/>
       <c r="S10" s="115"/>
-      <c r="T10" s="136"/>
+      <c r="T10" s="135"/>
       <c r="U10" s="115"/>
       <c r="V10" s="115" t="s">
         <v>966</v>
@@ -10528,7 +10764,7 @@
       <c r="W10" s="117"/>
     </row>
     <row r="11" spans="1:23" ht="42" x14ac:dyDescent="0.2">
-      <c r="A11" s="151"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="33" t="s">
         <v>963</v>
       </c>
@@ -10541,10 +10777,10 @@
         <v>979</v>
       </c>
       <c r="G11" s="25"/>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>690</v>
       </c>
-      <c r="I11" s="133" t="s">
+      <c r="I11" s="132" t="s">
         <v>982</v>
       </c>
       <c r="J11" s="25" t="s">
@@ -10565,7 +10801,7 @@
       <c r="S11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="T11" s="133"/>
+      <c r="T11" s="132"/>
       <c r="U11" s="25" t="s">
         <v>1047</v>
       </c>
@@ -10577,7 +10813,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="154"/>
+      <c r="A12" s="153"/>
       <c r="B12" s="35" t="s">
         <v>964</v>
       </c>
@@ -10588,10 +10824,10 @@
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="134" t="s">
+      <c r="H12" s="133" t="s">
         <v>980</v>
       </c>
-      <c r="I12" s="134"/>
+      <c r="I12" s="133"/>
       <c r="J12" s="29" t="s">
         <v>975</v>
       </c>
@@ -10608,7 +10844,7 @@
       <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
-      <c r="T12" s="134"/>
+      <c r="T12" s="133"/>
       <c r="U12" s="29"/>
       <c r="V12" s="29" t="s">
         <v>992</v>
@@ -10964,31 +11200,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="156" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="159" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="156" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="166" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="159"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="155"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="165"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="157"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="167"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="156" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -11002,7 +11238,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="159"/>
+      <c r="A6" s="158"/>
       <c r="B6" s="53" t="s">
         <v>499</v>
       </c>
@@ -11014,7 +11250,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="159"/>
+      <c r="A7" s="158"/>
       <c r="B7" s="53" t="s">
         <v>501</v>
       </c>
@@ -11026,13 +11262,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
+      <c r="A8" s="157"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="156" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -11046,7 +11282,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
+      <c r="A10" s="157"/>
       <c r="B10" s="82" t="s">
         <v>506</v>
       </c>
@@ -11058,7 +11294,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="154" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="88" t="s">
@@ -11072,13 +11308,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="162"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="89"/>
       <c r="C12" s="63"/>
       <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="156" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -11092,7 +11328,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="159"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="53" t="s">
         <v>514</v>
       </c>
@@ -11104,7 +11340,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="159"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="53" t="s">
         <v>474</v>
       </c>
@@ -11116,25 +11352,25 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="159"/>
-      <c r="B16" s="164"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="155" t="s">
+      <c r="D16" s="165" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="159"/>
-      <c r="B17" s="164"/>
+      <c r="A17" s="158"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="165"/>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
+      <c r="A18" s="157"/>
       <c r="B18" s="62"/>
       <c r="C18" s="63" t="s">
         <v>522</v>
@@ -11144,7 +11380,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="161" t="s">
+      <c r="A19" s="154" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="88" t="s">
@@ -11158,13 +11394,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
+      <c r="A20" s="155"/>
       <c r="B20" s="89"/>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="156" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="58" t="s">
@@ -11178,25 +11414,25 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
+      <c r="A22" s="157"/>
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11321,7 +11557,7 @@
       <c r="AH1" s="93"/>
     </row>
     <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>321</v>
       </c>
       <c r="B2" s="95" t="s">
@@ -11383,7 +11619,7 @@
       <c r="AH2" s="6"/>
     </row>
     <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A3" s="151"/>
+      <c r="A3" s="150"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
       </c>
@@ -11457,7 +11693,7 @@
       <c r="AH3" s="6"/>
     </row>
     <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A4" s="151"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
       </c>
@@ -11525,7 +11761,7 @@
       <c r="AH4" s="6"/>
     </row>
     <row r="5" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A5" s="151"/>
+      <c r="A5" s="150"/>
       <c r="B5" s="96" t="s">
         <v>1015</v>
       </c>
@@ -11599,7 +11835,7 @@
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154"/>
+      <c r="A6" s="153"/>
       <c r="B6" s="97" t="s">
         <v>1016</v>
       </c>
@@ -11667,7 +11903,7 @@
       <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="149" t="s">
         <v>320</v>
       </c>
       <c r="B7" s="95" t="s">
@@ -11745,7 +11981,7 @@
       <c r="AH7" s="6"/>
     </row>
     <row r="8" spans="1:34" ht="84" x14ac:dyDescent="0.2">
-      <c r="A8" s="151"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="96" t="s">
         <v>997</v>
       </c>
@@ -11819,7 +12055,7 @@
       <c r="AH8" s="6"/>
     </row>
     <row r="9" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A9" s="151"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="96" t="s">
         <v>1017</v>
       </c>
@@ -11889,7 +12125,7 @@
       <c r="AH9" s="6"/>
     </row>
     <row r="10" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A10" s="151"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="96" t="s">
         <v>1018</v>
       </c>
@@ -11959,7 +12195,7 @@
       <c r="AH10" s="6"/>
     </row>
     <row r="11" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="98" t="s">
         <v>1019</v>
       </c>
@@ -12016,7 +12252,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="28" x14ac:dyDescent="0.2">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="149" t="s">
         <v>255</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -12065,7 +12301,7 @@
       <c r="W12" s="27"/>
     </row>
     <row r="13" spans="1:34" ht="42" x14ac:dyDescent="0.2">
-      <c r="A13" s="151"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="33" t="s">
         <v>323</v>
       </c>
@@ -12122,7 +12358,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A14" s="151"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="33" t="s">
         <v>257</v>
       </c>
@@ -12175,7 +12411,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="154"/>
+      <c r="A15" s="153"/>
       <c r="B15" s="35" t="s">
         <v>326</v>
       </c>
@@ -12214,7 +12450,7 @@
       <c r="W15" s="30"/>
     </row>
     <row r="16" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="149" t="s">
         <v>687</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -12281,7 +12517,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" ht="56" x14ac:dyDescent="0.2">
-      <c r="A17" s="151"/>
+      <c r="A17" s="150"/>
       <c r="B17" s="33" t="s">
         <v>642</v>
       </c>
@@ -12330,7 +12566,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="153"/>
       <c r="B18" s="35" t="s">
         <v>592</v>
       </c>
@@ -12379,7 +12615,7 @@
       <c r="W18" s="30"/>
     </row>
     <row r="19" spans="1:33" ht="42" x14ac:dyDescent="0.2">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="149" t="s">
         <v>688</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -12444,7 +12680,7 @@
       <c r="W19" s="27"/>
     </row>
     <row r="20" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="151"/>
+      <c r="A20" s="150"/>
       <c r="B20" s="113" t="s">
         <v>962</v>
       </c>
@@ -12485,7 +12721,7 @@
       <c r="W20" s="117"/>
     </row>
     <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.2">
-      <c r="A21" s="151"/>
+      <c r="A21" s="150"/>
       <c r="B21" s="33" t="s">
         <v>963</v>
       </c>
@@ -12534,7 +12770,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="35" t="s">
         <v>964</v>
       </c>
@@ -12779,634 +13015,580 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE6C088-7B1A-724F-96D6-11C56C9BF066}">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="23" width="22" customWidth="1"/>
+    <col min="1" max="22" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="127" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="127" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="127" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="127" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="127" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="127" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="127" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="84" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>995</v>
-      </c>
-      <c r="C2" s="99" t="s">
-        <v>731</v>
-      </c>
+    <row r="1" spans="1:31" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>950</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>951</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>953</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>954</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>956</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>1034</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>958</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="98" x14ac:dyDescent="0.2">
+      <c r="A2" s="149" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="169" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C2" s="99"/>
       <c r="D2" s="26" t="s">
-        <v>736</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>737</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>738</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
-        <v>739</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>740</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>772</v>
+        <v>318</v>
+      </c>
+      <c r="E2" s="129" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="129" t="s">
+        <v>758</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="129" t="s">
+        <v>790</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>805</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>806</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="Q2" s="26"/>
       <c r="R2" s="26" t="s">
-        <v>807</v>
+        <v>1036</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>833</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>834</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>1041</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>835</v>
-      </c>
-      <c r="W2" s="27" t="s">
-        <v>836</v>
-      </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
+        <v>818</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>819</v>
+      </c>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-    </row>
-    <row r="3" spans="1:34" ht="126" x14ac:dyDescent="0.2">
-      <c r="A3" s="151"/>
-      <c r="B3" s="96" t="s">
-        <v>997</v>
-      </c>
-      <c r="C3" s="100" t="s">
-        <v>732</v>
+    </row>
+    <row r="3" spans="1:31" ht="98" x14ac:dyDescent="0.2">
+      <c r="A3" s="150"/>
+      <c r="B3" s="170" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>724</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>741</v>
+        <v>319</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>742</v>
+        <v>290</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
-        <v>744</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>745</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>773</v>
+      <c r="H3" s="25"/>
+      <c r="I3" s="128" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J3" s="128" t="s">
+        <v>760</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>774</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>775</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>776</v>
+        <v>761</v>
+      </c>
+      <c r="L3" s="25"/>
+      <c r="M3" s="128" t="s">
+        <v>793</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>808</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25" t="s">
-        <v>810</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>1042</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>839</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>840</v>
-      </c>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
+        <v>795</v>
+      </c>
+      <c r="P3" s="128" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="R3" s="128" t="s">
+        <v>1037</v>
+      </c>
+      <c r="S3" s="128" t="s">
+        <v>821</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>822</v>
+      </c>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-    </row>
-    <row r="4" spans="1:34" ht="98" x14ac:dyDescent="0.2">
-      <c r="A4" s="151"/>
-      <c r="B4" s="96" t="s">
-        <v>1017</v>
+    </row>
+    <row r="4" spans="1:31" ht="98" x14ac:dyDescent="0.2">
+      <c r="A4" s="150"/>
+      <c r="B4" s="170" t="s">
+        <v>264</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>733</v>
+        <v>1020</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>747</v>
+        <v>1135</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>748</v>
+        <v>315</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>749</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>750</v>
+        <v>728</v>
+      </c>
+      <c r="H4" s="128" t="s">
+        <v>757</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="25" t="s">
-        <v>778</v>
-      </c>
+      <c r="J4" s="25"/>
       <c r="K4" s="25" t="s">
-        <v>779</v>
-      </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25" t="s">
-        <v>780</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="L4" s="128" t="s">
+        <v>763</v>
+      </c>
+      <c r="M4" s="25"/>
       <c r="N4" s="25" t="s">
-        <v>781</v>
-      </c>
-      <c r="O4" s="25"/>
+        <v>704</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>797</v>
+      </c>
       <c r="P4" s="25" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>994</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>993</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>841</v>
-      </c>
-      <c r="U4" s="25" t="s">
-        <v>1043</v>
-      </c>
-      <c r="V4" s="25"/>
-      <c r="W4" s="28" t="s">
-        <v>842</v>
-      </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
+        <v>1038</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="134" t="s">
+        <v>824</v>
+      </c>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-    </row>
-    <row r="5" spans="1:34" ht="84" x14ac:dyDescent="0.2">
-      <c r="A5" s="151"/>
-      <c r="B5" s="96" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C5" s="100" t="s">
-        <v>734</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>751</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
-        <v>752</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>1025</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25" t="s">
-        <v>782</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>783</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>784</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>785</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>813</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>814</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>815</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>996</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>843</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>1044</v>
-      </c>
-      <c r="V5" s="25" t="s">
-        <v>845</v>
-      </c>
-      <c r="W5" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
+    </row>
+    <row r="5" spans="1:31" ht="99" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="153"/>
+      <c r="B5" s="171" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C5" s="172" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D5" s="173" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E5" s="110" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F5" s="173" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G5" s="173" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J5" s="110" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110" t="s">
+        <v>1144</v>
+      </c>
+      <c r="M5" s="110" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N5" s="110" t="s">
+        <v>1146</v>
+      </c>
+      <c r="O5" s="173" t="s">
+        <v>801</v>
+      </c>
+      <c r="P5" s="110" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q5" s="173" t="s">
+        <v>1147</v>
+      </c>
+      <c r="R5" s="110" t="s">
+        <v>1148</v>
+      </c>
+      <c r="S5" s="110" t="s">
+        <v>1149</v>
+      </c>
+      <c r="T5" s="174" t="s">
+        <v>1150</v>
+      </c>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-    </row>
-    <row r="6" spans="1:34" ht="99" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154"/>
-      <c r="B6" s="98" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>735</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>753</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>754</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>755</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>756</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29" t="s">
-        <v>786</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>787</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29" t="s">
-        <v>816</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>817</v>
-      </c>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29" t="s">
-        <v>847</v>
-      </c>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29" t="s">
-        <v>848</v>
-      </c>
-      <c r="W6" s="30" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="28" x14ac:dyDescent="0.2">
-      <c r="A7" s="150" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26" t="s">
-        <v>1126</v>
-      </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26" t="s">
-        <v>706</v>
-      </c>
-      <c r="W7" s="27"/>
-    </row>
-    <row r="8" spans="1:34" ht="98" x14ac:dyDescent="0.2">
-      <c r="A8" s="151"/>
-      <c r="B8" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>719</v>
-      </c>
+    </row>
+    <row r="6" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="146" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>1200</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>1201</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>1202</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="26" t="s">
+        <v>1204</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="T6" s="176"/>
+    </row>
+    <row r="7" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="147"/>
+      <c r="B7" s="96" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25" t="s">
+        <v>1205</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="177"/>
+    </row>
+    <row r="8" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="147"/>
+      <c r="B8" s="96" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C8" s="100"/>
       <c r="D8" s="25" t="s">
-        <v>720</v>
+        <v>1173</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>294</v>
+        <v>1174</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>345</v>
+        <v>1175</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>375</v>
+        <v>1176</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25" t="s">
-        <v>427</v>
-      </c>
+        <v>1177</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K8" s="25"/>
       <c r="L8" s="25" t="s">
-        <v>376</v>
+        <v>1206</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="O8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25" t="s">
+        <v>1207</v>
+      </c>
       <c r="P8" s="25"/>
-      <c r="Q8" s="25" t="s">
-        <v>1123</v>
-      </c>
-      <c r="R8" s="25" t="s">
-        <v>1127</v>
-      </c>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="25"/>
-      <c r="T8" s="25" t="s">
-        <v>1128</v>
-      </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="W8" s="28" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="98" x14ac:dyDescent="0.2">
-      <c r="A9" s="151"/>
-      <c r="B9" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>306</v>
+      <c r="T8" s="177"/>
+    </row>
+    <row r="9" spans="1:31" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="147"/>
+      <c r="B9" s="96" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>1180</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="E9" s="25"/>
+        <v>1181</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>1182</v>
+      </c>
       <c r="F9" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25" t="s">
-        <v>1060</v>
-      </c>
+        <v>1183</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="25" t="s">
-        <v>464</v>
-      </c>
+      <c r="J9" s="25"/>
       <c r="K9" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="L9" s="120" t="s">
-        <v>379</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>296</v>
-      </c>
+        <v>1185</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Q9" s="74"/>
       <c r="R9" s="25" t="s">
-        <v>1124</v>
-      </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25" t="s">
-        <v>1125</v>
-      </c>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="28" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="154"/>
-      <c r="B10" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29" t="s">
-        <v>668</v>
-      </c>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="30"/>
+        <v>1209</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>1210</v>
+      </c>
+      <c r="T9" s="177"/>
+    </row>
+    <row r="10" spans="1:31" ht="42" x14ac:dyDescent="0.2">
+      <c r="A10" s="147"/>
+      <c r="B10" s="96" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>1213</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>1214</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="25" t="s">
+        <v>1216</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>1217</v>
+      </c>
+      <c r="T10" s="177"/>
+    </row>
+    <row r="11" spans="1:31" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="148"/>
+      <c r="B11" s="98" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="29" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29" t="s">
+        <v>1219</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>1220</v>
+      </c>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="179"/>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="168"/>
+    </row>
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14020,31 +14202,31 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="138" t="str">
+      <c r="D7" s="137" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="138" t="str">
+      <c r="D8" s="137" t="str">
         <f>"Rückwärts aus " &amp; A2</f>
         <v>Rückwärts aus P1</v>
       </c>
@@ -14198,16 +14380,16 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="136" t="s">
         <v>648</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="136" t="s">
         <v>649</v>
       </c>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="137" t="s">
         <v>647</v>
       </c>
     </row>
@@ -15045,13 +15227,13 @@
       <c r="D1" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -15773,10 +15955,10 @@
       <c r="F1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="H1" s="131" t="s">
+      <c r="H1" s="130" t="s">
         <v>360</v>
       </c>
       <c r="I1" s="42" t="s">
@@ -15809,7 +15991,7 @@
       <c r="R1" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="S1" s="131" t="s">
+      <c r="S1" s="130" t="s">
         <v>957</v>
       </c>
       <c r="T1" s="43" t="s">
@@ -15841,10 +16023,10 @@
       <c r="F2" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="G2" s="132" t="s">
         <v>536</v>
       </c>
-      <c r="H2" s="133" t="s">
+      <c r="H2" s="132" t="s">
         <v>998</v>
       </c>
       <c r="I2" s="25" t="s">
@@ -15877,7 +16059,7 @@
       <c r="R2" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="S2" s="133" t="s">
+      <c r="S2" s="132" t="s">
         <v>656</v>
       </c>
       <c r="T2" s="25" t="s">
@@ -15909,10 +16091,10 @@
       <c r="F3" s="25" t="s">
         <v>855</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="132" t="s">
         <v>856</v>
       </c>
-      <c r="H3" s="133" t="s">
+      <c r="H3" s="132" t="s">
         <v>857</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -15945,7 +16127,7 @@
       <c r="R3" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="S3" s="133" t="s">
+      <c r="S3" s="132" t="s">
         <v>874</v>
       </c>
       <c r="T3" s="25" t="s">
@@ -15977,10 +16159,10 @@
       <c r="F4" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="G4" s="133" t="s">
+      <c r="G4" s="132" t="s">
         <v>862</v>
       </c>
-      <c r="H4" s="133" t="s">
+      <c r="H4" s="132" t="s">
         <v>863</v>
       </c>
       <c r="I4" s="25" t="s">
@@ -16013,7 +16195,7 @@
       <c r="R4" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="S4" s="133" t="s">
+      <c r="S4" s="132" t="s">
         <v>653</v>
       </c>
       <c r="T4" s="25" t="s">
@@ -16045,10 +16227,10 @@
       <c r="F5" s="119" t="s">
         <v>1014</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="139" t="s">
         <v>1063</v>
       </c>
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="139" t="s">
         <v>1014</v>
       </c>
       <c r="I5" s="118" t="s">
@@ -16081,7 +16263,7 @@
       <c r="R5" s="118" t="s">
         <v>1016</v>
       </c>
-      <c r="S5" s="139" t="s">
+      <c r="S5" s="138" t="s">
         <v>1016</v>
       </c>
       <c r="T5" s="118" t="s">
@@ -16113,10 +16295,10 @@
       <c r="F6" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="G6" s="133" t="s">
+      <c r="G6" s="132" t="s">
         <v>537</v>
       </c>
-      <c r="H6" s="133" t="s">
+      <c r="H6" s="132" t="s">
         <v>538</v>
       </c>
       <c r="I6" s="25" t="s">
@@ -16149,7 +16331,7 @@
       <c r="R6" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="S6" s="133" t="s">
+      <c r="S6" s="132" t="s">
         <v>654</v>
       </c>
       <c r="T6" s="25" t="s">
@@ -16181,10 +16363,10 @@
       <c r="F7" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="132" t="s">
         <v>539</v>
       </c>
-      <c r="H7" s="133" t="s">
+      <c r="H7" s="132" t="s">
         <v>540</v>
       </c>
       <c r="I7" s="25" t="s">
@@ -16217,7 +16399,7 @@
       <c r="R7" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="S7" s="133" t="s">
+      <c r="S7" s="132" t="s">
         <v>652</v>
       </c>
       <c r="T7" s="25" t="s">
@@ -16249,10 +16431,10 @@
       <c r="F8" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="G8" s="133" t="s">
+      <c r="G8" s="132" t="s">
         <v>531</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="132" t="s">
         <v>532</v>
       </c>
       <c r="I8" s="25" t="s">
@@ -16285,7 +16467,7 @@
       <c r="R8" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="S8" s="133" t="s">
+      <c r="S8" s="132" t="s">
         <v>655</v>
       </c>
       <c r="T8" s="25" t="s">
@@ -16299,18 +16481,18 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
       <c r="G15" s="67"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -16339,9 +16521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BB7B41-1A7E-470B-A91F-E7D0772651A4}">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <selection pane="topRight" sqref="A1:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16393,10 +16575,10 @@
       <c r="G1" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="131" t="s">
+      <c r="H1" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="130" t="s">
         <v>360</v>
       </c>
       <c r="J1" s="42" t="s">
@@ -16429,7 +16611,7 @@
       <c r="S1" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="T1" s="131" t="s">
+      <c r="T1" s="130" t="s">
         <v>957</v>
       </c>
       <c r="U1" s="43" t="s">
@@ -16454,7 +16636,7 @@
       <c r="AH1" s="93"/>
     </row>
     <row r="2" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>321</v>
       </c>
       <c r="B2" s="95" t="s">
@@ -16464,26 +16646,26 @@
       <c r="D2" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="130" t="s">
+      <c r="E2" s="129" t="s">
         <v>314</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26" t="s">
         <v>1138</v>
       </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131" t="s">
         <v>1140</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
-      <c r="M2" s="130" t="s">
+      <c r="M2" s="129" t="s">
         <v>758</v>
       </c>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="130" t="s">
+      <c r="P2" s="129" t="s">
         <v>790</v>
       </c>
       <c r="Q2" s="26" t="s">
@@ -16493,7 +16675,7 @@
         <v>792</v>
       </c>
       <c r="S2" s="26"/>
-      <c r="T2" s="132"/>
+      <c r="T2" s="131"/>
       <c r="U2" s="26" t="s">
         <v>1036</v>
       </c>
@@ -16516,11 +16698,11 @@
       <c r="AH2" s="6"/>
     </row>
     <row r="3" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A3" s="151"/>
+      <c r="A3" s="150"/>
       <c r="B3" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>724</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -16533,24 +16715,24 @@
         <v>722</v>
       </c>
       <c r="G3" s="25"/>
-      <c r="H3" s="133" t="s">
+      <c r="H3" s="132" t="s">
         <v>1061</v>
       </c>
-      <c r="I3" s="133" t="s">
+      <c r="I3" s="132" t="s">
         <v>370</v>
       </c>
       <c r="J3" s="25"/>
-      <c r="K3" s="129" t="s">
+      <c r="K3" s="128" t="s">
         <v>1142</v>
       </c>
-      <c r="L3" s="129" t="s">
+      <c r="L3" s="128" t="s">
         <v>760</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>761</v>
       </c>
       <c r="N3" s="25"/>
-      <c r="O3" s="129" t="s">
+      <c r="O3" s="128" t="s">
         <v>793</v>
       </c>
       <c r="P3" s="25" t="s">
@@ -16559,19 +16741,19 @@
       <c r="Q3" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="R3" s="129" t="s">
+      <c r="R3" s="128" t="s">
         <v>796</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>820</v>
       </c>
-      <c r="T3" s="133" t="s">
+      <c r="T3" s="132" t="s">
         <v>1151</v>
       </c>
-      <c r="U3" s="129" t="s">
+      <c r="U3" s="128" t="s">
         <v>1037</v>
       </c>
-      <c r="V3" s="129" t="s">
+      <c r="V3" s="128" t="s">
         <v>821</v>
       </c>
       <c r="W3" s="28" t="s">
@@ -16590,7 +16772,7 @@
       <c r="AH3" s="6"/>
     </row>
     <row r="4" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A4" s="151"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="96" t="s">
         <v>264</v>
       </c>
@@ -16609,11 +16791,11 @@
       <c r="G4" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133" t="s">
+      <c r="H4" s="132"/>
+      <c r="I4" s="132" t="s">
         <v>1024</v>
       </c>
-      <c r="J4" s="129" t="s">
+      <c r="J4" s="128" t="s">
         <v>757</v>
       </c>
       <c r="K4" s="25"/>
@@ -16621,7 +16803,7 @@
       <c r="M4" s="25" t="s">
         <v>762</v>
       </c>
-      <c r="N4" s="129" t="s">
+      <c r="N4" s="128" t="s">
         <v>763</v>
       </c>
       <c r="O4" s="25"/>
@@ -16637,12 +16819,12 @@
       <c r="S4" s="25" t="s">
         <v>823</v>
       </c>
-      <c r="T4" s="133"/>
+      <c r="T4" s="132"/>
       <c r="U4" s="25" t="s">
         <v>1038</v>
       </c>
       <c r="V4" s="25"/>
-      <c r="W4" s="135" t="s">
+      <c r="W4" s="134" t="s">
         <v>824</v>
       </c>
       <c r="X4" s="13"/>
@@ -16657,30 +16839,30 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
+    <row r="5" spans="1:34" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="150"/>
       <c r="B5" s="96" t="s">
         <v>1131</v>
       </c>
       <c r="C5" s="100" t="s">
         <v>1133</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="128" t="s">
         <v>1134</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>1136</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="128" t="s">
         <v>1137</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="128" t="s">
         <v>1139</v>
       </c>
-      <c r="H5" s="133" t="s">
+      <c r="H5" s="132" t="s">
         <v>1062</v>
       </c>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="132" t="s">
         <v>1141</v>
       </c>
       <c r="J5" s="25"/>
@@ -16700,16 +16882,16 @@
       <c r="P5" s="25" t="s">
         <v>1146</v>
       </c>
-      <c r="Q5" s="129" t="s">
+      <c r="Q5" s="128" t="s">
         <v>801</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>802</v>
       </c>
-      <c r="S5" s="129" t="s">
+      <c r="S5" s="128" t="s">
         <v>1147</v>
       </c>
-      <c r="T5" s="133" t="s">
+      <c r="T5" s="132" t="s">
         <v>826</v>
       </c>
       <c r="U5" s="25" t="s">
@@ -16734,7 +16916,7 @@
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="146" t="s">
         <v>320</v>
       </c>
       <c r="B6" s="95" t="s">
@@ -16753,10 +16935,10 @@
         <v>738</v>
       </c>
       <c r="G6" s="26"/>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="131" t="s">
         <v>739</v>
       </c>
-      <c r="I6" s="132" t="s">
+      <c r="I6" s="131" t="s">
         <v>740</v>
       </c>
       <c r="J6" s="26" t="s">
@@ -16789,7 +16971,7 @@
       <c r="S6" s="26" t="s">
         <v>833</v>
       </c>
-      <c r="T6" s="132" t="s">
+      <c r="T6" s="131" t="s">
         <v>834</v>
       </c>
       <c r="U6" s="26" t="s">
@@ -16812,7 +16994,7 @@
       <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="1:34" ht="84" x14ac:dyDescent="0.2">
-      <c r="A7" s="148"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="96" t="s">
         <v>997</v>
       </c>
@@ -16829,10 +17011,10 @@
         <v>743</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="133" t="s">
+      <c r="H7" s="132" t="s">
         <v>744</v>
       </c>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="132" t="s">
         <v>745</v>
       </c>
       <c r="J7" s="25" t="s">
@@ -16863,7 +17045,7 @@
       <c r="S7" s="25" t="s">
         <v>837</v>
       </c>
-      <c r="T7" s="133" t="s">
+      <c r="T7" s="132" t="s">
         <v>838</v>
       </c>
       <c r="U7" s="25"/>
@@ -16884,7 +17066,7 @@
       <c r="AH7" s="6"/>
     </row>
     <row r="8" spans="1:34" ht="70" x14ac:dyDescent="0.2">
-      <c r="A8" s="148"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="96" t="s">
         <v>1017</v>
       </c>
@@ -16903,10 +17085,10 @@
       <c r="G8" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="132" t="s">
         <v>750</v>
       </c>
-      <c r="I8" s="133"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="25" t="s">
         <v>778</v>
       </c>
@@ -16933,7 +17115,7 @@
       <c r="S8" s="25" t="s">
         <v>993</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="132" t="s">
         <v>841</v>
       </c>
       <c r="U8" s="25" t="s">
@@ -16954,7 +17136,7 @@
       <c r="AH8" s="6"/>
     </row>
     <row r="9" spans="1:34" ht="56" x14ac:dyDescent="0.2">
-      <c r="A9" s="148"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="96" t="s">
         <v>1018</v>
       </c>
@@ -16967,10 +17149,10 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="133" t="s">
+      <c r="H9" s="132" t="s">
         <v>752</v>
       </c>
-      <c r="I9" s="133" t="s">
+      <c r="I9" s="132" t="s">
         <v>1025</v>
       </c>
       <c r="J9" s="25"/>
@@ -17001,7 +17183,7 @@
       <c r="S9" s="25" t="s">
         <v>843</v>
       </c>
-      <c r="T9" s="133" t="s">
+      <c r="T9" s="132" t="s">
         <v>844</v>
       </c>
       <c r="U9" s="25" t="s">
@@ -17024,7 +17206,7 @@
       <c r="AH9" s="6"/>
     </row>
     <row r="10" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="149"/>
+      <c r="A10" s="148"/>
       <c r="B10" s="98" t="s">
         <v>1019</v>
       </c>
@@ -17043,10 +17225,10 @@
       <c r="G10" s="29" t="s">
         <v>1013</v>
       </c>
-      <c r="H10" s="134" t="s">
+      <c r="H10" s="133" t="s">
         <v>756</v>
       </c>
-      <c r="I10" s="134"/>
+      <c r="I10" s="133"/>
       <c r="J10" s="29" t="s">
         <v>786</v>
       </c>
@@ -17067,7 +17249,7 @@
       </c>
       <c r="R10" s="29"/>
       <c r="S10" s="29"/>
-      <c r="T10" s="134" t="s">
+      <c r="T10" s="133" t="s">
         <v>847</v>
       </c>
       <c r="U10" s="29"/>
@@ -17079,10 +17261,10 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="152" t="s">
+      <c r="A13" s="151" t="s">
         <v>1132</v>
       </c>
-      <c r="B13" s="152"/>
+      <c r="B13" s="151"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="J14" s="6"/>
@@ -17110,17 +17292,17 @@
       <c r="V16"/>
     </row>
     <row r="17" spans="3:22" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17"/>
@@ -17131,17 +17313,17 @@
       <c r="V17"/>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C18" s="142"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18"/>
@@ -17152,17 +17334,17 @@
       <c r="V18"/>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C19" s="142"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19"/>
@@ -17173,17 +17355,17 @@
       <c r="V19"/>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C20" s="142"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20"/>
@@ -17194,17 +17376,17 @@
       <c r="V20"/>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C21" s="142"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21"/>
@@ -17215,19 +17397,19 @@
       <c r="V21"/>
     </row>
     <row r="22" spans="3:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="141" t="s">
         <v>1152</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="140"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22"/>
@@ -17238,12 +17420,12 @@
       <c r="V22"/>
     </row>
     <row r="23" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -17258,12 +17440,12 @@
       <c r="V23"/>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C24" s="142"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -17278,12 +17460,12 @@
       <c r="V24"/>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C25" s="142"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="Q25" s="14"/>
@@ -17294,12 +17476,12 @@
       <c r="V25"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C26" s="142"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="Q26" s="14"/>
@@ -17310,42 +17492,42 @@
       <c r="V26"/>
     </row>
     <row r="27" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C27" s="142"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C28" s="142"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
     </row>
     <row r="31" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C31" s="141"/>
+      <c r="C31" s="140"/>
     </row>
     <row r="32" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C32" s="142"/>
+      <c r="C32" s="141"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="142"/>
+      <c r="C33" s="141"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="142"/>
+      <c r="C34" s="141"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="142"/>
+      <c r="C35" s="141"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="142"/>
+      <c r="C36" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17469,7 +17651,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -17543,7 +17725,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="151"/>
+      <c r="A3" s="150"/>
       <c r="B3" s="33" t="s">
         <v>323</v>
       </c>
@@ -17615,7 +17797,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="70" x14ac:dyDescent="0.2">
-      <c r="A4" s="151"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="33" t="s">
         <v>257</v>
       </c>
@@ -17687,7 +17869,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="35" t="s">
         <v>326</v>
       </c>
